--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
@@ -3389,7 +3389,7 @@
   <dimension ref="A1:AM456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
@@ -246,11 +246,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -302,13 +302,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -317,14 +310,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -340,7 +325,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,30 +347,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -387,8 +356,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,7 +387,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,7 +402,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,7 +416,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,13 +507,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,7 +531,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +561,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,43 +579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,61 +591,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,13 +615,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,6 +748,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -768,36 +783,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,167 +812,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -999,28 +999,28 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1032,7 +1032,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1101,7 +1101,7 @@
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1110,25 +1110,31 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3401,14 +3407,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AM456"/>
+  <dimension ref="A1:AN456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL8" sqref="AL8"/>
+      <selection pane="bottomRight" activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3446,11 +3452,12 @@
     <col min="35" max="35" width="15.1785714285714" customWidth="1"/>
     <col min="36" max="36" width="10.5625" style="7" customWidth="1"/>
     <col min="37" max="37" width="11" style="8" customWidth="1"/>
-    <col min="38" max="38" width="10.4196428571429" style="9" customWidth="1"/>
-    <col min="39" max="39" width="15.4732142857143" customWidth="1"/>
+    <col min="38" max="38" width="11" style="9" customWidth="1"/>
+    <col min="39" max="39" width="10.4196428571429" style="8" customWidth="1"/>
+    <col min="40" max="40" width="15.4732142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1" spans="1:39">
+    <row r="1" ht="29" customHeight="1" spans="1:40">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3503,15 +3510,16 @@
       <c r="AJ1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AK1" s="46" t="s">
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="47" t="s">
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="29" customHeight="1" spans="1:39">
+    <row r="2" ht="29" customHeight="1" spans="1:40">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -3548,11 +3556,12 @@
       <c r="AH2" s="40"/>
       <c r="AI2" s="40"/>
       <c r="AJ2" s="41"/>
-      <c r="AK2" s="46"/>
+      <c r="AK2" s="41"/>
       <c r="AL2" s="46"/>
-      <c r="AM2" s="22"/>
-    </row>
-    <row r="3" ht="20" customHeight="1" spans="1:39">
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="22"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:40">
       <c r="A3" s="10"/>
       <c r="B3" s="12" t="s">
         <v>10</v>
@@ -3625,11 +3634,12 @@
       <c r="AH3" s="40"/>
       <c r="AI3" s="40"/>
       <c r="AJ3" s="41"/>
-      <c r="AK3" s="46"/>
+      <c r="AK3" s="41"/>
       <c r="AL3" s="46"/>
-      <c r="AM3" s="22"/>
-    </row>
-    <row r="4" ht="56" customHeight="1" spans="1:39">
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="22"/>
+    </row>
+    <row r="4" ht="56" customHeight="1" spans="1:40">
       <c r="A4" s="10"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -3688,11 +3698,12 @@
       <c r="AH4" s="40"/>
       <c r="AI4" s="40"/>
       <c r="AJ4" s="41"/>
-      <c r="AK4" s="46"/>
+      <c r="AK4" s="41"/>
       <c r="AL4" s="46"/>
-      <c r="AM4" s="22"/>
-    </row>
-    <row r="5" ht="71" spans="1:39">
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="22"/>
+    </row>
+    <row r="5" ht="71" spans="1:40">
       <c r="A5" s="10"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -3750,16 +3761,21 @@
         <v>47</v>
       </c>
       <c r="AI5" s="40"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="46" t="s">
+      <c r="AJ5" s="41" t="s">
         <v>46</v>
       </c>
+      <c r="AK5" s="41" t="s">
+        <v>47</v>
+      </c>
       <c r="AL5" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM5" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="AM5" s="22"/>
-    </row>
-    <row r="6" spans="1:39">
+      <c r="AN5" s="22"/>
+    </row>
+    <row r="6" spans="1:40">
       <c r="A6" s="13">
         <v>44568</v>
       </c>
@@ -3834,19 +3850,17 @@
       <c r="AJ6" s="44">
         <v>73.28</v>
       </c>
-      <c r="AK6" s="8">
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="9">
         <f>($AJ6-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10005,7,FALSE)</f>
         <v>-450</v>
       </c>
-      <c r="AL6" s="8">
-        <f>($AJ6-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10005,7,FALSE)</f>
-        <v>-3920</v>
-      </c>
-      <c r="AM6" s="22" t="s">
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:40">
       <c r="A7" s="13">
         <v>44571</v>
       </c>
@@ -3916,21 +3930,20 @@
         <v>是</v>
       </c>
       <c r="AJ7" s="44">
-        <v>77.77</v>
-      </c>
-      <c r="AK7" s="8">
-        <f>($AJ7-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10006,7,FALSE)</f>
-        <v>-1.00000000000051</v>
-      </c>
-      <c r="AL7" s="8">
-        <f>($AJ7-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10006,7,FALSE)</f>
-        <v>-3022</v>
-      </c>
-      <c r="AM7" s="22" t="s">
+        <f>IF(AND(H7-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE)&gt;0,H7&gt;H6),H7,AJ6)</f>
+        <v>73.28</v>
+      </c>
+      <c r="AK7" s="48"/>
+      <c r="AL7" s="9">
+        <f>($AJ7-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*100</f>
+        <v>-1960</v>
+      </c>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:40">
       <c r="A8" s="13">
         <v>44572</v>
       </c>
@@ -4003,22 +4016,24 @@
         <v>是</v>
       </c>
       <c r="AJ8" s="44">
-        <f>IF(AND(H8-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE)&gt;0,H8&gt;H7),H8,AJ7)</f>
         <v>77.77</v>
       </c>
-      <c r="AK8" s="8">
-        <f>($AJ8-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10007,7,FALSE)</f>
-        <v>-1.00000000000051</v>
-      </c>
-      <c r="AL8" s="8">
-        <f>($AJ8-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10007,7,FALSE)</f>
-        <v>-3022</v>
-      </c>
-      <c r="AM8" s="22" t="s">
+      <c r="AK8" s="49">
+        <v>83.92</v>
+      </c>
+      <c r="AL8" s="9">
+        <f>($AJ8-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*100</f>
+        <v>-1511</v>
+      </c>
+      <c r="AM8" s="9">
+        <f>($AK8-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*100</f>
+        <v>-895.999999999999</v>
+      </c>
+      <c r="AN8" s="22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:40">
       <c r="A9" s="13">
         <v>44573</v>
       </c>
@@ -4057,10 +4072,11 @@
       <c r="AH9" s="43"/>
       <c r="AI9" s="45"/>
       <c r="AJ9" s="44"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="36"/>
-    </row>
-    <row r="10" spans="1:39">
+      <c r="AK9" s="48"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="36"/>
+    </row>
+    <row r="10" spans="1:40">
       <c r="A10" s="13">
         <v>44574</v>
       </c>
@@ -4099,10 +4115,11 @@
       <c r="AH10" s="43"/>
       <c r="AI10" s="45"/>
       <c r="AJ10" s="44"/>
-      <c r="AL10" s="8"/>
-      <c r="AM10" s="36"/>
-    </row>
-    <row r="11" spans="1:39">
+      <c r="AK10" s="48"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="36"/>
+    </row>
+    <row r="11" spans="1:40">
       <c r="A11" s="13">
         <v>44575</v>
       </c>
@@ -4141,10 +4158,11 @@
       <c r="AH11" s="43"/>
       <c r="AI11" s="45"/>
       <c r="AJ11" s="44"/>
-      <c r="AL11" s="8"/>
-      <c r="AM11" s="36"/>
-    </row>
-    <row r="12" spans="1:39">
+      <c r="AK11" s="48"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="36"/>
+    </row>
+    <row r="12" spans="1:40">
       <c r="A12" s="13">
         <v>44576</v>
       </c>
@@ -4183,10 +4201,11 @@
       <c r="AH12" s="43"/>
       <c r="AI12" s="45"/>
       <c r="AJ12" s="44"/>
-      <c r="AL12" s="8"/>
-      <c r="AM12" s="36"/>
-    </row>
-    <row r="13" spans="1:39">
+      <c r="AK12" s="48"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="36"/>
+    </row>
+    <row r="13" spans="1:40">
       <c r="A13" s="13">
         <v>44577</v>
       </c>
@@ -4225,10 +4244,11 @@
       <c r="AH13" s="43"/>
       <c r="AI13" s="45"/>
       <c r="AJ13" s="44"/>
-      <c r="AL13" s="8"/>
-      <c r="AM13" s="36"/>
-    </row>
-    <row r="14" spans="1:39">
+      <c r="AK13" s="48"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="36"/>
+    </row>
+    <row r="14" spans="1:40">
       <c r="A14" s="13">
         <v>44578</v>
       </c>
@@ -4267,10 +4287,11 @@
       <c r="AH14" s="43"/>
       <c r="AI14" s="45"/>
       <c r="AJ14" s="44"/>
-      <c r="AL14" s="8"/>
-      <c r="AM14" s="36"/>
-    </row>
-    <row r="15" spans="1:39">
+      <c r="AK14" s="48"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="36"/>
+    </row>
+    <row r="15" spans="1:40">
       <c r="A15" s="13">
         <v>44579</v>
       </c>
@@ -4309,10 +4330,11 @@
       <c r="AH15" s="43"/>
       <c r="AI15" s="45"/>
       <c r="AJ15" s="44"/>
-      <c r="AL15" s="8"/>
-      <c r="AM15" s="36"/>
-    </row>
-    <row r="16" spans="1:39">
+      <c r="AK15" s="48"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="36"/>
+    </row>
+    <row r="16" spans="1:40">
       <c r="A16" s="13">
         <v>44580</v>
       </c>
@@ -4351,10 +4373,11 @@
       <c r="AH16" s="43"/>
       <c r="AI16" s="45"/>
       <c r="AJ16" s="44"/>
-      <c r="AL16" s="8"/>
-      <c r="AM16" s="36"/>
-    </row>
-    <row r="17" spans="1:39">
+      <c r="AK16" s="48"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="36"/>
+    </row>
+    <row r="17" spans="1:40">
       <c r="A17" s="13">
         <v>44581</v>
       </c>
@@ -4393,10 +4416,11 @@
       <c r="AH17" s="43"/>
       <c r="AI17" s="45"/>
       <c r="AJ17" s="44"/>
-      <c r="AL17" s="8"/>
-      <c r="AM17" s="36"/>
-    </row>
-    <row r="18" spans="1:39">
+      <c r="AK17" s="48"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="36"/>
+    </row>
+    <row r="18" spans="1:40">
       <c r="A18" s="13">
         <v>44582</v>
       </c>
@@ -4435,10 +4459,11 @@
       <c r="AH18" s="43"/>
       <c r="AI18" s="45"/>
       <c r="AJ18" s="44"/>
-      <c r="AL18" s="8"/>
-      <c r="AM18" s="36"/>
-    </row>
-    <row r="19" spans="1:39">
+      <c r="AK18" s="48"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="36"/>
+    </row>
+    <row r="19" spans="1:40">
       <c r="A19" s="13">
         <v>44583</v>
       </c>
@@ -4477,10 +4502,11 @@
       <c r="AH19" s="43"/>
       <c r="AI19" s="45"/>
       <c r="AJ19" s="44"/>
-      <c r="AL19" s="8"/>
-      <c r="AM19" s="36"/>
-    </row>
-    <row r="20" spans="1:39">
+      <c r="AK19" s="48"/>
+      <c r="AM19" s="9"/>
+      <c r="AN19" s="36"/>
+    </row>
+    <row r="20" spans="1:40">
       <c r="A20" s="13">
         <v>44584</v>
       </c>
@@ -4519,10 +4545,11 @@
       <c r="AH20" s="43"/>
       <c r="AI20" s="45"/>
       <c r="AJ20" s="44"/>
-      <c r="AL20" s="8"/>
-      <c r="AM20" s="36"/>
-    </row>
-    <row r="21" spans="1:39">
+      <c r="AK20" s="48"/>
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="36"/>
+    </row>
+    <row r="21" spans="1:40">
       <c r="A21" s="13">
         <v>44585</v>
       </c>
@@ -4561,10 +4588,11 @@
       <c r="AH21" s="43"/>
       <c r="AI21" s="45"/>
       <c r="AJ21" s="44"/>
-      <c r="AL21" s="8"/>
-      <c r="AM21" s="36"/>
-    </row>
-    <row r="22" spans="1:39">
+      <c r="AK21" s="48"/>
+      <c r="AM21" s="9"/>
+      <c r="AN21" s="36"/>
+    </row>
+    <row r="22" spans="1:40">
       <c r="A22" s="13">
         <v>44586</v>
       </c>
@@ -4603,10 +4631,11 @@
       <c r="AH22" s="43"/>
       <c r="AI22" s="45"/>
       <c r="AJ22" s="44"/>
-      <c r="AL22" s="8"/>
-      <c r="AM22" s="36"/>
-    </row>
-    <row r="23" spans="1:39">
+      <c r="AK22" s="48"/>
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="36"/>
+    </row>
+    <row r="23" spans="1:40">
       <c r="A23" s="13">
         <v>44587</v>
       </c>
@@ -4645,10 +4674,11 @@
       <c r="AH23" s="43"/>
       <c r="AI23" s="45"/>
       <c r="AJ23" s="44"/>
-      <c r="AL23" s="8"/>
-      <c r="AM23" s="36"/>
-    </row>
-    <row r="24" spans="1:39">
+      <c r="AK23" s="48"/>
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="36"/>
+    </row>
+    <row r="24" spans="1:40">
       <c r="A24" s="13">
         <v>44588</v>
       </c>
@@ -4687,10 +4717,11 @@
       <c r="AH24" s="43"/>
       <c r="AI24" s="45"/>
       <c r="AJ24" s="44"/>
-      <c r="AL24" s="8"/>
-      <c r="AM24" s="36"/>
-    </row>
-    <row r="25" spans="1:39">
+      <c r="AK24" s="48"/>
+      <c r="AM24" s="9"/>
+      <c r="AN24" s="36"/>
+    </row>
+    <row r="25" spans="1:40">
       <c r="A25" s="13">
         <v>44589</v>
       </c>
@@ -4729,10 +4760,11 @@
       <c r="AH25" s="43"/>
       <c r="AI25" s="45"/>
       <c r="AJ25" s="44"/>
-      <c r="AL25" s="8"/>
-      <c r="AM25" s="36"/>
-    </row>
-    <row r="26" spans="1:39">
+      <c r="AK25" s="48"/>
+      <c r="AM25" s="9"/>
+      <c r="AN25" s="36"/>
+    </row>
+    <row r="26" spans="1:40">
       <c r="A26" s="13">
         <v>44590</v>
       </c>
@@ -4771,10 +4803,11 @@
       <c r="AH26" s="43"/>
       <c r="AI26" s="45"/>
       <c r="AJ26" s="44"/>
-      <c r="AL26" s="8"/>
-      <c r="AM26" s="36"/>
-    </row>
-    <row r="27" spans="1:39">
+      <c r="AK26" s="48"/>
+      <c r="AM26" s="9"/>
+      <c r="AN26" s="36"/>
+    </row>
+    <row r="27" spans="1:40">
       <c r="A27" s="13">
         <v>44591</v>
       </c>
@@ -4813,10 +4846,11 @@
       <c r="AH27" s="43"/>
       <c r="AI27" s="45"/>
       <c r="AJ27" s="44"/>
-      <c r="AL27" s="8"/>
-      <c r="AM27" s="36"/>
-    </row>
-    <row r="28" spans="1:39">
+      <c r="AK27" s="48"/>
+      <c r="AM27" s="9"/>
+      <c r="AN27" s="36"/>
+    </row>
+    <row r="28" spans="1:40">
       <c r="A28" s="13">
         <v>44592</v>
       </c>
@@ -4855,10 +4889,11 @@
       <c r="AH28" s="43"/>
       <c r="AI28" s="45"/>
       <c r="AJ28" s="44"/>
-      <c r="AL28" s="8"/>
-      <c r="AM28" s="36"/>
-    </row>
-    <row r="29" spans="1:39">
+      <c r="AK28" s="48"/>
+      <c r="AM28" s="9"/>
+      <c r="AN28" s="36"/>
+    </row>
+    <row r="29" spans="1:40">
       <c r="A29" s="13">
         <v>44593</v>
       </c>
@@ -4897,10 +4932,11 @@
       <c r="AH29" s="43"/>
       <c r="AI29" s="45"/>
       <c r="AJ29" s="44"/>
-      <c r="AL29" s="8"/>
-      <c r="AM29" s="36"/>
-    </row>
-    <row r="30" spans="1:39">
+      <c r="AK29" s="48"/>
+      <c r="AM29" s="9"/>
+      <c r="AN29" s="36"/>
+    </row>
+    <row r="30" spans="1:40">
       <c r="A30" s="13">
         <v>44594</v>
       </c>
@@ -4939,10 +4975,11 @@
       <c r="AH30" s="43"/>
       <c r="AI30" s="45"/>
       <c r="AJ30" s="44"/>
-      <c r="AL30" s="8"/>
-      <c r="AM30" s="36"/>
-    </row>
-    <row r="31" spans="1:39">
+      <c r="AK30" s="48"/>
+      <c r="AM30" s="9"/>
+      <c r="AN30" s="36"/>
+    </row>
+    <row r="31" spans="1:40">
       <c r="A31" s="13">
         <v>44595</v>
       </c>
@@ -4981,10 +5018,11 @@
       <c r="AH31" s="43"/>
       <c r="AI31" s="45"/>
       <c r="AJ31" s="44"/>
-      <c r="AL31" s="8"/>
-      <c r="AM31" s="36"/>
-    </row>
-    <row r="32" spans="1:39">
+      <c r="AK31" s="48"/>
+      <c r="AM31" s="9"/>
+      <c r="AN31" s="36"/>
+    </row>
+    <row r="32" spans="1:40">
       <c r="A32" s="13">
         <v>44596</v>
       </c>
@@ -5023,10 +5061,11 @@
       <c r="AH32" s="43"/>
       <c r="AI32" s="45"/>
       <c r="AJ32" s="44"/>
-      <c r="AL32" s="8"/>
-      <c r="AM32" s="36"/>
-    </row>
-    <row r="33" spans="1:39">
+      <c r="AK32" s="48"/>
+      <c r="AM32" s="9"/>
+      <c r="AN32" s="36"/>
+    </row>
+    <row r="33" spans="1:40">
       <c r="A33" s="13">
         <v>44597</v>
       </c>
@@ -5065,10 +5104,11 @@
       <c r="AH33" s="43"/>
       <c r="AI33" s="45"/>
       <c r="AJ33" s="44"/>
-      <c r="AL33" s="8"/>
-      <c r="AM33" s="36"/>
-    </row>
-    <row r="34" spans="1:39">
+      <c r="AK33" s="48"/>
+      <c r="AM33" s="9"/>
+      <c r="AN33" s="36"/>
+    </row>
+    <row r="34" spans="1:40">
       <c r="A34" s="13">
         <v>44598</v>
       </c>
@@ -5107,10 +5147,11 @@
       <c r="AH34" s="43"/>
       <c r="AI34" s="45"/>
       <c r="AJ34" s="44"/>
-      <c r="AL34" s="8"/>
-      <c r="AM34" s="36"/>
-    </row>
-    <row r="35" spans="1:39">
+      <c r="AK34" s="48"/>
+      <c r="AM34" s="9"/>
+      <c r="AN34" s="36"/>
+    </row>
+    <row r="35" spans="1:40">
       <c r="A35" s="13">
         <v>44599</v>
       </c>
@@ -5149,10 +5190,11 @@
       <c r="AH35" s="43"/>
       <c r="AI35" s="45"/>
       <c r="AJ35" s="44"/>
-      <c r="AL35" s="8"/>
-      <c r="AM35" s="36"/>
-    </row>
-    <row r="36" spans="1:39">
+      <c r="AK35" s="48"/>
+      <c r="AM35" s="9"/>
+      <c r="AN35" s="36"/>
+    </row>
+    <row r="36" spans="1:40">
       <c r="A36" s="13">
         <v>44600</v>
       </c>
@@ -5191,10 +5233,11 @@
       <c r="AH36" s="43"/>
       <c r="AI36" s="45"/>
       <c r="AJ36" s="44"/>
-      <c r="AL36" s="8"/>
-      <c r="AM36" s="36"/>
-    </row>
-    <row r="37" spans="1:39">
+      <c r="AK36" s="48"/>
+      <c r="AM36" s="9"/>
+      <c r="AN36" s="36"/>
+    </row>
+    <row r="37" spans="1:40">
       <c r="A37" s="13">
         <v>44601</v>
       </c>
@@ -5233,10 +5276,11 @@
       <c r="AH37" s="43"/>
       <c r="AI37" s="45"/>
       <c r="AJ37" s="44"/>
-      <c r="AL37" s="8"/>
-      <c r="AM37" s="36"/>
-    </row>
-    <row r="38" spans="1:39">
+      <c r="AK37" s="48"/>
+      <c r="AM37" s="9"/>
+      <c r="AN37" s="36"/>
+    </row>
+    <row r="38" spans="1:40">
       <c r="A38" s="13">
         <v>44602</v>
       </c>
@@ -5275,10 +5319,11 @@
       <c r="AH38" s="43"/>
       <c r="AI38" s="45"/>
       <c r="AJ38" s="44"/>
-      <c r="AL38" s="8"/>
-      <c r="AM38" s="36"/>
-    </row>
-    <row r="39" spans="1:39">
+      <c r="AK38" s="48"/>
+      <c r="AM38" s="9"/>
+      <c r="AN38" s="36"/>
+    </row>
+    <row r="39" spans="1:40">
       <c r="A39" s="13">
         <v>44603</v>
       </c>
@@ -5317,10 +5362,11 @@
       <c r="AH39" s="43"/>
       <c r="AI39" s="45"/>
       <c r="AJ39" s="44"/>
-      <c r="AL39" s="8"/>
-      <c r="AM39" s="36"/>
-    </row>
-    <row r="40" spans="1:39">
+      <c r="AK39" s="48"/>
+      <c r="AM39" s="9"/>
+      <c r="AN39" s="36"/>
+    </row>
+    <row r="40" spans="1:40">
       <c r="A40" s="13">
         <v>44604</v>
       </c>
@@ -5359,10 +5405,11 @@
       <c r="AH40" s="43"/>
       <c r="AI40" s="45"/>
       <c r="AJ40" s="44"/>
-      <c r="AL40" s="8"/>
-      <c r="AM40" s="36"/>
-    </row>
-    <row r="41" spans="1:39">
+      <c r="AK40" s="48"/>
+      <c r="AM40" s="9"/>
+      <c r="AN40" s="36"/>
+    </row>
+    <row r="41" spans="1:40">
       <c r="A41" s="13">
         <v>44605</v>
       </c>
@@ -5401,10 +5448,11 @@
       <c r="AH41" s="43"/>
       <c r="AI41" s="45"/>
       <c r="AJ41" s="44"/>
-      <c r="AL41" s="8"/>
-      <c r="AM41" s="36"/>
-    </row>
-    <row r="42" spans="1:39">
+      <c r="AK41" s="48"/>
+      <c r="AM41" s="9"/>
+      <c r="AN41" s="36"/>
+    </row>
+    <row r="42" spans="1:40">
       <c r="A42" s="13">
         <v>44606</v>
       </c>
@@ -5443,10 +5491,11 @@
       <c r="AH42" s="43"/>
       <c r="AI42" s="45"/>
       <c r="AJ42" s="44"/>
-      <c r="AL42" s="8"/>
-      <c r="AM42" s="36"/>
-    </row>
-    <row r="43" spans="1:39">
+      <c r="AK42" s="48"/>
+      <c r="AM42" s="9"/>
+      <c r="AN42" s="36"/>
+    </row>
+    <row r="43" spans="1:40">
       <c r="A43" s="13">
         <v>44607</v>
       </c>
@@ -5485,10 +5534,11 @@
       <c r="AH43" s="43"/>
       <c r="AI43" s="45"/>
       <c r="AJ43" s="44"/>
-      <c r="AL43" s="8"/>
-      <c r="AM43" s="36"/>
-    </row>
-    <row r="44" spans="1:39">
+      <c r="AK43" s="48"/>
+      <c r="AM43" s="9"/>
+      <c r="AN43" s="36"/>
+    </row>
+    <row r="44" spans="1:40">
       <c r="A44" s="13">
         <v>44608</v>
       </c>
@@ -5527,10 +5577,11 @@
       <c r="AH44" s="43"/>
       <c r="AI44" s="45"/>
       <c r="AJ44" s="44"/>
-      <c r="AL44" s="8"/>
-      <c r="AM44" s="36"/>
-    </row>
-    <row r="45" spans="1:39">
+      <c r="AK44" s="48"/>
+      <c r="AM44" s="9"/>
+      <c r="AN44" s="36"/>
+    </row>
+    <row r="45" spans="1:40">
       <c r="A45" s="13">
         <v>44609</v>
       </c>
@@ -5569,10 +5620,11 @@
       <c r="AH45" s="43"/>
       <c r="AI45" s="45"/>
       <c r="AJ45" s="44"/>
-      <c r="AL45" s="8"/>
-      <c r="AM45" s="36"/>
-    </row>
-    <row r="46" spans="1:39">
+      <c r="AK45" s="48"/>
+      <c r="AM45" s="9"/>
+      <c r="AN45" s="36"/>
+    </row>
+    <row r="46" spans="1:40">
       <c r="A46" s="13">
         <v>44610</v>
       </c>
@@ -5611,10 +5663,11 @@
       <c r="AH46" s="43"/>
       <c r="AI46" s="45"/>
       <c r="AJ46" s="44"/>
-      <c r="AL46" s="8"/>
-      <c r="AM46" s="36"/>
-    </row>
-    <row r="47" spans="1:39">
+      <c r="AK46" s="48"/>
+      <c r="AM46" s="9"/>
+      <c r="AN46" s="36"/>
+    </row>
+    <row r="47" spans="1:40">
       <c r="A47" s="13">
         <v>44611</v>
       </c>
@@ -5653,10 +5706,11 @@
       <c r="AH47" s="43"/>
       <c r="AI47" s="45"/>
       <c r="AJ47" s="44"/>
-      <c r="AL47" s="8"/>
-      <c r="AM47" s="36"/>
-    </row>
-    <row r="48" spans="1:39">
+      <c r="AK47" s="48"/>
+      <c r="AM47" s="9"/>
+      <c r="AN47" s="36"/>
+    </row>
+    <row r="48" spans="1:40">
       <c r="A48" s="13">
         <v>44612</v>
       </c>
@@ -5695,10 +5749,11 @@
       <c r="AH48" s="43"/>
       <c r="AI48" s="45"/>
       <c r="AJ48" s="44"/>
-      <c r="AL48" s="8"/>
-      <c r="AM48" s="36"/>
-    </row>
-    <row r="49" spans="1:39">
+      <c r="AK48" s="48"/>
+      <c r="AM48" s="9"/>
+      <c r="AN48" s="36"/>
+    </row>
+    <row r="49" spans="1:40">
       <c r="A49" s="13">
         <v>44613</v>
       </c>
@@ -5737,10 +5792,11 @@
       <c r="AH49" s="43"/>
       <c r="AI49" s="45"/>
       <c r="AJ49" s="44"/>
-      <c r="AL49" s="8"/>
-      <c r="AM49" s="36"/>
-    </row>
-    <row r="50" spans="1:39">
+      <c r="AK49" s="48"/>
+      <c r="AM49" s="9"/>
+      <c r="AN49" s="36"/>
+    </row>
+    <row r="50" spans="1:40">
       <c r="A50" s="13">
         <v>44614</v>
       </c>
@@ -5779,10 +5835,11 @@
       <c r="AH50" s="43"/>
       <c r="AI50" s="45"/>
       <c r="AJ50" s="44"/>
-      <c r="AL50" s="8"/>
-      <c r="AM50" s="36"/>
-    </row>
-    <row r="51" spans="1:39">
+      <c r="AK50" s="48"/>
+      <c r="AM50" s="9"/>
+      <c r="AN50" s="36"/>
+    </row>
+    <row r="51" spans="1:40">
       <c r="A51" s="13">
         <v>44615</v>
       </c>
@@ -5821,10 +5878,11 @@
       <c r="AH51" s="43"/>
       <c r="AI51" s="45"/>
       <c r="AJ51" s="44"/>
-      <c r="AL51" s="8"/>
-      <c r="AM51" s="36"/>
-    </row>
-    <row r="52" spans="1:39">
+      <c r="AK51" s="48"/>
+      <c r="AM51" s="9"/>
+      <c r="AN51" s="36"/>
+    </row>
+    <row r="52" spans="1:40">
       <c r="A52" s="13">
         <v>44616</v>
       </c>
@@ -5863,10 +5921,11 @@
       <c r="AH52" s="43"/>
       <c r="AI52" s="45"/>
       <c r="AJ52" s="44"/>
-      <c r="AL52" s="8"/>
-      <c r="AM52" s="36"/>
-    </row>
-    <row r="53" spans="1:39">
+      <c r="AK52" s="48"/>
+      <c r="AM52" s="9"/>
+      <c r="AN52" s="36"/>
+    </row>
+    <row r="53" spans="1:40">
       <c r="A53" s="13">
         <v>44617</v>
       </c>
@@ -5905,10 +5964,11 @@
       <c r="AH53" s="43"/>
       <c r="AI53" s="45"/>
       <c r="AJ53" s="44"/>
-      <c r="AL53" s="8"/>
-      <c r="AM53" s="36"/>
-    </row>
-    <row r="54" spans="1:39">
+      <c r="AK53" s="48"/>
+      <c r="AM53" s="9"/>
+      <c r="AN53" s="36"/>
+    </row>
+    <row r="54" spans="1:40">
       <c r="A54" s="13">
         <v>44618</v>
       </c>
@@ -5947,10 +6007,11 @@
       <c r="AH54" s="43"/>
       <c r="AI54" s="45"/>
       <c r="AJ54" s="44"/>
-      <c r="AL54" s="8"/>
-      <c r="AM54" s="36"/>
-    </row>
-    <row r="55" spans="1:39">
+      <c r="AK54" s="48"/>
+      <c r="AM54" s="9"/>
+      <c r="AN54" s="36"/>
+    </row>
+    <row r="55" spans="1:40">
       <c r="A55" s="13">
         <v>44619</v>
       </c>
@@ -5989,10 +6050,11 @@
       <c r="AH55" s="43"/>
       <c r="AI55" s="45"/>
       <c r="AJ55" s="44"/>
-      <c r="AL55" s="8"/>
-      <c r="AM55" s="36"/>
-    </row>
-    <row r="56" spans="1:39">
+      <c r="AK55" s="48"/>
+      <c r="AM55" s="9"/>
+      <c r="AN55" s="36"/>
+    </row>
+    <row r="56" spans="1:40">
       <c r="A56" s="13">
         <v>44620</v>
       </c>
@@ -6031,10 +6093,11 @@
       <c r="AH56" s="43"/>
       <c r="AI56" s="45"/>
       <c r="AJ56" s="44"/>
-      <c r="AL56" s="8"/>
-      <c r="AM56" s="36"/>
-    </row>
-    <row r="57" spans="1:39">
+      <c r="AK56" s="48"/>
+      <c r="AM56" s="9"/>
+      <c r="AN56" s="36"/>
+    </row>
+    <row r="57" spans="1:40">
       <c r="A57" s="13">
         <v>44621</v>
       </c>
@@ -6073,10 +6136,11 @@
       <c r="AH57" s="43"/>
       <c r="AI57" s="45"/>
       <c r="AJ57" s="44"/>
-      <c r="AL57" s="8"/>
-      <c r="AM57" s="36"/>
-    </row>
-    <row r="58" spans="1:39">
+      <c r="AK57" s="48"/>
+      <c r="AM57" s="9"/>
+      <c r="AN57" s="36"/>
+    </row>
+    <row r="58" spans="1:40">
       <c r="A58" s="13">
         <v>44622</v>
       </c>
@@ -6115,10 +6179,11 @@
       <c r="AH58" s="43"/>
       <c r="AI58" s="45"/>
       <c r="AJ58" s="44"/>
-      <c r="AL58" s="8"/>
-      <c r="AM58" s="36"/>
-    </row>
-    <row r="59" spans="1:39">
+      <c r="AK58" s="48"/>
+      <c r="AM58" s="9"/>
+      <c r="AN58" s="36"/>
+    </row>
+    <row r="59" spans="1:40">
       <c r="A59" s="13">
         <v>44623</v>
       </c>
@@ -6157,10 +6222,11 @@
       <c r="AH59" s="43"/>
       <c r="AI59" s="45"/>
       <c r="AJ59" s="44"/>
-      <c r="AL59" s="8"/>
-      <c r="AM59" s="36"/>
-    </row>
-    <row r="60" spans="1:39">
+      <c r="AK59" s="48"/>
+      <c r="AM59" s="9"/>
+      <c r="AN59" s="36"/>
+    </row>
+    <row r="60" spans="1:40">
       <c r="A60" s="13">
         <v>44624</v>
       </c>
@@ -6199,10 +6265,11 @@
       <c r="AH60" s="43"/>
       <c r="AI60" s="45"/>
       <c r="AJ60" s="44"/>
-      <c r="AL60" s="8"/>
-      <c r="AM60" s="36"/>
-    </row>
-    <row r="61" spans="1:39">
+      <c r="AK60" s="48"/>
+      <c r="AM60" s="9"/>
+      <c r="AN60" s="36"/>
+    </row>
+    <row r="61" spans="1:40">
       <c r="A61" s="13">
         <v>44625</v>
       </c>
@@ -6241,10 +6308,11 @@
       <c r="AH61" s="43"/>
       <c r="AI61" s="45"/>
       <c r="AJ61" s="44"/>
-      <c r="AL61" s="8"/>
-      <c r="AM61" s="36"/>
-    </row>
-    <row r="62" spans="1:39">
+      <c r="AK61" s="48"/>
+      <c r="AM61" s="9"/>
+      <c r="AN61" s="36"/>
+    </row>
+    <row r="62" spans="1:40">
       <c r="A62" s="13">
         <v>44626</v>
       </c>
@@ -6283,10 +6351,11 @@
       <c r="AH62" s="43"/>
       <c r="AI62" s="45"/>
       <c r="AJ62" s="44"/>
-      <c r="AL62" s="8"/>
-      <c r="AM62" s="36"/>
-    </row>
-    <row r="63" spans="1:39">
+      <c r="AK62" s="48"/>
+      <c r="AM62" s="9"/>
+      <c r="AN62" s="36"/>
+    </row>
+    <row r="63" spans="1:40">
       <c r="A63" s="13">
         <v>44627</v>
       </c>
@@ -6325,10 +6394,11 @@
       <c r="AH63" s="43"/>
       <c r="AI63" s="45"/>
       <c r="AJ63" s="44"/>
-      <c r="AL63" s="8"/>
-      <c r="AM63" s="36"/>
-    </row>
-    <row r="64" spans="1:39">
+      <c r="AK63" s="48"/>
+      <c r="AM63" s="9"/>
+      <c r="AN63" s="36"/>
+    </row>
+    <row r="64" spans="1:40">
       <c r="A64" s="13">
         <v>44628</v>
       </c>
@@ -6367,10 +6437,11 @@
       <c r="AH64" s="43"/>
       <c r="AI64" s="45"/>
       <c r="AJ64" s="44"/>
-      <c r="AL64" s="8"/>
-      <c r="AM64" s="36"/>
-    </row>
-    <row r="65" spans="1:39">
+      <c r="AK64" s="48"/>
+      <c r="AM64" s="9"/>
+      <c r="AN64" s="36"/>
+    </row>
+    <row r="65" spans="1:40">
       <c r="A65" s="13">
         <v>44629</v>
       </c>
@@ -6409,10 +6480,11 @@
       <c r="AH65" s="43"/>
       <c r="AI65" s="45"/>
       <c r="AJ65" s="44"/>
-      <c r="AL65" s="8"/>
-      <c r="AM65" s="36"/>
-    </row>
-    <row r="66" spans="1:39">
+      <c r="AK65" s="48"/>
+      <c r="AM65" s="9"/>
+      <c r="AN65" s="36"/>
+    </row>
+    <row r="66" spans="1:40">
       <c r="A66" s="13">
         <v>44630</v>
       </c>
@@ -6451,10 +6523,11 @@
       <c r="AH66" s="43"/>
       <c r="AI66" s="45"/>
       <c r="AJ66" s="44"/>
-      <c r="AL66" s="8"/>
-      <c r="AM66" s="36"/>
-    </row>
-    <row r="67" spans="1:39">
+      <c r="AK66" s="48"/>
+      <c r="AM66" s="9"/>
+      <c r="AN66" s="36"/>
+    </row>
+    <row r="67" spans="1:40">
       <c r="A67" s="13">
         <v>44631</v>
       </c>
@@ -6493,10 +6566,11 @@
       <c r="AH67" s="43"/>
       <c r="AI67" s="45"/>
       <c r="AJ67" s="44"/>
-      <c r="AL67" s="8"/>
-      <c r="AM67" s="36"/>
-    </row>
-    <row r="68" spans="1:39">
+      <c r="AK67" s="48"/>
+      <c r="AM67" s="9"/>
+      <c r="AN67" s="36"/>
+    </row>
+    <row r="68" spans="1:40">
       <c r="A68" s="13">
         <v>44632</v>
       </c>
@@ -6535,10 +6609,11 @@
       <c r="AH68" s="43"/>
       <c r="AI68" s="45"/>
       <c r="AJ68" s="44"/>
-      <c r="AL68" s="8"/>
-      <c r="AM68" s="36"/>
-    </row>
-    <row r="69" spans="1:39">
+      <c r="AK68" s="48"/>
+      <c r="AM68" s="9"/>
+      <c r="AN68" s="36"/>
+    </row>
+    <row r="69" spans="1:40">
       <c r="A69" s="13">
         <v>44633</v>
       </c>
@@ -6577,10 +6652,11 @@
       <c r="AH69" s="43"/>
       <c r="AI69" s="45"/>
       <c r="AJ69" s="44"/>
-      <c r="AL69" s="8"/>
-      <c r="AM69" s="36"/>
-    </row>
-    <row r="70" spans="1:39">
+      <c r="AK69" s="48"/>
+      <c r="AM69" s="9"/>
+      <c r="AN69" s="36"/>
+    </row>
+    <row r="70" spans="1:40">
       <c r="A70" s="13">
         <v>44634</v>
       </c>
@@ -6619,10 +6695,11 @@
       <c r="AH70" s="43"/>
       <c r="AI70" s="45"/>
       <c r="AJ70" s="44"/>
-      <c r="AL70" s="8"/>
-      <c r="AM70" s="36"/>
-    </row>
-    <row r="71" spans="1:39">
+      <c r="AK70" s="48"/>
+      <c r="AM70" s="9"/>
+      <c r="AN70" s="36"/>
+    </row>
+    <row r="71" spans="1:40">
       <c r="A71" s="13">
         <v>44635</v>
       </c>
@@ -6661,10 +6738,11 @@
       <c r="AH71" s="43"/>
       <c r="AI71" s="45"/>
       <c r="AJ71" s="44"/>
-      <c r="AL71" s="8"/>
-      <c r="AM71" s="36"/>
-    </row>
-    <row r="72" spans="1:39">
+      <c r="AK71" s="48"/>
+      <c r="AM71" s="9"/>
+      <c r="AN71" s="36"/>
+    </row>
+    <row r="72" spans="1:40">
       <c r="A72" s="13">
         <v>44636</v>
       </c>
@@ -6703,10 +6781,11 @@
       <c r="AH72" s="43"/>
       <c r="AI72" s="45"/>
       <c r="AJ72" s="44"/>
-      <c r="AL72" s="8"/>
-      <c r="AM72" s="36"/>
-    </row>
-    <row r="73" spans="1:39">
+      <c r="AK72" s="48"/>
+      <c r="AM72" s="9"/>
+      <c r="AN72" s="36"/>
+    </row>
+    <row r="73" spans="1:40">
       <c r="A73" s="13">
         <v>44637</v>
       </c>
@@ -6745,10 +6824,11 @@
       <c r="AH73" s="43"/>
       <c r="AI73" s="45"/>
       <c r="AJ73" s="44"/>
-      <c r="AL73" s="8"/>
-      <c r="AM73" s="36"/>
-    </row>
-    <row r="74" spans="1:39">
+      <c r="AK73" s="48"/>
+      <c r="AM73" s="9"/>
+      <c r="AN73" s="36"/>
+    </row>
+    <row r="74" spans="1:40">
       <c r="A74" s="13">
         <v>44638</v>
       </c>
@@ -6787,10 +6867,11 @@
       <c r="AH74" s="43"/>
       <c r="AI74" s="45"/>
       <c r="AJ74" s="44"/>
-      <c r="AL74" s="8"/>
-      <c r="AM74" s="36"/>
-    </row>
-    <row r="75" spans="1:39">
+      <c r="AK74" s="48"/>
+      <c r="AM74" s="9"/>
+      <c r="AN74" s="36"/>
+    </row>
+    <row r="75" spans="1:40">
       <c r="A75" s="13">
         <v>44639</v>
       </c>
@@ -6829,10 +6910,11 @@
       <c r="AH75" s="43"/>
       <c r="AI75" s="45"/>
       <c r="AJ75" s="44"/>
-      <c r="AL75" s="8"/>
-      <c r="AM75" s="36"/>
-    </row>
-    <row r="76" spans="1:39">
+      <c r="AK75" s="48"/>
+      <c r="AM75" s="9"/>
+      <c r="AN75" s="36"/>
+    </row>
+    <row r="76" spans="1:40">
       <c r="A76" s="13">
         <v>44640</v>
       </c>
@@ -6871,10 +6953,11 @@
       <c r="AH76" s="43"/>
       <c r="AI76" s="45"/>
       <c r="AJ76" s="44"/>
-      <c r="AL76" s="8"/>
-      <c r="AM76" s="36"/>
-    </row>
-    <row r="77" spans="1:39">
+      <c r="AK76" s="48"/>
+      <c r="AM76" s="9"/>
+      <c r="AN76" s="36"/>
+    </row>
+    <row r="77" spans="1:40">
       <c r="A77" s="13">
         <v>44641</v>
       </c>
@@ -6913,10 +6996,11 @@
       <c r="AH77" s="43"/>
       <c r="AI77" s="45"/>
       <c r="AJ77" s="44"/>
-      <c r="AL77" s="8"/>
-      <c r="AM77" s="36"/>
-    </row>
-    <row r="78" spans="1:39">
+      <c r="AK77" s="48"/>
+      <c r="AM77" s="9"/>
+      <c r="AN77" s="36"/>
+    </row>
+    <row r="78" spans="1:40">
       <c r="A78" s="13">
         <v>44642</v>
       </c>
@@ -6955,10 +7039,11 @@
       <c r="AH78" s="43"/>
       <c r="AI78" s="45"/>
       <c r="AJ78" s="44"/>
-      <c r="AL78" s="8"/>
-      <c r="AM78" s="36"/>
-    </row>
-    <row r="79" spans="1:39">
+      <c r="AK78" s="48"/>
+      <c r="AM78" s="9"/>
+      <c r="AN78" s="36"/>
+    </row>
+    <row r="79" spans="1:40">
       <c r="A79" s="13">
         <v>44643</v>
       </c>
@@ -6997,10 +7082,11 @@
       <c r="AH79" s="43"/>
       <c r="AI79" s="45"/>
       <c r="AJ79" s="44"/>
-      <c r="AL79" s="8"/>
-      <c r="AM79" s="36"/>
-    </row>
-    <row r="80" spans="1:39">
+      <c r="AK79" s="48"/>
+      <c r="AM79" s="9"/>
+      <c r="AN79" s="36"/>
+    </row>
+    <row r="80" spans="1:40">
       <c r="A80" s="13">
         <v>44644</v>
       </c>
@@ -7039,10 +7125,11 @@
       <c r="AH80" s="43"/>
       <c r="AI80" s="45"/>
       <c r="AJ80" s="44"/>
-      <c r="AL80" s="8"/>
-      <c r="AM80" s="36"/>
-    </row>
-    <row r="81" spans="1:39">
+      <c r="AK80" s="48"/>
+      <c r="AM80" s="9"/>
+      <c r="AN80" s="36"/>
+    </row>
+    <row r="81" spans="1:40">
       <c r="A81" s="13">
         <v>44645</v>
       </c>
@@ -7081,10 +7168,11 @@
       <c r="AH81" s="43"/>
       <c r="AI81" s="45"/>
       <c r="AJ81" s="44"/>
-      <c r="AL81" s="8"/>
-      <c r="AM81" s="36"/>
-    </row>
-    <row r="82" spans="1:39">
+      <c r="AK81" s="48"/>
+      <c r="AM81" s="9"/>
+      <c r="AN81" s="36"/>
+    </row>
+    <row r="82" spans="1:40">
       <c r="A82" s="13">
         <v>44646</v>
       </c>
@@ -7123,10 +7211,11 @@
       <c r="AH82" s="43"/>
       <c r="AI82" s="45"/>
       <c r="AJ82" s="44"/>
-      <c r="AL82" s="8"/>
-      <c r="AM82" s="36"/>
-    </row>
-    <row r="83" spans="1:39">
+      <c r="AK82" s="48"/>
+      <c r="AM82" s="9"/>
+      <c r="AN82" s="36"/>
+    </row>
+    <row r="83" spans="1:40">
       <c r="A83" s="13">
         <v>44647</v>
       </c>
@@ -7165,10 +7254,11 @@
       <c r="AH83" s="43"/>
       <c r="AI83" s="45"/>
       <c r="AJ83" s="44"/>
-      <c r="AL83" s="8"/>
-      <c r="AM83" s="36"/>
-    </row>
-    <row r="84" spans="1:39">
+      <c r="AK83" s="48"/>
+      <c r="AM83" s="9"/>
+      <c r="AN83" s="36"/>
+    </row>
+    <row r="84" spans="1:40">
       <c r="A84" s="13">
         <v>44648</v>
       </c>
@@ -7207,10 +7297,11 @@
       <c r="AH84" s="43"/>
       <c r="AI84" s="45"/>
       <c r="AJ84" s="44"/>
-      <c r="AL84" s="8"/>
-      <c r="AM84" s="36"/>
-    </row>
-    <row r="85" spans="1:39">
+      <c r="AK84" s="48"/>
+      <c r="AM84" s="9"/>
+      <c r="AN84" s="36"/>
+    </row>
+    <row r="85" spans="1:40">
       <c r="A85" s="13">
         <v>44649</v>
       </c>
@@ -7249,11 +7340,12 @@
       <c r="AH85" s="43"/>
       <c r="AI85" s="45"/>
       <c r="AJ85" s="44"/>
-      <c r="AL85" s="8"/>
-      <c r="AM85" s="36"/>
-    </row>
-    <row r="86" spans="1:37">
-      <c r="A86" s="48"/>
+      <c r="AK85" s="48"/>
+      <c r="AM85" s="9"/>
+      <c r="AN85" s="36"/>
+    </row>
+    <row r="86" spans="1:38">
+      <c r="A86" s="50"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -7262,7 +7354,7 @@
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="J86" s="5"/>
-      <c r="K86" s="49"/>
+      <c r="K86" s="51"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
@@ -7273,10 +7365,10 @@
       <c r="S86" s="5"/>
       <c r="T86" s="5"/>
       <c r="Y86" s="5"/>
-      <c r="AK86" s="50"/>
+      <c r="AL86" s="52"/>
     </row>
     <row r="87" spans="1:25">
-      <c r="A87" s="48"/>
+      <c r="A87" s="50"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -7285,7 +7377,7 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="J87" s="5"/>
-      <c r="K87" s="49"/>
+      <c r="K87" s="51"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
@@ -7298,7 +7390,7 @@
       <c r="Y87" s="5"/>
     </row>
     <row r="88" spans="1:25">
-      <c r="A88" s="48"/>
+      <c r="A88" s="50"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -7307,7 +7399,7 @@
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="J88" s="5"/>
-      <c r="K88" s="49"/>
+      <c r="K88" s="51"/>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
@@ -7320,7 +7412,7 @@
       <c r="Y88" s="5"/>
     </row>
     <row r="89" spans="1:25">
-      <c r="A89" s="48"/>
+      <c r="A89" s="50"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -7329,7 +7421,7 @@
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="J89" s="5"/>
-      <c r="K89" s="49"/>
+      <c r="K89" s="51"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
@@ -7342,7 +7434,7 @@
       <c r="Y89" s="5"/>
     </row>
     <row r="90" spans="1:25">
-      <c r="A90" s="48"/>
+      <c r="A90" s="50"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -7351,7 +7443,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="J90" s="5"/>
-      <c r="K90" s="49"/>
+      <c r="K90" s="51"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
@@ -7364,7 +7456,7 @@
       <c r="Y90" s="5"/>
     </row>
     <row r="91" spans="1:25">
-      <c r="A91" s="48"/>
+      <c r="A91" s="50"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -7373,7 +7465,7 @@
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="J91" s="5"/>
-      <c r="K91" s="49"/>
+      <c r="K91" s="51"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
@@ -7386,7 +7478,7 @@
       <c r="Y91" s="5"/>
     </row>
     <row r="92" spans="1:25">
-      <c r="A92" s="48"/>
+      <c r="A92" s="50"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -7395,7 +7487,7 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="J92" s="5"/>
-      <c r="K92" s="49"/>
+      <c r="K92" s="51"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
@@ -7408,7 +7500,7 @@
       <c r="Y92" s="5"/>
     </row>
     <row r="93" spans="1:25">
-      <c r="A93" s="48"/>
+      <c r="A93" s="50"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -7417,7 +7509,7 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="J93" s="5"/>
-      <c r="K93" s="49"/>
+      <c r="K93" s="51"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
@@ -7430,7 +7522,7 @@
       <c r="Y93" s="5"/>
     </row>
     <row r="94" spans="1:25">
-      <c r="A94" s="48"/>
+      <c r="A94" s="50"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -7439,7 +7531,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="J94" s="5"/>
-      <c r="K94" s="49"/>
+      <c r="K94" s="51"/>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
@@ -7452,7 +7544,7 @@
       <c r="Y94" s="5"/>
     </row>
     <row r="95" spans="1:25">
-      <c r="A95" s="48"/>
+      <c r="A95" s="50"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -7461,7 +7553,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="J95" s="5"/>
-      <c r="K95" s="49"/>
+      <c r="K95" s="51"/>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
@@ -7474,7 +7566,7 @@
       <c r="Y95" s="5"/>
     </row>
     <row r="96" spans="1:25">
-      <c r="A96" s="48"/>
+      <c r="A96" s="50"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -7483,7 +7575,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="J96" s="5"/>
-      <c r="K96" s="49"/>
+      <c r="K96" s="51"/>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
@@ -7496,7 +7588,7 @@
       <c r="Y96" s="5"/>
     </row>
     <row r="97" spans="1:25">
-      <c r="A97" s="48"/>
+      <c r="A97" s="50"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -7505,7 +7597,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="J97" s="5"/>
-      <c r="K97" s="49"/>
+      <c r="K97" s="51"/>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
@@ -7518,7 +7610,7 @@
       <c r="Y97" s="5"/>
     </row>
     <row r="98" spans="1:25">
-      <c r="A98" s="48"/>
+      <c r="A98" s="50"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -7527,7 +7619,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="J98" s="5"/>
-      <c r="K98" s="49"/>
+      <c r="K98" s="51"/>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
@@ -7540,7 +7632,7 @@
       <c r="Y98" s="5"/>
     </row>
     <row r="99" spans="1:25">
-      <c r="A99" s="48"/>
+      <c r="A99" s="50"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -7549,7 +7641,7 @@
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="J99" s="5"/>
-      <c r="K99" s="49"/>
+      <c r="K99" s="51"/>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
@@ -7562,7 +7654,7 @@
       <c r="Y99" s="5"/>
     </row>
     <row r="100" spans="1:25">
-      <c r="A100" s="48"/>
+      <c r="A100" s="50"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -7571,7 +7663,7 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="J100" s="5"/>
-      <c r="K100" s="49"/>
+      <c r="K100" s="51"/>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
@@ -7584,7 +7676,7 @@
       <c r="Y100" s="5"/>
     </row>
     <row r="101" spans="1:25">
-      <c r="A101" s="48"/>
+      <c r="A101" s="50"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -7593,7 +7685,7 @@
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="J101" s="5"/>
-      <c r="K101" s="49"/>
+      <c r="K101" s="51"/>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
@@ -7606,7 +7698,7 @@
       <c r="Y101" s="5"/>
     </row>
     <row r="102" spans="1:25">
-      <c r="A102" s="48"/>
+      <c r="A102" s="50"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -7615,7 +7707,7 @@
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="J102" s="5"/>
-      <c r="K102" s="49"/>
+      <c r="K102" s="51"/>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
@@ -7628,7 +7720,7 @@
       <c r="Y102" s="5"/>
     </row>
     <row r="103" spans="1:25">
-      <c r="A103" s="48"/>
+      <c r="A103" s="50"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -7637,7 +7729,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="J103" s="5"/>
-      <c r="K103" s="49"/>
+      <c r="K103" s="51"/>
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
@@ -7650,7 +7742,7 @@
       <c r="Y103" s="5"/>
     </row>
     <row r="104" spans="1:25">
-      <c r="A104" s="48"/>
+      <c r="A104" s="50"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -7659,7 +7751,7 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="J104" s="5"/>
-      <c r="K104" s="49"/>
+      <c r="K104" s="51"/>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
@@ -7672,7 +7764,7 @@
       <c r="Y104" s="5"/>
     </row>
     <row r="105" spans="1:25">
-      <c r="A105" s="48"/>
+      <c r="A105" s="50"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -7681,7 +7773,7 @@
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="J105" s="5"/>
-      <c r="K105" s="49"/>
+      <c r="K105" s="51"/>
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
@@ -7694,7 +7786,7 @@
       <c r="Y105" s="5"/>
     </row>
     <row r="106" spans="1:25">
-      <c r="A106" s="48"/>
+      <c r="A106" s="50"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -7703,7 +7795,7 @@
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="J106" s="5"/>
-      <c r="K106" s="49"/>
+      <c r="K106" s="51"/>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
@@ -7716,7 +7808,7 @@
       <c r="Y106" s="5"/>
     </row>
     <row r="107" spans="1:25">
-      <c r="A107" s="48"/>
+      <c r="A107" s="50"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -7725,7 +7817,7 @@
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="J107" s="5"/>
-      <c r="K107" s="49"/>
+      <c r="K107" s="51"/>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
@@ -7738,7 +7830,7 @@
       <c r="Y107" s="5"/>
     </row>
     <row r="108" spans="1:25">
-      <c r="A108" s="48"/>
+      <c r="A108" s="50"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -7747,7 +7839,7 @@
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="J108" s="5"/>
-      <c r="K108" s="49"/>
+      <c r="K108" s="51"/>
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
@@ -7760,7 +7852,7 @@
       <c r="Y108" s="5"/>
     </row>
     <row r="109" spans="1:25">
-      <c r="A109" s="48"/>
+      <c r="A109" s="50"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -7769,7 +7861,7 @@
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="J109" s="5"/>
-      <c r="K109" s="49"/>
+      <c r="K109" s="51"/>
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
@@ -7782,7 +7874,7 @@
       <c r="Y109" s="5"/>
     </row>
     <row r="110" spans="1:25">
-      <c r="A110" s="48"/>
+      <c r="A110" s="50"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -7791,7 +7883,7 @@
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="J110" s="5"/>
-      <c r="K110" s="49"/>
+      <c r="K110" s="51"/>
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -7804,7 +7896,7 @@
       <c r="Y110" s="5"/>
     </row>
     <row r="111" spans="1:25">
-      <c r="A111" s="48"/>
+      <c r="A111" s="50"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -7813,7 +7905,7 @@
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="J111" s="5"/>
-      <c r="K111" s="49"/>
+      <c r="K111" s="51"/>
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -7826,7 +7918,7 @@
       <c r="Y111" s="5"/>
     </row>
     <row r="112" spans="1:25">
-      <c r="A112" s="48"/>
+      <c r="A112" s="50"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -7835,7 +7927,7 @@
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="J112" s="5"/>
-      <c r="K112" s="49"/>
+      <c r="K112" s="51"/>
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
@@ -7848,7 +7940,7 @@
       <c r="Y112" s="5"/>
     </row>
     <row r="113" spans="1:25">
-      <c r="A113" s="48"/>
+      <c r="A113" s="50"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -7857,7 +7949,7 @@
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="J113" s="5"/>
-      <c r="K113" s="49"/>
+      <c r="K113" s="51"/>
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
@@ -7870,7 +7962,7 @@
       <c r="Y113" s="5"/>
     </row>
     <row r="114" spans="1:25">
-      <c r="A114" s="48"/>
+      <c r="A114" s="50"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -7879,7 +7971,7 @@
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="J114" s="5"/>
-      <c r="K114" s="49"/>
+      <c r="K114" s="51"/>
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
@@ -7892,7 +7984,7 @@
       <c r="Y114" s="5"/>
     </row>
     <row r="115" spans="1:25">
-      <c r="A115" s="48"/>
+      <c r="A115" s="50"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -7901,7 +7993,7 @@
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="J115" s="5"/>
-      <c r="K115" s="49"/>
+      <c r="K115" s="51"/>
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
@@ -7914,7 +8006,7 @@
       <c r="Y115" s="5"/>
     </row>
     <row r="116" spans="1:25">
-      <c r="A116" s="48"/>
+      <c r="A116" s="50"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -7923,7 +8015,7 @@
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="J116" s="5"/>
-      <c r="K116" s="49"/>
+      <c r="K116" s="51"/>
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
@@ -7936,7 +8028,7 @@
       <c r="Y116" s="5"/>
     </row>
     <row r="117" spans="1:25">
-      <c r="A117" s="48"/>
+      <c r="A117" s="50"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -7945,7 +8037,7 @@
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="49"/>
+      <c r="K117" s="51"/>
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
@@ -7958,7 +8050,7 @@
       <c r="Y117" s="5"/>
     </row>
     <row r="118" spans="1:25">
-      <c r="A118" s="48"/>
+      <c r="A118" s="50"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -7967,7 +8059,7 @@
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="J118" s="5"/>
-      <c r="K118" s="49"/>
+      <c r="K118" s="51"/>
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
@@ -7980,7 +8072,7 @@
       <c r="Y118" s="5"/>
     </row>
     <row r="119" spans="1:25">
-      <c r="A119" s="48"/>
+      <c r="A119" s="50"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -7989,7 +8081,7 @@
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="J119" s="5"/>
-      <c r="K119" s="49"/>
+      <c r="K119" s="51"/>
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
@@ -8002,7 +8094,7 @@
       <c r="Y119" s="5"/>
     </row>
     <row r="120" spans="1:25">
-      <c r="A120" s="48"/>
+      <c r="A120" s="50"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -8011,7 +8103,7 @@
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="J120" s="5"/>
-      <c r="K120" s="49"/>
+      <c r="K120" s="51"/>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
@@ -8024,7 +8116,7 @@
       <c r="Y120" s="5"/>
     </row>
     <row r="121" spans="1:25">
-      <c r="A121" s="48"/>
+      <c r="A121" s="50"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -8033,7 +8125,7 @@
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="J121" s="5"/>
-      <c r="K121" s="49"/>
+      <c r="K121" s="51"/>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
@@ -8046,7 +8138,7 @@
       <c r="Y121" s="5"/>
     </row>
     <row r="122" spans="1:25">
-      <c r="A122" s="48"/>
+      <c r="A122" s="50"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -8055,7 +8147,7 @@
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="J122" s="5"/>
-      <c r="K122" s="49"/>
+      <c r="K122" s="51"/>
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
@@ -8068,7 +8160,7 @@
       <c r="Y122" s="5"/>
     </row>
     <row r="123" spans="1:25">
-      <c r="A123" s="48"/>
+      <c r="A123" s="50"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -8077,7 +8169,7 @@
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="J123" s="5"/>
-      <c r="K123" s="49"/>
+      <c r="K123" s="51"/>
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
@@ -8090,7 +8182,7 @@
       <c r="Y123" s="5"/>
     </row>
     <row r="124" spans="1:25">
-      <c r="A124" s="48"/>
+      <c r="A124" s="50"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -8099,7 +8191,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="J124" s="5"/>
-      <c r="K124" s="49"/>
+      <c r="K124" s="51"/>
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
@@ -8112,7 +8204,7 @@
       <c r="Y124" s="5"/>
     </row>
     <row r="125" spans="1:25">
-      <c r="A125" s="48"/>
+      <c r="A125" s="50"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -8121,7 +8213,7 @@
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="J125" s="5"/>
-      <c r="K125" s="49"/>
+      <c r="K125" s="51"/>
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
@@ -8134,7 +8226,7 @@
       <c r="Y125" s="5"/>
     </row>
     <row r="126" spans="1:25">
-      <c r="A126" s="48"/>
+      <c r="A126" s="50"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -8143,7 +8235,7 @@
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="J126" s="5"/>
-      <c r="K126" s="49"/>
+      <c r="K126" s="51"/>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
@@ -8156,7 +8248,7 @@
       <c r="Y126" s="5"/>
     </row>
     <row r="127" spans="1:25">
-      <c r="A127" s="48"/>
+      <c r="A127" s="50"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -8165,7 +8257,7 @@
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="J127" s="5"/>
-      <c r="K127" s="49"/>
+      <c r="K127" s="51"/>
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
@@ -8178,7 +8270,7 @@
       <c r="Y127" s="5"/>
     </row>
     <row r="128" spans="1:25">
-      <c r="A128" s="48"/>
+      <c r="A128" s="50"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -8187,7 +8279,7 @@
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="J128" s="5"/>
-      <c r="K128" s="49"/>
+      <c r="K128" s="51"/>
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
@@ -8200,7 +8292,7 @@
       <c r="Y128" s="5"/>
     </row>
     <row r="129" spans="1:25">
-      <c r="A129" s="48"/>
+      <c r="A129" s="50"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -8209,7 +8301,7 @@
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="J129" s="5"/>
-      <c r="K129" s="49"/>
+      <c r="K129" s="51"/>
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
@@ -8222,7 +8314,7 @@
       <c r="Y129" s="5"/>
     </row>
     <row r="130" spans="1:25">
-      <c r="A130" s="48"/>
+      <c r="A130" s="50"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -8231,7 +8323,7 @@
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="J130" s="5"/>
-      <c r="K130" s="49"/>
+      <c r="K130" s="51"/>
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
@@ -8244,7 +8336,7 @@
       <c r="Y130" s="5"/>
     </row>
     <row r="131" spans="1:25">
-      <c r="A131" s="48"/>
+      <c r="A131" s="50"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -8253,7 +8345,7 @@
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="J131" s="5"/>
-      <c r="K131" s="49"/>
+      <c r="K131" s="51"/>
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
@@ -8266,7 +8358,7 @@
       <c r="Y131" s="5"/>
     </row>
     <row r="132" spans="1:25">
-      <c r="A132" s="48"/>
+      <c r="A132" s="50"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -8275,7 +8367,7 @@
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="J132" s="5"/>
-      <c r="K132" s="49"/>
+      <c r="K132" s="51"/>
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
       <c r="N132" s="5"/>
@@ -8288,7 +8380,7 @@
       <c r="Y132" s="5"/>
     </row>
     <row r="133" spans="1:25">
-      <c r="A133" s="48"/>
+      <c r="A133" s="50"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -8297,7 +8389,7 @@
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="J133" s="5"/>
-      <c r="K133" s="49"/>
+      <c r="K133" s="51"/>
       <c r="L133" s="5"/>
       <c r="M133" s="5"/>
       <c r="N133" s="5"/>
@@ -8310,7 +8402,7 @@
       <c r="Y133" s="5"/>
     </row>
     <row r="134" spans="1:25">
-      <c r="A134" s="48"/>
+      <c r="A134" s="50"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -8319,7 +8411,7 @@
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="J134" s="5"/>
-      <c r="K134" s="49"/>
+      <c r="K134" s="51"/>
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
       <c r="N134" s="5"/>
@@ -8332,7 +8424,7 @@
       <c r="Y134" s="5"/>
     </row>
     <row r="135" spans="1:25">
-      <c r="A135" s="48"/>
+      <c r="A135" s="50"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -8341,7 +8433,7 @@
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="J135" s="5"/>
-      <c r="K135" s="49"/>
+      <c r="K135" s="51"/>
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
@@ -8354,7 +8446,7 @@
       <c r="Y135" s="5"/>
     </row>
     <row r="136" spans="1:25">
-      <c r="A136" s="48"/>
+      <c r="A136" s="50"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -8363,7 +8455,7 @@
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="J136" s="5"/>
-      <c r="K136" s="49"/>
+      <c r="K136" s="51"/>
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
@@ -8376,7 +8468,7 @@
       <c r="Y136" s="5"/>
     </row>
     <row r="137" spans="1:25">
-      <c r="A137" s="48"/>
+      <c r="A137" s="50"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -8385,7 +8477,7 @@
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="J137" s="5"/>
-      <c r="K137" s="49"/>
+      <c r="K137" s="51"/>
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
       <c r="N137" s="5"/>
@@ -8398,7 +8490,7 @@
       <c r="Y137" s="5"/>
     </row>
     <row r="138" spans="1:25">
-      <c r="A138" s="48"/>
+      <c r="A138" s="50"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -8407,7 +8499,7 @@
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="J138" s="5"/>
-      <c r="K138" s="49"/>
+      <c r="K138" s="51"/>
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
       <c r="N138" s="5"/>
@@ -8420,7 +8512,7 @@
       <c r="Y138" s="5"/>
     </row>
     <row r="139" spans="1:25">
-      <c r="A139" s="48"/>
+      <c r="A139" s="50"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -8429,7 +8521,7 @@
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="J139" s="5"/>
-      <c r="K139" s="49"/>
+      <c r="K139" s="51"/>
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
@@ -8442,7 +8534,7 @@
       <c r="Y139" s="5"/>
     </row>
     <row r="140" spans="1:25">
-      <c r="A140" s="48"/>
+      <c r="A140" s="50"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -8451,7 +8543,7 @@
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="J140" s="5"/>
-      <c r="K140" s="49"/>
+      <c r="K140" s="51"/>
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
       <c r="N140" s="5"/>
@@ -8464,7 +8556,7 @@
       <c r="Y140" s="5"/>
     </row>
     <row r="141" spans="1:25">
-      <c r="A141" s="48"/>
+      <c r="A141" s="50"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -8473,7 +8565,7 @@
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="J141" s="5"/>
-      <c r="K141" s="49"/>
+      <c r="K141" s="51"/>
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
@@ -8486,7 +8578,7 @@
       <c r="Y141" s="5"/>
     </row>
     <row r="142" spans="1:25">
-      <c r="A142" s="48"/>
+      <c r="A142" s="50"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -8495,7 +8587,7 @@
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="J142" s="5"/>
-      <c r="K142" s="49"/>
+      <c r="K142" s="51"/>
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
@@ -8508,7 +8600,7 @@
       <c r="Y142" s="5"/>
     </row>
     <row r="143" spans="1:25">
-      <c r="A143" s="48"/>
+      <c r="A143" s="50"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -8517,7 +8609,7 @@
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="J143" s="5"/>
-      <c r="K143" s="49"/>
+      <c r="K143" s="51"/>
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
@@ -8530,7 +8622,7 @@
       <c r="Y143" s="5"/>
     </row>
     <row r="144" spans="1:25">
-      <c r="A144" s="48"/>
+      <c r="A144" s="50"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -8539,7 +8631,7 @@
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="J144" s="5"/>
-      <c r="K144" s="49"/>
+      <c r="K144" s="51"/>
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
       <c r="N144" s="5"/>
@@ -8552,7 +8644,7 @@
       <c r="Y144" s="5"/>
     </row>
     <row r="145" spans="1:25">
-      <c r="A145" s="48"/>
+      <c r="A145" s="50"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -8561,7 +8653,7 @@
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="J145" s="5"/>
-      <c r="K145" s="49"/>
+      <c r="K145" s="51"/>
       <c r="L145" s="5"/>
       <c r="M145" s="5"/>
       <c r="N145" s="5"/>
@@ -8574,7 +8666,7 @@
       <c r="Y145" s="5"/>
     </row>
     <row r="146" spans="1:25">
-      <c r="A146" s="48"/>
+      <c r="A146" s="50"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -8583,7 +8675,7 @@
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="J146" s="5"/>
-      <c r="K146" s="49"/>
+      <c r="K146" s="51"/>
       <c r="L146" s="5"/>
       <c r="M146" s="5"/>
       <c r="N146" s="5"/>
@@ -8596,7 +8688,7 @@
       <c r="Y146" s="5"/>
     </row>
     <row r="147" spans="1:25">
-      <c r="A147" s="48"/>
+      <c r="A147" s="50"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -8605,7 +8697,7 @@
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="J147" s="5"/>
-      <c r="K147" s="49"/>
+      <c r="K147" s="51"/>
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
       <c r="N147" s="5"/>
@@ -8618,7 +8710,7 @@
       <c r="Y147" s="5"/>
     </row>
     <row r="148" spans="1:25">
-      <c r="A148" s="48"/>
+      <c r="A148" s="50"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -8627,7 +8719,7 @@
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
       <c r="J148" s="5"/>
-      <c r="K148" s="49"/>
+      <c r="K148" s="51"/>
       <c r="L148" s="5"/>
       <c r="M148" s="5"/>
       <c r="N148" s="5"/>
@@ -8640,7 +8732,7 @@
       <c r="Y148" s="5"/>
     </row>
     <row r="149" spans="1:25">
-      <c r="A149" s="48"/>
+      <c r="A149" s="50"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -8649,7 +8741,7 @@
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="J149" s="5"/>
-      <c r="K149" s="49"/>
+      <c r="K149" s="51"/>
       <c r="L149" s="5"/>
       <c r="M149" s="5"/>
       <c r="N149" s="5"/>
@@ -8662,7 +8754,7 @@
       <c r="Y149" s="5"/>
     </row>
     <row r="150" spans="1:25">
-      <c r="A150" s="48"/>
+      <c r="A150" s="50"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -8671,7 +8763,7 @@
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="J150" s="5"/>
-      <c r="K150" s="49"/>
+      <c r="K150" s="51"/>
       <c r="L150" s="5"/>
       <c r="M150" s="5"/>
       <c r="N150" s="5"/>
@@ -8684,7 +8776,7 @@
       <c r="Y150" s="5"/>
     </row>
     <row r="151" spans="1:25">
-      <c r="A151" s="48"/>
+      <c r="A151" s="50"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -8693,7 +8785,7 @@
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="J151" s="5"/>
-      <c r="K151" s="49"/>
+      <c r="K151" s="51"/>
       <c r="L151" s="5"/>
       <c r="M151" s="5"/>
       <c r="N151" s="5"/>
@@ -8706,7 +8798,7 @@
       <c r="Y151" s="5"/>
     </row>
     <row r="152" spans="1:25">
-      <c r="A152" s="48"/>
+      <c r="A152" s="50"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -8715,7 +8807,7 @@
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
       <c r="J152" s="5"/>
-      <c r="K152" s="49"/>
+      <c r="K152" s="51"/>
       <c r="L152" s="5"/>
       <c r="M152" s="5"/>
       <c r="N152" s="5"/>
@@ -8728,7 +8820,7 @@
       <c r="Y152" s="5"/>
     </row>
     <row r="153" spans="1:25">
-      <c r="A153" s="48"/>
+      <c r="A153" s="50"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -8737,7 +8829,7 @@
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="J153" s="5"/>
-      <c r="K153" s="49"/>
+      <c r="K153" s="51"/>
       <c r="L153" s="5"/>
       <c r="M153" s="5"/>
       <c r="N153" s="5"/>
@@ -8750,7 +8842,7 @@
       <c r="Y153" s="5"/>
     </row>
     <row r="154" spans="1:25">
-      <c r="A154" s="48"/>
+      <c r="A154" s="50"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -8759,7 +8851,7 @@
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
       <c r="J154" s="5"/>
-      <c r="K154" s="49"/>
+      <c r="K154" s="51"/>
       <c r="L154" s="5"/>
       <c r="M154" s="5"/>
       <c r="N154" s="5"/>
@@ -8772,7 +8864,7 @@
       <c r="Y154" s="5"/>
     </row>
     <row r="155" spans="1:25">
-      <c r="A155" s="48"/>
+      <c r="A155" s="50"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -8781,7 +8873,7 @@
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="J155" s="5"/>
-      <c r="K155" s="49"/>
+      <c r="K155" s="51"/>
       <c r="L155" s="5"/>
       <c r="M155" s="5"/>
       <c r="N155" s="5"/>
@@ -8794,7 +8886,7 @@
       <c r="Y155" s="5"/>
     </row>
     <row r="156" spans="1:25">
-      <c r="A156" s="48"/>
+      <c r="A156" s="50"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -8803,7 +8895,7 @@
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="J156" s="5"/>
-      <c r="K156" s="49"/>
+      <c r="K156" s="51"/>
       <c r="L156" s="5"/>
       <c r="M156" s="5"/>
       <c r="N156" s="5"/>
@@ -8816,7 +8908,7 @@
       <c r="Y156" s="5"/>
     </row>
     <row r="157" spans="1:25">
-      <c r="A157" s="48"/>
+      <c r="A157" s="50"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -8825,7 +8917,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="J157" s="5"/>
-      <c r="K157" s="49"/>
+      <c r="K157" s="51"/>
       <c r="L157" s="5"/>
       <c r="M157" s="5"/>
       <c r="N157" s="5"/>
@@ -8838,7 +8930,7 @@
       <c r="Y157" s="5"/>
     </row>
     <row r="158" spans="1:25">
-      <c r="A158" s="48"/>
+      <c r="A158" s="50"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -8847,7 +8939,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="J158" s="5"/>
-      <c r="K158" s="49"/>
+      <c r="K158" s="51"/>
       <c r="L158" s="5"/>
       <c r="M158" s="5"/>
       <c r="N158" s="5"/>
@@ -8860,7 +8952,7 @@
       <c r="Y158" s="5"/>
     </row>
     <row r="159" spans="1:25">
-      <c r="A159" s="48"/>
+      <c r="A159" s="50"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -8869,7 +8961,7 @@
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="J159" s="5"/>
-      <c r="K159" s="49"/>
+      <c r="K159" s="51"/>
       <c r="L159" s="5"/>
       <c r="M159" s="5"/>
       <c r="N159" s="5"/>
@@ -8882,7 +8974,7 @@
       <c r="Y159" s="5"/>
     </row>
     <row r="160" spans="1:25">
-      <c r="A160" s="48"/>
+      <c r="A160" s="50"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -8891,7 +8983,7 @@
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="J160" s="5"/>
-      <c r="K160" s="49"/>
+      <c r="K160" s="51"/>
       <c r="L160" s="5"/>
       <c r="M160" s="5"/>
       <c r="N160" s="5"/>
@@ -8904,7 +8996,7 @@
       <c r="Y160" s="5"/>
     </row>
     <row r="161" spans="1:25">
-      <c r="A161" s="48"/>
+      <c r="A161" s="50"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -8913,7 +9005,7 @@
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="J161" s="5"/>
-      <c r="K161" s="49"/>
+      <c r="K161" s="51"/>
       <c r="L161" s="5"/>
       <c r="M161" s="5"/>
       <c r="N161" s="5"/>
@@ -8926,7 +9018,7 @@
       <c r="Y161" s="5"/>
     </row>
     <row r="162" spans="1:25">
-      <c r="A162" s="48"/>
+      <c r="A162" s="50"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -8935,7 +9027,7 @@
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="J162" s="5"/>
-      <c r="K162" s="49"/>
+      <c r="K162" s="51"/>
       <c r="L162" s="5"/>
       <c r="M162" s="5"/>
       <c r="N162" s="5"/>
@@ -8948,7 +9040,7 @@
       <c r="Y162" s="5"/>
     </row>
     <row r="163" spans="1:25">
-      <c r="A163" s="48"/>
+      <c r="A163" s="50"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -8957,7 +9049,7 @@
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="J163" s="5"/>
-      <c r="K163" s="49"/>
+      <c r="K163" s="51"/>
       <c r="L163" s="5"/>
       <c r="M163" s="5"/>
       <c r="N163" s="5"/>
@@ -8970,7 +9062,7 @@
       <c r="Y163" s="5"/>
     </row>
     <row r="164" spans="1:25">
-      <c r="A164" s="48"/>
+      <c r="A164" s="50"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -8979,7 +9071,7 @@
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="J164" s="5"/>
-      <c r="K164" s="49"/>
+      <c r="K164" s="51"/>
       <c r="L164" s="5"/>
       <c r="M164" s="5"/>
       <c r="N164" s="5"/>
@@ -8992,7 +9084,7 @@
       <c r="Y164" s="5"/>
     </row>
     <row r="165" spans="1:25">
-      <c r="A165" s="48"/>
+      <c r="A165" s="50"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -9001,7 +9093,7 @@
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="J165" s="5"/>
-      <c r="K165" s="49"/>
+      <c r="K165" s="51"/>
       <c r="L165" s="5"/>
       <c r="M165" s="5"/>
       <c r="N165" s="5"/>
@@ -9014,7 +9106,7 @@
       <c r="Y165" s="5"/>
     </row>
     <row r="166" spans="1:25">
-      <c r="A166" s="48"/>
+      <c r="A166" s="50"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -9023,7 +9115,7 @@
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="J166" s="5"/>
-      <c r="K166" s="49"/>
+      <c r="K166" s="51"/>
       <c r="L166" s="5"/>
       <c r="M166" s="5"/>
       <c r="N166" s="5"/>
@@ -9036,7 +9128,7 @@
       <c r="Y166" s="5"/>
     </row>
     <row r="167" spans="1:25">
-      <c r="A167" s="48"/>
+      <c r="A167" s="50"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -9045,7 +9137,7 @@
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="J167" s="5"/>
-      <c r="K167" s="49"/>
+      <c r="K167" s="51"/>
       <c r="L167" s="5"/>
       <c r="M167" s="5"/>
       <c r="N167" s="5"/>
@@ -9058,7 +9150,7 @@
       <c r="Y167" s="5"/>
     </row>
     <row r="168" spans="1:25">
-      <c r="A168" s="48"/>
+      <c r="A168" s="50"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -9067,7 +9159,7 @@
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="J168" s="5"/>
-      <c r="K168" s="49"/>
+      <c r="K168" s="51"/>
       <c r="L168" s="5"/>
       <c r="M168" s="5"/>
       <c r="N168" s="5"/>
@@ -9080,7 +9172,7 @@
       <c r="Y168" s="5"/>
     </row>
     <row r="169" spans="1:25">
-      <c r="A169" s="48"/>
+      <c r="A169" s="50"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -9089,7 +9181,7 @@
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="J169" s="5"/>
-      <c r="K169" s="49"/>
+      <c r="K169" s="51"/>
       <c r="L169" s="5"/>
       <c r="M169" s="5"/>
       <c r="N169" s="5"/>
@@ -9102,7 +9194,7 @@
       <c r="Y169" s="5"/>
     </row>
     <row r="170" spans="1:25">
-      <c r="A170" s="48"/>
+      <c r="A170" s="50"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -9111,7 +9203,7 @@
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="J170" s="5"/>
-      <c r="K170" s="49"/>
+      <c r="K170" s="51"/>
       <c r="L170" s="5"/>
       <c r="M170" s="5"/>
       <c r="N170" s="5"/>
@@ -9124,7 +9216,7 @@
       <c r="Y170" s="5"/>
     </row>
     <row r="171" spans="1:25">
-      <c r="A171" s="48"/>
+      <c r="A171" s="50"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -9133,7 +9225,7 @@
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="J171" s="5"/>
-      <c r="K171" s="49"/>
+      <c r="K171" s="51"/>
       <c r="L171" s="5"/>
       <c r="M171" s="5"/>
       <c r="N171" s="5"/>
@@ -9146,7 +9238,7 @@
       <c r="Y171" s="5"/>
     </row>
     <row r="172" spans="1:25">
-      <c r="A172" s="48"/>
+      <c r="A172" s="50"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -9155,7 +9247,7 @@
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="J172" s="5"/>
-      <c r="K172" s="49"/>
+      <c r="K172" s="51"/>
       <c r="L172" s="5"/>
       <c r="M172" s="5"/>
       <c r="N172" s="5"/>
@@ -9168,7 +9260,7 @@
       <c r="Y172" s="5"/>
     </row>
     <row r="173" spans="1:25">
-      <c r="A173" s="48"/>
+      <c r="A173" s="50"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -9177,7 +9269,7 @@
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="J173" s="5"/>
-      <c r="K173" s="49"/>
+      <c r="K173" s="51"/>
       <c r="L173" s="5"/>
       <c r="M173" s="5"/>
       <c r="N173" s="5"/>
@@ -9190,7 +9282,7 @@
       <c r="Y173" s="5"/>
     </row>
     <row r="174" spans="1:25">
-      <c r="A174" s="48"/>
+      <c r="A174" s="50"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -9199,7 +9291,7 @@
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="J174" s="5"/>
-      <c r="K174" s="49"/>
+      <c r="K174" s="51"/>
       <c r="L174" s="5"/>
       <c r="M174" s="5"/>
       <c r="N174" s="5"/>
@@ -9212,7 +9304,7 @@
       <c r="Y174" s="5"/>
     </row>
     <row r="175" spans="1:25">
-      <c r="A175" s="48"/>
+      <c r="A175" s="50"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -9221,7 +9313,7 @@
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="J175" s="5"/>
-      <c r="K175" s="49"/>
+      <c r="K175" s="51"/>
       <c r="L175" s="5"/>
       <c r="M175" s="5"/>
       <c r="N175" s="5"/>
@@ -9234,7 +9326,7 @@
       <c r="Y175" s="5"/>
     </row>
     <row r="176" spans="1:25">
-      <c r="A176" s="48"/>
+      <c r="A176" s="50"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -9243,7 +9335,7 @@
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="J176" s="5"/>
-      <c r="K176" s="49"/>
+      <c r="K176" s="51"/>
       <c r="L176" s="5"/>
       <c r="M176" s="5"/>
       <c r="N176" s="5"/>
@@ -9256,7 +9348,7 @@
       <c r="Y176" s="5"/>
     </row>
     <row r="177" spans="1:25">
-      <c r="A177" s="48"/>
+      <c r="A177" s="50"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -9265,7 +9357,7 @@
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="J177" s="5"/>
-      <c r="K177" s="49"/>
+      <c r="K177" s="51"/>
       <c r="L177" s="5"/>
       <c r="M177" s="5"/>
       <c r="N177" s="5"/>
@@ -9278,7 +9370,7 @@
       <c r="Y177" s="5"/>
     </row>
     <row r="178" spans="1:25">
-      <c r="A178" s="48"/>
+      <c r="A178" s="50"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -9287,7 +9379,7 @@
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="J178" s="5"/>
-      <c r="K178" s="49"/>
+      <c r="K178" s="51"/>
       <c r="L178" s="5"/>
       <c r="M178" s="5"/>
       <c r="N178" s="5"/>
@@ -9300,7 +9392,7 @@
       <c r="Y178" s="5"/>
     </row>
     <row r="179" spans="1:25">
-      <c r="A179" s="48"/>
+      <c r="A179" s="50"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -9309,7 +9401,7 @@
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="J179" s="5"/>
-      <c r="K179" s="49"/>
+      <c r="K179" s="51"/>
       <c r="L179" s="5"/>
       <c r="M179" s="5"/>
       <c r="N179" s="5"/>
@@ -9322,7 +9414,7 @@
       <c r="Y179" s="5"/>
     </row>
     <row r="180" spans="1:25">
-      <c r="A180" s="48"/>
+      <c r="A180" s="50"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -9331,7 +9423,7 @@
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
       <c r="J180" s="5"/>
-      <c r="K180" s="49"/>
+      <c r="K180" s="51"/>
       <c r="L180" s="5"/>
       <c r="M180" s="5"/>
       <c r="N180" s="5"/>
@@ -9344,7 +9436,7 @@
       <c r="Y180" s="5"/>
     </row>
     <row r="181" spans="1:25">
-      <c r="A181" s="48"/>
+      <c r="A181" s="50"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -9353,7 +9445,7 @@
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
       <c r="J181" s="5"/>
-      <c r="K181" s="49"/>
+      <c r="K181" s="51"/>
       <c r="L181" s="5"/>
       <c r="M181" s="5"/>
       <c r="N181" s="5"/>
@@ -9366,7 +9458,7 @@
       <c r="Y181" s="5"/>
     </row>
     <row r="182" spans="1:25">
-      <c r="A182" s="48"/>
+      <c r="A182" s="50"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -9375,7 +9467,7 @@
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="J182" s="5"/>
-      <c r="K182" s="49"/>
+      <c r="K182" s="51"/>
       <c r="L182" s="5"/>
       <c r="M182" s="5"/>
       <c r="N182" s="5"/>
@@ -9388,7 +9480,7 @@
       <c r="Y182" s="5"/>
     </row>
     <row r="183" spans="1:25">
-      <c r="A183" s="48"/>
+      <c r="A183" s="50"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -9397,7 +9489,7 @@
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="J183" s="5"/>
-      <c r="K183" s="49"/>
+      <c r="K183" s="51"/>
       <c r="L183" s="5"/>
       <c r="M183" s="5"/>
       <c r="N183" s="5"/>
@@ -9410,7 +9502,7 @@
       <c r="Y183" s="5"/>
     </row>
     <row r="184" spans="1:25">
-      <c r="A184" s="48"/>
+      <c r="A184" s="50"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -9419,7 +9511,7 @@
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
       <c r="J184" s="5"/>
-      <c r="K184" s="49"/>
+      <c r="K184" s="51"/>
       <c r="L184" s="5"/>
       <c r="M184" s="5"/>
       <c r="N184" s="5"/>
@@ -9432,7 +9524,7 @@
       <c r="Y184" s="5"/>
     </row>
     <row r="185" spans="1:25">
-      <c r="A185" s="48"/>
+      <c r="A185" s="50"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -9441,7 +9533,7 @@
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="J185" s="5"/>
-      <c r="K185" s="49"/>
+      <c r="K185" s="51"/>
       <c r="L185" s="5"/>
       <c r="M185" s="5"/>
       <c r="N185" s="5"/>
@@ -9454,7 +9546,7 @@
       <c r="Y185" s="5"/>
     </row>
     <row r="186" spans="1:25">
-      <c r="A186" s="48"/>
+      <c r="A186" s="50"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -9463,7 +9555,7 @@
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
       <c r="J186" s="5"/>
-      <c r="K186" s="49"/>
+      <c r="K186" s="51"/>
       <c r="L186" s="5"/>
       <c r="M186" s="5"/>
       <c r="N186" s="5"/>
@@ -9476,7 +9568,7 @@
       <c r="Y186" s="5"/>
     </row>
     <row r="187" spans="1:25">
-      <c r="A187" s="48"/>
+      <c r="A187" s="50"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -9485,7 +9577,7 @@
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="J187" s="5"/>
-      <c r="K187" s="49"/>
+      <c r="K187" s="51"/>
       <c r="L187" s="5"/>
       <c r="M187" s="5"/>
       <c r="N187" s="5"/>
@@ -9498,7 +9590,7 @@
       <c r="Y187" s="5"/>
     </row>
     <row r="188" spans="1:25">
-      <c r="A188" s="48"/>
+      <c r="A188" s="50"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -9507,7 +9599,7 @@
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
       <c r="J188" s="5"/>
-      <c r="K188" s="49"/>
+      <c r="K188" s="51"/>
       <c r="L188" s="5"/>
       <c r="M188" s="5"/>
       <c r="N188" s="5"/>
@@ -9520,7 +9612,7 @@
       <c r="Y188" s="5"/>
     </row>
     <row r="189" spans="1:25">
-      <c r="A189" s="48"/>
+      <c r="A189" s="50"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -9529,7 +9621,7 @@
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
       <c r="J189" s="5"/>
-      <c r="K189" s="49"/>
+      <c r="K189" s="51"/>
       <c r="L189" s="5"/>
       <c r="M189" s="5"/>
       <c r="N189" s="5"/>
@@ -9542,7 +9634,7 @@
       <c r="Y189" s="5"/>
     </row>
     <row r="190" spans="1:25">
-      <c r="A190" s="48"/>
+      <c r="A190" s="50"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -9551,7 +9643,7 @@
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="J190" s="5"/>
-      <c r="K190" s="49"/>
+      <c r="K190" s="51"/>
       <c r="L190" s="5"/>
       <c r="M190" s="5"/>
       <c r="N190" s="5"/>
@@ -9564,7 +9656,7 @@
       <c r="Y190" s="5"/>
     </row>
     <row r="191" spans="1:25">
-      <c r="A191" s="48"/>
+      <c r="A191" s="50"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -9573,7 +9665,7 @@
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="J191" s="5"/>
-      <c r="K191" s="49"/>
+      <c r="K191" s="51"/>
       <c r="L191" s="5"/>
       <c r="M191" s="5"/>
       <c r="N191" s="5"/>
@@ -9586,7 +9678,7 @@
       <c r="Y191" s="5"/>
     </row>
     <row r="192" spans="1:25">
-      <c r="A192" s="48"/>
+      <c r="A192" s="50"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -9595,7 +9687,7 @@
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="J192" s="5"/>
-      <c r="K192" s="49"/>
+      <c r="K192" s="51"/>
       <c r="L192" s="5"/>
       <c r="M192" s="5"/>
       <c r="N192" s="5"/>
@@ -9608,7 +9700,7 @@
       <c r="Y192" s="5"/>
     </row>
     <row r="193" spans="1:25">
-      <c r="A193" s="48"/>
+      <c r="A193" s="50"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -9617,7 +9709,7 @@
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
       <c r="J193" s="5"/>
-      <c r="K193" s="49"/>
+      <c r="K193" s="51"/>
       <c r="L193" s="5"/>
       <c r="M193" s="5"/>
       <c r="N193" s="5"/>
@@ -9630,7 +9722,7 @@
       <c r="Y193" s="5"/>
     </row>
     <row r="194" spans="1:25">
-      <c r="A194" s="48"/>
+      <c r="A194" s="50"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -9639,7 +9731,7 @@
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
       <c r="J194" s="5"/>
-      <c r="K194" s="49"/>
+      <c r="K194" s="51"/>
       <c r="L194" s="5"/>
       <c r="M194" s="5"/>
       <c r="N194" s="5"/>
@@ -9652,7 +9744,7 @@
       <c r="Y194" s="5"/>
     </row>
     <row r="195" spans="1:25">
-      <c r="A195" s="48"/>
+      <c r="A195" s="50"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -9661,7 +9753,7 @@
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
       <c r="J195" s="5"/>
-      <c r="K195" s="49"/>
+      <c r="K195" s="51"/>
       <c r="L195" s="5"/>
       <c r="M195" s="5"/>
       <c r="N195" s="5"/>
@@ -9674,7 +9766,7 @@
       <c r="Y195" s="5"/>
     </row>
     <row r="196" spans="1:25">
-      <c r="A196" s="48"/>
+      <c r="A196" s="50"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -9683,7 +9775,7 @@
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="J196" s="5"/>
-      <c r="K196" s="49"/>
+      <c r="K196" s="51"/>
       <c r="L196" s="5"/>
       <c r="M196" s="5"/>
       <c r="N196" s="5"/>
@@ -9696,7 +9788,7 @@
       <c r="Y196" s="5"/>
     </row>
     <row r="197" spans="1:25">
-      <c r="A197" s="48"/>
+      <c r="A197" s="50"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -9705,7 +9797,7 @@
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
       <c r="J197" s="5"/>
-      <c r="K197" s="49"/>
+      <c r="K197" s="51"/>
       <c r="L197" s="5"/>
       <c r="M197" s="5"/>
       <c r="N197" s="5"/>
@@ -9718,7 +9810,7 @@
       <c r="Y197" s="5"/>
     </row>
     <row r="198" spans="1:25">
-      <c r="A198" s="48"/>
+      <c r="A198" s="50"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -9727,7 +9819,7 @@
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="J198" s="5"/>
-      <c r="K198" s="49"/>
+      <c r="K198" s="51"/>
       <c r="L198" s="5"/>
       <c r="M198" s="5"/>
       <c r="N198" s="5"/>
@@ -9740,7 +9832,7 @@
       <c r="Y198" s="5"/>
     </row>
     <row r="199" spans="1:25">
-      <c r="A199" s="48"/>
+      <c r="A199" s="50"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -9749,7 +9841,7 @@
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="J199" s="5"/>
-      <c r="K199" s="49"/>
+      <c r="K199" s="51"/>
       <c r="L199" s="5"/>
       <c r="M199" s="5"/>
       <c r="N199" s="5"/>
@@ -9762,7 +9854,7 @@
       <c r="Y199" s="5"/>
     </row>
     <row r="200" spans="1:25">
-      <c r="A200" s="48"/>
+      <c r="A200" s="50"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -9771,7 +9863,7 @@
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
       <c r="J200" s="5"/>
-      <c r="K200" s="49"/>
+      <c r="K200" s="51"/>
       <c r="L200" s="5"/>
       <c r="M200" s="5"/>
       <c r="N200" s="5"/>
@@ -9784,7 +9876,7 @@
       <c r="Y200" s="5"/>
     </row>
     <row r="201" spans="1:25">
-      <c r="A201" s="48"/>
+      <c r="A201" s="50"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -9793,7 +9885,7 @@
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
       <c r="J201" s="5"/>
-      <c r="K201" s="49"/>
+      <c r="K201" s="51"/>
       <c r="L201" s="5"/>
       <c r="M201" s="5"/>
       <c r="N201" s="5"/>
@@ -9806,7 +9898,7 @@
       <c r="Y201" s="5"/>
     </row>
     <row r="202" spans="1:25">
-      <c r="A202" s="48"/>
+      <c r="A202" s="50"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -9815,7 +9907,7 @@
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
       <c r="J202" s="5"/>
-      <c r="K202" s="49"/>
+      <c r="K202" s="51"/>
       <c r="L202" s="5"/>
       <c r="M202" s="5"/>
       <c r="N202" s="5"/>
@@ -9828,7 +9920,7 @@
       <c r="Y202" s="5"/>
     </row>
     <row r="203" spans="1:25">
-      <c r="A203" s="48"/>
+      <c r="A203" s="50"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -9837,7 +9929,7 @@
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
       <c r="J203" s="5"/>
-      <c r="K203" s="49"/>
+      <c r="K203" s="51"/>
       <c r="L203" s="5"/>
       <c r="M203" s="5"/>
       <c r="N203" s="5"/>
@@ -9850,7 +9942,7 @@
       <c r="Y203" s="5"/>
     </row>
     <row r="204" spans="1:25">
-      <c r="A204" s="48"/>
+      <c r="A204" s="50"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -9859,7 +9951,7 @@
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
       <c r="J204" s="5"/>
-      <c r="K204" s="49"/>
+      <c r="K204" s="51"/>
       <c r="L204" s="5"/>
       <c r="M204" s="5"/>
       <c r="N204" s="5"/>
@@ -9872,7 +9964,7 @@
       <c r="Y204" s="5"/>
     </row>
     <row r="205" spans="1:25">
-      <c r="A205" s="48"/>
+      <c r="A205" s="50"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -9881,7 +9973,7 @@
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
       <c r="J205" s="5"/>
-      <c r="K205" s="49"/>
+      <c r="K205" s="51"/>
       <c r="L205" s="5"/>
       <c r="M205" s="5"/>
       <c r="N205" s="5"/>
@@ -9894,7 +9986,7 @@
       <c r="Y205" s="5"/>
     </row>
     <row r="206" spans="1:25">
-      <c r="A206" s="48"/>
+      <c r="A206" s="50"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -9903,7 +9995,7 @@
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
       <c r="J206" s="5"/>
-      <c r="K206" s="49"/>
+      <c r="K206" s="51"/>
       <c r="L206" s="5"/>
       <c r="M206" s="5"/>
       <c r="N206" s="5"/>
@@ -9916,7 +10008,7 @@
       <c r="Y206" s="5"/>
     </row>
     <row r="207" spans="1:25">
-      <c r="A207" s="48"/>
+      <c r="A207" s="50"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -9925,7 +10017,7 @@
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
       <c r="J207" s="5"/>
-      <c r="K207" s="49"/>
+      <c r="K207" s="51"/>
       <c r="L207" s="5"/>
       <c r="M207" s="5"/>
       <c r="N207" s="5"/>
@@ -9938,7 +10030,7 @@
       <c r="Y207" s="5"/>
     </row>
     <row r="208" spans="1:25">
-      <c r="A208" s="48"/>
+      <c r="A208" s="50"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -9947,7 +10039,7 @@
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
       <c r="J208" s="5"/>
-      <c r="K208" s="49"/>
+      <c r="K208" s="51"/>
       <c r="L208" s="5"/>
       <c r="M208" s="5"/>
       <c r="N208" s="5"/>
@@ -9960,7 +10052,7 @@
       <c r="Y208" s="5"/>
     </row>
     <row r="209" spans="1:25">
-      <c r="A209" s="48"/>
+      <c r="A209" s="50"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -9969,7 +10061,7 @@
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
       <c r="J209" s="5"/>
-      <c r="K209" s="49"/>
+      <c r="K209" s="51"/>
       <c r="L209" s="5"/>
       <c r="M209" s="5"/>
       <c r="N209" s="5"/>
@@ -9982,7 +10074,7 @@
       <c r="Y209" s="5"/>
     </row>
     <row r="210" spans="1:25">
-      <c r="A210" s="48"/>
+      <c r="A210" s="50"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -9991,7 +10083,7 @@
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
       <c r="J210" s="5"/>
-      <c r="K210" s="49"/>
+      <c r="K210" s="51"/>
       <c r="L210" s="5"/>
       <c r="M210" s="5"/>
       <c r="N210" s="5"/>
@@ -10004,7 +10096,7 @@
       <c r="Y210" s="5"/>
     </row>
     <row r="211" spans="1:25">
-      <c r="A211" s="48"/>
+      <c r="A211" s="50"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -10013,7 +10105,7 @@
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
       <c r="J211" s="5"/>
-      <c r="K211" s="49"/>
+      <c r="K211" s="51"/>
       <c r="L211" s="5"/>
       <c r="M211" s="5"/>
       <c r="N211" s="5"/>
@@ -10026,7 +10118,7 @@
       <c r="Y211" s="5"/>
     </row>
     <row r="212" spans="1:25">
-      <c r="A212" s="48"/>
+      <c r="A212" s="50"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -10035,7 +10127,7 @@
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
       <c r="J212" s="5"/>
-      <c r="K212" s="49"/>
+      <c r="K212" s="51"/>
       <c r="L212" s="5"/>
       <c r="M212" s="5"/>
       <c r="N212" s="5"/>
@@ -10048,7 +10140,7 @@
       <c r="Y212" s="5"/>
     </row>
     <row r="213" spans="1:25">
-      <c r="A213" s="48"/>
+      <c r="A213" s="50"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -10057,7 +10149,7 @@
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
       <c r="J213" s="5"/>
-      <c r="K213" s="49"/>
+      <c r="K213" s="51"/>
       <c r="L213" s="5"/>
       <c r="M213" s="5"/>
       <c r="N213" s="5"/>
@@ -10070,7 +10162,7 @@
       <c r="Y213" s="5"/>
     </row>
     <row r="214" spans="1:25">
-      <c r="A214" s="48"/>
+      <c r="A214" s="50"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -10079,7 +10171,7 @@
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
       <c r="J214" s="5"/>
-      <c r="K214" s="49"/>
+      <c r="K214" s="51"/>
       <c r="L214" s="5"/>
       <c r="M214" s="5"/>
       <c r="N214" s="5"/>
@@ -10092,7 +10184,7 @@
       <c r="Y214" s="5"/>
     </row>
     <row r="215" spans="1:25">
-      <c r="A215" s="48"/>
+      <c r="A215" s="50"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -10101,7 +10193,7 @@
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
       <c r="J215" s="5"/>
-      <c r="K215" s="49"/>
+      <c r="K215" s="51"/>
       <c r="L215" s="5"/>
       <c r="M215" s="5"/>
       <c r="N215" s="5"/>
@@ -10114,7 +10206,7 @@
       <c r="Y215" s="5"/>
     </row>
     <row r="216" spans="1:25">
-      <c r="A216" s="48"/>
+      <c r="A216" s="50"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -10123,7 +10215,7 @@
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
       <c r="J216" s="5"/>
-      <c r="K216" s="49"/>
+      <c r="K216" s="51"/>
       <c r="L216" s="5"/>
       <c r="M216" s="5"/>
       <c r="N216" s="5"/>
@@ -10136,7 +10228,7 @@
       <c r="Y216" s="5"/>
     </row>
     <row r="217" spans="1:25">
-      <c r="A217" s="48"/>
+      <c r="A217" s="50"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -10145,7 +10237,7 @@
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
       <c r="J217" s="5"/>
-      <c r="K217" s="49"/>
+      <c r="K217" s="51"/>
       <c r="L217" s="5"/>
       <c r="M217" s="5"/>
       <c r="N217" s="5"/>
@@ -10158,7 +10250,7 @@
       <c r="Y217" s="5"/>
     </row>
     <row r="218" spans="1:25">
-      <c r="A218" s="48"/>
+      <c r="A218" s="50"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -10167,7 +10259,7 @@
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
       <c r="J218" s="5"/>
-      <c r="K218" s="49"/>
+      <c r="K218" s="51"/>
       <c r="L218" s="5"/>
       <c r="M218" s="5"/>
       <c r="N218" s="5"/>
@@ -10180,7 +10272,7 @@
       <c r="Y218" s="5"/>
     </row>
     <row r="219" spans="1:25">
-      <c r="A219" s="48"/>
+      <c r="A219" s="50"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -10189,7 +10281,7 @@
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
       <c r="J219" s="5"/>
-      <c r="K219" s="49"/>
+      <c r="K219" s="51"/>
       <c r="L219" s="5"/>
       <c r="M219" s="5"/>
       <c r="N219" s="5"/>
@@ -10202,7 +10294,7 @@
       <c r="Y219" s="5"/>
     </row>
     <row r="220" spans="1:25">
-      <c r="A220" s="48"/>
+      <c r="A220" s="50"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -10211,7 +10303,7 @@
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
       <c r="J220" s="5"/>
-      <c r="K220" s="49"/>
+      <c r="K220" s="51"/>
       <c r="L220" s="5"/>
       <c r="M220" s="5"/>
       <c r="N220" s="5"/>
@@ -10224,7 +10316,7 @@
       <c r="Y220" s="5"/>
     </row>
     <row r="221" spans="1:25">
-      <c r="A221" s="48"/>
+      <c r="A221" s="50"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -10233,7 +10325,7 @@
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
       <c r="J221" s="5"/>
-      <c r="K221" s="49"/>
+      <c r="K221" s="51"/>
       <c r="L221" s="5"/>
       <c r="M221" s="5"/>
       <c r="N221" s="5"/>
@@ -10246,7 +10338,7 @@
       <c r="Y221" s="5"/>
     </row>
     <row r="222" spans="1:25">
-      <c r="A222" s="48"/>
+      <c r="A222" s="50"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -10255,7 +10347,7 @@
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
       <c r="J222" s="5"/>
-      <c r="K222" s="49"/>
+      <c r="K222" s="51"/>
       <c r="L222" s="5"/>
       <c r="M222" s="5"/>
       <c r="N222" s="5"/>
@@ -10268,7 +10360,7 @@
       <c r="Y222" s="5"/>
     </row>
     <row r="223" spans="1:25">
-      <c r="A223" s="48"/>
+      <c r="A223" s="50"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -10277,7 +10369,7 @@
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
       <c r="J223" s="5"/>
-      <c r="K223" s="49"/>
+      <c r="K223" s="51"/>
       <c r="L223" s="5"/>
       <c r="M223" s="5"/>
       <c r="N223" s="5"/>
@@ -10290,7 +10382,7 @@
       <c r="Y223" s="5"/>
     </row>
     <row r="224" spans="1:25">
-      <c r="A224" s="48"/>
+      <c r="A224" s="50"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -10299,7 +10391,7 @@
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
       <c r="J224" s="5"/>
-      <c r="K224" s="49"/>
+      <c r="K224" s="51"/>
       <c r="L224" s="5"/>
       <c r="M224" s="5"/>
       <c r="N224" s="5"/>
@@ -10312,7 +10404,7 @@
       <c r="Y224" s="5"/>
     </row>
     <row r="225" spans="1:25">
-      <c r="A225" s="48"/>
+      <c r="A225" s="50"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -10321,7 +10413,7 @@
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
       <c r="J225" s="5"/>
-      <c r="K225" s="49"/>
+      <c r="K225" s="51"/>
       <c r="L225" s="5"/>
       <c r="M225" s="5"/>
       <c r="N225" s="5"/>
@@ -10334,7 +10426,7 @@
       <c r="Y225" s="5"/>
     </row>
     <row r="226" spans="1:25">
-      <c r="A226" s="48"/>
+      <c r="A226" s="50"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -10343,7 +10435,7 @@
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
       <c r="J226" s="5"/>
-      <c r="K226" s="49"/>
+      <c r="K226" s="51"/>
       <c r="L226" s="5"/>
       <c r="M226" s="5"/>
       <c r="N226" s="5"/>
@@ -10356,7 +10448,7 @@
       <c r="Y226" s="5"/>
     </row>
     <row r="227" spans="1:25">
-      <c r="A227" s="48"/>
+      <c r="A227" s="50"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -10365,7 +10457,7 @@
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
       <c r="J227" s="5"/>
-      <c r="K227" s="49"/>
+      <c r="K227" s="51"/>
       <c r="L227" s="5"/>
       <c r="M227" s="5"/>
       <c r="N227" s="5"/>
@@ -10378,7 +10470,7 @@
       <c r="Y227" s="5"/>
     </row>
     <row r="228" spans="1:25">
-      <c r="A228" s="48"/>
+      <c r="A228" s="50"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -10387,7 +10479,7 @@
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
       <c r="J228" s="5"/>
-      <c r="K228" s="49"/>
+      <c r="K228" s="51"/>
       <c r="L228" s="5"/>
       <c r="M228" s="5"/>
       <c r="N228" s="5"/>
@@ -10400,7 +10492,7 @@
       <c r="Y228" s="5"/>
     </row>
     <row r="229" spans="1:25">
-      <c r="A229" s="48"/>
+      <c r="A229" s="50"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -10409,7 +10501,7 @@
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
       <c r="J229" s="5"/>
-      <c r="K229" s="49"/>
+      <c r="K229" s="51"/>
       <c r="L229" s="5"/>
       <c r="M229" s="5"/>
       <c r="N229" s="5"/>
@@ -10422,7 +10514,7 @@
       <c r="Y229" s="5"/>
     </row>
     <row r="230" spans="1:25">
-      <c r="A230" s="48"/>
+      <c r="A230" s="50"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -10431,7 +10523,7 @@
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
       <c r="J230" s="5"/>
-      <c r="K230" s="49"/>
+      <c r="K230" s="51"/>
       <c r="L230" s="5"/>
       <c r="M230" s="5"/>
       <c r="N230" s="5"/>
@@ -10444,7 +10536,7 @@
       <c r="Y230" s="5"/>
     </row>
     <row r="231" spans="1:25">
-      <c r="A231" s="48"/>
+      <c r="A231" s="50"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -10453,7 +10545,7 @@
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
       <c r="J231" s="5"/>
-      <c r="K231" s="49"/>
+      <c r="K231" s="51"/>
       <c r="L231" s="5"/>
       <c r="M231" s="5"/>
       <c r="N231" s="5"/>
@@ -10466,7 +10558,7 @@
       <c r="Y231" s="5"/>
     </row>
     <row r="232" spans="1:25">
-      <c r="A232" s="48"/>
+      <c r="A232" s="50"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -10475,7 +10567,7 @@
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
       <c r="J232" s="5"/>
-      <c r="K232" s="49"/>
+      <c r="K232" s="51"/>
       <c r="L232" s="5"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
@@ -10488,7 +10580,7 @@
       <c r="Y232" s="5"/>
     </row>
     <row r="233" spans="1:25">
-      <c r="A233" s="48"/>
+      <c r="A233" s="50"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -10497,7 +10589,7 @@
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
       <c r="J233" s="5"/>
-      <c r="K233" s="49"/>
+      <c r="K233" s="51"/>
       <c r="L233" s="5"/>
       <c r="M233" s="5"/>
       <c r="N233" s="5"/>
@@ -10510,7 +10602,7 @@
       <c r="Y233" s="5"/>
     </row>
     <row r="234" spans="1:25">
-      <c r="A234" s="48"/>
+      <c r="A234" s="50"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -10519,7 +10611,7 @@
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
       <c r="J234" s="5"/>
-      <c r="K234" s="49"/>
+      <c r="K234" s="51"/>
       <c r="L234" s="5"/>
       <c r="M234" s="5"/>
       <c r="N234" s="5"/>
@@ -10532,7 +10624,7 @@
       <c r="Y234" s="5"/>
     </row>
     <row r="235" spans="1:25">
-      <c r="A235" s="48"/>
+      <c r="A235" s="50"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -10541,7 +10633,7 @@
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
       <c r="J235" s="5"/>
-      <c r="K235" s="49"/>
+      <c r="K235" s="51"/>
       <c r="L235" s="5"/>
       <c r="M235" s="5"/>
       <c r="N235" s="5"/>
@@ -10554,7 +10646,7 @@
       <c r="Y235" s="5"/>
     </row>
     <row r="236" spans="1:25">
-      <c r="A236" s="48"/>
+      <c r="A236" s="50"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -10563,7 +10655,7 @@
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
       <c r="J236" s="5"/>
-      <c r="K236" s="49"/>
+      <c r="K236" s="51"/>
       <c r="L236" s="5"/>
       <c r="M236" s="5"/>
       <c r="N236" s="5"/>
@@ -10576,7 +10668,7 @@
       <c r="Y236" s="5"/>
     </row>
     <row r="237" spans="1:25">
-      <c r="A237" s="48"/>
+      <c r="A237" s="50"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -10585,7 +10677,7 @@
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
       <c r="J237" s="5"/>
-      <c r="K237" s="49"/>
+      <c r="K237" s="51"/>
       <c r="L237" s="5"/>
       <c r="M237" s="5"/>
       <c r="N237" s="5"/>
@@ -10598,7 +10690,7 @@
       <c r="Y237" s="5"/>
     </row>
     <row r="238" spans="1:25">
-      <c r="A238" s="48"/>
+      <c r="A238" s="50"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -10607,7 +10699,7 @@
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
       <c r="J238" s="5"/>
-      <c r="K238" s="49"/>
+      <c r="K238" s="51"/>
       <c r="L238" s="5"/>
       <c r="M238" s="5"/>
       <c r="N238" s="5"/>
@@ -10620,7 +10712,7 @@
       <c r="Y238" s="5"/>
     </row>
     <row r="239" spans="1:25">
-      <c r="A239" s="48"/>
+      <c r="A239" s="50"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -10629,7 +10721,7 @@
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
       <c r="J239" s="5"/>
-      <c r="K239" s="49"/>
+      <c r="K239" s="51"/>
       <c r="L239" s="5"/>
       <c r="M239" s="5"/>
       <c r="N239" s="5"/>
@@ -10642,7 +10734,7 @@
       <c r="Y239" s="5"/>
     </row>
     <row r="240" spans="1:25">
-      <c r="A240" s="48"/>
+      <c r="A240" s="50"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -10651,7 +10743,7 @@
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
       <c r="J240" s="5"/>
-      <c r="K240" s="49"/>
+      <c r="K240" s="51"/>
       <c r="L240" s="5"/>
       <c r="M240" s="5"/>
       <c r="N240" s="5"/>
@@ -10664,7 +10756,7 @@
       <c r="Y240" s="5"/>
     </row>
     <row r="241" spans="1:25">
-      <c r="A241" s="48"/>
+      <c r="A241" s="50"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -10673,7 +10765,7 @@
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
       <c r="J241" s="5"/>
-      <c r="K241" s="49"/>
+      <c r="K241" s="51"/>
       <c r="L241" s="5"/>
       <c r="M241" s="5"/>
       <c r="N241" s="5"/>
@@ -10686,7 +10778,7 @@
       <c r="Y241" s="5"/>
     </row>
     <row r="242" spans="1:25">
-      <c r="A242" s="48"/>
+      <c r="A242" s="50"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -10695,7 +10787,7 @@
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
       <c r="J242" s="5"/>
-      <c r="K242" s="49"/>
+      <c r="K242" s="51"/>
       <c r="L242" s="5"/>
       <c r="M242" s="5"/>
       <c r="N242" s="5"/>
@@ -10708,7 +10800,7 @@
       <c r="Y242" s="5"/>
     </row>
     <row r="243" spans="1:25">
-      <c r="A243" s="48"/>
+      <c r="A243" s="50"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -10717,7 +10809,7 @@
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
       <c r="J243" s="5"/>
-      <c r="K243" s="49"/>
+      <c r="K243" s="51"/>
       <c r="L243" s="5"/>
       <c r="M243" s="5"/>
       <c r="N243" s="5"/>
@@ -10730,7 +10822,7 @@
       <c r="Y243" s="5"/>
     </row>
     <row r="244" spans="1:25">
-      <c r="A244" s="48"/>
+      <c r="A244" s="50"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -10739,7 +10831,7 @@
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
       <c r="J244" s="5"/>
-      <c r="K244" s="49"/>
+      <c r="K244" s="51"/>
       <c r="L244" s="5"/>
       <c r="M244" s="5"/>
       <c r="N244" s="5"/>
@@ -10752,7 +10844,7 @@
       <c r="Y244" s="5"/>
     </row>
     <row r="245" spans="1:25">
-      <c r="A245" s="48"/>
+      <c r="A245" s="50"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -10761,7 +10853,7 @@
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
       <c r="J245" s="5"/>
-      <c r="K245" s="49"/>
+      <c r="K245" s="51"/>
       <c r="L245" s="5"/>
       <c r="M245" s="5"/>
       <c r="N245" s="5"/>
@@ -10774,7 +10866,7 @@
       <c r="Y245" s="5"/>
     </row>
     <row r="246" spans="1:25">
-      <c r="A246" s="48"/>
+      <c r="A246" s="50"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -10783,7 +10875,7 @@
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
       <c r="J246" s="5"/>
-      <c r="K246" s="49"/>
+      <c r="K246" s="51"/>
       <c r="L246" s="5"/>
       <c r="M246" s="5"/>
       <c r="N246" s="5"/>
@@ -10796,7 +10888,7 @@
       <c r="Y246" s="5"/>
     </row>
     <row r="247" spans="1:25">
-      <c r="A247" s="48"/>
+      <c r="A247" s="50"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -10805,7 +10897,7 @@
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
       <c r="J247" s="5"/>
-      <c r="K247" s="49"/>
+      <c r="K247" s="51"/>
       <c r="L247" s="5"/>
       <c r="M247" s="5"/>
       <c r="N247" s="5"/>
@@ -10818,7 +10910,7 @@
       <c r="Y247" s="5"/>
     </row>
     <row r="248" spans="1:25">
-      <c r="A248" s="48"/>
+      <c r="A248" s="50"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -10827,7 +10919,7 @@
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
       <c r="J248" s="5"/>
-      <c r="K248" s="49"/>
+      <c r="K248" s="51"/>
       <c r="L248" s="5"/>
       <c r="M248" s="5"/>
       <c r="N248" s="5"/>
@@ -10840,7 +10932,7 @@
       <c r="Y248" s="5"/>
     </row>
     <row r="249" spans="1:25">
-      <c r="A249" s="48"/>
+      <c r="A249" s="50"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -10849,7 +10941,7 @@
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
       <c r="J249" s="5"/>
-      <c r="K249" s="49"/>
+      <c r="K249" s="51"/>
       <c r="L249" s="5"/>
       <c r="M249" s="5"/>
       <c r="N249" s="5"/>
@@ -10862,7 +10954,7 @@
       <c r="Y249" s="5"/>
     </row>
     <row r="250" spans="1:25">
-      <c r="A250" s="48"/>
+      <c r="A250" s="50"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -10871,7 +10963,7 @@
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
       <c r="J250" s="5"/>
-      <c r="K250" s="49"/>
+      <c r="K250" s="51"/>
       <c r="L250" s="5"/>
       <c r="M250" s="5"/>
       <c r="N250" s="5"/>
@@ -10884,7 +10976,7 @@
       <c r="Y250" s="5"/>
     </row>
     <row r="251" spans="1:25">
-      <c r="A251" s="48"/>
+      <c r="A251" s="50"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -10893,7 +10985,7 @@
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
       <c r="J251" s="5"/>
-      <c r="K251" s="49"/>
+      <c r="K251" s="51"/>
       <c r="L251" s="5"/>
       <c r="M251" s="5"/>
       <c r="N251" s="5"/>
@@ -10906,7 +10998,7 @@
       <c r="Y251" s="5"/>
     </row>
     <row r="252" spans="1:25">
-      <c r="A252" s="48"/>
+      <c r="A252" s="50"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -10915,7 +11007,7 @@
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
       <c r="J252" s="5"/>
-      <c r="K252" s="49"/>
+      <c r="K252" s="51"/>
       <c r="L252" s="5"/>
       <c r="M252" s="5"/>
       <c r="N252" s="5"/>
@@ -10928,7 +11020,7 @@
       <c r="Y252" s="5"/>
     </row>
     <row r="253" spans="1:25">
-      <c r="A253" s="48"/>
+      <c r="A253" s="50"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -10937,7 +11029,7 @@
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
       <c r="J253" s="5"/>
-      <c r="K253" s="49"/>
+      <c r="K253" s="51"/>
       <c r="L253" s="5"/>
       <c r="M253" s="5"/>
       <c r="N253" s="5"/>
@@ -10950,7 +11042,7 @@
       <c r="Y253" s="5"/>
     </row>
     <row r="254" spans="1:25">
-      <c r="A254" s="48"/>
+      <c r="A254" s="50"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -10959,7 +11051,7 @@
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
       <c r="J254" s="5"/>
-      <c r="K254" s="49"/>
+      <c r="K254" s="51"/>
       <c r="L254" s="5"/>
       <c r="M254" s="5"/>
       <c r="N254" s="5"/>
@@ -10972,7 +11064,7 @@
       <c r="Y254" s="5"/>
     </row>
     <row r="255" spans="1:25">
-      <c r="A255" s="48"/>
+      <c r="A255" s="50"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -10981,7 +11073,7 @@
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
       <c r="J255" s="5"/>
-      <c r="K255" s="49"/>
+      <c r="K255" s="51"/>
       <c r="L255" s="5"/>
       <c r="M255" s="5"/>
       <c r="N255" s="5"/>
@@ -10994,7 +11086,7 @@
       <c r="Y255" s="5"/>
     </row>
     <row r="256" spans="1:25">
-      <c r="A256" s="48"/>
+      <c r="A256" s="50"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -11003,7 +11095,7 @@
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
       <c r="J256" s="5"/>
-      <c r="K256" s="49"/>
+      <c r="K256" s="51"/>
       <c r="L256" s="5"/>
       <c r="M256" s="5"/>
       <c r="N256" s="5"/>
@@ -11016,7 +11108,7 @@
       <c r="Y256" s="5"/>
     </row>
     <row r="257" spans="1:25">
-      <c r="A257" s="48"/>
+      <c r="A257" s="50"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -11025,7 +11117,7 @@
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
       <c r="J257" s="5"/>
-      <c r="K257" s="49"/>
+      <c r="K257" s="51"/>
       <c r="L257" s="5"/>
       <c r="M257" s="5"/>
       <c r="N257" s="5"/>
@@ -11038,7 +11130,7 @@
       <c r="Y257" s="5"/>
     </row>
     <row r="258" spans="1:25">
-      <c r="A258" s="48"/>
+      <c r="A258" s="50"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -11047,7 +11139,7 @@
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
       <c r="J258" s="5"/>
-      <c r="K258" s="49"/>
+      <c r="K258" s="51"/>
       <c r="L258" s="5"/>
       <c r="M258" s="5"/>
       <c r="N258" s="5"/>
@@ -11060,7 +11152,7 @@
       <c r="Y258" s="5"/>
     </row>
     <row r="259" spans="1:25">
-      <c r="A259" s="48"/>
+      <c r="A259" s="50"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
@@ -11069,7 +11161,7 @@
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
       <c r="J259" s="5"/>
-      <c r="K259" s="49"/>
+      <c r="K259" s="51"/>
       <c r="L259" s="5"/>
       <c r="M259" s="5"/>
       <c r="N259" s="5"/>
@@ -11082,7 +11174,7 @@
       <c r="Y259" s="5"/>
     </row>
     <row r="260" spans="1:25">
-      <c r="A260" s="48"/>
+      <c r="A260" s="50"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -11091,7 +11183,7 @@
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
       <c r="J260" s="5"/>
-      <c r="K260" s="49"/>
+      <c r="K260" s="51"/>
       <c r="L260" s="5"/>
       <c r="M260" s="5"/>
       <c r="N260" s="5"/>
@@ -11104,7 +11196,7 @@
       <c r="Y260" s="5"/>
     </row>
     <row r="261" spans="1:25">
-      <c r="A261" s="48"/>
+      <c r="A261" s="50"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -11113,7 +11205,7 @@
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
       <c r="J261" s="5"/>
-      <c r="K261" s="49"/>
+      <c r="K261" s="51"/>
       <c r="L261" s="5"/>
       <c r="M261" s="5"/>
       <c r="N261" s="5"/>
@@ -11126,7 +11218,7 @@
       <c r="Y261" s="5"/>
     </row>
     <row r="262" spans="1:25">
-      <c r="A262" s="48"/>
+      <c r="A262" s="50"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -11135,7 +11227,7 @@
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
       <c r="J262" s="5"/>
-      <c r="K262" s="49"/>
+      <c r="K262" s="51"/>
       <c r="L262" s="5"/>
       <c r="M262" s="5"/>
       <c r="N262" s="5"/>
@@ -11148,7 +11240,7 @@
       <c r="Y262" s="5"/>
     </row>
     <row r="263" spans="1:25">
-      <c r="A263" s="48"/>
+      <c r="A263" s="50"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -11157,7 +11249,7 @@
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
       <c r="J263" s="5"/>
-      <c r="K263" s="49"/>
+      <c r="K263" s="51"/>
       <c r="L263" s="5"/>
       <c r="M263" s="5"/>
       <c r="N263" s="5"/>
@@ -11170,7 +11262,7 @@
       <c r="Y263" s="5"/>
     </row>
     <row r="264" spans="1:25">
-      <c r="A264" s="48"/>
+      <c r="A264" s="50"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -11179,7 +11271,7 @@
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
       <c r="J264" s="5"/>
-      <c r="K264" s="49"/>
+      <c r="K264" s="51"/>
       <c r="L264" s="5"/>
       <c r="M264" s="5"/>
       <c r="N264" s="5"/>
@@ -11192,7 +11284,7 @@
       <c r="Y264" s="5"/>
     </row>
     <row r="265" spans="1:25">
-      <c r="A265" s="48"/>
+      <c r="A265" s="50"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -11201,7 +11293,7 @@
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
       <c r="J265" s="5"/>
-      <c r="K265" s="49"/>
+      <c r="K265" s="51"/>
       <c r="L265" s="5"/>
       <c r="M265" s="5"/>
       <c r="N265" s="5"/>
@@ -11214,7 +11306,7 @@
       <c r="Y265" s="5"/>
     </row>
     <row r="266" spans="1:25">
-      <c r="A266" s="48"/>
+      <c r="A266" s="50"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -11223,7 +11315,7 @@
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
       <c r="J266" s="5"/>
-      <c r="K266" s="49"/>
+      <c r="K266" s="51"/>
       <c r="L266" s="5"/>
       <c r="M266" s="5"/>
       <c r="N266" s="5"/>
@@ -11236,7 +11328,7 @@
       <c r="Y266" s="5"/>
     </row>
     <row r="267" spans="1:25">
-      <c r="A267" s="48"/>
+      <c r="A267" s="50"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -11245,7 +11337,7 @@
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
       <c r="J267" s="5"/>
-      <c r="K267" s="49"/>
+      <c r="K267" s="51"/>
       <c r="L267" s="5"/>
       <c r="M267" s="5"/>
       <c r="N267" s="5"/>
@@ -11258,7 +11350,7 @@
       <c r="Y267" s="5"/>
     </row>
     <row r="268" spans="1:25">
-      <c r="A268" s="48"/>
+      <c r="A268" s="50"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -11267,7 +11359,7 @@
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
       <c r="J268" s="5"/>
-      <c r="K268" s="49"/>
+      <c r="K268" s="51"/>
       <c r="L268" s="5"/>
       <c r="M268" s="5"/>
       <c r="N268" s="5"/>
@@ -11280,7 +11372,7 @@
       <c r="Y268" s="5"/>
     </row>
     <row r="269" spans="1:25">
-      <c r="A269" s="48"/>
+      <c r="A269" s="50"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -11289,7 +11381,7 @@
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
       <c r="J269" s="5"/>
-      <c r="K269" s="49"/>
+      <c r="K269" s="51"/>
       <c r="L269" s="5"/>
       <c r="M269" s="5"/>
       <c r="N269" s="5"/>
@@ -11302,7 +11394,7 @@
       <c r="Y269" s="5"/>
     </row>
     <row r="270" spans="1:25">
-      <c r="A270" s="48"/>
+      <c r="A270" s="50"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -11311,7 +11403,7 @@
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
       <c r="J270" s="5"/>
-      <c r="K270" s="49"/>
+      <c r="K270" s="51"/>
       <c r="L270" s="5"/>
       <c r="M270" s="5"/>
       <c r="N270" s="5"/>
@@ -11324,7 +11416,7 @@
       <c r="Y270" s="5"/>
     </row>
     <row r="271" spans="1:25">
-      <c r="A271" s="48"/>
+      <c r="A271" s="50"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -11333,7 +11425,7 @@
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
       <c r="J271" s="5"/>
-      <c r="K271" s="49"/>
+      <c r="K271" s="51"/>
       <c r="L271" s="5"/>
       <c r="M271" s="5"/>
       <c r="N271" s="5"/>
@@ -11346,7 +11438,7 @@
       <c r="Y271" s="5"/>
     </row>
     <row r="272" spans="1:25">
-      <c r="A272" s="48"/>
+      <c r="A272" s="50"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -11355,7 +11447,7 @@
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
       <c r="J272" s="5"/>
-      <c r="K272" s="49"/>
+      <c r="K272" s="51"/>
       <c r="L272" s="5"/>
       <c r="M272" s="5"/>
       <c r="N272" s="5"/>
@@ -11368,7 +11460,7 @@
       <c r="Y272" s="5"/>
     </row>
     <row r="273" spans="1:25">
-      <c r="A273" s="48"/>
+      <c r="A273" s="50"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -11377,7 +11469,7 @@
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
       <c r="J273" s="5"/>
-      <c r="K273" s="49"/>
+      <c r="K273" s="51"/>
       <c r="L273" s="5"/>
       <c r="M273" s="5"/>
       <c r="N273" s="5"/>
@@ -11390,7 +11482,7 @@
       <c r="Y273" s="5"/>
     </row>
     <row r="274" spans="1:25">
-      <c r="A274" s="48"/>
+      <c r="A274" s="50"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -11399,7 +11491,7 @@
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
       <c r="J274" s="5"/>
-      <c r="K274" s="49"/>
+      <c r="K274" s="51"/>
       <c r="L274" s="5"/>
       <c r="M274" s="5"/>
       <c r="N274" s="5"/>
@@ -11412,7 +11504,7 @@
       <c r="Y274" s="5"/>
     </row>
     <row r="275" spans="1:25">
-      <c r="A275" s="48"/>
+      <c r="A275" s="50"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -11421,7 +11513,7 @@
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
       <c r="J275" s="5"/>
-      <c r="K275" s="49"/>
+      <c r="K275" s="51"/>
       <c r="L275" s="5"/>
       <c r="M275" s="5"/>
       <c r="N275" s="5"/>
@@ -11434,7 +11526,7 @@
       <c r="Y275" s="5"/>
     </row>
     <row r="276" spans="1:25">
-      <c r="A276" s="48"/>
+      <c r="A276" s="50"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -11443,7 +11535,7 @@
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
       <c r="J276" s="5"/>
-      <c r="K276" s="49"/>
+      <c r="K276" s="51"/>
       <c r="L276" s="5"/>
       <c r="M276" s="5"/>
       <c r="N276" s="5"/>
@@ -11456,7 +11548,7 @@
       <c r="Y276" s="5"/>
     </row>
     <row r="277" spans="1:25">
-      <c r="A277" s="48"/>
+      <c r="A277" s="50"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -11465,7 +11557,7 @@
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
       <c r="J277" s="5"/>
-      <c r="K277" s="49"/>
+      <c r="K277" s="51"/>
       <c r="L277" s="5"/>
       <c r="M277" s="5"/>
       <c r="N277" s="5"/>
@@ -11478,7 +11570,7 @@
       <c r="Y277" s="5"/>
     </row>
     <row r="278" spans="1:25">
-      <c r="A278" s="48"/>
+      <c r="A278" s="50"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -11487,7 +11579,7 @@
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
       <c r="J278" s="5"/>
-      <c r="K278" s="49"/>
+      <c r="K278" s="51"/>
       <c r="L278" s="5"/>
       <c r="M278" s="5"/>
       <c r="N278" s="5"/>
@@ -11500,7 +11592,7 @@
       <c r="Y278" s="5"/>
     </row>
     <row r="279" spans="1:25">
-      <c r="A279" s="48"/>
+      <c r="A279" s="50"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -11509,7 +11601,7 @@
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
       <c r="J279" s="5"/>
-      <c r="K279" s="49"/>
+      <c r="K279" s="51"/>
       <c r="L279" s="5"/>
       <c r="M279" s="5"/>
       <c r="N279" s="5"/>
@@ -11522,7 +11614,7 @@
       <c r="Y279" s="5"/>
     </row>
     <row r="280" spans="1:25">
-      <c r="A280" s="48"/>
+      <c r="A280" s="50"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -11531,7 +11623,7 @@
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
       <c r="J280" s="5"/>
-      <c r="K280" s="49"/>
+      <c r="K280" s="51"/>
       <c r="L280" s="5"/>
       <c r="M280" s="5"/>
       <c r="N280" s="5"/>
@@ -11544,7 +11636,7 @@
       <c r="Y280" s="5"/>
     </row>
     <row r="281" spans="1:25">
-      <c r="A281" s="48"/>
+      <c r="A281" s="50"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -11553,7 +11645,7 @@
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
       <c r="J281" s="5"/>
-      <c r="K281" s="49"/>
+      <c r="K281" s="51"/>
       <c r="L281" s="5"/>
       <c r="M281" s="5"/>
       <c r="N281" s="5"/>
@@ -11566,7 +11658,7 @@
       <c r="Y281" s="5"/>
     </row>
     <row r="282" spans="1:25">
-      <c r="A282" s="48"/>
+      <c r="A282" s="50"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -11575,7 +11667,7 @@
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
       <c r="J282" s="5"/>
-      <c r="K282" s="49"/>
+      <c r="K282" s="51"/>
       <c r="L282" s="5"/>
       <c r="M282" s="5"/>
       <c r="N282" s="5"/>
@@ -11588,7 +11680,7 @@
       <c r="Y282" s="5"/>
     </row>
     <row r="283" spans="1:25">
-      <c r="A283" s="48"/>
+      <c r="A283" s="50"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -11597,7 +11689,7 @@
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
       <c r="J283" s="5"/>
-      <c r="K283" s="49"/>
+      <c r="K283" s="51"/>
       <c r="L283" s="5"/>
       <c r="M283" s="5"/>
       <c r="N283" s="5"/>
@@ -11610,7 +11702,7 @@
       <c r="Y283" s="5"/>
     </row>
     <row r="284" spans="1:25">
-      <c r="A284" s="48"/>
+      <c r="A284" s="50"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -11619,7 +11711,7 @@
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
       <c r="J284" s="5"/>
-      <c r="K284" s="49"/>
+      <c r="K284" s="51"/>
       <c r="L284" s="5"/>
       <c r="M284" s="5"/>
       <c r="N284" s="5"/>
@@ -11632,7 +11724,7 @@
       <c r="Y284" s="5"/>
     </row>
     <row r="285" spans="1:25">
-      <c r="A285" s="48"/>
+      <c r="A285" s="50"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -11641,7 +11733,7 @@
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
       <c r="J285" s="5"/>
-      <c r="K285" s="49"/>
+      <c r="K285" s="51"/>
       <c r="L285" s="5"/>
       <c r="M285" s="5"/>
       <c r="N285" s="5"/>
@@ -11654,7 +11746,7 @@
       <c r="Y285" s="5"/>
     </row>
     <row r="286" spans="1:25">
-      <c r="A286" s="48"/>
+      <c r="A286" s="50"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -11663,7 +11755,7 @@
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
       <c r="J286" s="5"/>
-      <c r="K286" s="49"/>
+      <c r="K286" s="51"/>
       <c r="L286" s="5"/>
       <c r="M286" s="5"/>
       <c r="N286" s="5"/>
@@ -11676,7 +11768,7 @@
       <c r="Y286" s="5"/>
     </row>
     <row r="287" spans="1:25">
-      <c r="A287" s="48"/>
+      <c r="A287" s="50"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -11685,7 +11777,7 @@
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
       <c r="J287" s="5"/>
-      <c r="K287" s="49"/>
+      <c r="K287" s="51"/>
       <c r="L287" s="5"/>
       <c r="M287" s="5"/>
       <c r="N287" s="5"/>
@@ -11698,7 +11790,7 @@
       <c r="Y287" s="5"/>
     </row>
     <row r="288" spans="1:25">
-      <c r="A288" s="48"/>
+      <c r="A288" s="50"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -11707,7 +11799,7 @@
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
       <c r="J288" s="5"/>
-      <c r="K288" s="49"/>
+      <c r="K288" s="51"/>
       <c r="L288" s="5"/>
       <c r="M288" s="5"/>
       <c r="N288" s="5"/>
@@ -11720,7 +11812,7 @@
       <c r="Y288" s="5"/>
     </row>
     <row r="289" spans="1:25">
-      <c r="A289" s="48"/>
+      <c r="A289" s="50"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -11729,7 +11821,7 @@
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
       <c r="J289" s="5"/>
-      <c r="K289" s="49"/>
+      <c r="K289" s="51"/>
       <c r="L289" s="5"/>
       <c r="M289" s="5"/>
       <c r="N289" s="5"/>
@@ -11742,7 +11834,7 @@
       <c r="Y289" s="5"/>
     </row>
     <row r="290" spans="1:25">
-      <c r="A290" s="48"/>
+      <c r="A290" s="50"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -11751,7 +11843,7 @@
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
       <c r="J290" s="5"/>
-      <c r="K290" s="49"/>
+      <c r="K290" s="51"/>
       <c r="L290" s="5"/>
       <c r="M290" s="5"/>
       <c r="N290" s="5"/>
@@ -11764,7 +11856,7 @@
       <c r="Y290" s="5"/>
     </row>
     <row r="291" spans="1:25">
-      <c r="A291" s="48"/>
+      <c r="A291" s="50"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
@@ -11773,7 +11865,7 @@
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
       <c r="J291" s="5"/>
-      <c r="K291" s="49"/>
+      <c r="K291" s="51"/>
       <c r="L291" s="5"/>
       <c r="M291" s="5"/>
       <c r="N291" s="5"/>
@@ -11786,7 +11878,7 @@
       <c r="Y291" s="5"/>
     </row>
     <row r="292" spans="1:25">
-      <c r="A292" s="48"/>
+      <c r="A292" s="50"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
@@ -11795,7 +11887,7 @@
       <c r="G292" s="3"/>
       <c r="H292" s="3"/>
       <c r="J292" s="5"/>
-      <c r="K292" s="49"/>
+      <c r="K292" s="51"/>
       <c r="L292" s="5"/>
       <c r="M292" s="5"/>
       <c r="N292" s="5"/>
@@ -11808,7 +11900,7 @@
       <c r="Y292" s="5"/>
     </row>
     <row r="293" spans="1:25">
-      <c r="A293" s="48"/>
+      <c r="A293" s="50"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -11817,7 +11909,7 @@
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
       <c r="J293" s="5"/>
-      <c r="K293" s="49"/>
+      <c r="K293" s="51"/>
       <c r="L293" s="5"/>
       <c r="M293" s="5"/>
       <c r="N293" s="5"/>
@@ -11830,7 +11922,7 @@
       <c r="Y293" s="5"/>
     </row>
     <row r="294" spans="1:25">
-      <c r="A294" s="48"/>
+      <c r="A294" s="50"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
@@ -11839,7 +11931,7 @@
       <c r="G294" s="3"/>
       <c r="H294" s="3"/>
       <c r="J294" s="5"/>
-      <c r="K294" s="49"/>
+      <c r="K294" s="51"/>
       <c r="L294" s="5"/>
       <c r="M294" s="5"/>
       <c r="N294" s="5"/>
@@ -11852,7 +11944,7 @@
       <c r="Y294" s="5"/>
     </row>
     <row r="295" spans="1:25">
-      <c r="A295" s="48"/>
+      <c r="A295" s="50"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -11861,7 +11953,7 @@
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
       <c r="J295" s="5"/>
-      <c r="K295" s="49"/>
+      <c r="K295" s="51"/>
       <c r="L295" s="5"/>
       <c r="M295" s="5"/>
       <c r="N295" s="5"/>
@@ -11874,7 +11966,7 @@
       <c r="Y295" s="5"/>
     </row>
     <row r="296" spans="1:25">
-      <c r="A296" s="48"/>
+      <c r="A296" s="50"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -11883,7 +11975,7 @@
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
       <c r="J296" s="5"/>
-      <c r="K296" s="49"/>
+      <c r="K296" s="51"/>
       <c r="L296" s="5"/>
       <c r="M296" s="5"/>
       <c r="N296" s="5"/>
@@ -11896,7 +11988,7 @@
       <c r="Y296" s="5"/>
     </row>
     <row r="297" spans="1:25">
-      <c r="A297" s="48"/>
+      <c r="A297" s="50"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
@@ -11905,7 +11997,7 @@
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
       <c r="J297" s="5"/>
-      <c r="K297" s="49"/>
+      <c r="K297" s="51"/>
       <c r="L297" s="5"/>
       <c r="M297" s="5"/>
       <c r="N297" s="5"/>
@@ -11918,7 +12010,7 @@
       <c r="Y297" s="5"/>
     </row>
     <row r="298" spans="1:25">
-      <c r="A298" s="48"/>
+      <c r="A298" s="50"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -11927,7 +12019,7 @@
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
       <c r="J298" s="5"/>
-      <c r="K298" s="49"/>
+      <c r="K298" s="51"/>
       <c r="L298" s="5"/>
       <c r="M298" s="5"/>
       <c r="N298" s="5"/>
@@ -11940,7 +12032,7 @@
       <c r="Y298" s="5"/>
     </row>
     <row r="299" spans="1:25">
-      <c r="A299" s="48"/>
+      <c r="A299" s="50"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -11949,7 +12041,7 @@
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
       <c r="J299" s="5"/>
-      <c r="K299" s="49"/>
+      <c r="K299" s="51"/>
       <c r="L299" s="5"/>
       <c r="M299" s="5"/>
       <c r="N299" s="5"/>
@@ -11962,7 +12054,7 @@
       <c r="Y299" s="5"/>
     </row>
     <row r="300" spans="1:25">
-      <c r="A300" s="48"/>
+      <c r="A300" s="50"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -11971,7 +12063,7 @@
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
       <c r="J300" s="5"/>
-      <c r="K300" s="49"/>
+      <c r="K300" s="51"/>
       <c r="L300" s="5"/>
       <c r="M300" s="5"/>
       <c r="N300" s="5"/>
@@ -11984,7 +12076,7 @@
       <c r="Y300" s="5"/>
     </row>
     <row r="301" spans="1:25">
-      <c r="A301" s="48"/>
+      <c r="A301" s="50"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -11993,7 +12085,7 @@
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
       <c r="J301" s="5"/>
-      <c r="K301" s="49"/>
+      <c r="K301" s="51"/>
       <c r="L301" s="5"/>
       <c r="M301" s="5"/>
       <c r="N301" s="5"/>
@@ -12006,7 +12098,7 @@
       <c r="Y301" s="5"/>
     </row>
     <row r="302" spans="1:25">
-      <c r="A302" s="48"/>
+      <c r="A302" s="50"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -12015,7 +12107,7 @@
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
       <c r="J302" s="5"/>
-      <c r="K302" s="49"/>
+      <c r="K302" s="51"/>
       <c r="L302" s="5"/>
       <c r="M302" s="5"/>
       <c r="N302" s="5"/>
@@ -12028,7 +12120,7 @@
       <c r="Y302" s="5"/>
     </row>
     <row r="303" spans="1:25">
-      <c r="A303" s="48"/>
+      <c r="A303" s="50"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
@@ -12037,7 +12129,7 @@
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
       <c r="J303" s="5"/>
-      <c r="K303" s="49"/>
+      <c r="K303" s="51"/>
       <c r="L303" s="5"/>
       <c r="M303" s="5"/>
       <c r="N303" s="5"/>
@@ -12050,7 +12142,7 @@
       <c r="Y303" s="5"/>
     </row>
     <row r="304" spans="1:25">
-      <c r="A304" s="48"/>
+      <c r="A304" s="50"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -12059,7 +12151,7 @@
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
       <c r="J304" s="5"/>
-      <c r="K304" s="49"/>
+      <c r="K304" s="51"/>
       <c r="L304" s="5"/>
       <c r="M304" s="5"/>
       <c r="N304" s="5"/>
@@ -12072,7 +12164,7 @@
       <c r="Y304" s="5"/>
     </row>
     <row r="305" spans="1:25">
-      <c r="A305" s="48"/>
+      <c r="A305" s="50"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -12081,7 +12173,7 @@
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
       <c r="J305" s="5"/>
-      <c r="K305" s="49"/>
+      <c r="K305" s="51"/>
       <c r="L305" s="5"/>
       <c r="M305" s="5"/>
       <c r="N305" s="5"/>
@@ -12094,7 +12186,7 @@
       <c r="Y305" s="5"/>
     </row>
     <row r="306" spans="1:25">
-      <c r="A306" s="48"/>
+      <c r="A306" s="50"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -12103,7 +12195,7 @@
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
       <c r="J306" s="5"/>
-      <c r="K306" s="49"/>
+      <c r="K306" s="51"/>
       <c r="L306" s="5"/>
       <c r="M306" s="5"/>
       <c r="N306" s="5"/>
@@ -12116,7 +12208,7 @@
       <c r="Y306" s="5"/>
     </row>
     <row r="307" spans="1:25">
-      <c r="A307" s="48"/>
+      <c r="A307" s="50"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -12125,7 +12217,7 @@
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
       <c r="J307" s="5"/>
-      <c r="K307" s="49"/>
+      <c r="K307" s="51"/>
       <c r="L307" s="5"/>
       <c r="M307" s="5"/>
       <c r="N307" s="5"/>
@@ -12138,7 +12230,7 @@
       <c r="Y307" s="5"/>
     </row>
     <row r="308" spans="1:25">
-      <c r="A308" s="48"/>
+      <c r="A308" s="50"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -12147,7 +12239,7 @@
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
       <c r="J308" s="5"/>
-      <c r="K308" s="49"/>
+      <c r="K308" s="51"/>
       <c r="L308" s="5"/>
       <c r="M308" s="5"/>
       <c r="N308" s="5"/>
@@ -12160,7 +12252,7 @@
       <c r="Y308" s="5"/>
     </row>
     <row r="309" spans="1:25">
-      <c r="A309" s="48"/>
+      <c r="A309" s="50"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -12169,7 +12261,7 @@
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
       <c r="J309" s="5"/>
-      <c r="K309" s="49"/>
+      <c r="K309" s="51"/>
       <c r="L309" s="5"/>
       <c r="M309" s="5"/>
       <c r="N309" s="5"/>
@@ -12182,7 +12274,7 @@
       <c r="Y309" s="5"/>
     </row>
     <row r="310" spans="1:25">
-      <c r="A310" s="48"/>
+      <c r="A310" s="50"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -12191,7 +12283,7 @@
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
       <c r="J310" s="5"/>
-      <c r="K310" s="49"/>
+      <c r="K310" s="51"/>
       <c r="L310" s="5"/>
       <c r="M310" s="5"/>
       <c r="N310" s="5"/>
@@ -12204,7 +12296,7 @@
       <c r="Y310" s="5"/>
     </row>
     <row r="311" spans="1:25">
-      <c r="A311" s="48"/>
+      <c r="A311" s="50"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -12213,7 +12305,7 @@
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
       <c r="J311" s="5"/>
-      <c r="K311" s="49"/>
+      <c r="K311" s="51"/>
       <c r="L311" s="5"/>
       <c r="M311" s="5"/>
       <c r="N311" s="5"/>
@@ -12226,7 +12318,7 @@
       <c r="Y311" s="5"/>
     </row>
     <row r="312" spans="1:25">
-      <c r="A312" s="48"/>
+      <c r="A312" s="50"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
@@ -12235,7 +12327,7 @@
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
       <c r="J312" s="5"/>
-      <c r="K312" s="49"/>
+      <c r="K312" s="51"/>
       <c r="L312" s="5"/>
       <c r="M312" s="5"/>
       <c r="N312" s="5"/>
@@ -12248,7 +12340,7 @@
       <c r="Y312" s="5"/>
     </row>
     <row r="313" spans="1:25">
-      <c r="A313" s="48"/>
+      <c r="A313" s="50"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
@@ -12257,7 +12349,7 @@
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
       <c r="J313" s="5"/>
-      <c r="K313" s="49"/>
+      <c r="K313" s="51"/>
       <c r="L313" s="5"/>
       <c r="M313" s="5"/>
       <c r="N313" s="5"/>
@@ -12270,7 +12362,7 @@
       <c r="Y313" s="5"/>
     </row>
     <row r="314" spans="1:25">
-      <c r="A314" s="48"/>
+      <c r="A314" s="50"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
@@ -12279,7 +12371,7 @@
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
       <c r="J314" s="5"/>
-      <c r="K314" s="49"/>
+      <c r="K314" s="51"/>
       <c r="L314" s="5"/>
       <c r="M314" s="5"/>
       <c r="N314" s="5"/>
@@ -12292,7 +12384,7 @@
       <c r="Y314" s="5"/>
     </row>
     <row r="315" spans="1:25">
-      <c r="A315" s="48"/>
+      <c r="A315" s="50"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
@@ -12301,7 +12393,7 @@
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
       <c r="J315" s="5"/>
-      <c r="K315" s="49"/>
+      <c r="K315" s="51"/>
       <c r="L315" s="5"/>
       <c r="M315" s="5"/>
       <c r="N315" s="5"/>
@@ -12314,7 +12406,7 @@
       <c r="Y315" s="5"/>
     </row>
     <row r="316" spans="1:25">
-      <c r="A316" s="48"/>
+      <c r="A316" s="50"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
@@ -12323,7 +12415,7 @@
       <c r="G316" s="3"/>
       <c r="H316" s="3"/>
       <c r="J316" s="5"/>
-      <c r="K316" s="49"/>
+      <c r="K316" s="51"/>
       <c r="L316" s="5"/>
       <c r="M316" s="5"/>
       <c r="N316" s="5"/>
@@ -12336,7 +12428,7 @@
       <c r="Y316" s="5"/>
     </row>
     <row r="317" spans="1:25">
-      <c r="A317" s="48"/>
+      <c r="A317" s="50"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
@@ -12345,7 +12437,7 @@
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
       <c r="J317" s="5"/>
-      <c r="K317" s="49"/>
+      <c r="K317" s="51"/>
       <c r="L317" s="5"/>
       <c r="M317" s="5"/>
       <c r="N317" s="5"/>
@@ -12358,7 +12450,7 @@
       <c r="Y317" s="5"/>
     </row>
     <row r="318" spans="1:25">
-      <c r="A318" s="48"/>
+      <c r="A318" s="50"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
@@ -12367,7 +12459,7 @@
       <c r="G318" s="3"/>
       <c r="H318" s="3"/>
       <c r="J318" s="5"/>
-      <c r="K318" s="49"/>
+      <c r="K318" s="51"/>
       <c r="L318" s="5"/>
       <c r="M318" s="5"/>
       <c r="N318" s="5"/>
@@ -12380,7 +12472,7 @@
       <c r="Y318" s="5"/>
     </row>
     <row r="319" spans="1:25">
-      <c r="A319" s="48"/>
+      <c r="A319" s="50"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -12389,7 +12481,7 @@
       <c r="G319" s="3"/>
       <c r="H319" s="3"/>
       <c r="J319" s="5"/>
-      <c r="K319" s="49"/>
+      <c r="K319" s="51"/>
       <c r="L319" s="5"/>
       <c r="M319" s="5"/>
       <c r="N319" s="5"/>
@@ -12402,7 +12494,7 @@
       <c r="Y319" s="5"/>
     </row>
     <row r="320" spans="1:25">
-      <c r="A320" s="48"/>
+      <c r="A320" s="50"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
@@ -12411,7 +12503,7 @@
       <c r="G320" s="3"/>
       <c r="H320" s="3"/>
       <c r="J320" s="5"/>
-      <c r="K320" s="49"/>
+      <c r="K320" s="51"/>
       <c r="L320" s="5"/>
       <c r="M320" s="5"/>
       <c r="N320" s="5"/>
@@ -12424,7 +12516,7 @@
       <c r="Y320" s="5"/>
     </row>
     <row r="321" spans="1:25">
-      <c r="A321" s="48"/>
+      <c r="A321" s="50"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -12433,7 +12525,7 @@
       <c r="G321" s="3"/>
       <c r="H321" s="3"/>
       <c r="J321" s="5"/>
-      <c r="K321" s="49"/>
+      <c r="K321" s="51"/>
       <c r="L321" s="5"/>
       <c r="M321" s="5"/>
       <c r="N321" s="5"/>
@@ -12446,7 +12538,7 @@
       <c r="Y321" s="5"/>
     </row>
     <row r="322" spans="1:25">
-      <c r="A322" s="48"/>
+      <c r="A322" s="50"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
@@ -12455,7 +12547,7 @@
       <c r="G322" s="3"/>
       <c r="H322" s="3"/>
       <c r="J322" s="5"/>
-      <c r="K322" s="49"/>
+      <c r="K322" s="51"/>
       <c r="L322" s="5"/>
       <c r="M322" s="5"/>
       <c r="N322" s="5"/>
@@ -12468,7 +12560,7 @@
       <c r="Y322" s="5"/>
     </row>
     <row r="323" spans="1:25">
-      <c r="A323" s="48"/>
+      <c r="A323" s="50"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
@@ -12477,7 +12569,7 @@
       <c r="G323" s="3"/>
       <c r="H323" s="3"/>
       <c r="J323" s="5"/>
-      <c r="K323" s="49"/>
+      <c r="K323" s="51"/>
       <c r="L323" s="5"/>
       <c r="M323" s="5"/>
       <c r="N323" s="5"/>
@@ -12490,7 +12582,7 @@
       <c r="Y323" s="5"/>
     </row>
     <row r="324" spans="1:25">
-      <c r="A324" s="48"/>
+      <c r="A324" s="50"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
@@ -12499,7 +12591,7 @@
       <c r="G324" s="3"/>
       <c r="H324" s="3"/>
       <c r="J324" s="5"/>
-      <c r="K324" s="49"/>
+      <c r="K324" s="51"/>
       <c r="L324" s="5"/>
       <c r="M324" s="5"/>
       <c r="N324" s="5"/>
@@ -12512,7 +12604,7 @@
       <c r="Y324" s="5"/>
     </row>
     <row r="325" spans="1:25">
-      <c r="A325" s="48"/>
+      <c r="A325" s="50"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
@@ -12521,7 +12613,7 @@
       <c r="G325" s="3"/>
       <c r="H325" s="3"/>
       <c r="J325" s="5"/>
-      <c r="K325" s="49"/>
+      <c r="K325" s="51"/>
       <c r="L325" s="5"/>
       <c r="M325" s="5"/>
       <c r="N325" s="5"/>
@@ -12534,7 +12626,7 @@
       <c r="Y325" s="5"/>
     </row>
     <row r="326" spans="1:25">
-      <c r="A326" s="48"/>
+      <c r="A326" s="50"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
@@ -12543,7 +12635,7 @@
       <c r="G326" s="3"/>
       <c r="H326" s="3"/>
       <c r="J326" s="5"/>
-      <c r="K326" s="49"/>
+      <c r="K326" s="51"/>
       <c r="L326" s="5"/>
       <c r="M326" s="5"/>
       <c r="N326" s="5"/>
@@ -12556,7 +12648,7 @@
       <c r="Y326" s="5"/>
     </row>
     <row r="327" spans="1:25">
-      <c r="A327" s="48"/>
+      <c r="A327" s="50"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
@@ -12565,7 +12657,7 @@
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
       <c r="J327" s="5"/>
-      <c r="K327" s="49"/>
+      <c r="K327" s="51"/>
       <c r="L327" s="5"/>
       <c r="M327" s="5"/>
       <c r="N327" s="5"/>
@@ -12578,7 +12670,7 @@
       <c r="Y327" s="5"/>
     </row>
     <row r="328" spans="1:25">
-      <c r="A328" s="48"/>
+      <c r="A328" s="50"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
@@ -12587,7 +12679,7 @@
       <c r="G328" s="3"/>
       <c r="H328" s="3"/>
       <c r="J328" s="5"/>
-      <c r="K328" s="49"/>
+      <c r="K328" s="51"/>
       <c r="L328" s="5"/>
       <c r="M328" s="5"/>
       <c r="N328" s="5"/>
@@ -12600,7 +12692,7 @@
       <c r="Y328" s="5"/>
     </row>
     <row r="329" spans="1:25">
-      <c r="A329" s="48"/>
+      <c r="A329" s="50"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
@@ -12609,7 +12701,7 @@
       <c r="G329" s="3"/>
       <c r="H329" s="3"/>
       <c r="J329" s="5"/>
-      <c r="K329" s="49"/>
+      <c r="K329" s="51"/>
       <c r="L329" s="5"/>
       <c r="M329" s="5"/>
       <c r="N329" s="5"/>
@@ -12622,7 +12714,7 @@
       <c r="Y329" s="5"/>
     </row>
     <row r="330" spans="1:25">
-      <c r="A330" s="48"/>
+      <c r="A330" s="50"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
@@ -12631,7 +12723,7 @@
       <c r="G330" s="3"/>
       <c r="H330" s="3"/>
       <c r="J330" s="5"/>
-      <c r="K330" s="49"/>
+      <c r="K330" s="51"/>
       <c r="L330" s="5"/>
       <c r="M330" s="5"/>
       <c r="N330" s="5"/>
@@ -12644,7 +12736,7 @@
       <c r="Y330" s="5"/>
     </row>
     <row r="331" spans="1:25">
-      <c r="A331" s="48"/>
+      <c r="A331" s="50"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
@@ -12653,7 +12745,7 @@
       <c r="G331" s="3"/>
       <c r="H331" s="3"/>
       <c r="J331" s="5"/>
-      <c r="K331" s="49"/>
+      <c r="K331" s="51"/>
       <c r="L331" s="5"/>
       <c r="M331" s="5"/>
       <c r="N331" s="5"/>
@@ -12666,7 +12758,7 @@
       <c r="Y331" s="5"/>
     </row>
     <row r="332" spans="1:25">
-      <c r="A332" s="48"/>
+      <c r="A332" s="50"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
@@ -12675,7 +12767,7 @@
       <c r="G332" s="3"/>
       <c r="H332" s="3"/>
       <c r="J332" s="5"/>
-      <c r="K332" s="49"/>
+      <c r="K332" s="51"/>
       <c r="L332" s="5"/>
       <c r="M332" s="5"/>
       <c r="N332" s="5"/>
@@ -12688,7 +12780,7 @@
       <c r="Y332" s="5"/>
     </row>
     <row r="333" spans="1:25">
-      <c r="A333" s="48"/>
+      <c r="A333" s="50"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
@@ -12697,7 +12789,7 @@
       <c r="G333" s="3"/>
       <c r="H333" s="3"/>
       <c r="J333" s="5"/>
-      <c r="K333" s="49"/>
+      <c r="K333" s="51"/>
       <c r="L333" s="5"/>
       <c r="M333" s="5"/>
       <c r="N333" s="5"/>
@@ -12710,7 +12802,7 @@
       <c r="Y333" s="5"/>
     </row>
     <row r="334" spans="1:25">
-      <c r="A334" s="48"/>
+      <c r="A334" s="50"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
@@ -12719,7 +12811,7 @@
       <c r="G334" s="3"/>
       <c r="H334" s="3"/>
       <c r="J334" s="5"/>
-      <c r="K334" s="49"/>
+      <c r="K334" s="51"/>
       <c r="L334" s="5"/>
       <c r="M334" s="5"/>
       <c r="N334" s="5"/>
@@ -12732,7 +12824,7 @@
       <c r="Y334" s="5"/>
     </row>
     <row r="335" spans="1:25">
-      <c r="A335" s="48"/>
+      <c r="A335" s="50"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
@@ -12741,7 +12833,7 @@
       <c r="G335" s="3"/>
       <c r="H335" s="3"/>
       <c r="J335" s="5"/>
-      <c r="K335" s="49"/>
+      <c r="K335" s="51"/>
       <c r="L335" s="5"/>
       <c r="M335" s="5"/>
       <c r="N335" s="5"/>
@@ -12754,7 +12846,7 @@
       <c r="Y335" s="5"/>
     </row>
     <row r="336" spans="1:25">
-      <c r="A336" s="48"/>
+      <c r="A336" s="50"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
@@ -12763,7 +12855,7 @@
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
       <c r="J336" s="5"/>
-      <c r="K336" s="49"/>
+      <c r="K336" s="51"/>
       <c r="L336" s="5"/>
       <c r="M336" s="5"/>
       <c r="N336" s="5"/>
@@ -12776,7 +12868,7 @@
       <c r="Y336" s="5"/>
     </row>
     <row r="337" spans="1:25">
-      <c r="A337" s="48"/>
+      <c r="A337" s="50"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
@@ -12785,7 +12877,7 @@
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
       <c r="J337" s="5"/>
-      <c r="K337" s="49"/>
+      <c r="K337" s="51"/>
       <c r="L337" s="5"/>
       <c r="M337" s="5"/>
       <c r="N337" s="5"/>
@@ -12798,7 +12890,7 @@
       <c r="Y337" s="5"/>
     </row>
     <row r="338" spans="1:25">
-      <c r="A338" s="48"/>
+      <c r="A338" s="50"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
@@ -12807,7 +12899,7 @@
       <c r="G338" s="3"/>
       <c r="H338" s="3"/>
       <c r="J338" s="5"/>
-      <c r="K338" s="49"/>
+      <c r="K338" s="51"/>
       <c r="L338" s="5"/>
       <c r="M338" s="5"/>
       <c r="N338" s="5"/>
@@ -12820,7 +12912,7 @@
       <c r="Y338" s="5"/>
     </row>
     <row r="339" spans="1:25">
-      <c r="A339" s="48"/>
+      <c r="A339" s="50"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
@@ -12829,7 +12921,7 @@
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
       <c r="J339" s="5"/>
-      <c r="K339" s="49"/>
+      <c r="K339" s="51"/>
       <c r="L339" s="5"/>
       <c r="M339" s="5"/>
       <c r="N339" s="5"/>
@@ -12842,7 +12934,7 @@
       <c r="Y339" s="5"/>
     </row>
     <row r="340" spans="1:25">
-      <c r="A340" s="48"/>
+      <c r="A340" s="50"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
@@ -12851,7 +12943,7 @@
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
       <c r="J340" s="5"/>
-      <c r="K340" s="49"/>
+      <c r="K340" s="51"/>
       <c r="L340" s="5"/>
       <c r="M340" s="5"/>
       <c r="N340" s="5"/>
@@ -12864,7 +12956,7 @@
       <c r="Y340" s="5"/>
     </row>
     <row r="341" spans="1:25">
-      <c r="A341" s="48"/>
+      <c r="A341" s="50"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
@@ -12873,7 +12965,7 @@
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
       <c r="J341" s="5"/>
-      <c r="K341" s="49"/>
+      <c r="K341" s="51"/>
       <c r="L341" s="5"/>
       <c r="M341" s="5"/>
       <c r="N341" s="5"/>
@@ -12886,7 +12978,7 @@
       <c r="Y341" s="5"/>
     </row>
     <row r="342" spans="1:25">
-      <c r="A342" s="48"/>
+      <c r="A342" s="50"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
@@ -12895,7 +12987,7 @@
       <c r="G342" s="3"/>
       <c r="H342" s="3"/>
       <c r="J342" s="5"/>
-      <c r="K342" s="49"/>
+      <c r="K342" s="51"/>
       <c r="L342" s="5"/>
       <c r="M342" s="5"/>
       <c r="N342" s="5"/>
@@ -12908,7 +13000,7 @@
       <c r="Y342" s="5"/>
     </row>
     <row r="343" spans="1:25">
-      <c r="A343" s="48"/>
+      <c r="A343" s="50"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
@@ -12917,7 +13009,7 @@
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
       <c r="J343" s="5"/>
-      <c r="K343" s="49"/>
+      <c r="K343" s="51"/>
       <c r="L343" s="5"/>
       <c r="M343" s="5"/>
       <c r="N343" s="5"/>
@@ -12930,7 +13022,7 @@
       <c r="Y343" s="5"/>
     </row>
     <row r="344" spans="1:25">
-      <c r="A344" s="48"/>
+      <c r="A344" s="50"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
@@ -12939,7 +13031,7 @@
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
       <c r="J344" s="5"/>
-      <c r="K344" s="49"/>
+      <c r="K344" s="51"/>
       <c r="L344" s="5"/>
       <c r="M344" s="5"/>
       <c r="N344" s="5"/>
@@ -12952,7 +13044,7 @@
       <c r="Y344" s="5"/>
     </row>
     <row r="345" spans="1:25">
-      <c r="A345" s="48"/>
+      <c r="A345" s="50"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
@@ -12961,7 +13053,7 @@
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
       <c r="J345" s="5"/>
-      <c r="K345" s="49"/>
+      <c r="K345" s="51"/>
       <c r="L345" s="5"/>
       <c r="M345" s="5"/>
       <c r="N345" s="5"/>
@@ -12974,7 +13066,7 @@
       <c r="Y345" s="5"/>
     </row>
     <row r="346" spans="1:25">
-      <c r="A346" s="48"/>
+      <c r="A346" s="50"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
@@ -12983,7 +13075,7 @@
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
       <c r="J346" s="5"/>
-      <c r="K346" s="49"/>
+      <c r="K346" s="51"/>
       <c r="L346" s="5"/>
       <c r="M346" s="5"/>
       <c r="N346" s="5"/>
@@ -12996,7 +13088,7 @@
       <c r="Y346" s="5"/>
     </row>
     <row r="347" spans="1:25">
-      <c r="A347" s="48"/>
+      <c r="A347" s="50"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
@@ -13005,7 +13097,7 @@
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
       <c r="J347" s="5"/>
-      <c r="K347" s="49"/>
+      <c r="K347" s="51"/>
       <c r="L347" s="5"/>
       <c r="M347" s="5"/>
       <c r="N347" s="5"/>
@@ -13018,7 +13110,7 @@
       <c r="Y347" s="5"/>
     </row>
     <row r="348" spans="1:25">
-      <c r="A348" s="48"/>
+      <c r="A348" s="50"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
@@ -13027,7 +13119,7 @@
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
       <c r="J348" s="5"/>
-      <c r="K348" s="49"/>
+      <c r="K348" s="51"/>
       <c r="L348" s="5"/>
       <c r="M348" s="5"/>
       <c r="N348" s="5"/>
@@ -13040,7 +13132,7 @@
       <c r="Y348" s="5"/>
     </row>
     <row r="349" spans="1:25">
-      <c r="A349" s="48"/>
+      <c r="A349" s="50"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
@@ -13049,7 +13141,7 @@
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
       <c r="J349" s="5"/>
-      <c r="K349" s="49"/>
+      <c r="K349" s="51"/>
       <c r="L349" s="5"/>
       <c r="M349" s="5"/>
       <c r="N349" s="5"/>
@@ -13062,7 +13154,7 @@
       <c r="Y349" s="5"/>
     </row>
     <row r="350" spans="1:25">
-      <c r="A350" s="48"/>
+      <c r="A350" s="50"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
@@ -13071,7 +13163,7 @@
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
       <c r="J350" s="5"/>
-      <c r="K350" s="49"/>
+      <c r="K350" s="51"/>
       <c r="L350" s="5"/>
       <c r="M350" s="5"/>
       <c r="N350" s="5"/>
@@ -13084,7 +13176,7 @@
       <c r="Y350" s="5"/>
     </row>
     <row r="351" spans="1:25">
-      <c r="A351" s="48"/>
+      <c r="A351" s="50"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
@@ -13093,7 +13185,7 @@
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
       <c r="J351" s="5"/>
-      <c r="K351" s="49"/>
+      <c r="K351" s="51"/>
       <c r="L351" s="5"/>
       <c r="M351" s="5"/>
       <c r="N351" s="5"/>
@@ -13106,7 +13198,7 @@
       <c r="Y351" s="5"/>
     </row>
     <row r="352" spans="1:25">
-      <c r="A352" s="48"/>
+      <c r="A352" s="50"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
@@ -13115,7 +13207,7 @@
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
       <c r="J352" s="5"/>
-      <c r="K352" s="49"/>
+      <c r="K352" s="51"/>
       <c r="L352" s="5"/>
       <c r="M352" s="5"/>
       <c r="N352" s="5"/>
@@ -13128,7 +13220,7 @@
       <c r="Y352" s="5"/>
     </row>
     <row r="353" spans="1:25">
-      <c r="A353" s="48"/>
+      <c r="A353" s="50"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
@@ -13137,7 +13229,7 @@
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
       <c r="J353" s="5"/>
-      <c r="K353" s="49"/>
+      <c r="K353" s="51"/>
       <c r="L353" s="5"/>
       <c r="M353" s="5"/>
       <c r="N353" s="5"/>
@@ -13150,7 +13242,7 @@
       <c r="Y353" s="5"/>
     </row>
     <row r="354" spans="1:25">
-      <c r="A354" s="48"/>
+      <c r="A354" s="50"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
@@ -13159,7 +13251,7 @@
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
       <c r="J354" s="5"/>
-      <c r="K354" s="49"/>
+      <c r="K354" s="51"/>
       <c r="L354" s="5"/>
       <c r="M354" s="5"/>
       <c r="N354" s="5"/>
@@ -13172,7 +13264,7 @@
       <c r="Y354" s="5"/>
     </row>
     <row r="355" spans="1:25">
-      <c r="A355" s="48"/>
+      <c r="A355" s="50"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -13181,7 +13273,7 @@
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
       <c r="J355" s="5"/>
-      <c r="K355" s="49"/>
+      <c r="K355" s="51"/>
       <c r="L355" s="5"/>
       <c r="M355" s="5"/>
       <c r="N355" s="5"/>
@@ -13194,7 +13286,7 @@
       <c r="Y355" s="5"/>
     </row>
     <row r="356" spans="1:25">
-      <c r="A356" s="48"/>
+      <c r="A356" s="50"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
@@ -13203,7 +13295,7 @@
       <c r="G356" s="3"/>
       <c r="H356" s="3"/>
       <c r="J356" s="5"/>
-      <c r="K356" s="49"/>
+      <c r="K356" s="51"/>
       <c r="L356" s="5"/>
       <c r="M356" s="5"/>
       <c r="N356" s="5"/>
@@ -13216,7 +13308,7 @@
       <c r="Y356" s="5"/>
     </row>
     <row r="357" spans="1:25">
-      <c r="A357" s="48"/>
+      <c r="A357" s="50"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
@@ -13225,7 +13317,7 @@
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
       <c r="J357" s="5"/>
-      <c r="K357" s="49"/>
+      <c r="K357" s="51"/>
       <c r="L357" s="5"/>
       <c r="M357" s="5"/>
       <c r="N357" s="5"/>
@@ -13238,7 +13330,7 @@
       <c r="Y357" s="5"/>
     </row>
     <row r="358" spans="1:25">
-      <c r="A358" s="48"/>
+      <c r="A358" s="50"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
@@ -13247,7 +13339,7 @@
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
       <c r="J358" s="5"/>
-      <c r="K358" s="49"/>
+      <c r="K358" s="51"/>
       <c r="L358" s="5"/>
       <c r="M358" s="5"/>
       <c r="N358" s="5"/>
@@ -13260,7 +13352,7 @@
       <c r="Y358" s="5"/>
     </row>
     <row r="359" spans="1:25">
-      <c r="A359" s="48"/>
+      <c r="A359" s="50"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
@@ -13269,7 +13361,7 @@
       <c r="G359" s="3"/>
       <c r="H359" s="3"/>
       <c r="J359" s="5"/>
-      <c r="K359" s="49"/>
+      <c r="K359" s="51"/>
       <c r="L359" s="5"/>
       <c r="M359" s="5"/>
       <c r="N359" s="5"/>
@@ -13282,7 +13374,7 @@
       <c r="Y359" s="5"/>
     </row>
     <row r="360" spans="1:25">
-      <c r="A360" s="48"/>
+      <c r="A360" s="50"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
@@ -13291,7 +13383,7 @@
       <c r="G360" s="3"/>
       <c r="H360" s="3"/>
       <c r="J360" s="5"/>
-      <c r="K360" s="49"/>
+      <c r="K360" s="51"/>
       <c r="L360" s="5"/>
       <c r="M360" s="5"/>
       <c r="N360" s="5"/>
@@ -13304,7 +13396,7 @@
       <c r="Y360" s="5"/>
     </row>
     <row r="361" spans="1:25">
-      <c r="A361" s="48"/>
+      <c r="A361" s="50"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
@@ -13313,7 +13405,7 @@
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
       <c r="J361" s="5"/>
-      <c r="K361" s="49"/>
+      <c r="K361" s="51"/>
       <c r="L361" s="5"/>
       <c r="M361" s="5"/>
       <c r="N361" s="5"/>
@@ -13326,7 +13418,7 @@
       <c r="Y361" s="5"/>
     </row>
     <row r="362" spans="1:25">
-      <c r="A362" s="48"/>
+      <c r="A362" s="50"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
@@ -13335,7 +13427,7 @@
       <c r="G362" s="3"/>
       <c r="H362" s="3"/>
       <c r="J362" s="5"/>
-      <c r="K362" s="49"/>
+      <c r="K362" s="51"/>
       <c r="L362" s="5"/>
       <c r="M362" s="5"/>
       <c r="N362" s="5"/>
@@ -13348,7 +13440,7 @@
       <c r="Y362" s="5"/>
     </row>
     <row r="363" spans="1:25">
-      <c r="A363" s="48"/>
+      <c r="A363" s="50"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
@@ -13357,7 +13449,7 @@
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
       <c r="J363" s="5"/>
-      <c r="K363" s="49"/>
+      <c r="K363" s="51"/>
       <c r="L363" s="5"/>
       <c r="M363" s="5"/>
       <c r="N363" s="5"/>
@@ -13370,7 +13462,7 @@
       <c r="Y363" s="5"/>
     </row>
     <row r="364" spans="1:25">
-      <c r="A364" s="48"/>
+      <c r="A364" s="50"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
@@ -13379,7 +13471,7 @@
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
       <c r="J364" s="5"/>
-      <c r="K364" s="49"/>
+      <c r="K364" s="51"/>
       <c r="L364" s="5"/>
       <c r="M364" s="5"/>
       <c r="N364" s="5"/>
@@ -13392,7 +13484,7 @@
       <c r="Y364" s="5"/>
     </row>
     <row r="365" spans="1:25">
-      <c r="A365" s="48"/>
+      <c r="A365" s="50"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
@@ -13401,7 +13493,7 @@
       <c r="G365" s="3"/>
       <c r="H365" s="3"/>
       <c r="J365" s="5"/>
-      <c r="K365" s="49"/>
+      <c r="K365" s="51"/>
       <c r="L365" s="5"/>
       <c r="M365" s="5"/>
       <c r="N365" s="5"/>
@@ -13414,7 +13506,7 @@
       <c r="Y365" s="5"/>
     </row>
     <row r="366" spans="1:25">
-      <c r="A366" s="48"/>
+      <c r="A366" s="50"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
@@ -13423,7 +13515,7 @@
       <c r="G366" s="3"/>
       <c r="H366" s="3"/>
       <c r="J366" s="5"/>
-      <c r="K366" s="49"/>
+      <c r="K366" s="51"/>
       <c r="L366" s="5"/>
       <c r="M366" s="5"/>
       <c r="N366" s="5"/>
@@ -13436,7 +13528,7 @@
       <c r="Y366" s="5"/>
     </row>
     <row r="367" spans="1:25">
-      <c r="A367" s="48"/>
+      <c r="A367" s="50"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
@@ -13445,7 +13537,7 @@
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
       <c r="J367" s="5"/>
-      <c r="K367" s="49"/>
+      <c r="K367" s="51"/>
       <c r="L367" s="5"/>
       <c r="M367" s="5"/>
       <c r="N367" s="5"/>
@@ -13458,7 +13550,7 @@
       <c r="Y367" s="5"/>
     </row>
     <row r="368" spans="1:25">
-      <c r="A368" s="48"/>
+      <c r="A368" s="50"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
@@ -13467,7 +13559,7 @@
       <c r="G368" s="3"/>
       <c r="H368" s="3"/>
       <c r="J368" s="5"/>
-      <c r="K368" s="49"/>
+      <c r="K368" s="51"/>
       <c r="L368" s="5"/>
       <c r="M368" s="5"/>
       <c r="N368" s="5"/>
@@ -13480,7 +13572,7 @@
       <c r="Y368" s="5"/>
     </row>
     <row r="369" spans="1:25">
-      <c r="A369" s="48"/>
+      <c r="A369" s="50"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
@@ -13489,7 +13581,7 @@
       <c r="G369" s="3"/>
       <c r="H369" s="3"/>
       <c r="J369" s="5"/>
-      <c r="K369" s="49"/>
+      <c r="K369" s="51"/>
       <c r="L369" s="5"/>
       <c r="M369" s="5"/>
       <c r="N369" s="5"/>
@@ -13502,7 +13594,7 @@
       <c r="Y369" s="5"/>
     </row>
     <row r="370" spans="1:25">
-      <c r="A370" s="48"/>
+      <c r="A370" s="50"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
@@ -13511,7 +13603,7 @@
       <c r="G370" s="3"/>
       <c r="H370" s="3"/>
       <c r="J370" s="5"/>
-      <c r="K370" s="49"/>
+      <c r="K370" s="51"/>
       <c r="L370" s="5"/>
       <c r="M370" s="5"/>
       <c r="N370" s="5"/>
@@ -13524,7 +13616,7 @@
       <c r="Y370" s="5"/>
     </row>
     <row r="371" spans="1:25">
-      <c r="A371" s="48"/>
+      <c r="A371" s="50"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
@@ -13533,7 +13625,7 @@
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
       <c r="J371" s="5"/>
-      <c r="K371" s="49"/>
+      <c r="K371" s="51"/>
       <c r="L371" s="5"/>
       <c r="M371" s="5"/>
       <c r="N371" s="5"/>
@@ -13546,7 +13638,7 @@
       <c r="Y371" s="5"/>
     </row>
     <row r="372" spans="1:25">
-      <c r="A372" s="48"/>
+      <c r="A372" s="50"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
@@ -13555,7 +13647,7 @@
       <c r="G372" s="3"/>
       <c r="H372" s="3"/>
       <c r="J372" s="5"/>
-      <c r="K372" s="49"/>
+      <c r="K372" s="51"/>
       <c r="L372" s="5"/>
       <c r="M372" s="5"/>
       <c r="N372" s="5"/>
@@ -13568,7 +13660,7 @@
       <c r="Y372" s="5"/>
     </row>
     <row r="373" spans="1:25">
-      <c r="A373" s="48"/>
+      <c r="A373" s="50"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
@@ -13577,7 +13669,7 @@
       <c r="G373" s="3"/>
       <c r="H373" s="3"/>
       <c r="J373" s="5"/>
-      <c r="K373" s="49"/>
+      <c r="K373" s="51"/>
       <c r="L373" s="5"/>
       <c r="M373" s="5"/>
       <c r="N373" s="5"/>
@@ -13590,7 +13682,7 @@
       <c r="Y373" s="5"/>
     </row>
     <row r="374" spans="1:25">
-      <c r="A374" s="48"/>
+      <c r="A374" s="50"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
@@ -13599,7 +13691,7 @@
       <c r="G374" s="3"/>
       <c r="H374" s="3"/>
       <c r="J374" s="5"/>
-      <c r="K374" s="49"/>
+      <c r="K374" s="51"/>
       <c r="L374" s="5"/>
       <c r="M374" s="5"/>
       <c r="N374" s="5"/>
@@ -13612,7 +13704,7 @@
       <c r="Y374" s="5"/>
     </row>
     <row r="375" spans="1:25">
-      <c r="A375" s="48"/>
+      <c r="A375" s="50"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
@@ -13621,7 +13713,7 @@
       <c r="G375" s="3"/>
       <c r="H375" s="3"/>
       <c r="J375" s="5"/>
-      <c r="K375" s="49"/>
+      <c r="K375" s="51"/>
       <c r="L375" s="5"/>
       <c r="M375" s="5"/>
       <c r="N375" s="5"/>
@@ -13634,7 +13726,7 @@
       <c r="Y375" s="5"/>
     </row>
     <row r="376" spans="1:25">
-      <c r="A376" s="48"/>
+      <c r="A376" s="50"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
@@ -13643,7 +13735,7 @@
       <c r="G376" s="3"/>
       <c r="H376" s="3"/>
       <c r="J376" s="5"/>
-      <c r="K376" s="49"/>
+      <c r="K376" s="51"/>
       <c r="L376" s="5"/>
       <c r="M376" s="5"/>
       <c r="N376" s="5"/>
@@ -13656,7 +13748,7 @@
       <c r="Y376" s="5"/>
     </row>
     <row r="377" spans="1:25">
-      <c r="A377" s="48"/>
+      <c r="A377" s="50"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
@@ -13665,7 +13757,7 @@
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
       <c r="J377" s="5"/>
-      <c r="K377" s="49"/>
+      <c r="K377" s="51"/>
       <c r="L377" s="5"/>
       <c r="M377" s="5"/>
       <c r="N377" s="5"/>
@@ -13678,7 +13770,7 @@
       <c r="Y377" s="5"/>
     </row>
     <row r="378" spans="1:25">
-      <c r="A378" s="48"/>
+      <c r="A378" s="50"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
@@ -13687,7 +13779,7 @@
       <c r="G378" s="3"/>
       <c r="H378" s="3"/>
       <c r="J378" s="5"/>
-      <c r="K378" s="49"/>
+      <c r="K378" s="51"/>
       <c r="L378" s="5"/>
       <c r="M378" s="5"/>
       <c r="N378" s="5"/>
@@ -13700,7 +13792,7 @@
       <c r="Y378" s="5"/>
     </row>
     <row r="379" spans="1:25">
-      <c r="A379" s="48"/>
+      <c r="A379" s="50"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
@@ -13709,7 +13801,7 @@
       <c r="G379" s="3"/>
       <c r="H379" s="3"/>
       <c r="J379" s="5"/>
-      <c r="K379" s="49"/>
+      <c r="K379" s="51"/>
       <c r="L379" s="5"/>
       <c r="M379" s="5"/>
       <c r="N379" s="5"/>
@@ -13722,7 +13814,7 @@
       <c r="Y379" s="5"/>
     </row>
     <row r="380" spans="1:25">
-      <c r="A380" s="48"/>
+      <c r="A380" s="50"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
@@ -13731,7 +13823,7 @@
       <c r="G380" s="3"/>
       <c r="H380" s="3"/>
       <c r="J380" s="5"/>
-      <c r="K380" s="49"/>
+      <c r="K380" s="51"/>
       <c r="L380" s="5"/>
       <c r="M380" s="5"/>
       <c r="N380" s="5"/>
@@ -13744,7 +13836,7 @@
       <c r="Y380" s="5"/>
     </row>
     <row r="381" spans="1:25">
-      <c r="A381" s="48"/>
+      <c r="A381" s="50"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
@@ -13753,7 +13845,7 @@
       <c r="G381" s="3"/>
       <c r="H381" s="3"/>
       <c r="J381" s="5"/>
-      <c r="K381" s="49"/>
+      <c r="K381" s="51"/>
       <c r="L381" s="5"/>
       <c r="M381" s="5"/>
       <c r="N381" s="5"/>
@@ -13766,7 +13858,7 @@
       <c r="Y381" s="5"/>
     </row>
     <row r="382" spans="1:25">
-      <c r="A382" s="48"/>
+      <c r="A382" s="50"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
@@ -13775,7 +13867,7 @@
       <c r="G382" s="3"/>
       <c r="H382" s="3"/>
       <c r="J382" s="5"/>
-      <c r="K382" s="49"/>
+      <c r="K382" s="51"/>
       <c r="L382" s="5"/>
       <c r="M382" s="5"/>
       <c r="N382" s="5"/>
@@ -13788,7 +13880,7 @@
       <c r="Y382" s="5"/>
     </row>
     <row r="383" spans="1:25">
-      <c r="A383" s="48"/>
+      <c r="A383" s="50"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
@@ -13797,7 +13889,7 @@
       <c r="G383" s="3"/>
       <c r="H383" s="3"/>
       <c r="J383" s="5"/>
-      <c r="K383" s="49"/>
+      <c r="K383" s="51"/>
       <c r="L383" s="5"/>
       <c r="M383" s="5"/>
       <c r="N383" s="5"/>
@@ -13810,7 +13902,7 @@
       <c r="Y383" s="5"/>
     </row>
     <row r="384" spans="1:25">
-      <c r="A384" s="48"/>
+      <c r="A384" s="50"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
@@ -13819,7 +13911,7 @@
       <c r="G384" s="3"/>
       <c r="H384" s="3"/>
       <c r="J384" s="5"/>
-      <c r="K384" s="49"/>
+      <c r="K384" s="51"/>
       <c r="L384" s="5"/>
       <c r="M384" s="5"/>
       <c r="N384" s="5"/>
@@ -13832,7 +13924,7 @@
       <c r="Y384" s="5"/>
     </row>
     <row r="385" spans="1:25">
-      <c r="A385" s="48"/>
+      <c r="A385" s="50"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
@@ -13841,7 +13933,7 @@
       <c r="G385" s="3"/>
       <c r="H385" s="3"/>
       <c r="J385" s="5"/>
-      <c r="K385" s="49"/>
+      <c r="K385" s="51"/>
       <c r="L385" s="5"/>
       <c r="M385" s="5"/>
       <c r="N385" s="5"/>
@@ -13854,7 +13946,7 @@
       <c r="Y385" s="5"/>
     </row>
     <row r="386" spans="1:25">
-      <c r="A386" s="48"/>
+      <c r="A386" s="50"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
@@ -13863,7 +13955,7 @@
       <c r="G386" s="3"/>
       <c r="H386" s="3"/>
       <c r="J386" s="5"/>
-      <c r="K386" s="49"/>
+      <c r="K386" s="51"/>
       <c r="L386" s="5"/>
       <c r="M386" s="5"/>
       <c r="N386" s="5"/>
@@ -13876,7 +13968,7 @@
       <c r="Y386" s="5"/>
     </row>
     <row r="387" spans="1:25">
-      <c r="A387" s="48"/>
+      <c r="A387" s="50"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
@@ -13885,7 +13977,7 @@
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
       <c r="J387" s="5"/>
-      <c r="K387" s="49"/>
+      <c r="K387" s="51"/>
       <c r="L387" s="5"/>
       <c r="M387" s="5"/>
       <c r="N387" s="5"/>
@@ -13898,7 +13990,7 @@
       <c r="Y387" s="5"/>
     </row>
     <row r="388" spans="1:25">
-      <c r="A388" s="48"/>
+      <c r="A388" s="50"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
@@ -13907,7 +13999,7 @@
       <c r="G388" s="3"/>
       <c r="H388" s="3"/>
       <c r="J388" s="5"/>
-      <c r="K388" s="49"/>
+      <c r="K388" s="51"/>
       <c r="L388" s="5"/>
       <c r="M388" s="5"/>
       <c r="N388" s="5"/>
@@ -13920,7 +14012,7 @@
       <c r="Y388" s="5"/>
     </row>
     <row r="389" spans="1:25">
-      <c r="A389" s="48"/>
+      <c r="A389" s="50"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
@@ -13929,7 +14021,7 @@
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
       <c r="J389" s="5"/>
-      <c r="K389" s="49"/>
+      <c r="K389" s="51"/>
       <c r="L389" s="5"/>
       <c r="M389" s="5"/>
       <c r="N389" s="5"/>
@@ -13942,7 +14034,7 @@
       <c r="Y389" s="5"/>
     </row>
     <row r="390" spans="1:25">
-      <c r="A390" s="48"/>
+      <c r="A390" s="50"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
@@ -13951,7 +14043,7 @@
       <c r="G390" s="3"/>
       <c r="H390" s="3"/>
       <c r="J390" s="5"/>
-      <c r="K390" s="49"/>
+      <c r="K390" s="51"/>
       <c r="L390" s="5"/>
       <c r="M390" s="5"/>
       <c r="N390" s="5"/>
@@ -13964,7 +14056,7 @@
       <c r="Y390" s="5"/>
     </row>
     <row r="391" spans="1:25">
-      <c r="A391" s="48"/>
+      <c r="A391" s="50"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
@@ -13973,7 +14065,7 @@
       <c r="G391" s="3"/>
       <c r="H391" s="3"/>
       <c r="J391" s="5"/>
-      <c r="K391" s="49"/>
+      <c r="K391" s="51"/>
       <c r="L391" s="5"/>
       <c r="M391" s="5"/>
       <c r="N391" s="5"/>
@@ -13986,7 +14078,7 @@
       <c r="Y391" s="5"/>
     </row>
     <row r="392" spans="1:25">
-      <c r="A392" s="48"/>
+      <c r="A392" s="50"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
@@ -13995,7 +14087,7 @@
       <c r="G392" s="3"/>
       <c r="H392" s="3"/>
       <c r="J392" s="5"/>
-      <c r="K392" s="49"/>
+      <c r="K392" s="51"/>
       <c r="L392" s="5"/>
       <c r="M392" s="5"/>
       <c r="N392" s="5"/>
@@ -14008,7 +14100,7 @@
       <c r="Y392" s="5"/>
     </row>
     <row r="393" spans="1:25">
-      <c r="A393" s="48"/>
+      <c r="A393" s="50"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
@@ -14017,7 +14109,7 @@
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
       <c r="J393" s="5"/>
-      <c r="K393" s="49"/>
+      <c r="K393" s="51"/>
       <c r="L393" s="5"/>
       <c r="M393" s="5"/>
       <c r="N393" s="5"/>
@@ -14030,7 +14122,7 @@
       <c r="Y393" s="5"/>
     </row>
     <row r="394" spans="1:25">
-      <c r="A394" s="48"/>
+      <c r="A394" s="50"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
@@ -14039,7 +14131,7 @@
       <c r="G394" s="3"/>
       <c r="H394" s="3"/>
       <c r="J394" s="5"/>
-      <c r="K394" s="49"/>
+      <c r="K394" s="51"/>
       <c r="L394" s="5"/>
       <c r="M394" s="5"/>
       <c r="N394" s="5"/>
@@ -14052,7 +14144,7 @@
       <c r="Y394" s="5"/>
     </row>
     <row r="395" spans="1:25">
-      <c r="A395" s="48"/>
+      <c r="A395" s="50"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
@@ -14061,7 +14153,7 @@
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
       <c r="J395" s="5"/>
-      <c r="K395" s="49"/>
+      <c r="K395" s="51"/>
       <c r="L395" s="5"/>
       <c r="M395" s="5"/>
       <c r="N395" s="5"/>
@@ -14074,7 +14166,7 @@
       <c r="Y395" s="5"/>
     </row>
     <row r="396" spans="1:25">
-      <c r="A396" s="48"/>
+      <c r="A396" s="50"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
@@ -14083,7 +14175,7 @@
       <c r="G396" s="3"/>
       <c r="H396" s="3"/>
       <c r="J396" s="5"/>
-      <c r="K396" s="49"/>
+      <c r="K396" s="51"/>
       <c r="L396" s="5"/>
       <c r="M396" s="5"/>
       <c r="N396" s="5"/>
@@ -14096,7 +14188,7 @@
       <c r="Y396" s="5"/>
     </row>
     <row r="397" spans="1:25">
-      <c r="A397" s="48"/>
+      <c r="A397" s="50"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
@@ -14105,7 +14197,7 @@
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
       <c r="J397" s="5"/>
-      <c r="K397" s="49"/>
+      <c r="K397" s="51"/>
       <c r="L397" s="5"/>
       <c r="M397" s="5"/>
       <c r="N397" s="5"/>
@@ -14118,7 +14210,7 @@
       <c r="Y397" s="5"/>
     </row>
     <row r="398" spans="1:25">
-      <c r="A398" s="48"/>
+      <c r="A398" s="50"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
@@ -14127,7 +14219,7 @@
       <c r="G398" s="3"/>
       <c r="H398" s="3"/>
       <c r="J398" s="5"/>
-      <c r="K398" s="49"/>
+      <c r="K398" s="51"/>
       <c r="L398" s="5"/>
       <c r="M398" s="5"/>
       <c r="N398" s="5"/>
@@ -14140,7 +14232,7 @@
       <c r="Y398" s="5"/>
     </row>
     <row r="399" spans="1:25">
-      <c r="A399" s="48"/>
+      <c r="A399" s="50"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
@@ -14149,7 +14241,7 @@
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
       <c r="J399" s="5"/>
-      <c r="K399" s="49"/>
+      <c r="K399" s="51"/>
       <c r="L399" s="5"/>
       <c r="M399" s="5"/>
       <c r="N399" s="5"/>
@@ -14162,7 +14254,7 @@
       <c r="Y399" s="5"/>
     </row>
     <row r="400" spans="1:25">
-      <c r="A400" s="48"/>
+      <c r="A400" s="50"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
@@ -14171,7 +14263,7 @@
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
       <c r="J400" s="5"/>
-      <c r="K400" s="49"/>
+      <c r="K400" s="51"/>
       <c r="L400" s="5"/>
       <c r="M400" s="5"/>
       <c r="N400" s="5"/>
@@ -14184,7 +14276,7 @@
       <c r="Y400" s="5"/>
     </row>
     <row r="401" spans="1:25">
-      <c r="A401" s="48"/>
+      <c r="A401" s="50"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
@@ -14193,7 +14285,7 @@
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
       <c r="J401" s="5"/>
-      <c r="K401" s="49"/>
+      <c r="K401" s="51"/>
       <c r="L401" s="5"/>
       <c r="M401" s="5"/>
       <c r="N401" s="5"/>
@@ -14206,7 +14298,7 @@
       <c r="Y401" s="5"/>
     </row>
     <row r="402" spans="1:25">
-      <c r="A402" s="48"/>
+      <c r="A402" s="50"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
@@ -14215,7 +14307,7 @@
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
       <c r="J402" s="5"/>
-      <c r="K402" s="49"/>
+      <c r="K402" s="51"/>
       <c r="L402" s="5"/>
       <c r="M402" s="5"/>
       <c r="N402" s="5"/>
@@ -14228,7 +14320,7 @@
       <c r="Y402" s="5"/>
     </row>
     <row r="403" spans="1:25">
-      <c r="A403" s="48"/>
+      <c r="A403" s="50"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
@@ -14237,7 +14329,7 @@
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
       <c r="J403" s="5"/>
-      <c r="K403" s="49"/>
+      <c r="K403" s="51"/>
       <c r="L403" s="5"/>
       <c r="M403" s="5"/>
       <c r="N403" s="5"/>
@@ -14250,7 +14342,7 @@
       <c r="Y403" s="5"/>
     </row>
     <row r="404" spans="1:25">
-      <c r="A404" s="48"/>
+      <c r="A404" s="50"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
@@ -14259,7 +14351,7 @@
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
       <c r="J404" s="5"/>
-      <c r="K404" s="49"/>
+      <c r="K404" s="51"/>
       <c r="L404" s="5"/>
       <c r="M404" s="5"/>
       <c r="N404" s="5"/>
@@ -14272,7 +14364,7 @@
       <c r="Y404" s="5"/>
     </row>
     <row r="405" spans="1:25">
-      <c r="A405" s="48"/>
+      <c r="A405" s="50"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
@@ -14281,7 +14373,7 @@
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
       <c r="J405" s="5"/>
-      <c r="K405" s="49"/>
+      <c r="K405" s="51"/>
       <c r="L405" s="5"/>
       <c r="M405" s="5"/>
       <c r="N405" s="5"/>
@@ -14294,7 +14386,7 @@
       <c r="Y405" s="5"/>
     </row>
     <row r="406" spans="1:25">
-      <c r="A406" s="48"/>
+      <c r="A406" s="50"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
@@ -14303,7 +14395,7 @@
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
       <c r="J406" s="5"/>
-      <c r="K406" s="49"/>
+      <c r="K406" s="51"/>
       <c r="L406" s="5"/>
       <c r="M406" s="5"/>
       <c r="N406" s="5"/>
@@ -14316,7 +14408,7 @@
       <c r="Y406" s="5"/>
     </row>
     <row r="407" spans="1:25">
-      <c r="A407" s="48"/>
+      <c r="A407" s="50"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
@@ -14325,7 +14417,7 @@
       <c r="G407" s="3"/>
       <c r="H407" s="3"/>
       <c r="J407" s="5"/>
-      <c r="K407" s="49"/>
+      <c r="K407" s="51"/>
       <c r="L407" s="5"/>
       <c r="M407" s="5"/>
       <c r="N407" s="5"/>
@@ -14338,7 +14430,7 @@
       <c r="Y407" s="5"/>
     </row>
     <row r="408" spans="1:25">
-      <c r="A408" s="48"/>
+      <c r="A408" s="50"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
@@ -14347,7 +14439,7 @@
       <c r="G408" s="3"/>
       <c r="H408" s="3"/>
       <c r="J408" s="5"/>
-      <c r="K408" s="49"/>
+      <c r="K408" s="51"/>
       <c r="L408" s="5"/>
       <c r="M408" s="5"/>
       <c r="N408" s="5"/>
@@ -14360,7 +14452,7 @@
       <c r="Y408" s="5"/>
     </row>
     <row r="409" spans="1:25">
-      <c r="A409" s="48"/>
+      <c r="A409" s="50"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
@@ -14369,7 +14461,7 @@
       <c r="G409" s="3"/>
       <c r="H409" s="3"/>
       <c r="J409" s="5"/>
-      <c r="K409" s="49"/>
+      <c r="K409" s="51"/>
       <c r="L409" s="5"/>
       <c r="M409" s="5"/>
       <c r="N409" s="5"/>
@@ -14382,7 +14474,7 @@
       <c r="Y409" s="5"/>
     </row>
     <row r="410" spans="1:25">
-      <c r="A410" s="48"/>
+      <c r="A410" s="50"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
@@ -14391,7 +14483,7 @@
       <c r="G410" s="3"/>
       <c r="H410" s="3"/>
       <c r="J410" s="5"/>
-      <c r="K410" s="49"/>
+      <c r="K410" s="51"/>
       <c r="L410" s="5"/>
       <c r="M410" s="5"/>
       <c r="N410" s="5"/>
@@ -14404,7 +14496,7 @@
       <c r="Y410" s="5"/>
     </row>
     <row r="411" spans="1:25">
-      <c r="A411" s="48"/>
+      <c r="A411" s="50"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
@@ -14413,7 +14505,7 @@
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
       <c r="J411" s="5"/>
-      <c r="K411" s="49"/>
+      <c r="K411" s="51"/>
       <c r="L411" s="5"/>
       <c r="M411" s="5"/>
       <c r="N411" s="5"/>
@@ -14426,7 +14518,7 @@
       <c r="Y411" s="5"/>
     </row>
     <row r="412" spans="1:25">
-      <c r="A412" s="48"/>
+      <c r="A412" s="50"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
@@ -14435,7 +14527,7 @@
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
       <c r="J412" s="5"/>
-      <c r="K412" s="49"/>
+      <c r="K412" s="51"/>
       <c r="L412" s="5"/>
       <c r="M412" s="5"/>
       <c r="N412" s="5"/>
@@ -14448,7 +14540,7 @@
       <c r="Y412" s="5"/>
     </row>
     <row r="413" spans="1:25">
-      <c r="A413" s="48"/>
+      <c r="A413" s="50"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
@@ -14457,7 +14549,7 @@
       <c r="G413" s="3"/>
       <c r="H413" s="3"/>
       <c r="J413" s="5"/>
-      <c r="K413" s="49"/>
+      <c r="K413" s="51"/>
       <c r="L413" s="5"/>
       <c r="M413" s="5"/>
       <c r="N413" s="5"/>
@@ -14470,7 +14562,7 @@
       <c r="Y413" s="5"/>
     </row>
     <row r="414" spans="1:25">
-      <c r="A414" s="48"/>
+      <c r="A414" s="50"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
@@ -14479,7 +14571,7 @@
       <c r="G414" s="3"/>
       <c r="H414" s="3"/>
       <c r="J414" s="5"/>
-      <c r="K414" s="49"/>
+      <c r="K414" s="51"/>
       <c r="L414" s="5"/>
       <c r="M414" s="5"/>
       <c r="N414" s="5"/>
@@ -14492,7 +14584,7 @@
       <c r="Y414" s="5"/>
     </row>
     <row r="415" spans="1:25">
-      <c r="A415" s="48"/>
+      <c r="A415" s="50"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
@@ -14501,7 +14593,7 @@
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
       <c r="J415" s="5"/>
-      <c r="K415" s="49"/>
+      <c r="K415" s="51"/>
       <c r="L415" s="5"/>
       <c r="M415" s="5"/>
       <c r="N415" s="5"/>
@@ -14514,7 +14606,7 @@
       <c r="Y415" s="5"/>
     </row>
     <row r="416" spans="1:25">
-      <c r="A416" s="48"/>
+      <c r="A416" s="50"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
@@ -14523,7 +14615,7 @@
       <c r="G416" s="3"/>
       <c r="H416" s="3"/>
       <c r="J416" s="5"/>
-      <c r="K416" s="49"/>
+      <c r="K416" s="51"/>
       <c r="L416" s="5"/>
       <c r="M416" s="5"/>
       <c r="N416" s="5"/>
@@ -14536,7 +14628,7 @@
       <c r="Y416" s="5"/>
     </row>
     <row r="417" spans="1:25">
-      <c r="A417" s="48"/>
+      <c r="A417" s="50"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
@@ -14545,7 +14637,7 @@
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
       <c r="J417" s="5"/>
-      <c r="K417" s="49"/>
+      <c r="K417" s="51"/>
       <c r="L417" s="5"/>
       <c r="M417" s="5"/>
       <c r="N417" s="5"/>
@@ -14558,7 +14650,7 @@
       <c r="Y417" s="5"/>
     </row>
     <row r="418" spans="1:25">
-      <c r="A418" s="48"/>
+      <c r="A418" s="50"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
@@ -14567,7 +14659,7 @@
       <c r="G418" s="3"/>
       <c r="H418" s="3"/>
       <c r="J418" s="5"/>
-      <c r="K418" s="49"/>
+      <c r="K418" s="51"/>
       <c r="L418" s="5"/>
       <c r="M418" s="5"/>
       <c r="N418" s="5"/>
@@ -14580,7 +14672,7 @@
       <c r="Y418" s="5"/>
     </row>
     <row r="419" spans="1:25">
-      <c r="A419" s="48"/>
+      <c r="A419" s="50"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
@@ -14589,7 +14681,7 @@
       <c r="G419" s="3"/>
       <c r="H419" s="3"/>
       <c r="J419" s="5"/>
-      <c r="K419" s="49"/>
+      <c r="K419" s="51"/>
       <c r="L419" s="5"/>
       <c r="M419" s="5"/>
       <c r="N419" s="5"/>
@@ -14602,7 +14694,7 @@
       <c r="Y419" s="5"/>
     </row>
     <row r="420" spans="1:25">
-      <c r="A420" s="48"/>
+      <c r="A420" s="50"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
@@ -14611,7 +14703,7 @@
       <c r="G420" s="3"/>
       <c r="H420" s="3"/>
       <c r="J420" s="5"/>
-      <c r="K420" s="49"/>
+      <c r="K420" s="51"/>
       <c r="L420" s="5"/>
       <c r="M420" s="5"/>
       <c r="N420" s="5"/>
@@ -14624,7 +14716,7 @@
       <c r="Y420" s="5"/>
     </row>
     <row r="421" spans="1:25">
-      <c r="A421" s="48"/>
+      <c r="A421" s="50"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
@@ -14633,7 +14725,7 @@
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
       <c r="J421" s="5"/>
-      <c r="K421" s="49"/>
+      <c r="K421" s="51"/>
       <c r="L421" s="5"/>
       <c r="M421" s="5"/>
       <c r="N421" s="5"/>
@@ -14646,7 +14738,7 @@
       <c r="Y421" s="5"/>
     </row>
     <row r="422" spans="1:25">
-      <c r="A422" s="48"/>
+      <c r="A422" s="50"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
@@ -14655,7 +14747,7 @@
       <c r="G422" s="3"/>
       <c r="H422" s="3"/>
       <c r="J422" s="5"/>
-      <c r="K422" s="49"/>
+      <c r="K422" s="51"/>
       <c r="L422" s="5"/>
       <c r="M422" s="5"/>
       <c r="N422" s="5"/>
@@ -14668,7 +14760,7 @@
       <c r="Y422" s="5"/>
     </row>
     <row r="423" spans="1:25">
-      <c r="A423" s="48"/>
+      <c r="A423" s="50"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
@@ -14677,7 +14769,7 @@
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
       <c r="J423" s="5"/>
-      <c r="K423" s="49"/>
+      <c r="K423" s="51"/>
       <c r="L423" s="5"/>
       <c r="M423" s="5"/>
       <c r="N423" s="5"/>
@@ -14690,7 +14782,7 @@
       <c r="Y423" s="5"/>
     </row>
     <row r="424" spans="1:25">
-      <c r="A424" s="48"/>
+      <c r="A424" s="50"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
@@ -14699,7 +14791,7 @@
       <c r="G424" s="3"/>
       <c r="H424" s="3"/>
       <c r="J424" s="5"/>
-      <c r="K424" s="49"/>
+      <c r="K424" s="51"/>
       <c r="L424" s="5"/>
       <c r="M424" s="5"/>
       <c r="N424" s="5"/>
@@ -14712,7 +14804,7 @@
       <c r="Y424" s="5"/>
     </row>
     <row r="425" spans="1:25">
-      <c r="A425" s="48"/>
+      <c r="A425" s="50"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
@@ -14721,7 +14813,7 @@
       <c r="G425" s="3"/>
       <c r="H425" s="3"/>
       <c r="J425" s="5"/>
-      <c r="K425" s="49"/>
+      <c r="K425" s="51"/>
       <c r="L425" s="5"/>
       <c r="M425" s="5"/>
       <c r="N425" s="5"/>
@@ -14734,7 +14826,7 @@
       <c r="Y425" s="5"/>
     </row>
     <row r="426" spans="1:25">
-      <c r="A426" s="48"/>
+      <c r="A426" s="50"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
@@ -14743,7 +14835,7 @@
       <c r="G426" s="3"/>
       <c r="H426" s="3"/>
       <c r="J426" s="5"/>
-      <c r="K426" s="49"/>
+      <c r="K426" s="51"/>
       <c r="L426" s="5"/>
       <c r="M426" s="5"/>
       <c r="N426" s="5"/>
@@ -14756,7 +14848,7 @@
       <c r="Y426" s="5"/>
     </row>
     <row r="427" spans="1:25">
-      <c r="A427" s="48"/>
+      <c r="A427" s="50"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
@@ -14765,7 +14857,7 @@
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
       <c r="J427" s="5"/>
-      <c r="K427" s="49"/>
+      <c r="K427" s="51"/>
       <c r="L427" s="5"/>
       <c r="M427" s="5"/>
       <c r="N427" s="5"/>
@@ -14778,7 +14870,7 @@
       <c r="Y427" s="5"/>
     </row>
     <row r="428" spans="1:25">
-      <c r="A428" s="48"/>
+      <c r="A428" s="50"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
@@ -14787,7 +14879,7 @@
       <c r="G428" s="3"/>
       <c r="H428" s="3"/>
       <c r="J428" s="5"/>
-      <c r="K428" s="49"/>
+      <c r="K428" s="51"/>
       <c r="L428" s="5"/>
       <c r="M428" s="5"/>
       <c r="N428" s="5"/>
@@ -14800,7 +14892,7 @@
       <c r="Y428" s="5"/>
     </row>
     <row r="429" spans="1:25">
-      <c r="A429" s="48"/>
+      <c r="A429" s="50"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
@@ -14809,7 +14901,7 @@
       <c r="G429" s="3"/>
       <c r="H429" s="3"/>
       <c r="J429" s="5"/>
-      <c r="K429" s="49"/>
+      <c r="K429" s="51"/>
       <c r="L429" s="5"/>
       <c r="M429" s="5"/>
       <c r="N429" s="5"/>
@@ -14822,7 +14914,7 @@
       <c r="Y429" s="5"/>
     </row>
     <row r="430" spans="1:25">
-      <c r="A430" s="48"/>
+      <c r="A430" s="50"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
@@ -14831,7 +14923,7 @@
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
       <c r="J430" s="5"/>
-      <c r="K430" s="49"/>
+      <c r="K430" s="51"/>
       <c r="L430" s="5"/>
       <c r="M430" s="5"/>
       <c r="N430" s="5"/>
@@ -14844,7 +14936,7 @@
       <c r="Y430" s="5"/>
     </row>
     <row r="431" spans="1:25">
-      <c r="A431" s="48"/>
+      <c r="A431" s="50"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
@@ -14853,7 +14945,7 @@
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
       <c r="J431" s="5"/>
-      <c r="K431" s="49"/>
+      <c r="K431" s="51"/>
       <c r="L431" s="5"/>
       <c r="M431" s="5"/>
       <c r="N431" s="5"/>
@@ -14866,7 +14958,7 @@
       <c r="Y431" s="5"/>
     </row>
     <row r="432" spans="1:25">
-      <c r="A432" s="48"/>
+      <c r="A432" s="50"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
@@ -14875,7 +14967,7 @@
       <c r="G432" s="3"/>
       <c r="H432" s="3"/>
       <c r="J432" s="5"/>
-      <c r="K432" s="49"/>
+      <c r="K432" s="51"/>
       <c r="L432" s="5"/>
       <c r="M432" s="5"/>
       <c r="N432" s="5"/>
@@ -14888,7 +14980,7 @@
       <c r="Y432" s="5"/>
     </row>
     <row r="433" spans="1:25">
-      <c r="A433" s="48"/>
+      <c r="A433" s="50"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
@@ -14897,7 +14989,7 @@
       <c r="G433" s="3"/>
       <c r="H433" s="3"/>
       <c r="J433" s="5"/>
-      <c r="K433" s="49"/>
+      <c r="K433" s="51"/>
       <c r="L433" s="5"/>
       <c r="M433" s="5"/>
       <c r="N433" s="5"/>
@@ -14910,7 +15002,7 @@
       <c r="Y433" s="5"/>
     </row>
     <row r="434" spans="1:25">
-      <c r="A434" s="48"/>
+      <c r="A434" s="50"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
@@ -14919,7 +15011,7 @@
       <c r="G434" s="3"/>
       <c r="H434" s="3"/>
       <c r="J434" s="5"/>
-      <c r="K434" s="49"/>
+      <c r="K434" s="51"/>
       <c r="L434" s="5"/>
       <c r="M434" s="5"/>
       <c r="N434" s="5"/>
@@ -14932,7 +15024,7 @@
       <c r="Y434" s="5"/>
     </row>
     <row r="435" spans="1:25">
-      <c r="A435" s="48"/>
+      <c r="A435" s="50"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
@@ -14941,7 +15033,7 @@
       <c r="G435" s="3"/>
       <c r="H435" s="3"/>
       <c r="J435" s="5"/>
-      <c r="K435" s="49"/>
+      <c r="K435" s="51"/>
       <c r="L435" s="5"/>
       <c r="M435" s="5"/>
       <c r="N435" s="5"/>
@@ -14954,7 +15046,7 @@
       <c r="Y435" s="5"/>
     </row>
     <row r="436" spans="1:25">
-      <c r="A436" s="48"/>
+      <c r="A436" s="50"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
@@ -14963,7 +15055,7 @@
       <c r="G436" s="3"/>
       <c r="H436" s="3"/>
       <c r="J436" s="5"/>
-      <c r="K436" s="49"/>
+      <c r="K436" s="51"/>
       <c r="L436" s="5"/>
       <c r="M436" s="5"/>
       <c r="N436" s="5"/>
@@ -14976,7 +15068,7 @@
       <c r="Y436" s="5"/>
     </row>
     <row r="437" spans="1:25">
-      <c r="A437" s="48"/>
+      <c r="A437" s="50"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
@@ -14985,7 +15077,7 @@
       <c r="G437" s="3"/>
       <c r="H437" s="3"/>
       <c r="J437" s="5"/>
-      <c r="K437" s="49"/>
+      <c r="K437" s="51"/>
       <c r="L437" s="5"/>
       <c r="M437" s="5"/>
       <c r="N437" s="5"/>
@@ -14998,7 +15090,7 @@
       <c r="Y437" s="5"/>
     </row>
     <row r="438" spans="1:25">
-      <c r="A438" s="48"/>
+      <c r="A438" s="50"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
@@ -15007,7 +15099,7 @@
       <c r="G438" s="3"/>
       <c r="H438" s="3"/>
       <c r="J438" s="5"/>
-      <c r="K438" s="49"/>
+      <c r="K438" s="51"/>
       <c r="L438" s="5"/>
       <c r="M438" s="5"/>
       <c r="N438" s="5"/>
@@ -15020,7 +15112,7 @@
       <c r="Y438" s="5"/>
     </row>
     <row r="439" spans="1:25">
-      <c r="A439" s="48"/>
+      <c r="A439" s="50"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
@@ -15029,7 +15121,7 @@
       <c r="G439" s="3"/>
       <c r="H439" s="3"/>
       <c r="J439" s="5"/>
-      <c r="K439" s="49"/>
+      <c r="K439" s="51"/>
       <c r="L439" s="5"/>
       <c r="M439" s="5"/>
       <c r="N439" s="5"/>
@@ -15042,7 +15134,7 @@
       <c r="Y439" s="5"/>
     </row>
     <row r="440" spans="1:25">
-      <c r="A440" s="48"/>
+      <c r="A440" s="50"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
@@ -15051,7 +15143,7 @@
       <c r="G440" s="3"/>
       <c r="H440" s="3"/>
       <c r="J440" s="5"/>
-      <c r="K440" s="49"/>
+      <c r="K440" s="51"/>
       <c r="L440" s="5"/>
       <c r="M440" s="5"/>
       <c r="N440" s="5"/>
@@ -15064,7 +15156,7 @@
       <c r="Y440" s="5"/>
     </row>
     <row r="441" spans="1:25">
-      <c r="A441" s="48"/>
+      <c r="A441" s="50"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
@@ -15073,7 +15165,7 @@
       <c r="G441" s="3"/>
       <c r="H441" s="3"/>
       <c r="J441" s="5"/>
-      <c r="K441" s="49"/>
+      <c r="K441" s="51"/>
       <c r="L441" s="5"/>
       <c r="M441" s="5"/>
       <c r="N441" s="5"/>
@@ -15086,7 +15178,7 @@
       <c r="Y441" s="5"/>
     </row>
     <row r="442" spans="1:25">
-      <c r="A442" s="48"/>
+      <c r="A442" s="50"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
@@ -15095,7 +15187,7 @@
       <c r="G442" s="3"/>
       <c r="H442" s="3"/>
       <c r="J442" s="5"/>
-      <c r="K442" s="49"/>
+      <c r="K442" s="51"/>
       <c r="L442" s="5"/>
       <c r="M442" s="5"/>
       <c r="N442" s="5"/>
@@ -15108,7 +15200,7 @@
       <c r="Y442" s="5"/>
     </row>
     <row r="443" spans="1:25">
-      <c r="A443" s="48"/>
+      <c r="A443" s="50"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
@@ -15117,7 +15209,7 @@
       <c r="G443" s="3"/>
       <c r="H443" s="3"/>
       <c r="J443" s="5"/>
-      <c r="K443" s="49"/>
+      <c r="K443" s="51"/>
       <c r="L443" s="5"/>
       <c r="M443" s="5"/>
       <c r="N443" s="5"/>
@@ -15130,7 +15222,7 @@
       <c r="Y443" s="5"/>
     </row>
     <row r="444" spans="1:25">
-      <c r="A444" s="48"/>
+      <c r="A444" s="50"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
@@ -15139,7 +15231,7 @@
       <c r="G444" s="3"/>
       <c r="H444" s="3"/>
       <c r="J444" s="5"/>
-      <c r="K444" s="49"/>
+      <c r="K444" s="51"/>
       <c r="L444" s="5"/>
       <c r="M444" s="5"/>
       <c r="N444" s="5"/>
@@ -15152,7 +15244,7 @@
       <c r="Y444" s="5"/>
     </row>
     <row r="445" spans="1:25">
-      <c r="A445" s="48"/>
+      <c r="A445" s="50"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
@@ -15161,7 +15253,7 @@
       <c r="G445" s="3"/>
       <c r="H445" s="3"/>
       <c r="J445" s="5"/>
-      <c r="K445" s="49"/>
+      <c r="K445" s="51"/>
       <c r="L445" s="5"/>
       <c r="M445" s="5"/>
       <c r="N445" s="5"/>
@@ -15174,7 +15266,7 @@
       <c r="Y445" s="5"/>
     </row>
     <row r="446" spans="1:25">
-      <c r="A446" s="48"/>
+      <c r="A446" s="50"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
@@ -15183,7 +15275,7 @@
       <c r="G446" s="3"/>
       <c r="H446" s="3"/>
       <c r="J446" s="5"/>
-      <c r="K446" s="49"/>
+      <c r="K446" s="51"/>
       <c r="L446" s="5"/>
       <c r="M446" s="5"/>
       <c r="N446" s="5"/>
@@ -15196,7 +15288,7 @@
       <c r="Y446" s="5"/>
     </row>
     <row r="447" spans="1:25">
-      <c r="A447" s="48"/>
+      <c r="A447" s="50"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
@@ -15205,7 +15297,7 @@
       <c r="G447" s="3"/>
       <c r="H447" s="3"/>
       <c r="J447" s="5"/>
-      <c r="K447" s="49"/>
+      <c r="K447" s="51"/>
       <c r="L447" s="5"/>
       <c r="M447" s="5"/>
       <c r="N447" s="5"/>
@@ -15218,7 +15310,7 @@
       <c r="Y447" s="5"/>
     </row>
     <row r="448" spans="1:25">
-      <c r="A448" s="48"/>
+      <c r="A448" s="50"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
@@ -15227,7 +15319,7 @@
       <c r="G448" s="3"/>
       <c r="H448" s="3"/>
       <c r="J448" s="5"/>
-      <c r="K448" s="49"/>
+      <c r="K448" s="51"/>
       <c r="L448" s="5"/>
       <c r="M448" s="5"/>
       <c r="N448" s="5"/>
@@ -15240,7 +15332,7 @@
       <c r="Y448" s="5"/>
     </row>
     <row r="449" spans="1:25">
-      <c r="A449" s="48"/>
+      <c r="A449" s="50"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
@@ -15249,7 +15341,7 @@
       <c r="G449" s="3"/>
       <c r="H449" s="3"/>
       <c r="J449" s="5"/>
-      <c r="K449" s="49"/>
+      <c r="K449" s="51"/>
       <c r="L449" s="5"/>
       <c r="M449" s="5"/>
       <c r="N449" s="5"/>
@@ -15262,7 +15354,7 @@
       <c r="Y449" s="5"/>
     </row>
     <row r="450" spans="1:25">
-      <c r="A450" s="48"/>
+      <c r="A450" s="50"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
@@ -15271,7 +15363,7 @@
       <c r="G450" s="3"/>
       <c r="H450" s="3"/>
       <c r="J450" s="5"/>
-      <c r="K450" s="49"/>
+      <c r="K450" s="51"/>
       <c r="L450" s="5"/>
       <c r="M450" s="5"/>
       <c r="N450" s="5"/>
@@ -15284,7 +15376,7 @@
       <c r="Y450" s="5"/>
     </row>
     <row r="451" spans="1:25">
-      <c r="A451" s="48"/>
+      <c r="A451" s="50"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
@@ -15293,7 +15385,7 @@
       <c r="G451" s="3"/>
       <c r="H451" s="3"/>
       <c r="J451" s="5"/>
-      <c r="K451" s="49"/>
+      <c r="K451" s="51"/>
       <c r="L451" s="5"/>
       <c r="M451" s="5"/>
       <c r="N451" s="5"/>
@@ -15306,7 +15398,7 @@
       <c r="Y451" s="5"/>
     </row>
     <row r="452" spans="1:25">
-      <c r="A452" s="48"/>
+      <c r="A452" s="50"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
@@ -15315,7 +15407,7 @@
       <c r="G452" s="3"/>
       <c r="H452" s="3"/>
       <c r="J452" s="5"/>
-      <c r="K452" s="49"/>
+      <c r="K452" s="51"/>
       <c r="L452" s="5"/>
       <c r="M452" s="5"/>
       <c r="N452" s="5"/>
@@ -15328,7 +15420,7 @@
       <c r="Y452" s="5"/>
     </row>
     <row r="453" spans="1:25">
-      <c r="A453" s="48"/>
+      <c r="A453" s="50"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
@@ -15337,7 +15429,7 @@
       <c r="G453" s="3"/>
       <c r="H453" s="3"/>
       <c r="J453" s="5"/>
-      <c r="K453" s="49"/>
+      <c r="K453" s="51"/>
       <c r="L453" s="5"/>
       <c r="M453" s="5"/>
       <c r="N453" s="5"/>
@@ -15350,7 +15442,7 @@
       <c r="Y453" s="5"/>
     </row>
     <row r="454" spans="1:25">
-      <c r="A454" s="48"/>
+      <c r="A454" s="50"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
@@ -15359,7 +15451,7 @@
       <c r="G454" s="3"/>
       <c r="H454" s="3"/>
       <c r="J454" s="5"/>
-      <c r="K454" s="49"/>
+      <c r="K454" s="51"/>
       <c r="L454" s="5"/>
       <c r="M454" s="5"/>
       <c r="N454" s="5"/>
@@ -15372,7 +15464,7 @@
       <c r="Y454" s="5"/>
     </row>
     <row r="455" spans="1:25">
-      <c r="A455" s="48"/>
+      <c r="A455" s="50"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
@@ -15381,7 +15473,7 @@
       <c r="G455" s="3"/>
       <c r="H455" s="3"/>
       <c r="J455" s="5"/>
-      <c r="K455" s="49"/>
+      <c r="K455" s="51"/>
       <c r="L455" s="5"/>
       <c r="M455" s="5"/>
       <c r="N455" s="5"/>
@@ -15394,7 +15486,7 @@
       <c r="Y455" s="5"/>
     </row>
     <row r="456" spans="1:25">
-      <c r="A456" s="48"/>
+      <c r="A456" s="50"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
@@ -15403,7 +15495,7 @@
       <c r="G456" s="3"/>
       <c r="H456" s="3"/>
       <c r="J456" s="5"/>
-      <c r="K456" s="49"/>
+      <c r="K456" s="51"/>
       <c r="L456" s="5"/>
       <c r="M456" s="5"/>
       <c r="N456" s="5"/>
@@ -15445,8 +15537,7 @@
     <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="AI1:AI5"/>
-    <mergeCell ref="AJ1:AJ5"/>
-    <mergeCell ref="AM1:AM5"/>
+    <mergeCell ref="AN1:AN5"/>
     <mergeCell ref="B1:K2"/>
     <mergeCell ref="R3:T4"/>
     <mergeCell ref="L1:Q2"/>
@@ -15455,7 +15546,8 @@
     <mergeCell ref="P3:Q4"/>
     <mergeCell ref="X1:AF2"/>
     <mergeCell ref="AG1:AH4"/>
-    <mergeCell ref="AK1:AL4"/>
+    <mergeCell ref="AJ1:AK4"/>
+    <mergeCell ref="AL1:AM4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
@@ -246,13 +246,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -302,6 +302,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -309,7 +316,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -325,7 +332,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,99 +431,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,7 +507,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,133 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +561,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +585,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,56 +743,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -827,167 +777,217 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -999,28 +999,28 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1032,7 +1032,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1101,7 +1101,7 @@
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1110,23 +1110,20 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1134,7 +1131,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3410,11 +3407,11 @@
   <dimension ref="A1:AN456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AJ4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM8" sqref="AM8"/>
+      <selection pane="bottomRight" activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3935,8 +3932,8 @@
       </c>
       <c r="AK7" s="48"/>
       <c r="AL7" s="9">
-        <f>($AJ7-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*100</f>
-        <v>-1960</v>
+        <f>($AJ7-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10006,7,FALSE)</f>
+        <v>-450</v>
       </c>
       <c r="AM7" s="9"/>
       <c r="AN7" s="22" t="s">
@@ -4018,7 +4015,7 @@
       <c r="AJ8" s="44">
         <v>77.77</v>
       </c>
-      <c r="AK8" s="49">
+      <c r="AK8" s="44">
         <v>83.92</v>
       </c>
       <c r="AL8" s="9">
@@ -7345,7 +7342,7 @@
       <c r="AN85" s="36"/>
     </row>
     <row r="86" spans="1:38">
-      <c r="A86" s="50"/>
+      <c r="A86" s="49"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -7354,7 +7351,7 @@
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="J86" s="5"/>
-      <c r="K86" s="51"/>
+      <c r="K86" s="50"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
@@ -7365,10 +7362,10 @@
       <c r="S86" s="5"/>
       <c r="T86" s="5"/>
       <c r="Y86" s="5"/>
-      <c r="AL86" s="52"/>
+      <c r="AL86" s="51"/>
     </row>
     <row r="87" spans="1:25">
-      <c r="A87" s="50"/>
+      <c r="A87" s="49"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -7377,7 +7374,7 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="J87" s="5"/>
-      <c r="K87" s="51"/>
+      <c r="K87" s="50"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
@@ -7390,7 +7387,7 @@
       <c r="Y87" s="5"/>
     </row>
     <row r="88" spans="1:25">
-      <c r="A88" s="50"/>
+      <c r="A88" s="49"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -7399,7 +7396,7 @@
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="J88" s="5"/>
-      <c r="K88" s="51"/>
+      <c r="K88" s="50"/>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
@@ -7412,7 +7409,7 @@
       <c r="Y88" s="5"/>
     </row>
     <row r="89" spans="1:25">
-      <c r="A89" s="50"/>
+      <c r="A89" s="49"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -7421,7 +7418,7 @@
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="J89" s="5"/>
-      <c r="K89" s="51"/>
+      <c r="K89" s="50"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
@@ -7434,7 +7431,7 @@
       <c r="Y89" s="5"/>
     </row>
     <row r="90" spans="1:25">
-      <c r="A90" s="50"/>
+      <c r="A90" s="49"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -7443,7 +7440,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="J90" s="5"/>
-      <c r="K90" s="51"/>
+      <c r="K90" s="50"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
@@ -7456,7 +7453,7 @@
       <c r="Y90" s="5"/>
     </row>
     <row r="91" spans="1:25">
-      <c r="A91" s="50"/>
+      <c r="A91" s="49"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -7465,7 +7462,7 @@
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="J91" s="5"/>
-      <c r="K91" s="51"/>
+      <c r="K91" s="50"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
@@ -7478,7 +7475,7 @@
       <c r="Y91" s="5"/>
     </row>
     <row r="92" spans="1:25">
-      <c r="A92" s="50"/>
+      <c r="A92" s="49"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -7487,7 +7484,7 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="J92" s="5"/>
-      <c r="K92" s="51"/>
+      <c r="K92" s="50"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
@@ -7500,7 +7497,7 @@
       <c r="Y92" s="5"/>
     </row>
     <row r="93" spans="1:25">
-      <c r="A93" s="50"/>
+      <c r="A93" s="49"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -7509,7 +7506,7 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="J93" s="5"/>
-      <c r="K93" s="51"/>
+      <c r="K93" s="50"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
@@ -7522,7 +7519,7 @@
       <c r="Y93" s="5"/>
     </row>
     <row r="94" spans="1:25">
-      <c r="A94" s="50"/>
+      <c r="A94" s="49"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -7531,7 +7528,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="J94" s="5"/>
-      <c r="K94" s="51"/>
+      <c r="K94" s="50"/>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
@@ -7544,7 +7541,7 @@
       <c r="Y94" s="5"/>
     </row>
     <row r="95" spans="1:25">
-      <c r="A95" s="50"/>
+      <c r="A95" s="49"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -7553,7 +7550,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="J95" s="5"/>
-      <c r="K95" s="51"/>
+      <c r="K95" s="50"/>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
@@ -7566,7 +7563,7 @@
       <c r="Y95" s="5"/>
     </row>
     <row r="96" spans="1:25">
-      <c r="A96" s="50"/>
+      <c r="A96" s="49"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -7575,7 +7572,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="J96" s="5"/>
-      <c r="K96" s="51"/>
+      <c r="K96" s="50"/>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
@@ -7588,7 +7585,7 @@
       <c r="Y96" s="5"/>
     </row>
     <row r="97" spans="1:25">
-      <c r="A97" s="50"/>
+      <c r="A97" s="49"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -7597,7 +7594,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="J97" s="5"/>
-      <c r="K97" s="51"/>
+      <c r="K97" s="50"/>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
@@ -7610,7 +7607,7 @@
       <c r="Y97" s="5"/>
     </row>
     <row r="98" spans="1:25">
-      <c r="A98" s="50"/>
+      <c r="A98" s="49"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -7619,7 +7616,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="J98" s="5"/>
-      <c r="K98" s="51"/>
+      <c r="K98" s="50"/>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
@@ -7632,7 +7629,7 @@
       <c r="Y98" s="5"/>
     </row>
     <row r="99" spans="1:25">
-      <c r="A99" s="50"/>
+      <c r="A99" s="49"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -7641,7 +7638,7 @@
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="J99" s="5"/>
-      <c r="K99" s="51"/>
+      <c r="K99" s="50"/>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
@@ -7654,7 +7651,7 @@
       <c r="Y99" s="5"/>
     </row>
     <row r="100" spans="1:25">
-      <c r="A100" s="50"/>
+      <c r="A100" s="49"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -7663,7 +7660,7 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="J100" s="5"/>
-      <c r="K100" s="51"/>
+      <c r="K100" s="50"/>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
@@ -7676,7 +7673,7 @@
       <c r="Y100" s="5"/>
     </row>
     <row r="101" spans="1:25">
-      <c r="A101" s="50"/>
+      <c r="A101" s="49"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -7685,7 +7682,7 @@
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="J101" s="5"/>
-      <c r="K101" s="51"/>
+      <c r="K101" s="50"/>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
@@ -7698,7 +7695,7 @@
       <c r="Y101" s="5"/>
     </row>
     <row r="102" spans="1:25">
-      <c r="A102" s="50"/>
+      <c r="A102" s="49"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -7707,7 +7704,7 @@
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="J102" s="5"/>
-      <c r="K102" s="51"/>
+      <c r="K102" s="50"/>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
@@ -7720,7 +7717,7 @@
       <c r="Y102" s="5"/>
     </row>
     <row r="103" spans="1:25">
-      <c r="A103" s="50"/>
+      <c r="A103" s="49"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -7729,7 +7726,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="J103" s="5"/>
-      <c r="K103" s="51"/>
+      <c r="K103" s="50"/>
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
@@ -7742,7 +7739,7 @@
       <c r="Y103" s="5"/>
     </row>
     <row r="104" spans="1:25">
-      <c r="A104" s="50"/>
+      <c r="A104" s="49"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -7751,7 +7748,7 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="J104" s="5"/>
-      <c r="K104" s="51"/>
+      <c r="K104" s="50"/>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
@@ -7764,7 +7761,7 @@
       <c r="Y104" s="5"/>
     </row>
     <row r="105" spans="1:25">
-      <c r="A105" s="50"/>
+      <c r="A105" s="49"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -7773,7 +7770,7 @@
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="J105" s="5"/>
-      <c r="K105" s="51"/>
+      <c r="K105" s="50"/>
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
@@ -7786,7 +7783,7 @@
       <c r="Y105" s="5"/>
     </row>
     <row r="106" spans="1:25">
-      <c r="A106" s="50"/>
+      <c r="A106" s="49"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -7795,7 +7792,7 @@
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="J106" s="5"/>
-      <c r="K106" s="51"/>
+      <c r="K106" s="50"/>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
@@ -7808,7 +7805,7 @@
       <c r="Y106" s="5"/>
     </row>
     <row r="107" spans="1:25">
-      <c r="A107" s="50"/>
+      <c r="A107" s="49"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -7817,7 +7814,7 @@
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="J107" s="5"/>
-      <c r="K107" s="51"/>
+      <c r="K107" s="50"/>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
@@ -7830,7 +7827,7 @@
       <c r="Y107" s="5"/>
     </row>
     <row r="108" spans="1:25">
-      <c r="A108" s="50"/>
+      <c r="A108" s="49"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -7839,7 +7836,7 @@
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="J108" s="5"/>
-      <c r="K108" s="51"/>
+      <c r="K108" s="50"/>
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
@@ -7852,7 +7849,7 @@
       <c r="Y108" s="5"/>
     </row>
     <row r="109" spans="1:25">
-      <c r="A109" s="50"/>
+      <c r="A109" s="49"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -7861,7 +7858,7 @@
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="J109" s="5"/>
-      <c r="K109" s="51"/>
+      <c r="K109" s="50"/>
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
@@ -7874,7 +7871,7 @@
       <c r="Y109" s="5"/>
     </row>
     <row r="110" spans="1:25">
-      <c r="A110" s="50"/>
+      <c r="A110" s="49"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -7883,7 +7880,7 @@
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="J110" s="5"/>
-      <c r="K110" s="51"/>
+      <c r="K110" s="50"/>
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -7896,7 +7893,7 @@
       <c r="Y110" s="5"/>
     </row>
     <row r="111" spans="1:25">
-      <c r="A111" s="50"/>
+      <c r="A111" s="49"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -7905,7 +7902,7 @@
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="J111" s="5"/>
-      <c r="K111" s="51"/>
+      <c r="K111" s="50"/>
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -7918,7 +7915,7 @@
       <c r="Y111" s="5"/>
     </row>
     <row r="112" spans="1:25">
-      <c r="A112" s="50"/>
+      <c r="A112" s="49"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -7927,7 +7924,7 @@
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="J112" s="5"/>
-      <c r="K112" s="51"/>
+      <c r="K112" s="50"/>
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
@@ -7940,7 +7937,7 @@
       <c r="Y112" s="5"/>
     </row>
     <row r="113" spans="1:25">
-      <c r="A113" s="50"/>
+      <c r="A113" s="49"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -7949,7 +7946,7 @@
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="J113" s="5"/>
-      <c r="K113" s="51"/>
+      <c r="K113" s="50"/>
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
@@ -7962,7 +7959,7 @@
       <c r="Y113" s="5"/>
     </row>
     <row r="114" spans="1:25">
-      <c r="A114" s="50"/>
+      <c r="A114" s="49"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -7971,7 +7968,7 @@
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="J114" s="5"/>
-      <c r="K114" s="51"/>
+      <c r="K114" s="50"/>
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
@@ -7984,7 +7981,7 @@
       <c r="Y114" s="5"/>
     </row>
     <row r="115" spans="1:25">
-      <c r="A115" s="50"/>
+      <c r="A115" s="49"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -7993,7 +7990,7 @@
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="J115" s="5"/>
-      <c r="K115" s="51"/>
+      <c r="K115" s="50"/>
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
@@ -8006,7 +8003,7 @@
       <c r="Y115" s="5"/>
     </row>
     <row r="116" spans="1:25">
-      <c r="A116" s="50"/>
+      <c r="A116" s="49"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -8015,7 +8012,7 @@
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="J116" s="5"/>
-      <c r="K116" s="51"/>
+      <c r="K116" s="50"/>
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
@@ -8028,7 +8025,7 @@
       <c r="Y116" s="5"/>
     </row>
     <row r="117" spans="1:25">
-      <c r="A117" s="50"/>
+      <c r="A117" s="49"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -8037,7 +8034,7 @@
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="51"/>
+      <c r="K117" s="50"/>
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
@@ -8050,7 +8047,7 @@
       <c r="Y117" s="5"/>
     </row>
     <row r="118" spans="1:25">
-      <c r="A118" s="50"/>
+      <c r="A118" s="49"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -8059,7 +8056,7 @@
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="J118" s="5"/>
-      <c r="K118" s="51"/>
+      <c r="K118" s="50"/>
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
@@ -8072,7 +8069,7 @@
       <c r="Y118" s="5"/>
     </row>
     <row r="119" spans="1:25">
-      <c r="A119" s="50"/>
+      <c r="A119" s="49"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -8081,7 +8078,7 @@
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="J119" s="5"/>
-      <c r="K119" s="51"/>
+      <c r="K119" s="50"/>
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
@@ -8094,7 +8091,7 @@
       <c r="Y119" s="5"/>
     </row>
     <row r="120" spans="1:25">
-      <c r="A120" s="50"/>
+      <c r="A120" s="49"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -8103,7 +8100,7 @@
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="J120" s="5"/>
-      <c r="K120" s="51"/>
+      <c r="K120" s="50"/>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
@@ -8116,7 +8113,7 @@
       <c r="Y120" s="5"/>
     </row>
     <row r="121" spans="1:25">
-      <c r="A121" s="50"/>
+      <c r="A121" s="49"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -8125,7 +8122,7 @@
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="J121" s="5"/>
-      <c r="K121" s="51"/>
+      <c r="K121" s="50"/>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
@@ -8138,7 +8135,7 @@
       <c r="Y121" s="5"/>
     </row>
     <row r="122" spans="1:25">
-      <c r="A122" s="50"/>
+      <c r="A122" s="49"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -8147,7 +8144,7 @@
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="J122" s="5"/>
-      <c r="K122" s="51"/>
+      <c r="K122" s="50"/>
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
@@ -8160,7 +8157,7 @@
       <c r="Y122" s="5"/>
     </row>
     <row r="123" spans="1:25">
-      <c r="A123" s="50"/>
+      <c r="A123" s="49"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -8169,7 +8166,7 @@
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="J123" s="5"/>
-      <c r="K123" s="51"/>
+      <c r="K123" s="50"/>
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
@@ -8182,7 +8179,7 @@
       <c r="Y123" s="5"/>
     </row>
     <row r="124" spans="1:25">
-      <c r="A124" s="50"/>
+      <c r="A124" s="49"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -8191,7 +8188,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="J124" s="5"/>
-      <c r="K124" s="51"/>
+      <c r="K124" s="50"/>
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
@@ -8204,7 +8201,7 @@
       <c r="Y124" s="5"/>
     </row>
     <row r="125" spans="1:25">
-      <c r="A125" s="50"/>
+      <c r="A125" s="49"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -8213,7 +8210,7 @@
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="J125" s="5"/>
-      <c r="K125" s="51"/>
+      <c r="K125" s="50"/>
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
@@ -8226,7 +8223,7 @@
       <c r="Y125" s="5"/>
     </row>
     <row r="126" spans="1:25">
-      <c r="A126" s="50"/>
+      <c r="A126" s="49"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -8235,7 +8232,7 @@
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="J126" s="5"/>
-      <c r="K126" s="51"/>
+      <c r="K126" s="50"/>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
@@ -8248,7 +8245,7 @@
       <c r="Y126" s="5"/>
     </row>
     <row r="127" spans="1:25">
-      <c r="A127" s="50"/>
+      <c r="A127" s="49"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -8257,7 +8254,7 @@
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="J127" s="5"/>
-      <c r="K127" s="51"/>
+      <c r="K127" s="50"/>
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
@@ -8270,7 +8267,7 @@
       <c r="Y127" s="5"/>
     </row>
     <row r="128" spans="1:25">
-      <c r="A128" s="50"/>
+      <c r="A128" s="49"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -8279,7 +8276,7 @@
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="J128" s="5"/>
-      <c r="K128" s="51"/>
+      <c r="K128" s="50"/>
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
@@ -8292,7 +8289,7 @@
       <c r="Y128" s="5"/>
     </row>
     <row r="129" spans="1:25">
-      <c r="A129" s="50"/>
+      <c r="A129" s="49"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -8301,7 +8298,7 @@
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="J129" s="5"/>
-      <c r="K129" s="51"/>
+      <c r="K129" s="50"/>
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
@@ -8314,7 +8311,7 @@
       <c r="Y129" s="5"/>
     </row>
     <row r="130" spans="1:25">
-      <c r="A130" s="50"/>
+      <c r="A130" s="49"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -8323,7 +8320,7 @@
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="J130" s="5"/>
-      <c r="K130" s="51"/>
+      <c r="K130" s="50"/>
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
@@ -8336,7 +8333,7 @@
       <c r="Y130" s="5"/>
     </row>
     <row r="131" spans="1:25">
-      <c r="A131" s="50"/>
+      <c r="A131" s="49"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -8345,7 +8342,7 @@
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="J131" s="5"/>
-      <c r="K131" s="51"/>
+      <c r="K131" s="50"/>
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
@@ -8358,7 +8355,7 @@
       <c r="Y131" s="5"/>
     </row>
     <row r="132" spans="1:25">
-      <c r="A132" s="50"/>
+      <c r="A132" s="49"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -8367,7 +8364,7 @@
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="J132" s="5"/>
-      <c r="K132" s="51"/>
+      <c r="K132" s="50"/>
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
       <c r="N132" s="5"/>
@@ -8380,7 +8377,7 @@
       <c r="Y132" s="5"/>
     </row>
     <row r="133" spans="1:25">
-      <c r="A133" s="50"/>
+      <c r="A133" s="49"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -8389,7 +8386,7 @@
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="J133" s="5"/>
-      <c r="K133" s="51"/>
+      <c r="K133" s="50"/>
       <c r="L133" s="5"/>
       <c r="M133" s="5"/>
       <c r="N133" s="5"/>
@@ -8402,7 +8399,7 @@
       <c r="Y133" s="5"/>
     </row>
     <row r="134" spans="1:25">
-      <c r="A134" s="50"/>
+      <c r="A134" s="49"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -8411,7 +8408,7 @@
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="J134" s="5"/>
-      <c r="K134" s="51"/>
+      <c r="K134" s="50"/>
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
       <c r="N134" s="5"/>
@@ -8424,7 +8421,7 @@
       <c r="Y134" s="5"/>
     </row>
     <row r="135" spans="1:25">
-      <c r="A135" s="50"/>
+      <c r="A135" s="49"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -8433,7 +8430,7 @@
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="J135" s="5"/>
-      <c r="K135" s="51"/>
+      <c r="K135" s="50"/>
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
@@ -8446,7 +8443,7 @@
       <c r="Y135" s="5"/>
     </row>
     <row r="136" spans="1:25">
-      <c r="A136" s="50"/>
+      <c r="A136" s="49"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -8455,7 +8452,7 @@
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="J136" s="5"/>
-      <c r="K136" s="51"/>
+      <c r="K136" s="50"/>
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
@@ -8468,7 +8465,7 @@
       <c r="Y136" s="5"/>
     </row>
     <row r="137" spans="1:25">
-      <c r="A137" s="50"/>
+      <c r="A137" s="49"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -8477,7 +8474,7 @@
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="J137" s="5"/>
-      <c r="K137" s="51"/>
+      <c r="K137" s="50"/>
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
       <c r="N137" s="5"/>
@@ -8490,7 +8487,7 @@
       <c r="Y137" s="5"/>
     </row>
     <row r="138" spans="1:25">
-      <c r="A138" s="50"/>
+      <c r="A138" s="49"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -8499,7 +8496,7 @@
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="J138" s="5"/>
-      <c r="K138" s="51"/>
+      <c r="K138" s="50"/>
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
       <c r="N138" s="5"/>
@@ -8512,7 +8509,7 @@
       <c r="Y138" s="5"/>
     </row>
     <row r="139" spans="1:25">
-      <c r="A139" s="50"/>
+      <c r="A139" s="49"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -8521,7 +8518,7 @@
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="J139" s="5"/>
-      <c r="K139" s="51"/>
+      <c r="K139" s="50"/>
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
@@ -8534,7 +8531,7 @@
       <c r="Y139" s="5"/>
     </row>
     <row r="140" spans="1:25">
-      <c r="A140" s="50"/>
+      <c r="A140" s="49"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -8543,7 +8540,7 @@
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="J140" s="5"/>
-      <c r="K140" s="51"/>
+      <c r="K140" s="50"/>
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
       <c r="N140" s="5"/>
@@ -8556,7 +8553,7 @@
       <c r="Y140" s="5"/>
     </row>
     <row r="141" spans="1:25">
-      <c r="A141" s="50"/>
+      <c r="A141" s="49"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -8565,7 +8562,7 @@
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="J141" s="5"/>
-      <c r="K141" s="51"/>
+      <c r="K141" s="50"/>
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
@@ -8578,7 +8575,7 @@
       <c r="Y141" s="5"/>
     </row>
     <row r="142" spans="1:25">
-      <c r="A142" s="50"/>
+      <c r="A142" s="49"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -8587,7 +8584,7 @@
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="J142" s="5"/>
-      <c r="K142" s="51"/>
+      <c r="K142" s="50"/>
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
@@ -8600,7 +8597,7 @@
       <c r="Y142" s="5"/>
     </row>
     <row r="143" spans="1:25">
-      <c r="A143" s="50"/>
+      <c r="A143" s="49"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -8609,7 +8606,7 @@
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="J143" s="5"/>
-      <c r="K143" s="51"/>
+      <c r="K143" s="50"/>
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
@@ -8622,7 +8619,7 @@
       <c r="Y143" s="5"/>
     </row>
     <row r="144" spans="1:25">
-      <c r="A144" s="50"/>
+      <c r="A144" s="49"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -8631,7 +8628,7 @@
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="J144" s="5"/>
-      <c r="K144" s="51"/>
+      <c r="K144" s="50"/>
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
       <c r="N144" s="5"/>
@@ -8644,7 +8641,7 @@
       <c r="Y144" s="5"/>
     </row>
     <row r="145" spans="1:25">
-      <c r="A145" s="50"/>
+      <c r="A145" s="49"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -8653,7 +8650,7 @@
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="J145" s="5"/>
-      <c r="K145" s="51"/>
+      <c r="K145" s="50"/>
       <c r="L145" s="5"/>
       <c r="M145" s="5"/>
       <c r="N145" s="5"/>
@@ -8666,7 +8663,7 @@
       <c r="Y145" s="5"/>
     </row>
     <row r="146" spans="1:25">
-      <c r="A146" s="50"/>
+      <c r="A146" s="49"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -8675,7 +8672,7 @@
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="J146" s="5"/>
-      <c r="K146" s="51"/>
+      <c r="K146" s="50"/>
       <c r="L146" s="5"/>
       <c r="M146" s="5"/>
       <c r="N146" s="5"/>
@@ -8688,7 +8685,7 @@
       <c r="Y146" s="5"/>
     </row>
     <row r="147" spans="1:25">
-      <c r="A147" s="50"/>
+      <c r="A147" s="49"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -8697,7 +8694,7 @@
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="J147" s="5"/>
-      <c r="K147" s="51"/>
+      <c r="K147" s="50"/>
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
       <c r="N147" s="5"/>
@@ -8710,7 +8707,7 @@
       <c r="Y147" s="5"/>
     </row>
     <row r="148" spans="1:25">
-      <c r="A148" s="50"/>
+      <c r="A148" s="49"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -8719,7 +8716,7 @@
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
       <c r="J148" s="5"/>
-      <c r="K148" s="51"/>
+      <c r="K148" s="50"/>
       <c r="L148" s="5"/>
       <c r="M148" s="5"/>
       <c r="N148" s="5"/>
@@ -8732,7 +8729,7 @@
       <c r="Y148" s="5"/>
     </row>
     <row r="149" spans="1:25">
-      <c r="A149" s="50"/>
+      <c r="A149" s="49"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -8741,7 +8738,7 @@
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="J149" s="5"/>
-      <c r="K149" s="51"/>
+      <c r="K149" s="50"/>
       <c r="L149" s="5"/>
       <c r="M149" s="5"/>
       <c r="N149" s="5"/>
@@ -8754,7 +8751,7 @@
       <c r="Y149" s="5"/>
     </row>
     <row r="150" spans="1:25">
-      <c r="A150" s="50"/>
+      <c r="A150" s="49"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -8763,7 +8760,7 @@
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="J150" s="5"/>
-      <c r="K150" s="51"/>
+      <c r="K150" s="50"/>
       <c r="L150" s="5"/>
       <c r="M150" s="5"/>
       <c r="N150" s="5"/>
@@ -8776,7 +8773,7 @@
       <c r="Y150" s="5"/>
     </row>
     <row r="151" spans="1:25">
-      <c r="A151" s="50"/>
+      <c r="A151" s="49"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -8785,7 +8782,7 @@
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="J151" s="5"/>
-      <c r="K151" s="51"/>
+      <c r="K151" s="50"/>
       <c r="L151" s="5"/>
       <c r="M151" s="5"/>
       <c r="N151" s="5"/>
@@ -8798,7 +8795,7 @@
       <c r="Y151" s="5"/>
     </row>
     <row r="152" spans="1:25">
-      <c r="A152" s="50"/>
+      <c r="A152" s="49"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -8807,7 +8804,7 @@
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
       <c r="J152" s="5"/>
-      <c r="K152" s="51"/>
+      <c r="K152" s="50"/>
       <c r="L152" s="5"/>
       <c r="M152" s="5"/>
       <c r="N152" s="5"/>
@@ -8820,7 +8817,7 @@
       <c r="Y152" s="5"/>
     </row>
     <row r="153" spans="1:25">
-      <c r="A153" s="50"/>
+      <c r="A153" s="49"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -8829,7 +8826,7 @@
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="J153" s="5"/>
-      <c r="K153" s="51"/>
+      <c r="K153" s="50"/>
       <c r="L153" s="5"/>
       <c r="M153" s="5"/>
       <c r="N153" s="5"/>
@@ -8842,7 +8839,7 @@
       <c r="Y153" s="5"/>
     </row>
     <row r="154" spans="1:25">
-      <c r="A154" s="50"/>
+      <c r="A154" s="49"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -8851,7 +8848,7 @@
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
       <c r="J154" s="5"/>
-      <c r="K154" s="51"/>
+      <c r="K154" s="50"/>
       <c r="L154" s="5"/>
       <c r="M154" s="5"/>
       <c r="N154" s="5"/>
@@ -8864,7 +8861,7 @@
       <c r="Y154" s="5"/>
     </row>
     <row r="155" spans="1:25">
-      <c r="A155" s="50"/>
+      <c r="A155" s="49"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -8873,7 +8870,7 @@
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="J155" s="5"/>
-      <c r="K155" s="51"/>
+      <c r="K155" s="50"/>
       <c r="L155" s="5"/>
       <c r="M155" s="5"/>
       <c r="N155" s="5"/>
@@ -8886,7 +8883,7 @@
       <c r="Y155" s="5"/>
     </row>
     <row r="156" spans="1:25">
-      <c r="A156" s="50"/>
+      <c r="A156" s="49"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -8895,7 +8892,7 @@
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="J156" s="5"/>
-      <c r="K156" s="51"/>
+      <c r="K156" s="50"/>
       <c r="L156" s="5"/>
       <c r="M156" s="5"/>
       <c r="N156" s="5"/>
@@ -8908,7 +8905,7 @@
       <c r="Y156" s="5"/>
     </row>
     <row r="157" spans="1:25">
-      <c r="A157" s="50"/>
+      <c r="A157" s="49"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -8917,7 +8914,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="J157" s="5"/>
-      <c r="K157" s="51"/>
+      <c r="K157" s="50"/>
       <c r="L157" s="5"/>
       <c r="M157" s="5"/>
       <c r="N157" s="5"/>
@@ -8930,7 +8927,7 @@
       <c r="Y157" s="5"/>
     </row>
     <row r="158" spans="1:25">
-      <c r="A158" s="50"/>
+      <c r="A158" s="49"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -8939,7 +8936,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="J158" s="5"/>
-      <c r="K158" s="51"/>
+      <c r="K158" s="50"/>
       <c r="L158" s="5"/>
       <c r="M158" s="5"/>
       <c r="N158" s="5"/>
@@ -8952,7 +8949,7 @@
       <c r="Y158" s="5"/>
     </row>
     <row r="159" spans="1:25">
-      <c r="A159" s="50"/>
+      <c r="A159" s="49"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -8961,7 +8958,7 @@
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="J159" s="5"/>
-      <c r="K159" s="51"/>
+      <c r="K159" s="50"/>
       <c r="L159" s="5"/>
       <c r="M159" s="5"/>
       <c r="N159" s="5"/>
@@ -8974,7 +8971,7 @@
       <c r="Y159" s="5"/>
     </row>
     <row r="160" spans="1:25">
-      <c r="A160" s="50"/>
+      <c r="A160" s="49"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -8983,7 +8980,7 @@
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="J160" s="5"/>
-      <c r="K160" s="51"/>
+      <c r="K160" s="50"/>
       <c r="L160" s="5"/>
       <c r="M160" s="5"/>
       <c r="N160" s="5"/>
@@ -8996,7 +8993,7 @@
       <c r="Y160" s="5"/>
     </row>
     <row r="161" spans="1:25">
-      <c r="A161" s="50"/>
+      <c r="A161" s="49"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -9005,7 +9002,7 @@
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="J161" s="5"/>
-      <c r="K161" s="51"/>
+      <c r="K161" s="50"/>
       <c r="L161" s="5"/>
       <c r="M161" s="5"/>
       <c r="N161" s="5"/>
@@ -9018,7 +9015,7 @@
       <c r="Y161" s="5"/>
     </row>
     <row r="162" spans="1:25">
-      <c r="A162" s="50"/>
+      <c r="A162" s="49"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -9027,7 +9024,7 @@
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="J162" s="5"/>
-      <c r="K162" s="51"/>
+      <c r="K162" s="50"/>
       <c r="L162" s="5"/>
       <c r="M162" s="5"/>
       <c r="N162" s="5"/>
@@ -9040,7 +9037,7 @@
       <c r="Y162" s="5"/>
     </row>
     <row r="163" spans="1:25">
-      <c r="A163" s="50"/>
+      <c r="A163" s="49"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -9049,7 +9046,7 @@
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="J163" s="5"/>
-      <c r="K163" s="51"/>
+      <c r="K163" s="50"/>
       <c r="L163" s="5"/>
       <c r="M163" s="5"/>
       <c r="N163" s="5"/>
@@ -9062,7 +9059,7 @@
       <c r="Y163" s="5"/>
     </row>
     <row r="164" spans="1:25">
-      <c r="A164" s="50"/>
+      <c r="A164" s="49"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -9071,7 +9068,7 @@
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="J164" s="5"/>
-      <c r="K164" s="51"/>
+      <c r="K164" s="50"/>
       <c r="L164" s="5"/>
       <c r="M164" s="5"/>
       <c r="N164" s="5"/>
@@ -9084,7 +9081,7 @@
       <c r="Y164" s="5"/>
     </row>
     <row r="165" spans="1:25">
-      <c r="A165" s="50"/>
+      <c r="A165" s="49"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -9093,7 +9090,7 @@
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="J165" s="5"/>
-      <c r="K165" s="51"/>
+      <c r="K165" s="50"/>
       <c r="L165" s="5"/>
       <c r="M165" s="5"/>
       <c r="N165" s="5"/>
@@ -9106,7 +9103,7 @@
       <c r="Y165" s="5"/>
     </row>
     <row r="166" spans="1:25">
-      <c r="A166" s="50"/>
+      <c r="A166" s="49"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -9115,7 +9112,7 @@
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="J166" s="5"/>
-      <c r="K166" s="51"/>
+      <c r="K166" s="50"/>
       <c r="L166" s="5"/>
       <c r="M166" s="5"/>
       <c r="N166" s="5"/>
@@ -9128,7 +9125,7 @@
       <c r="Y166" s="5"/>
     </row>
     <row r="167" spans="1:25">
-      <c r="A167" s="50"/>
+      <c r="A167" s="49"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -9137,7 +9134,7 @@
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="J167" s="5"/>
-      <c r="K167" s="51"/>
+      <c r="K167" s="50"/>
       <c r="L167" s="5"/>
       <c r="M167" s="5"/>
       <c r="N167" s="5"/>
@@ -9150,7 +9147,7 @@
       <c r="Y167" s="5"/>
     </row>
     <row r="168" spans="1:25">
-      <c r="A168" s="50"/>
+      <c r="A168" s="49"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -9159,7 +9156,7 @@
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="J168" s="5"/>
-      <c r="K168" s="51"/>
+      <c r="K168" s="50"/>
       <c r="L168" s="5"/>
       <c r="M168" s="5"/>
       <c r="N168" s="5"/>
@@ -9172,7 +9169,7 @@
       <c r="Y168" s="5"/>
     </row>
     <row r="169" spans="1:25">
-      <c r="A169" s="50"/>
+      <c r="A169" s="49"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -9181,7 +9178,7 @@
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="J169" s="5"/>
-      <c r="K169" s="51"/>
+      <c r="K169" s="50"/>
       <c r="L169" s="5"/>
       <c r="M169" s="5"/>
       <c r="N169" s="5"/>
@@ -9194,7 +9191,7 @@
       <c r="Y169" s="5"/>
     </row>
     <row r="170" spans="1:25">
-      <c r="A170" s="50"/>
+      <c r="A170" s="49"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -9203,7 +9200,7 @@
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="J170" s="5"/>
-      <c r="K170" s="51"/>
+      <c r="K170" s="50"/>
       <c r="L170" s="5"/>
       <c r="M170" s="5"/>
       <c r="N170" s="5"/>
@@ -9216,7 +9213,7 @@
       <c r="Y170" s="5"/>
     </row>
     <row r="171" spans="1:25">
-      <c r="A171" s="50"/>
+      <c r="A171" s="49"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -9225,7 +9222,7 @@
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="J171" s="5"/>
-      <c r="K171" s="51"/>
+      <c r="K171" s="50"/>
       <c r="L171" s="5"/>
       <c r="M171" s="5"/>
       <c r="N171" s="5"/>
@@ -9238,7 +9235,7 @@
       <c r="Y171" s="5"/>
     </row>
     <row r="172" spans="1:25">
-      <c r="A172" s="50"/>
+      <c r="A172" s="49"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -9247,7 +9244,7 @@
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="J172" s="5"/>
-      <c r="K172" s="51"/>
+      <c r="K172" s="50"/>
       <c r="L172" s="5"/>
       <c r="M172" s="5"/>
       <c r="N172" s="5"/>
@@ -9260,7 +9257,7 @@
       <c r="Y172" s="5"/>
     </row>
     <row r="173" spans="1:25">
-      <c r="A173" s="50"/>
+      <c r="A173" s="49"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -9269,7 +9266,7 @@
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="J173" s="5"/>
-      <c r="K173" s="51"/>
+      <c r="K173" s="50"/>
       <c r="L173" s="5"/>
       <c r="M173" s="5"/>
       <c r="N173" s="5"/>
@@ -9282,7 +9279,7 @@
       <c r="Y173" s="5"/>
     </row>
     <row r="174" spans="1:25">
-      <c r="A174" s="50"/>
+      <c r="A174" s="49"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -9291,7 +9288,7 @@
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="J174" s="5"/>
-      <c r="K174" s="51"/>
+      <c r="K174" s="50"/>
       <c r="L174" s="5"/>
       <c r="M174" s="5"/>
       <c r="N174" s="5"/>
@@ -9304,7 +9301,7 @@
       <c r="Y174" s="5"/>
     </row>
     <row r="175" spans="1:25">
-      <c r="A175" s="50"/>
+      <c r="A175" s="49"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -9313,7 +9310,7 @@
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="J175" s="5"/>
-      <c r="K175" s="51"/>
+      <c r="K175" s="50"/>
       <c r="L175" s="5"/>
       <c r="M175" s="5"/>
       <c r="N175" s="5"/>
@@ -9326,7 +9323,7 @@
       <c r="Y175" s="5"/>
     </row>
     <row r="176" spans="1:25">
-      <c r="A176" s="50"/>
+      <c r="A176" s="49"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -9335,7 +9332,7 @@
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="J176" s="5"/>
-      <c r="K176" s="51"/>
+      <c r="K176" s="50"/>
       <c r="L176" s="5"/>
       <c r="M176" s="5"/>
       <c r="N176" s="5"/>
@@ -9348,7 +9345,7 @@
       <c r="Y176" s="5"/>
     </row>
     <row r="177" spans="1:25">
-      <c r="A177" s="50"/>
+      <c r="A177" s="49"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -9357,7 +9354,7 @@
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="J177" s="5"/>
-      <c r="K177" s="51"/>
+      <c r="K177" s="50"/>
       <c r="L177" s="5"/>
       <c r="M177" s="5"/>
       <c r="N177" s="5"/>
@@ -9370,7 +9367,7 @@
       <c r="Y177" s="5"/>
     </row>
     <row r="178" spans="1:25">
-      <c r="A178" s="50"/>
+      <c r="A178" s="49"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -9379,7 +9376,7 @@
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="J178" s="5"/>
-      <c r="K178" s="51"/>
+      <c r="K178" s="50"/>
       <c r="L178" s="5"/>
       <c r="M178" s="5"/>
       <c r="N178" s="5"/>
@@ -9392,7 +9389,7 @@
       <c r="Y178" s="5"/>
     </row>
     <row r="179" spans="1:25">
-      <c r="A179" s="50"/>
+      <c r="A179" s="49"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -9401,7 +9398,7 @@
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="J179" s="5"/>
-      <c r="K179" s="51"/>
+      <c r="K179" s="50"/>
       <c r="L179" s="5"/>
       <c r="M179" s="5"/>
       <c r="N179" s="5"/>
@@ -9414,7 +9411,7 @@
       <c r="Y179" s="5"/>
     </row>
     <row r="180" spans="1:25">
-      <c r="A180" s="50"/>
+      <c r="A180" s="49"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -9423,7 +9420,7 @@
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
       <c r="J180" s="5"/>
-      <c r="K180" s="51"/>
+      <c r="K180" s="50"/>
       <c r="L180" s="5"/>
       <c r="M180" s="5"/>
       <c r="N180" s="5"/>
@@ -9436,7 +9433,7 @@
       <c r="Y180" s="5"/>
     </row>
     <row r="181" spans="1:25">
-      <c r="A181" s="50"/>
+      <c r="A181" s="49"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -9445,7 +9442,7 @@
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
       <c r="J181" s="5"/>
-      <c r="K181" s="51"/>
+      <c r="K181" s="50"/>
       <c r="L181" s="5"/>
       <c r="M181" s="5"/>
       <c r="N181" s="5"/>
@@ -9458,7 +9455,7 @@
       <c r="Y181" s="5"/>
     </row>
     <row r="182" spans="1:25">
-      <c r="A182" s="50"/>
+      <c r="A182" s="49"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -9467,7 +9464,7 @@
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="J182" s="5"/>
-      <c r="K182" s="51"/>
+      <c r="K182" s="50"/>
       <c r="L182" s="5"/>
       <c r="M182" s="5"/>
       <c r="N182" s="5"/>
@@ -9480,7 +9477,7 @@
       <c r="Y182" s="5"/>
     </row>
     <row r="183" spans="1:25">
-      <c r="A183" s="50"/>
+      <c r="A183" s="49"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -9489,7 +9486,7 @@
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="J183" s="5"/>
-      <c r="K183" s="51"/>
+      <c r="K183" s="50"/>
       <c r="L183" s="5"/>
       <c r="M183" s="5"/>
       <c r="N183" s="5"/>
@@ -9502,7 +9499,7 @@
       <c r="Y183" s="5"/>
     </row>
     <row r="184" spans="1:25">
-      <c r="A184" s="50"/>
+      <c r="A184" s="49"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -9511,7 +9508,7 @@
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
       <c r="J184" s="5"/>
-      <c r="K184" s="51"/>
+      <c r="K184" s="50"/>
       <c r="L184" s="5"/>
       <c r="M184" s="5"/>
       <c r="N184" s="5"/>
@@ -9524,7 +9521,7 @@
       <c r="Y184" s="5"/>
     </row>
     <row r="185" spans="1:25">
-      <c r="A185" s="50"/>
+      <c r="A185" s="49"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -9533,7 +9530,7 @@
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="J185" s="5"/>
-      <c r="K185" s="51"/>
+      <c r="K185" s="50"/>
       <c r="L185" s="5"/>
       <c r="M185" s="5"/>
       <c r="N185" s="5"/>
@@ -9546,7 +9543,7 @@
       <c r="Y185" s="5"/>
     </row>
     <row r="186" spans="1:25">
-      <c r="A186" s="50"/>
+      <c r="A186" s="49"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -9555,7 +9552,7 @@
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
       <c r="J186" s="5"/>
-      <c r="K186" s="51"/>
+      <c r="K186" s="50"/>
       <c r="L186" s="5"/>
       <c r="M186" s="5"/>
       <c r="N186" s="5"/>
@@ -9568,7 +9565,7 @@
       <c r="Y186" s="5"/>
     </row>
     <row r="187" spans="1:25">
-      <c r="A187" s="50"/>
+      <c r="A187" s="49"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -9577,7 +9574,7 @@
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="J187" s="5"/>
-      <c r="K187" s="51"/>
+      <c r="K187" s="50"/>
       <c r="L187" s="5"/>
       <c r="M187" s="5"/>
       <c r="N187" s="5"/>
@@ -9590,7 +9587,7 @@
       <c r="Y187" s="5"/>
     </row>
     <row r="188" spans="1:25">
-      <c r="A188" s="50"/>
+      <c r="A188" s="49"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -9599,7 +9596,7 @@
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
       <c r="J188" s="5"/>
-      <c r="K188" s="51"/>
+      <c r="K188" s="50"/>
       <c r="L188" s="5"/>
       <c r="M188" s="5"/>
       <c r="N188" s="5"/>
@@ -9612,7 +9609,7 @@
       <c r="Y188" s="5"/>
     </row>
     <row r="189" spans="1:25">
-      <c r="A189" s="50"/>
+      <c r="A189" s="49"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -9621,7 +9618,7 @@
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
       <c r="J189" s="5"/>
-      <c r="K189" s="51"/>
+      <c r="K189" s="50"/>
       <c r="L189" s="5"/>
       <c r="M189" s="5"/>
       <c r="N189" s="5"/>
@@ -9634,7 +9631,7 @@
       <c r="Y189" s="5"/>
     </row>
     <row r="190" spans="1:25">
-      <c r="A190" s="50"/>
+      <c r="A190" s="49"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -9643,7 +9640,7 @@
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="J190" s="5"/>
-      <c r="K190" s="51"/>
+      <c r="K190" s="50"/>
       <c r="L190" s="5"/>
       <c r="M190" s="5"/>
       <c r="N190" s="5"/>
@@ -9656,7 +9653,7 @@
       <c r="Y190" s="5"/>
     </row>
     <row r="191" spans="1:25">
-      <c r="A191" s="50"/>
+      <c r="A191" s="49"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -9665,7 +9662,7 @@
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="J191" s="5"/>
-      <c r="K191" s="51"/>
+      <c r="K191" s="50"/>
       <c r="L191" s="5"/>
       <c r="M191" s="5"/>
       <c r="N191" s="5"/>
@@ -9678,7 +9675,7 @@
       <c r="Y191" s="5"/>
     </row>
     <row r="192" spans="1:25">
-      <c r="A192" s="50"/>
+      <c r="A192" s="49"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -9687,7 +9684,7 @@
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="J192" s="5"/>
-      <c r="K192" s="51"/>
+      <c r="K192" s="50"/>
       <c r="L192" s="5"/>
       <c r="M192" s="5"/>
       <c r="N192" s="5"/>
@@ -9700,7 +9697,7 @@
       <c r="Y192" s="5"/>
     </row>
     <row r="193" spans="1:25">
-      <c r="A193" s="50"/>
+      <c r="A193" s="49"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -9709,7 +9706,7 @@
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
       <c r="J193" s="5"/>
-      <c r="K193" s="51"/>
+      <c r="K193" s="50"/>
       <c r="L193" s="5"/>
       <c r="M193" s="5"/>
       <c r="N193" s="5"/>
@@ -9722,7 +9719,7 @@
       <c r="Y193" s="5"/>
     </row>
     <row r="194" spans="1:25">
-      <c r="A194" s="50"/>
+      <c r="A194" s="49"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -9731,7 +9728,7 @@
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
       <c r="J194" s="5"/>
-      <c r="K194" s="51"/>
+      <c r="K194" s="50"/>
       <c r="L194" s="5"/>
       <c r="M194" s="5"/>
       <c r="N194" s="5"/>
@@ -9744,7 +9741,7 @@
       <c r="Y194" s="5"/>
     </row>
     <row r="195" spans="1:25">
-      <c r="A195" s="50"/>
+      <c r="A195" s="49"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -9753,7 +9750,7 @@
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
       <c r="J195" s="5"/>
-      <c r="K195" s="51"/>
+      <c r="K195" s="50"/>
       <c r="L195" s="5"/>
       <c r="M195" s="5"/>
       <c r="N195" s="5"/>
@@ -9766,7 +9763,7 @@
       <c r="Y195" s="5"/>
     </row>
     <row r="196" spans="1:25">
-      <c r="A196" s="50"/>
+      <c r="A196" s="49"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -9775,7 +9772,7 @@
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="J196" s="5"/>
-      <c r="K196" s="51"/>
+      <c r="K196" s="50"/>
       <c r="L196" s="5"/>
       <c r="M196" s="5"/>
       <c r="N196" s="5"/>
@@ -9788,7 +9785,7 @@
       <c r="Y196" s="5"/>
     </row>
     <row r="197" spans="1:25">
-      <c r="A197" s="50"/>
+      <c r="A197" s="49"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -9797,7 +9794,7 @@
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
       <c r="J197" s="5"/>
-      <c r="K197" s="51"/>
+      <c r="K197" s="50"/>
       <c r="L197" s="5"/>
       <c r="M197" s="5"/>
       <c r="N197" s="5"/>
@@ -9810,7 +9807,7 @@
       <c r="Y197" s="5"/>
     </row>
     <row r="198" spans="1:25">
-      <c r="A198" s="50"/>
+      <c r="A198" s="49"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -9819,7 +9816,7 @@
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="J198" s="5"/>
-      <c r="K198" s="51"/>
+      <c r="K198" s="50"/>
       <c r="L198" s="5"/>
       <c r="M198" s="5"/>
       <c r="N198" s="5"/>
@@ -9832,7 +9829,7 @@
       <c r="Y198" s="5"/>
     </row>
     <row r="199" spans="1:25">
-      <c r="A199" s="50"/>
+      <c r="A199" s="49"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -9841,7 +9838,7 @@
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="J199" s="5"/>
-      <c r="K199" s="51"/>
+      <c r="K199" s="50"/>
       <c r="L199" s="5"/>
       <c r="M199" s="5"/>
       <c r="N199" s="5"/>
@@ -9854,7 +9851,7 @@
       <c r="Y199" s="5"/>
     </row>
     <row r="200" spans="1:25">
-      <c r="A200" s="50"/>
+      <c r="A200" s="49"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -9863,7 +9860,7 @@
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
       <c r="J200" s="5"/>
-      <c r="K200" s="51"/>
+      <c r="K200" s="50"/>
       <c r="L200" s="5"/>
       <c r="M200" s="5"/>
       <c r="N200" s="5"/>
@@ -9876,7 +9873,7 @@
       <c r="Y200" s="5"/>
     </row>
     <row r="201" spans="1:25">
-      <c r="A201" s="50"/>
+      <c r="A201" s="49"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -9885,7 +9882,7 @@
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
       <c r="J201" s="5"/>
-      <c r="K201" s="51"/>
+      <c r="K201" s="50"/>
       <c r="L201" s="5"/>
       <c r="M201" s="5"/>
       <c r="N201" s="5"/>
@@ -9898,7 +9895,7 @@
       <c r="Y201" s="5"/>
     </row>
     <row r="202" spans="1:25">
-      <c r="A202" s="50"/>
+      <c r="A202" s="49"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -9907,7 +9904,7 @@
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
       <c r="J202" s="5"/>
-      <c r="K202" s="51"/>
+      <c r="K202" s="50"/>
       <c r="L202" s="5"/>
       <c r="M202" s="5"/>
       <c r="N202" s="5"/>
@@ -9920,7 +9917,7 @@
       <c r="Y202" s="5"/>
     </row>
     <row r="203" spans="1:25">
-      <c r="A203" s="50"/>
+      <c r="A203" s="49"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -9929,7 +9926,7 @@
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
       <c r="J203" s="5"/>
-      <c r="K203" s="51"/>
+      <c r="K203" s="50"/>
       <c r="L203" s="5"/>
       <c r="M203" s="5"/>
       <c r="N203" s="5"/>
@@ -9942,7 +9939,7 @@
       <c r="Y203" s="5"/>
     </row>
     <row r="204" spans="1:25">
-      <c r="A204" s="50"/>
+      <c r="A204" s="49"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -9951,7 +9948,7 @@
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
       <c r="J204" s="5"/>
-      <c r="K204" s="51"/>
+      <c r="K204" s="50"/>
       <c r="L204" s="5"/>
       <c r="M204" s="5"/>
       <c r="N204" s="5"/>
@@ -9964,7 +9961,7 @@
       <c r="Y204" s="5"/>
     </row>
     <row r="205" spans="1:25">
-      <c r="A205" s="50"/>
+      <c r="A205" s="49"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -9973,7 +9970,7 @@
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
       <c r="J205" s="5"/>
-      <c r="K205" s="51"/>
+      <c r="K205" s="50"/>
       <c r="L205" s="5"/>
       <c r="M205" s="5"/>
       <c r="N205" s="5"/>
@@ -9986,7 +9983,7 @@
       <c r="Y205" s="5"/>
     </row>
     <row r="206" spans="1:25">
-      <c r="A206" s="50"/>
+      <c r="A206" s="49"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -9995,7 +9992,7 @@
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
       <c r="J206" s="5"/>
-      <c r="K206" s="51"/>
+      <c r="K206" s="50"/>
       <c r="L206" s="5"/>
       <c r="M206" s="5"/>
       <c r="N206" s="5"/>
@@ -10008,7 +10005,7 @@
       <c r="Y206" s="5"/>
     </row>
     <row r="207" spans="1:25">
-      <c r="A207" s="50"/>
+      <c r="A207" s="49"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -10017,7 +10014,7 @@
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
       <c r="J207" s="5"/>
-      <c r="K207" s="51"/>
+      <c r="K207" s="50"/>
       <c r="L207" s="5"/>
       <c r="M207" s="5"/>
       <c r="N207" s="5"/>
@@ -10030,7 +10027,7 @@
       <c r="Y207" s="5"/>
     </row>
     <row r="208" spans="1:25">
-      <c r="A208" s="50"/>
+      <c r="A208" s="49"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -10039,7 +10036,7 @@
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
       <c r="J208" s="5"/>
-      <c r="K208" s="51"/>
+      <c r="K208" s="50"/>
       <c r="L208" s="5"/>
       <c r="M208" s="5"/>
       <c r="N208" s="5"/>
@@ -10052,7 +10049,7 @@
       <c r="Y208" s="5"/>
     </row>
     <row r="209" spans="1:25">
-      <c r="A209" s="50"/>
+      <c r="A209" s="49"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -10061,7 +10058,7 @@
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
       <c r="J209" s="5"/>
-      <c r="K209" s="51"/>
+      <c r="K209" s="50"/>
       <c r="L209" s="5"/>
       <c r="M209" s="5"/>
       <c r="N209" s="5"/>
@@ -10074,7 +10071,7 @@
       <c r="Y209" s="5"/>
     </row>
     <row r="210" spans="1:25">
-      <c r="A210" s="50"/>
+      <c r="A210" s="49"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -10083,7 +10080,7 @@
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
       <c r="J210" s="5"/>
-      <c r="K210" s="51"/>
+      <c r="K210" s="50"/>
       <c r="L210" s="5"/>
       <c r="M210" s="5"/>
       <c r="N210" s="5"/>
@@ -10096,7 +10093,7 @@
       <c r="Y210" s="5"/>
     </row>
     <row r="211" spans="1:25">
-      <c r="A211" s="50"/>
+      <c r="A211" s="49"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -10105,7 +10102,7 @@
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
       <c r="J211" s="5"/>
-      <c r="K211" s="51"/>
+      <c r="K211" s="50"/>
       <c r="L211" s="5"/>
       <c r="M211" s="5"/>
       <c r="N211" s="5"/>
@@ -10118,7 +10115,7 @@
       <c r="Y211" s="5"/>
     </row>
     <row r="212" spans="1:25">
-      <c r="A212" s="50"/>
+      <c r="A212" s="49"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -10127,7 +10124,7 @@
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
       <c r="J212" s="5"/>
-      <c r="K212" s="51"/>
+      <c r="K212" s="50"/>
       <c r="L212" s="5"/>
       <c r="M212" s="5"/>
       <c r="N212" s="5"/>
@@ -10140,7 +10137,7 @@
       <c r="Y212" s="5"/>
     </row>
     <row r="213" spans="1:25">
-      <c r="A213" s="50"/>
+      <c r="A213" s="49"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -10149,7 +10146,7 @@
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
       <c r="J213" s="5"/>
-      <c r="K213" s="51"/>
+      <c r="K213" s="50"/>
       <c r="L213" s="5"/>
       <c r="M213" s="5"/>
       <c r="N213" s="5"/>
@@ -10162,7 +10159,7 @@
       <c r="Y213" s="5"/>
     </row>
     <row r="214" spans="1:25">
-      <c r="A214" s="50"/>
+      <c r="A214" s="49"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -10171,7 +10168,7 @@
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
       <c r="J214" s="5"/>
-      <c r="K214" s="51"/>
+      <c r="K214" s="50"/>
       <c r="L214" s="5"/>
       <c r="M214" s="5"/>
       <c r="N214" s="5"/>
@@ -10184,7 +10181,7 @@
       <c r="Y214" s="5"/>
     </row>
     <row r="215" spans="1:25">
-      <c r="A215" s="50"/>
+      <c r="A215" s="49"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -10193,7 +10190,7 @@
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
       <c r="J215" s="5"/>
-      <c r="K215" s="51"/>
+      <c r="K215" s="50"/>
       <c r="L215" s="5"/>
       <c r="M215" s="5"/>
       <c r="N215" s="5"/>
@@ -10206,7 +10203,7 @@
       <c r="Y215" s="5"/>
     </row>
     <row r="216" spans="1:25">
-      <c r="A216" s="50"/>
+      <c r="A216" s="49"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -10215,7 +10212,7 @@
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
       <c r="J216" s="5"/>
-      <c r="K216" s="51"/>
+      <c r="K216" s="50"/>
       <c r="L216" s="5"/>
       <c r="M216" s="5"/>
       <c r="N216" s="5"/>
@@ -10228,7 +10225,7 @@
       <c r="Y216" s="5"/>
     </row>
     <row r="217" spans="1:25">
-      <c r="A217" s="50"/>
+      <c r="A217" s="49"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -10237,7 +10234,7 @@
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
       <c r="J217" s="5"/>
-      <c r="K217" s="51"/>
+      <c r="K217" s="50"/>
       <c r="L217" s="5"/>
       <c r="M217" s="5"/>
       <c r="N217" s="5"/>
@@ -10250,7 +10247,7 @@
       <c r="Y217" s="5"/>
     </row>
     <row r="218" spans="1:25">
-      <c r="A218" s="50"/>
+      <c r="A218" s="49"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -10259,7 +10256,7 @@
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
       <c r="J218" s="5"/>
-      <c r="K218" s="51"/>
+      <c r="K218" s="50"/>
       <c r="L218" s="5"/>
       <c r="M218" s="5"/>
       <c r="N218" s="5"/>
@@ -10272,7 +10269,7 @@
       <c r="Y218" s="5"/>
     </row>
     <row r="219" spans="1:25">
-      <c r="A219" s="50"/>
+      <c r="A219" s="49"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -10281,7 +10278,7 @@
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
       <c r="J219" s="5"/>
-      <c r="K219" s="51"/>
+      <c r="K219" s="50"/>
       <c r="L219" s="5"/>
       <c r="M219" s="5"/>
       <c r="N219" s="5"/>
@@ -10294,7 +10291,7 @@
       <c r="Y219" s="5"/>
     </row>
     <row r="220" spans="1:25">
-      <c r="A220" s="50"/>
+      <c r="A220" s="49"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -10303,7 +10300,7 @@
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
       <c r="J220" s="5"/>
-      <c r="K220" s="51"/>
+      <c r="K220" s="50"/>
       <c r="L220" s="5"/>
       <c r="M220" s="5"/>
       <c r="N220" s="5"/>
@@ -10316,7 +10313,7 @@
       <c r="Y220" s="5"/>
     </row>
     <row r="221" spans="1:25">
-      <c r="A221" s="50"/>
+      <c r="A221" s="49"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -10325,7 +10322,7 @@
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
       <c r="J221" s="5"/>
-      <c r="K221" s="51"/>
+      <c r="K221" s="50"/>
       <c r="L221" s="5"/>
       <c r="M221" s="5"/>
       <c r="N221" s="5"/>
@@ -10338,7 +10335,7 @@
       <c r="Y221" s="5"/>
     </row>
     <row r="222" spans="1:25">
-      <c r="A222" s="50"/>
+      <c r="A222" s="49"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -10347,7 +10344,7 @@
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
       <c r="J222" s="5"/>
-      <c r="K222" s="51"/>
+      <c r="K222" s="50"/>
       <c r="L222" s="5"/>
       <c r="M222" s="5"/>
       <c r="N222" s="5"/>
@@ -10360,7 +10357,7 @@
       <c r="Y222" s="5"/>
     </row>
     <row r="223" spans="1:25">
-      <c r="A223" s="50"/>
+      <c r="A223" s="49"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -10369,7 +10366,7 @@
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
       <c r="J223" s="5"/>
-      <c r="K223" s="51"/>
+      <c r="K223" s="50"/>
       <c r="L223" s="5"/>
       <c r="M223" s="5"/>
       <c r="N223" s="5"/>
@@ -10382,7 +10379,7 @@
       <c r="Y223" s="5"/>
     </row>
     <row r="224" spans="1:25">
-      <c r="A224" s="50"/>
+      <c r="A224" s="49"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -10391,7 +10388,7 @@
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
       <c r="J224" s="5"/>
-      <c r="K224" s="51"/>
+      <c r="K224" s="50"/>
       <c r="L224" s="5"/>
       <c r="M224" s="5"/>
       <c r="N224" s="5"/>
@@ -10404,7 +10401,7 @@
       <c r="Y224" s="5"/>
     </row>
     <row r="225" spans="1:25">
-      <c r="A225" s="50"/>
+      <c r="A225" s="49"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -10413,7 +10410,7 @@
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
       <c r="J225" s="5"/>
-      <c r="K225" s="51"/>
+      <c r="K225" s="50"/>
       <c r="L225" s="5"/>
       <c r="M225" s="5"/>
       <c r="N225" s="5"/>
@@ -10426,7 +10423,7 @@
       <c r="Y225" s="5"/>
     </row>
     <row r="226" spans="1:25">
-      <c r="A226" s="50"/>
+      <c r="A226" s="49"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -10435,7 +10432,7 @@
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
       <c r="J226" s="5"/>
-      <c r="K226" s="51"/>
+      <c r="K226" s="50"/>
       <c r="L226" s="5"/>
       <c r="M226" s="5"/>
       <c r="N226" s="5"/>
@@ -10448,7 +10445,7 @@
       <c r="Y226" s="5"/>
     </row>
     <row r="227" spans="1:25">
-      <c r="A227" s="50"/>
+      <c r="A227" s="49"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -10457,7 +10454,7 @@
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
       <c r="J227" s="5"/>
-      <c r="K227" s="51"/>
+      <c r="K227" s="50"/>
       <c r="L227" s="5"/>
       <c r="M227" s="5"/>
       <c r="N227" s="5"/>
@@ -10470,7 +10467,7 @@
       <c r="Y227" s="5"/>
     </row>
     <row r="228" spans="1:25">
-      <c r="A228" s="50"/>
+      <c r="A228" s="49"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -10479,7 +10476,7 @@
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
       <c r="J228" s="5"/>
-      <c r="K228" s="51"/>
+      <c r="K228" s="50"/>
       <c r="L228" s="5"/>
       <c r="M228" s="5"/>
       <c r="N228" s="5"/>
@@ -10492,7 +10489,7 @@
       <c r="Y228" s="5"/>
     </row>
     <row r="229" spans="1:25">
-      <c r="A229" s="50"/>
+      <c r="A229" s="49"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -10501,7 +10498,7 @@
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
       <c r="J229" s="5"/>
-      <c r="K229" s="51"/>
+      <c r="K229" s="50"/>
       <c r="L229" s="5"/>
       <c r="M229" s="5"/>
       <c r="N229" s="5"/>
@@ -10514,7 +10511,7 @@
       <c r="Y229" s="5"/>
     </row>
     <row r="230" spans="1:25">
-      <c r="A230" s="50"/>
+      <c r="A230" s="49"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -10523,7 +10520,7 @@
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
       <c r="J230" s="5"/>
-      <c r="K230" s="51"/>
+      <c r="K230" s="50"/>
       <c r="L230" s="5"/>
       <c r="M230" s="5"/>
       <c r="N230" s="5"/>
@@ -10536,7 +10533,7 @@
       <c r="Y230" s="5"/>
     </row>
     <row r="231" spans="1:25">
-      <c r="A231" s="50"/>
+      <c r="A231" s="49"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -10545,7 +10542,7 @@
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
       <c r="J231" s="5"/>
-      <c r="K231" s="51"/>
+      <c r="K231" s="50"/>
       <c r="L231" s="5"/>
       <c r="M231" s="5"/>
       <c r="N231" s="5"/>
@@ -10558,7 +10555,7 @@
       <c r="Y231" s="5"/>
     </row>
     <row r="232" spans="1:25">
-      <c r="A232" s="50"/>
+      <c r="A232" s="49"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -10567,7 +10564,7 @@
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
       <c r="J232" s="5"/>
-      <c r="K232" s="51"/>
+      <c r="K232" s="50"/>
       <c r="L232" s="5"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
@@ -10580,7 +10577,7 @@
       <c r="Y232" s="5"/>
     </row>
     <row r="233" spans="1:25">
-      <c r="A233" s="50"/>
+      <c r="A233" s="49"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -10589,7 +10586,7 @@
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
       <c r="J233" s="5"/>
-      <c r="K233" s="51"/>
+      <c r="K233" s="50"/>
       <c r="L233" s="5"/>
       <c r="M233" s="5"/>
       <c r="N233" s="5"/>
@@ -10602,7 +10599,7 @@
       <c r="Y233" s="5"/>
     </row>
     <row r="234" spans="1:25">
-      <c r="A234" s="50"/>
+      <c r="A234" s="49"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -10611,7 +10608,7 @@
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
       <c r="J234" s="5"/>
-      <c r="K234" s="51"/>
+      <c r="K234" s="50"/>
       <c r="L234" s="5"/>
       <c r="M234" s="5"/>
       <c r="N234" s="5"/>
@@ -10624,7 +10621,7 @@
       <c r="Y234" s="5"/>
     </row>
     <row r="235" spans="1:25">
-      <c r="A235" s="50"/>
+      <c r="A235" s="49"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -10633,7 +10630,7 @@
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
       <c r="J235" s="5"/>
-      <c r="K235" s="51"/>
+      <c r="K235" s="50"/>
       <c r="L235" s="5"/>
       <c r="M235" s="5"/>
       <c r="N235" s="5"/>
@@ -10646,7 +10643,7 @@
       <c r="Y235" s="5"/>
     </row>
     <row r="236" spans="1:25">
-      <c r="A236" s="50"/>
+      <c r="A236" s="49"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -10655,7 +10652,7 @@
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
       <c r="J236" s="5"/>
-      <c r="K236" s="51"/>
+      <c r="K236" s="50"/>
       <c r="L236" s="5"/>
       <c r="M236" s="5"/>
       <c r="N236" s="5"/>
@@ -10668,7 +10665,7 @@
       <c r="Y236" s="5"/>
     </row>
     <row r="237" spans="1:25">
-      <c r="A237" s="50"/>
+      <c r="A237" s="49"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -10677,7 +10674,7 @@
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
       <c r="J237" s="5"/>
-      <c r="K237" s="51"/>
+      <c r="K237" s="50"/>
       <c r="L237" s="5"/>
       <c r="M237" s="5"/>
       <c r="N237" s="5"/>
@@ -10690,7 +10687,7 @@
       <c r="Y237" s="5"/>
     </row>
     <row r="238" spans="1:25">
-      <c r="A238" s="50"/>
+      <c r="A238" s="49"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -10699,7 +10696,7 @@
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
       <c r="J238" s="5"/>
-      <c r="K238" s="51"/>
+      <c r="K238" s="50"/>
       <c r="L238" s="5"/>
       <c r="M238" s="5"/>
       <c r="N238" s="5"/>
@@ -10712,7 +10709,7 @@
       <c r="Y238" s="5"/>
     </row>
     <row r="239" spans="1:25">
-      <c r="A239" s="50"/>
+      <c r="A239" s="49"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -10721,7 +10718,7 @@
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
       <c r="J239" s="5"/>
-      <c r="K239" s="51"/>
+      <c r="K239" s="50"/>
       <c r="L239" s="5"/>
       <c r="M239" s="5"/>
       <c r="N239" s="5"/>
@@ -10734,7 +10731,7 @@
       <c r="Y239" s="5"/>
     </row>
     <row r="240" spans="1:25">
-      <c r="A240" s="50"/>
+      <c r="A240" s="49"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -10743,7 +10740,7 @@
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
       <c r="J240" s="5"/>
-      <c r="K240" s="51"/>
+      <c r="K240" s="50"/>
       <c r="L240" s="5"/>
       <c r="M240" s="5"/>
       <c r="N240" s="5"/>
@@ -10756,7 +10753,7 @@
       <c r="Y240" s="5"/>
     </row>
     <row r="241" spans="1:25">
-      <c r="A241" s="50"/>
+      <c r="A241" s="49"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -10765,7 +10762,7 @@
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
       <c r="J241" s="5"/>
-      <c r="K241" s="51"/>
+      <c r="K241" s="50"/>
       <c r="L241" s="5"/>
       <c r="M241" s="5"/>
       <c r="N241" s="5"/>
@@ -10778,7 +10775,7 @@
       <c r="Y241" s="5"/>
     </row>
     <row r="242" spans="1:25">
-      <c r="A242" s="50"/>
+      <c r="A242" s="49"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -10787,7 +10784,7 @@
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
       <c r="J242" s="5"/>
-      <c r="K242" s="51"/>
+      <c r="K242" s="50"/>
       <c r="L242" s="5"/>
       <c r="M242" s="5"/>
       <c r="N242" s="5"/>
@@ -10800,7 +10797,7 @@
       <c r="Y242" s="5"/>
     </row>
     <row r="243" spans="1:25">
-      <c r="A243" s="50"/>
+      <c r="A243" s="49"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -10809,7 +10806,7 @@
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
       <c r="J243" s="5"/>
-      <c r="K243" s="51"/>
+      <c r="K243" s="50"/>
       <c r="L243" s="5"/>
       <c r="M243" s="5"/>
       <c r="N243" s="5"/>
@@ -10822,7 +10819,7 @@
       <c r="Y243" s="5"/>
     </row>
     <row r="244" spans="1:25">
-      <c r="A244" s="50"/>
+      <c r="A244" s="49"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -10831,7 +10828,7 @@
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
       <c r="J244" s="5"/>
-      <c r="K244" s="51"/>
+      <c r="K244" s="50"/>
       <c r="L244" s="5"/>
       <c r="M244" s="5"/>
       <c r="N244" s="5"/>
@@ -10844,7 +10841,7 @@
       <c r="Y244" s="5"/>
     </row>
     <row r="245" spans="1:25">
-      <c r="A245" s="50"/>
+      <c r="A245" s="49"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -10853,7 +10850,7 @@
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
       <c r="J245" s="5"/>
-      <c r="K245" s="51"/>
+      <c r="K245" s="50"/>
       <c r="L245" s="5"/>
       <c r="M245" s="5"/>
       <c r="N245" s="5"/>
@@ -10866,7 +10863,7 @@
       <c r="Y245" s="5"/>
     </row>
     <row r="246" spans="1:25">
-      <c r="A246" s="50"/>
+      <c r="A246" s="49"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -10875,7 +10872,7 @@
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
       <c r="J246" s="5"/>
-      <c r="K246" s="51"/>
+      <c r="K246" s="50"/>
       <c r="L246" s="5"/>
       <c r="M246" s="5"/>
       <c r="N246" s="5"/>
@@ -10888,7 +10885,7 @@
       <c r="Y246" s="5"/>
     </row>
     <row r="247" spans="1:25">
-      <c r="A247" s="50"/>
+      <c r="A247" s="49"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -10897,7 +10894,7 @@
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
       <c r="J247" s="5"/>
-      <c r="K247" s="51"/>
+      <c r="K247" s="50"/>
       <c r="L247" s="5"/>
       <c r="M247" s="5"/>
       <c r="N247" s="5"/>
@@ -10910,7 +10907,7 @@
       <c r="Y247" s="5"/>
     </row>
     <row r="248" spans="1:25">
-      <c r="A248" s="50"/>
+      <c r="A248" s="49"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -10919,7 +10916,7 @@
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
       <c r="J248" s="5"/>
-      <c r="K248" s="51"/>
+      <c r="K248" s="50"/>
       <c r="L248" s="5"/>
       <c r="M248" s="5"/>
       <c r="N248" s="5"/>
@@ -10932,7 +10929,7 @@
       <c r="Y248" s="5"/>
     </row>
     <row r="249" spans="1:25">
-      <c r="A249" s="50"/>
+      <c r="A249" s="49"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -10941,7 +10938,7 @@
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
       <c r="J249" s="5"/>
-      <c r="K249" s="51"/>
+      <c r="K249" s="50"/>
       <c r="L249" s="5"/>
       <c r="M249" s="5"/>
       <c r="N249" s="5"/>
@@ -10954,7 +10951,7 @@
       <c r="Y249" s="5"/>
     </row>
     <row r="250" spans="1:25">
-      <c r="A250" s="50"/>
+      <c r="A250" s="49"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -10963,7 +10960,7 @@
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
       <c r="J250" s="5"/>
-      <c r="K250" s="51"/>
+      <c r="K250" s="50"/>
       <c r="L250" s="5"/>
       <c r="M250" s="5"/>
       <c r="N250" s="5"/>
@@ -10976,7 +10973,7 @@
       <c r="Y250" s="5"/>
     </row>
     <row r="251" spans="1:25">
-      <c r="A251" s="50"/>
+      <c r="A251" s="49"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -10985,7 +10982,7 @@
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
       <c r="J251" s="5"/>
-      <c r="K251" s="51"/>
+      <c r="K251" s="50"/>
       <c r="L251" s="5"/>
       <c r="M251" s="5"/>
       <c r="N251" s="5"/>
@@ -10998,7 +10995,7 @@
       <c r="Y251" s="5"/>
     </row>
     <row r="252" spans="1:25">
-      <c r="A252" s="50"/>
+      <c r="A252" s="49"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -11007,7 +11004,7 @@
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
       <c r="J252" s="5"/>
-      <c r="K252" s="51"/>
+      <c r="K252" s="50"/>
       <c r="L252" s="5"/>
       <c r="M252" s="5"/>
       <c r="N252" s="5"/>
@@ -11020,7 +11017,7 @@
       <c r="Y252" s="5"/>
     </row>
     <row r="253" spans="1:25">
-      <c r="A253" s="50"/>
+      <c r="A253" s="49"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -11029,7 +11026,7 @@
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
       <c r="J253" s="5"/>
-      <c r="K253" s="51"/>
+      <c r="K253" s="50"/>
       <c r="L253" s="5"/>
       <c r="M253" s="5"/>
       <c r="N253" s="5"/>
@@ -11042,7 +11039,7 @@
       <c r="Y253" s="5"/>
     </row>
     <row r="254" spans="1:25">
-      <c r="A254" s="50"/>
+      <c r="A254" s="49"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -11051,7 +11048,7 @@
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
       <c r="J254" s="5"/>
-      <c r="K254" s="51"/>
+      <c r="K254" s="50"/>
       <c r="L254" s="5"/>
       <c r="M254" s="5"/>
       <c r="N254" s="5"/>
@@ -11064,7 +11061,7 @@
       <c r="Y254" s="5"/>
     </row>
     <row r="255" spans="1:25">
-      <c r="A255" s="50"/>
+      <c r="A255" s="49"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -11073,7 +11070,7 @@
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
       <c r="J255" s="5"/>
-      <c r="K255" s="51"/>
+      <c r="K255" s="50"/>
       <c r="L255" s="5"/>
       <c r="M255" s="5"/>
       <c r="N255" s="5"/>
@@ -11086,7 +11083,7 @@
       <c r="Y255" s="5"/>
     </row>
     <row r="256" spans="1:25">
-      <c r="A256" s="50"/>
+      <c r="A256" s="49"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -11095,7 +11092,7 @@
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
       <c r="J256" s="5"/>
-      <c r="K256" s="51"/>
+      <c r="K256" s="50"/>
       <c r="L256" s="5"/>
       <c r="M256" s="5"/>
       <c r="N256" s="5"/>
@@ -11108,7 +11105,7 @@
       <c r="Y256" s="5"/>
     </row>
     <row r="257" spans="1:25">
-      <c r="A257" s="50"/>
+      <c r="A257" s="49"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -11117,7 +11114,7 @@
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
       <c r="J257" s="5"/>
-      <c r="K257" s="51"/>
+      <c r="K257" s="50"/>
       <c r="L257" s="5"/>
       <c r="M257" s="5"/>
       <c r="N257" s="5"/>
@@ -11130,7 +11127,7 @@
       <c r="Y257" s="5"/>
     </row>
     <row r="258" spans="1:25">
-      <c r="A258" s="50"/>
+      <c r="A258" s="49"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -11139,7 +11136,7 @@
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
       <c r="J258" s="5"/>
-      <c r="K258" s="51"/>
+      <c r="K258" s="50"/>
       <c r="L258" s="5"/>
       <c r="M258" s="5"/>
       <c r="N258" s="5"/>
@@ -11152,7 +11149,7 @@
       <c r="Y258" s="5"/>
     </row>
     <row r="259" spans="1:25">
-      <c r="A259" s="50"/>
+      <c r="A259" s="49"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
@@ -11161,7 +11158,7 @@
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
       <c r="J259" s="5"/>
-      <c r="K259" s="51"/>
+      <c r="K259" s="50"/>
       <c r="L259" s="5"/>
       <c r="M259" s="5"/>
       <c r="N259" s="5"/>
@@ -11174,7 +11171,7 @@
       <c r="Y259" s="5"/>
     </row>
     <row r="260" spans="1:25">
-      <c r="A260" s="50"/>
+      <c r="A260" s="49"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -11183,7 +11180,7 @@
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
       <c r="J260" s="5"/>
-      <c r="K260" s="51"/>
+      <c r="K260" s="50"/>
       <c r="L260" s="5"/>
       <c r="M260" s="5"/>
       <c r="N260" s="5"/>
@@ -11196,7 +11193,7 @@
       <c r="Y260" s="5"/>
     </row>
     <row r="261" spans="1:25">
-      <c r="A261" s="50"/>
+      <c r="A261" s="49"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -11205,7 +11202,7 @@
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
       <c r="J261" s="5"/>
-      <c r="K261" s="51"/>
+      <c r="K261" s="50"/>
       <c r="L261" s="5"/>
       <c r="M261" s="5"/>
       <c r="N261" s="5"/>
@@ -11218,7 +11215,7 @@
       <c r="Y261" s="5"/>
     </row>
     <row r="262" spans="1:25">
-      <c r="A262" s="50"/>
+      <c r="A262" s="49"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -11227,7 +11224,7 @@
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
       <c r="J262" s="5"/>
-      <c r="K262" s="51"/>
+      <c r="K262" s="50"/>
       <c r="L262" s="5"/>
       <c r="M262" s="5"/>
       <c r="N262" s="5"/>
@@ -11240,7 +11237,7 @@
       <c r="Y262" s="5"/>
     </row>
     <row r="263" spans="1:25">
-      <c r="A263" s="50"/>
+      <c r="A263" s="49"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -11249,7 +11246,7 @@
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
       <c r="J263" s="5"/>
-      <c r="K263" s="51"/>
+      <c r="K263" s="50"/>
       <c r="L263" s="5"/>
       <c r="M263" s="5"/>
       <c r="N263" s="5"/>
@@ -11262,7 +11259,7 @@
       <c r="Y263" s="5"/>
     </row>
     <row r="264" spans="1:25">
-      <c r="A264" s="50"/>
+      <c r="A264" s="49"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -11271,7 +11268,7 @@
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
       <c r="J264" s="5"/>
-      <c r="K264" s="51"/>
+      <c r="K264" s="50"/>
       <c r="L264" s="5"/>
       <c r="M264" s="5"/>
       <c r="N264" s="5"/>
@@ -11284,7 +11281,7 @@
       <c r="Y264" s="5"/>
     </row>
     <row r="265" spans="1:25">
-      <c r="A265" s="50"/>
+      <c r="A265" s="49"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -11293,7 +11290,7 @@
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
       <c r="J265" s="5"/>
-      <c r="K265" s="51"/>
+      <c r="K265" s="50"/>
       <c r="L265" s="5"/>
       <c r="M265" s="5"/>
       <c r="N265" s="5"/>
@@ -11306,7 +11303,7 @@
       <c r="Y265" s="5"/>
     </row>
     <row r="266" spans="1:25">
-      <c r="A266" s="50"/>
+      <c r="A266" s="49"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -11315,7 +11312,7 @@
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
       <c r="J266" s="5"/>
-      <c r="K266" s="51"/>
+      <c r="K266" s="50"/>
       <c r="L266" s="5"/>
       <c r="M266" s="5"/>
       <c r="N266" s="5"/>
@@ -11328,7 +11325,7 @@
       <c r="Y266" s="5"/>
     </row>
     <row r="267" spans="1:25">
-      <c r="A267" s="50"/>
+      <c r="A267" s="49"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -11337,7 +11334,7 @@
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
       <c r="J267" s="5"/>
-      <c r="K267" s="51"/>
+      <c r="K267" s="50"/>
       <c r="L267" s="5"/>
       <c r="M267" s="5"/>
       <c r="N267" s="5"/>
@@ -11350,7 +11347,7 @@
       <c r="Y267" s="5"/>
     </row>
     <row r="268" spans="1:25">
-      <c r="A268" s="50"/>
+      <c r="A268" s="49"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -11359,7 +11356,7 @@
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
       <c r="J268" s="5"/>
-      <c r="K268" s="51"/>
+      <c r="K268" s="50"/>
       <c r="L268" s="5"/>
       <c r="M268" s="5"/>
       <c r="N268" s="5"/>
@@ -11372,7 +11369,7 @@
       <c r="Y268" s="5"/>
     </row>
     <row r="269" spans="1:25">
-      <c r="A269" s="50"/>
+      <c r="A269" s="49"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -11381,7 +11378,7 @@
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
       <c r="J269" s="5"/>
-      <c r="K269" s="51"/>
+      <c r="K269" s="50"/>
       <c r="L269" s="5"/>
       <c r="M269" s="5"/>
       <c r="N269" s="5"/>
@@ -11394,7 +11391,7 @@
       <c r="Y269" s="5"/>
     </row>
     <row r="270" spans="1:25">
-      <c r="A270" s="50"/>
+      <c r="A270" s="49"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -11403,7 +11400,7 @@
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
       <c r="J270" s="5"/>
-      <c r="K270" s="51"/>
+      <c r="K270" s="50"/>
       <c r="L270" s="5"/>
       <c r="M270" s="5"/>
       <c r="N270" s="5"/>
@@ -11416,7 +11413,7 @@
       <c r="Y270" s="5"/>
     </row>
     <row r="271" spans="1:25">
-      <c r="A271" s="50"/>
+      <c r="A271" s="49"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -11425,7 +11422,7 @@
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
       <c r="J271" s="5"/>
-      <c r="K271" s="51"/>
+      <c r="K271" s="50"/>
       <c r="L271" s="5"/>
       <c r="M271" s="5"/>
       <c r="N271" s="5"/>
@@ -11438,7 +11435,7 @@
       <c r="Y271" s="5"/>
     </row>
     <row r="272" spans="1:25">
-      <c r="A272" s="50"/>
+      <c r="A272" s="49"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -11447,7 +11444,7 @@
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
       <c r="J272" s="5"/>
-      <c r="K272" s="51"/>
+      <c r="K272" s="50"/>
       <c r="L272" s="5"/>
       <c r="M272" s="5"/>
       <c r="N272" s="5"/>
@@ -11460,7 +11457,7 @@
       <c r="Y272" s="5"/>
     </row>
     <row r="273" spans="1:25">
-      <c r="A273" s="50"/>
+      <c r="A273" s="49"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -11469,7 +11466,7 @@
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
       <c r="J273" s="5"/>
-      <c r="K273" s="51"/>
+      <c r="K273" s="50"/>
       <c r="L273" s="5"/>
       <c r="M273" s="5"/>
       <c r="N273" s="5"/>
@@ -11482,7 +11479,7 @@
       <c r="Y273" s="5"/>
     </row>
     <row r="274" spans="1:25">
-      <c r="A274" s="50"/>
+      <c r="A274" s="49"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -11491,7 +11488,7 @@
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
       <c r="J274" s="5"/>
-      <c r="K274" s="51"/>
+      <c r="K274" s="50"/>
       <c r="L274" s="5"/>
       <c r="M274" s="5"/>
       <c r="N274" s="5"/>
@@ -11504,7 +11501,7 @@
       <c r="Y274" s="5"/>
     </row>
     <row r="275" spans="1:25">
-      <c r="A275" s="50"/>
+      <c r="A275" s="49"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -11513,7 +11510,7 @@
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
       <c r="J275" s="5"/>
-      <c r="K275" s="51"/>
+      <c r="K275" s="50"/>
       <c r="L275" s="5"/>
       <c r="M275" s="5"/>
       <c r="N275" s="5"/>
@@ -11526,7 +11523,7 @@
       <c r="Y275" s="5"/>
     </row>
     <row r="276" spans="1:25">
-      <c r="A276" s="50"/>
+      <c r="A276" s="49"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -11535,7 +11532,7 @@
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
       <c r="J276" s="5"/>
-      <c r="K276" s="51"/>
+      <c r="K276" s="50"/>
       <c r="L276" s="5"/>
       <c r="M276" s="5"/>
       <c r="N276" s="5"/>
@@ -11548,7 +11545,7 @@
       <c r="Y276" s="5"/>
     </row>
     <row r="277" spans="1:25">
-      <c r="A277" s="50"/>
+      <c r="A277" s="49"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -11557,7 +11554,7 @@
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
       <c r="J277" s="5"/>
-      <c r="K277" s="51"/>
+      <c r="K277" s="50"/>
       <c r="L277" s="5"/>
       <c r="M277" s="5"/>
       <c r="N277" s="5"/>
@@ -11570,7 +11567,7 @@
       <c r="Y277" s="5"/>
     </row>
     <row r="278" spans="1:25">
-      <c r="A278" s="50"/>
+      <c r="A278" s="49"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -11579,7 +11576,7 @@
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
       <c r="J278" s="5"/>
-      <c r="K278" s="51"/>
+      <c r="K278" s="50"/>
       <c r="L278" s="5"/>
       <c r="M278" s="5"/>
       <c r="N278" s="5"/>
@@ -11592,7 +11589,7 @@
       <c r="Y278" s="5"/>
     </row>
     <row r="279" spans="1:25">
-      <c r="A279" s="50"/>
+      <c r="A279" s="49"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -11601,7 +11598,7 @@
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
       <c r="J279" s="5"/>
-      <c r="K279" s="51"/>
+      <c r="K279" s="50"/>
       <c r="L279" s="5"/>
       <c r="M279" s="5"/>
       <c r="N279" s="5"/>
@@ -11614,7 +11611,7 @@
       <c r="Y279" s="5"/>
     </row>
     <row r="280" spans="1:25">
-      <c r="A280" s="50"/>
+      <c r="A280" s="49"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -11623,7 +11620,7 @@
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
       <c r="J280" s="5"/>
-      <c r="K280" s="51"/>
+      <c r="K280" s="50"/>
       <c r="L280" s="5"/>
       <c r="M280" s="5"/>
       <c r="N280" s="5"/>
@@ -11636,7 +11633,7 @@
       <c r="Y280" s="5"/>
     </row>
     <row r="281" spans="1:25">
-      <c r="A281" s="50"/>
+      <c r="A281" s="49"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -11645,7 +11642,7 @@
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
       <c r="J281" s="5"/>
-      <c r="K281" s="51"/>
+      <c r="K281" s="50"/>
       <c r="L281" s="5"/>
       <c r="M281" s="5"/>
       <c r="N281" s="5"/>
@@ -11658,7 +11655,7 @@
       <c r="Y281" s="5"/>
     </row>
     <row r="282" spans="1:25">
-      <c r="A282" s="50"/>
+      <c r="A282" s="49"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -11667,7 +11664,7 @@
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
       <c r="J282" s="5"/>
-      <c r="K282" s="51"/>
+      <c r="K282" s="50"/>
       <c r="L282" s="5"/>
       <c r="M282" s="5"/>
       <c r="N282" s="5"/>
@@ -11680,7 +11677,7 @@
       <c r="Y282" s="5"/>
     </row>
     <row r="283" spans="1:25">
-      <c r="A283" s="50"/>
+      <c r="A283" s="49"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -11689,7 +11686,7 @@
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
       <c r="J283" s="5"/>
-      <c r="K283" s="51"/>
+      <c r="K283" s="50"/>
       <c r="L283" s="5"/>
       <c r="M283" s="5"/>
       <c r="N283" s="5"/>
@@ -11702,7 +11699,7 @@
       <c r="Y283" s="5"/>
     </row>
     <row r="284" spans="1:25">
-      <c r="A284" s="50"/>
+      <c r="A284" s="49"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -11711,7 +11708,7 @@
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
       <c r="J284" s="5"/>
-      <c r="K284" s="51"/>
+      <c r="K284" s="50"/>
       <c r="L284" s="5"/>
       <c r="M284" s="5"/>
       <c r="N284" s="5"/>
@@ -11724,7 +11721,7 @@
       <c r="Y284" s="5"/>
     </row>
     <row r="285" spans="1:25">
-      <c r="A285" s="50"/>
+      <c r="A285" s="49"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -11733,7 +11730,7 @@
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
       <c r="J285" s="5"/>
-      <c r="K285" s="51"/>
+      <c r="K285" s="50"/>
       <c r="L285" s="5"/>
       <c r="M285" s="5"/>
       <c r="N285" s="5"/>
@@ -11746,7 +11743,7 @@
       <c r="Y285" s="5"/>
     </row>
     <row r="286" spans="1:25">
-      <c r="A286" s="50"/>
+      <c r="A286" s="49"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -11755,7 +11752,7 @@
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
       <c r="J286" s="5"/>
-      <c r="K286" s="51"/>
+      <c r="K286" s="50"/>
       <c r="L286" s="5"/>
       <c r="M286" s="5"/>
       <c r="N286" s="5"/>
@@ -11768,7 +11765,7 @@
       <c r="Y286" s="5"/>
     </row>
     <row r="287" spans="1:25">
-      <c r="A287" s="50"/>
+      <c r="A287" s="49"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -11777,7 +11774,7 @@
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
       <c r="J287" s="5"/>
-      <c r="K287" s="51"/>
+      <c r="K287" s="50"/>
       <c r="L287" s="5"/>
       <c r="M287" s="5"/>
       <c r="N287" s="5"/>
@@ -11790,7 +11787,7 @@
       <c r="Y287" s="5"/>
     </row>
     <row r="288" spans="1:25">
-      <c r="A288" s="50"/>
+      <c r="A288" s="49"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -11799,7 +11796,7 @@
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
       <c r="J288" s="5"/>
-      <c r="K288" s="51"/>
+      <c r="K288" s="50"/>
       <c r="L288" s="5"/>
       <c r="M288" s="5"/>
       <c r="N288" s="5"/>
@@ -11812,7 +11809,7 @@
       <c r="Y288" s="5"/>
     </row>
     <row r="289" spans="1:25">
-      <c r="A289" s="50"/>
+      <c r="A289" s="49"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -11821,7 +11818,7 @@
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
       <c r="J289" s="5"/>
-      <c r="K289" s="51"/>
+      <c r="K289" s="50"/>
       <c r="L289" s="5"/>
       <c r="M289" s="5"/>
       <c r="N289" s="5"/>
@@ -11834,7 +11831,7 @@
       <c r="Y289" s="5"/>
     </row>
     <row r="290" spans="1:25">
-      <c r="A290" s="50"/>
+      <c r="A290" s="49"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -11843,7 +11840,7 @@
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
       <c r="J290" s="5"/>
-      <c r="K290" s="51"/>
+      <c r="K290" s="50"/>
       <c r="L290" s="5"/>
       <c r="M290" s="5"/>
       <c r="N290" s="5"/>
@@ -11856,7 +11853,7 @@
       <c r="Y290" s="5"/>
     </row>
     <row r="291" spans="1:25">
-      <c r="A291" s="50"/>
+      <c r="A291" s="49"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
@@ -11865,7 +11862,7 @@
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
       <c r="J291" s="5"/>
-      <c r="K291" s="51"/>
+      <c r="K291" s="50"/>
       <c r="L291" s="5"/>
       <c r="M291" s="5"/>
       <c r="N291" s="5"/>
@@ -11878,7 +11875,7 @@
       <c r="Y291" s="5"/>
     </row>
     <row r="292" spans="1:25">
-      <c r="A292" s="50"/>
+      <c r="A292" s="49"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
@@ -11887,7 +11884,7 @@
       <c r="G292" s="3"/>
       <c r="H292" s="3"/>
       <c r="J292" s="5"/>
-      <c r="K292" s="51"/>
+      <c r="K292" s="50"/>
       <c r="L292" s="5"/>
       <c r="M292" s="5"/>
       <c r="N292" s="5"/>
@@ -11900,7 +11897,7 @@
       <c r="Y292" s="5"/>
     </row>
     <row r="293" spans="1:25">
-      <c r="A293" s="50"/>
+      <c r="A293" s="49"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -11909,7 +11906,7 @@
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
       <c r="J293" s="5"/>
-      <c r="K293" s="51"/>
+      <c r="K293" s="50"/>
       <c r="L293" s="5"/>
       <c r="M293" s="5"/>
       <c r="N293" s="5"/>
@@ -11922,7 +11919,7 @@
       <c r="Y293" s="5"/>
     </row>
     <row r="294" spans="1:25">
-      <c r="A294" s="50"/>
+      <c r="A294" s="49"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
@@ -11931,7 +11928,7 @@
       <c r="G294" s="3"/>
       <c r="H294" s="3"/>
       <c r="J294" s="5"/>
-      <c r="K294" s="51"/>
+      <c r="K294" s="50"/>
       <c r="L294" s="5"/>
       <c r="M294" s="5"/>
       <c r="N294" s="5"/>
@@ -11944,7 +11941,7 @@
       <c r="Y294" s="5"/>
     </row>
     <row r="295" spans="1:25">
-      <c r="A295" s="50"/>
+      <c r="A295" s="49"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -11953,7 +11950,7 @@
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
       <c r="J295" s="5"/>
-      <c r="K295" s="51"/>
+      <c r="K295" s="50"/>
       <c r="L295" s="5"/>
       <c r="M295" s="5"/>
       <c r="N295" s="5"/>
@@ -11966,7 +11963,7 @@
       <c r="Y295" s="5"/>
     </row>
     <row r="296" spans="1:25">
-      <c r="A296" s="50"/>
+      <c r="A296" s="49"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -11975,7 +11972,7 @@
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
       <c r="J296" s="5"/>
-      <c r="K296" s="51"/>
+      <c r="K296" s="50"/>
       <c r="L296" s="5"/>
       <c r="M296" s="5"/>
       <c r="N296" s="5"/>
@@ -11988,7 +11985,7 @@
       <c r="Y296" s="5"/>
     </row>
     <row r="297" spans="1:25">
-      <c r="A297" s="50"/>
+      <c r="A297" s="49"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
@@ -11997,7 +11994,7 @@
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
       <c r="J297" s="5"/>
-      <c r="K297" s="51"/>
+      <c r="K297" s="50"/>
       <c r="L297" s="5"/>
       <c r="M297" s="5"/>
       <c r="N297" s="5"/>
@@ -12010,7 +12007,7 @@
       <c r="Y297" s="5"/>
     </row>
     <row r="298" spans="1:25">
-      <c r="A298" s="50"/>
+      <c r="A298" s="49"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -12019,7 +12016,7 @@
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
       <c r="J298" s="5"/>
-      <c r="K298" s="51"/>
+      <c r="K298" s="50"/>
       <c r="L298" s="5"/>
       <c r="M298" s="5"/>
       <c r="N298" s="5"/>
@@ -12032,7 +12029,7 @@
       <c r="Y298" s="5"/>
     </row>
     <row r="299" spans="1:25">
-      <c r="A299" s="50"/>
+      <c r="A299" s="49"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -12041,7 +12038,7 @@
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
       <c r="J299" s="5"/>
-      <c r="K299" s="51"/>
+      <c r="K299" s="50"/>
       <c r="L299" s="5"/>
       <c r="M299" s="5"/>
       <c r="N299" s="5"/>
@@ -12054,7 +12051,7 @@
       <c r="Y299" s="5"/>
     </row>
     <row r="300" spans="1:25">
-      <c r="A300" s="50"/>
+      <c r="A300" s="49"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -12063,7 +12060,7 @@
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
       <c r="J300" s="5"/>
-      <c r="K300" s="51"/>
+      <c r="K300" s="50"/>
       <c r="L300" s="5"/>
       <c r="M300" s="5"/>
       <c r="N300" s="5"/>
@@ -12076,7 +12073,7 @@
       <c r="Y300" s="5"/>
     </row>
     <row r="301" spans="1:25">
-      <c r="A301" s="50"/>
+      <c r="A301" s="49"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -12085,7 +12082,7 @@
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
       <c r="J301" s="5"/>
-      <c r="K301" s="51"/>
+      <c r="K301" s="50"/>
       <c r="L301" s="5"/>
       <c r="M301" s="5"/>
       <c r="N301" s="5"/>
@@ -12098,7 +12095,7 @@
       <c r="Y301" s="5"/>
     </row>
     <row r="302" spans="1:25">
-      <c r="A302" s="50"/>
+      <c r="A302" s="49"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -12107,7 +12104,7 @@
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
       <c r="J302" s="5"/>
-      <c r="K302" s="51"/>
+      <c r="K302" s="50"/>
       <c r="L302" s="5"/>
       <c r="M302" s="5"/>
       <c r="N302" s="5"/>
@@ -12120,7 +12117,7 @@
       <c r="Y302" s="5"/>
     </row>
     <row r="303" spans="1:25">
-      <c r="A303" s="50"/>
+      <c r="A303" s="49"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
@@ -12129,7 +12126,7 @@
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
       <c r="J303" s="5"/>
-      <c r="K303" s="51"/>
+      <c r="K303" s="50"/>
       <c r="L303" s="5"/>
       <c r="M303" s="5"/>
       <c r="N303" s="5"/>
@@ -12142,7 +12139,7 @@
       <c r="Y303" s="5"/>
     </row>
     <row r="304" spans="1:25">
-      <c r="A304" s="50"/>
+      <c r="A304" s="49"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -12151,7 +12148,7 @@
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
       <c r="J304" s="5"/>
-      <c r="K304" s="51"/>
+      <c r="K304" s="50"/>
       <c r="L304" s="5"/>
       <c r="M304" s="5"/>
       <c r="N304" s="5"/>
@@ -12164,7 +12161,7 @@
       <c r="Y304" s="5"/>
     </row>
     <row r="305" spans="1:25">
-      <c r="A305" s="50"/>
+      <c r="A305" s="49"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -12173,7 +12170,7 @@
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
       <c r="J305" s="5"/>
-      <c r="K305" s="51"/>
+      <c r="K305" s="50"/>
       <c r="L305" s="5"/>
       <c r="M305" s="5"/>
       <c r="N305" s="5"/>
@@ -12186,7 +12183,7 @@
       <c r="Y305" s="5"/>
     </row>
     <row r="306" spans="1:25">
-      <c r="A306" s="50"/>
+      <c r="A306" s="49"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -12195,7 +12192,7 @@
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
       <c r="J306" s="5"/>
-      <c r="K306" s="51"/>
+      <c r="K306" s="50"/>
       <c r="L306" s="5"/>
       <c r="M306" s="5"/>
       <c r="N306" s="5"/>
@@ -12208,7 +12205,7 @@
       <c r="Y306" s="5"/>
     </row>
     <row r="307" spans="1:25">
-      <c r="A307" s="50"/>
+      <c r="A307" s="49"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -12217,7 +12214,7 @@
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
       <c r="J307" s="5"/>
-      <c r="K307" s="51"/>
+      <c r="K307" s="50"/>
       <c r="L307" s="5"/>
       <c r="M307" s="5"/>
       <c r="N307" s="5"/>
@@ -12230,7 +12227,7 @@
       <c r="Y307" s="5"/>
     </row>
     <row r="308" spans="1:25">
-      <c r="A308" s="50"/>
+      <c r="A308" s="49"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -12239,7 +12236,7 @@
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
       <c r="J308" s="5"/>
-      <c r="K308" s="51"/>
+      <c r="K308" s="50"/>
       <c r="L308" s="5"/>
       <c r="M308" s="5"/>
       <c r="N308" s="5"/>
@@ -12252,7 +12249,7 @@
       <c r="Y308" s="5"/>
     </row>
     <row r="309" spans="1:25">
-      <c r="A309" s="50"/>
+      <c r="A309" s="49"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -12261,7 +12258,7 @@
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
       <c r="J309" s="5"/>
-      <c r="K309" s="51"/>
+      <c r="K309" s="50"/>
       <c r="L309" s="5"/>
       <c r="M309" s="5"/>
       <c r="N309" s="5"/>
@@ -12274,7 +12271,7 @@
       <c r="Y309" s="5"/>
     </row>
     <row r="310" spans="1:25">
-      <c r="A310" s="50"/>
+      <c r="A310" s="49"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -12283,7 +12280,7 @@
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
       <c r="J310" s="5"/>
-      <c r="K310" s="51"/>
+      <c r="K310" s="50"/>
       <c r="L310" s="5"/>
       <c r="M310" s="5"/>
       <c r="N310" s="5"/>
@@ -12296,7 +12293,7 @@
       <c r="Y310" s="5"/>
     </row>
     <row r="311" spans="1:25">
-      <c r="A311" s="50"/>
+      <c r="A311" s="49"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -12305,7 +12302,7 @@
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
       <c r="J311" s="5"/>
-      <c r="K311" s="51"/>
+      <c r="K311" s="50"/>
       <c r="L311" s="5"/>
       <c r="M311" s="5"/>
       <c r="N311" s="5"/>
@@ -12318,7 +12315,7 @@
       <c r="Y311" s="5"/>
     </row>
     <row r="312" spans="1:25">
-      <c r="A312" s="50"/>
+      <c r="A312" s="49"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
@@ -12327,7 +12324,7 @@
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
       <c r="J312" s="5"/>
-      <c r="K312" s="51"/>
+      <c r="K312" s="50"/>
       <c r="L312" s="5"/>
       <c r="M312" s="5"/>
       <c r="N312" s="5"/>
@@ -12340,7 +12337,7 @@
       <c r="Y312" s="5"/>
     </row>
     <row r="313" spans="1:25">
-      <c r="A313" s="50"/>
+      <c r="A313" s="49"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
@@ -12349,7 +12346,7 @@
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
       <c r="J313" s="5"/>
-      <c r="K313" s="51"/>
+      <c r="K313" s="50"/>
       <c r="L313" s="5"/>
       <c r="M313" s="5"/>
       <c r="N313" s="5"/>
@@ -12362,7 +12359,7 @@
       <c r="Y313" s="5"/>
     </row>
     <row r="314" spans="1:25">
-      <c r="A314" s="50"/>
+      <c r="A314" s="49"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
@@ -12371,7 +12368,7 @@
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
       <c r="J314" s="5"/>
-      <c r="K314" s="51"/>
+      <c r="K314" s="50"/>
       <c r="L314" s="5"/>
       <c r="M314" s="5"/>
       <c r="N314" s="5"/>
@@ -12384,7 +12381,7 @@
       <c r="Y314" s="5"/>
     </row>
     <row r="315" spans="1:25">
-      <c r="A315" s="50"/>
+      <c r="A315" s="49"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
@@ -12393,7 +12390,7 @@
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
       <c r="J315" s="5"/>
-      <c r="K315" s="51"/>
+      <c r="K315" s="50"/>
       <c r="L315" s="5"/>
       <c r="M315" s="5"/>
       <c r="N315" s="5"/>
@@ -12406,7 +12403,7 @@
       <c r="Y315" s="5"/>
     </row>
     <row r="316" spans="1:25">
-      <c r="A316" s="50"/>
+      <c r="A316" s="49"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
@@ -12415,7 +12412,7 @@
       <c r="G316" s="3"/>
       <c r="H316" s="3"/>
       <c r="J316" s="5"/>
-      <c r="K316" s="51"/>
+      <c r="K316" s="50"/>
       <c r="L316" s="5"/>
       <c r="M316" s="5"/>
       <c r="N316" s="5"/>
@@ -12428,7 +12425,7 @@
       <c r="Y316" s="5"/>
     </row>
     <row r="317" spans="1:25">
-      <c r="A317" s="50"/>
+      <c r="A317" s="49"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
@@ -12437,7 +12434,7 @@
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
       <c r="J317" s="5"/>
-      <c r="K317" s="51"/>
+      <c r="K317" s="50"/>
       <c r="L317" s="5"/>
       <c r="M317" s="5"/>
       <c r="N317" s="5"/>
@@ -12450,7 +12447,7 @@
       <c r="Y317" s="5"/>
     </row>
     <row r="318" spans="1:25">
-      <c r="A318" s="50"/>
+      <c r="A318" s="49"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
@@ -12459,7 +12456,7 @@
       <c r="G318" s="3"/>
       <c r="H318" s="3"/>
       <c r="J318" s="5"/>
-      <c r="K318" s="51"/>
+      <c r="K318" s="50"/>
       <c r="L318" s="5"/>
       <c r="M318" s="5"/>
       <c r="N318" s="5"/>
@@ -12472,7 +12469,7 @@
       <c r="Y318" s="5"/>
     </row>
     <row r="319" spans="1:25">
-      <c r="A319" s="50"/>
+      <c r="A319" s="49"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -12481,7 +12478,7 @@
       <c r="G319" s="3"/>
       <c r="H319" s="3"/>
       <c r="J319" s="5"/>
-      <c r="K319" s="51"/>
+      <c r="K319" s="50"/>
       <c r="L319" s="5"/>
       <c r="M319" s="5"/>
       <c r="N319" s="5"/>
@@ -12494,7 +12491,7 @@
       <c r="Y319" s="5"/>
     </row>
     <row r="320" spans="1:25">
-      <c r="A320" s="50"/>
+      <c r="A320" s="49"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
@@ -12503,7 +12500,7 @@
       <c r="G320" s="3"/>
       <c r="H320" s="3"/>
       <c r="J320" s="5"/>
-      <c r="K320" s="51"/>
+      <c r="K320" s="50"/>
       <c r="L320" s="5"/>
       <c r="M320" s="5"/>
       <c r="N320" s="5"/>
@@ -12516,7 +12513,7 @@
       <c r="Y320" s="5"/>
     </row>
     <row r="321" spans="1:25">
-      <c r="A321" s="50"/>
+      <c r="A321" s="49"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -12525,7 +12522,7 @@
       <c r="G321" s="3"/>
       <c r="H321" s="3"/>
       <c r="J321" s="5"/>
-      <c r="K321" s="51"/>
+      <c r="K321" s="50"/>
       <c r="L321" s="5"/>
       <c r="M321" s="5"/>
       <c r="N321" s="5"/>
@@ -12538,7 +12535,7 @@
       <c r="Y321" s="5"/>
     </row>
     <row r="322" spans="1:25">
-      <c r="A322" s="50"/>
+      <c r="A322" s="49"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
@@ -12547,7 +12544,7 @@
       <c r="G322" s="3"/>
       <c r="H322" s="3"/>
       <c r="J322" s="5"/>
-      <c r="K322" s="51"/>
+      <c r="K322" s="50"/>
       <c r="L322" s="5"/>
       <c r="M322" s="5"/>
       <c r="N322" s="5"/>
@@ -12560,7 +12557,7 @@
       <c r="Y322" s="5"/>
     </row>
     <row r="323" spans="1:25">
-      <c r="A323" s="50"/>
+      <c r="A323" s="49"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
@@ -12569,7 +12566,7 @@
       <c r="G323" s="3"/>
       <c r="H323" s="3"/>
       <c r="J323" s="5"/>
-      <c r="K323" s="51"/>
+      <c r="K323" s="50"/>
       <c r="L323" s="5"/>
       <c r="M323" s="5"/>
       <c r="N323" s="5"/>
@@ -12582,7 +12579,7 @@
       <c r="Y323" s="5"/>
     </row>
     <row r="324" spans="1:25">
-      <c r="A324" s="50"/>
+      <c r="A324" s="49"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
@@ -12591,7 +12588,7 @@
       <c r="G324" s="3"/>
       <c r="H324" s="3"/>
       <c r="J324" s="5"/>
-      <c r="K324" s="51"/>
+      <c r="K324" s="50"/>
       <c r="L324" s="5"/>
       <c r="M324" s="5"/>
       <c r="N324" s="5"/>
@@ -12604,7 +12601,7 @@
       <c r="Y324" s="5"/>
     </row>
     <row r="325" spans="1:25">
-      <c r="A325" s="50"/>
+      <c r="A325" s="49"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
@@ -12613,7 +12610,7 @@
       <c r="G325" s="3"/>
       <c r="H325" s="3"/>
       <c r="J325" s="5"/>
-      <c r="K325" s="51"/>
+      <c r="K325" s="50"/>
       <c r="L325" s="5"/>
       <c r="M325" s="5"/>
       <c r="N325" s="5"/>
@@ -12626,7 +12623,7 @@
       <c r="Y325" s="5"/>
     </row>
     <row r="326" spans="1:25">
-      <c r="A326" s="50"/>
+      <c r="A326" s="49"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
@@ -12635,7 +12632,7 @@
       <c r="G326" s="3"/>
       <c r="H326" s="3"/>
       <c r="J326" s="5"/>
-      <c r="K326" s="51"/>
+      <c r="K326" s="50"/>
       <c r="L326" s="5"/>
       <c r="M326" s="5"/>
       <c r="N326" s="5"/>
@@ -12648,7 +12645,7 @@
       <c r="Y326" s="5"/>
     </row>
     <row r="327" spans="1:25">
-      <c r="A327" s="50"/>
+      <c r="A327" s="49"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
@@ -12657,7 +12654,7 @@
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
       <c r="J327" s="5"/>
-      <c r="K327" s="51"/>
+      <c r="K327" s="50"/>
       <c r="L327" s="5"/>
       <c r="M327" s="5"/>
       <c r="N327" s="5"/>
@@ -12670,7 +12667,7 @@
       <c r="Y327" s="5"/>
     </row>
     <row r="328" spans="1:25">
-      <c r="A328" s="50"/>
+      <c r="A328" s="49"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
@@ -12679,7 +12676,7 @@
       <c r="G328" s="3"/>
       <c r="H328" s="3"/>
       <c r="J328" s="5"/>
-      <c r="K328" s="51"/>
+      <c r="K328" s="50"/>
       <c r="L328" s="5"/>
       <c r="M328" s="5"/>
       <c r="N328" s="5"/>
@@ -12692,7 +12689,7 @@
       <c r="Y328" s="5"/>
     </row>
     <row r="329" spans="1:25">
-      <c r="A329" s="50"/>
+      <c r="A329" s="49"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
@@ -12701,7 +12698,7 @@
       <c r="G329" s="3"/>
       <c r="H329" s="3"/>
       <c r="J329" s="5"/>
-      <c r="K329" s="51"/>
+      <c r="K329" s="50"/>
       <c r="L329" s="5"/>
       <c r="M329" s="5"/>
       <c r="N329" s="5"/>
@@ -12714,7 +12711,7 @@
       <c r="Y329" s="5"/>
     </row>
     <row r="330" spans="1:25">
-      <c r="A330" s="50"/>
+      <c r="A330" s="49"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
@@ -12723,7 +12720,7 @@
       <c r="G330" s="3"/>
       <c r="H330" s="3"/>
       <c r="J330" s="5"/>
-      <c r="K330" s="51"/>
+      <c r="K330" s="50"/>
       <c r="L330" s="5"/>
       <c r="M330" s="5"/>
       <c r="N330" s="5"/>
@@ -12736,7 +12733,7 @@
       <c r="Y330" s="5"/>
     </row>
     <row r="331" spans="1:25">
-      <c r="A331" s="50"/>
+      <c r="A331" s="49"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
@@ -12745,7 +12742,7 @@
       <c r="G331" s="3"/>
       <c r="H331" s="3"/>
       <c r="J331" s="5"/>
-      <c r="K331" s="51"/>
+      <c r="K331" s="50"/>
       <c r="L331" s="5"/>
       <c r="M331" s="5"/>
       <c r="N331" s="5"/>
@@ -12758,7 +12755,7 @@
       <c r="Y331" s="5"/>
     </row>
     <row r="332" spans="1:25">
-      <c r="A332" s="50"/>
+      <c r="A332" s="49"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
@@ -12767,7 +12764,7 @@
       <c r="G332" s="3"/>
       <c r="H332" s="3"/>
       <c r="J332" s="5"/>
-      <c r="K332" s="51"/>
+      <c r="K332" s="50"/>
       <c r="L332" s="5"/>
       <c r="M332" s="5"/>
       <c r="N332" s="5"/>
@@ -12780,7 +12777,7 @@
       <c r="Y332" s="5"/>
     </row>
     <row r="333" spans="1:25">
-      <c r="A333" s="50"/>
+      <c r="A333" s="49"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
@@ -12789,7 +12786,7 @@
       <c r="G333" s="3"/>
       <c r="H333" s="3"/>
       <c r="J333" s="5"/>
-      <c r="K333" s="51"/>
+      <c r="K333" s="50"/>
       <c r="L333" s="5"/>
       <c r="M333" s="5"/>
       <c r="N333" s="5"/>
@@ -12802,7 +12799,7 @@
       <c r="Y333" s="5"/>
     </row>
     <row r="334" spans="1:25">
-      <c r="A334" s="50"/>
+      <c r="A334" s="49"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
@@ -12811,7 +12808,7 @@
       <c r="G334" s="3"/>
       <c r="H334" s="3"/>
       <c r="J334" s="5"/>
-      <c r="K334" s="51"/>
+      <c r="K334" s="50"/>
       <c r="L334" s="5"/>
       <c r="M334" s="5"/>
       <c r="N334" s="5"/>
@@ -12824,7 +12821,7 @@
       <c r="Y334" s="5"/>
     </row>
     <row r="335" spans="1:25">
-      <c r="A335" s="50"/>
+      <c r="A335" s="49"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
@@ -12833,7 +12830,7 @@
       <c r="G335" s="3"/>
       <c r="H335" s="3"/>
       <c r="J335" s="5"/>
-      <c r="K335" s="51"/>
+      <c r="K335" s="50"/>
       <c r="L335" s="5"/>
       <c r="M335" s="5"/>
       <c r="N335" s="5"/>
@@ -12846,7 +12843,7 @@
       <c r="Y335" s="5"/>
     </row>
     <row r="336" spans="1:25">
-      <c r="A336" s="50"/>
+      <c r="A336" s="49"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
@@ -12855,7 +12852,7 @@
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
       <c r="J336" s="5"/>
-      <c r="K336" s="51"/>
+      <c r="K336" s="50"/>
       <c r="L336" s="5"/>
       <c r="M336" s="5"/>
       <c r="N336" s="5"/>
@@ -12868,7 +12865,7 @@
       <c r="Y336" s="5"/>
     </row>
     <row r="337" spans="1:25">
-      <c r="A337" s="50"/>
+      <c r="A337" s="49"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
@@ -12877,7 +12874,7 @@
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
       <c r="J337" s="5"/>
-      <c r="K337" s="51"/>
+      <c r="K337" s="50"/>
       <c r="L337" s="5"/>
       <c r="M337" s="5"/>
       <c r="N337" s="5"/>
@@ -12890,7 +12887,7 @@
       <c r="Y337" s="5"/>
     </row>
     <row r="338" spans="1:25">
-      <c r="A338" s="50"/>
+      <c r="A338" s="49"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
@@ -12899,7 +12896,7 @@
       <c r="G338" s="3"/>
       <c r="H338" s="3"/>
       <c r="J338" s="5"/>
-      <c r="K338" s="51"/>
+      <c r="K338" s="50"/>
       <c r="L338" s="5"/>
       <c r="M338" s="5"/>
       <c r="N338" s="5"/>
@@ -12912,7 +12909,7 @@
       <c r="Y338" s="5"/>
     </row>
     <row r="339" spans="1:25">
-      <c r="A339" s="50"/>
+      <c r="A339" s="49"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
@@ -12921,7 +12918,7 @@
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
       <c r="J339" s="5"/>
-      <c r="K339" s="51"/>
+      <c r="K339" s="50"/>
       <c r="L339" s="5"/>
       <c r="M339" s="5"/>
       <c r="N339" s="5"/>
@@ -12934,7 +12931,7 @@
       <c r="Y339" s="5"/>
     </row>
     <row r="340" spans="1:25">
-      <c r="A340" s="50"/>
+      <c r="A340" s="49"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
@@ -12943,7 +12940,7 @@
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
       <c r="J340" s="5"/>
-      <c r="K340" s="51"/>
+      <c r="K340" s="50"/>
       <c r="L340" s="5"/>
       <c r="M340" s="5"/>
       <c r="N340" s="5"/>
@@ -12956,7 +12953,7 @@
       <c r="Y340" s="5"/>
     </row>
     <row r="341" spans="1:25">
-      <c r="A341" s="50"/>
+      <c r="A341" s="49"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
@@ -12965,7 +12962,7 @@
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
       <c r="J341" s="5"/>
-      <c r="K341" s="51"/>
+      <c r="K341" s="50"/>
       <c r="L341" s="5"/>
       <c r="M341" s="5"/>
       <c r="N341" s="5"/>
@@ -12978,7 +12975,7 @@
       <c r="Y341" s="5"/>
     </row>
     <row r="342" spans="1:25">
-      <c r="A342" s="50"/>
+      <c r="A342" s="49"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
@@ -12987,7 +12984,7 @@
       <c r="G342" s="3"/>
       <c r="H342" s="3"/>
       <c r="J342" s="5"/>
-      <c r="K342" s="51"/>
+      <c r="K342" s="50"/>
       <c r="L342" s="5"/>
       <c r="M342" s="5"/>
       <c r="N342" s="5"/>
@@ -13000,7 +12997,7 @@
       <c r="Y342" s="5"/>
     </row>
     <row r="343" spans="1:25">
-      <c r="A343" s="50"/>
+      <c r="A343" s="49"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
@@ -13009,7 +13006,7 @@
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
       <c r="J343" s="5"/>
-      <c r="K343" s="51"/>
+      <c r="K343" s="50"/>
       <c r="L343" s="5"/>
       <c r="M343" s="5"/>
       <c r="N343" s="5"/>
@@ -13022,7 +13019,7 @@
       <c r="Y343" s="5"/>
     </row>
     <row r="344" spans="1:25">
-      <c r="A344" s="50"/>
+      <c r="A344" s="49"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
@@ -13031,7 +13028,7 @@
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
       <c r="J344" s="5"/>
-      <c r="K344" s="51"/>
+      <c r="K344" s="50"/>
       <c r="L344" s="5"/>
       <c r="M344" s="5"/>
       <c r="N344" s="5"/>
@@ -13044,7 +13041,7 @@
       <c r="Y344" s="5"/>
     </row>
     <row r="345" spans="1:25">
-      <c r="A345" s="50"/>
+      <c r="A345" s="49"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
@@ -13053,7 +13050,7 @@
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
       <c r="J345" s="5"/>
-      <c r="K345" s="51"/>
+      <c r="K345" s="50"/>
       <c r="L345" s="5"/>
       <c r="M345" s="5"/>
       <c r="N345" s="5"/>
@@ -13066,7 +13063,7 @@
       <c r="Y345" s="5"/>
     </row>
     <row r="346" spans="1:25">
-      <c r="A346" s="50"/>
+      <c r="A346" s="49"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
@@ -13075,7 +13072,7 @@
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
       <c r="J346" s="5"/>
-      <c r="K346" s="51"/>
+      <c r="K346" s="50"/>
       <c r="L346" s="5"/>
       <c r="M346" s="5"/>
       <c r="N346" s="5"/>
@@ -13088,7 +13085,7 @@
       <c r="Y346" s="5"/>
     </row>
     <row r="347" spans="1:25">
-      <c r="A347" s="50"/>
+      <c r="A347" s="49"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
@@ -13097,7 +13094,7 @@
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
       <c r="J347" s="5"/>
-      <c r="K347" s="51"/>
+      <c r="K347" s="50"/>
       <c r="L347" s="5"/>
       <c r="M347" s="5"/>
       <c r="N347" s="5"/>
@@ -13110,7 +13107,7 @@
       <c r="Y347" s="5"/>
     </row>
     <row r="348" spans="1:25">
-      <c r="A348" s="50"/>
+      <c r="A348" s="49"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
@@ -13119,7 +13116,7 @@
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
       <c r="J348" s="5"/>
-      <c r="K348" s="51"/>
+      <c r="K348" s="50"/>
       <c r="L348" s="5"/>
       <c r="M348" s="5"/>
       <c r="N348" s="5"/>
@@ -13132,7 +13129,7 @@
       <c r="Y348" s="5"/>
     </row>
     <row r="349" spans="1:25">
-      <c r="A349" s="50"/>
+      <c r="A349" s="49"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
@@ -13141,7 +13138,7 @@
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
       <c r="J349" s="5"/>
-      <c r="K349" s="51"/>
+      <c r="K349" s="50"/>
       <c r="L349" s="5"/>
       <c r="M349" s="5"/>
       <c r="N349" s="5"/>
@@ -13154,7 +13151,7 @@
       <c r="Y349" s="5"/>
     </row>
     <row r="350" spans="1:25">
-      <c r="A350" s="50"/>
+      <c r="A350" s="49"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
@@ -13163,7 +13160,7 @@
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
       <c r="J350" s="5"/>
-      <c r="K350" s="51"/>
+      <c r="K350" s="50"/>
       <c r="L350" s="5"/>
       <c r="M350" s="5"/>
       <c r="N350" s="5"/>
@@ -13176,7 +13173,7 @@
       <c r="Y350" s="5"/>
     </row>
     <row r="351" spans="1:25">
-      <c r="A351" s="50"/>
+      <c r="A351" s="49"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
@@ -13185,7 +13182,7 @@
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
       <c r="J351" s="5"/>
-      <c r="K351" s="51"/>
+      <c r="K351" s="50"/>
       <c r="L351" s="5"/>
       <c r="M351" s="5"/>
       <c r="N351" s="5"/>
@@ -13198,7 +13195,7 @@
       <c r="Y351" s="5"/>
     </row>
     <row r="352" spans="1:25">
-      <c r="A352" s="50"/>
+      <c r="A352" s="49"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
@@ -13207,7 +13204,7 @@
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
       <c r="J352" s="5"/>
-      <c r="K352" s="51"/>
+      <c r="K352" s="50"/>
       <c r="L352" s="5"/>
       <c r="M352" s="5"/>
       <c r="N352" s="5"/>
@@ -13220,7 +13217,7 @@
       <c r="Y352" s="5"/>
     </row>
     <row r="353" spans="1:25">
-      <c r="A353" s="50"/>
+      <c r="A353" s="49"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
@@ -13229,7 +13226,7 @@
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
       <c r="J353" s="5"/>
-      <c r="K353" s="51"/>
+      <c r="K353" s="50"/>
       <c r="L353" s="5"/>
       <c r="M353" s="5"/>
       <c r="N353" s="5"/>
@@ -13242,7 +13239,7 @@
       <c r="Y353" s="5"/>
     </row>
     <row r="354" spans="1:25">
-      <c r="A354" s="50"/>
+      <c r="A354" s="49"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
@@ -13251,7 +13248,7 @@
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
       <c r="J354" s="5"/>
-      <c r="K354" s="51"/>
+      <c r="K354" s="50"/>
       <c r="L354" s="5"/>
       <c r="M354" s="5"/>
       <c r="N354" s="5"/>
@@ -13264,7 +13261,7 @@
       <c r="Y354" s="5"/>
     </row>
     <row r="355" spans="1:25">
-      <c r="A355" s="50"/>
+      <c r="A355" s="49"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -13273,7 +13270,7 @@
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
       <c r="J355" s="5"/>
-      <c r="K355" s="51"/>
+      <c r="K355" s="50"/>
       <c r="L355" s="5"/>
       <c r="M355" s="5"/>
       <c r="N355" s="5"/>
@@ -13286,7 +13283,7 @@
       <c r="Y355" s="5"/>
     </row>
     <row r="356" spans="1:25">
-      <c r="A356" s="50"/>
+      <c r="A356" s="49"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
@@ -13295,7 +13292,7 @@
       <c r="G356" s="3"/>
       <c r="H356" s="3"/>
       <c r="J356" s="5"/>
-      <c r="K356" s="51"/>
+      <c r="K356" s="50"/>
       <c r="L356" s="5"/>
       <c r="M356" s="5"/>
       <c r="N356" s="5"/>
@@ -13308,7 +13305,7 @@
       <c r="Y356" s="5"/>
     </row>
     <row r="357" spans="1:25">
-      <c r="A357" s="50"/>
+      <c r="A357" s="49"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
@@ -13317,7 +13314,7 @@
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
       <c r="J357" s="5"/>
-      <c r="K357" s="51"/>
+      <c r="K357" s="50"/>
       <c r="L357" s="5"/>
       <c r="M357" s="5"/>
       <c r="N357" s="5"/>
@@ -13330,7 +13327,7 @@
       <c r="Y357" s="5"/>
     </row>
     <row r="358" spans="1:25">
-      <c r="A358" s="50"/>
+      <c r="A358" s="49"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
@@ -13339,7 +13336,7 @@
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
       <c r="J358" s="5"/>
-      <c r="K358" s="51"/>
+      <c r="K358" s="50"/>
       <c r="L358" s="5"/>
       <c r="M358" s="5"/>
       <c r="N358" s="5"/>
@@ -13352,7 +13349,7 @@
       <c r="Y358" s="5"/>
     </row>
     <row r="359" spans="1:25">
-      <c r="A359" s="50"/>
+      <c r="A359" s="49"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
@@ -13361,7 +13358,7 @@
       <c r="G359" s="3"/>
       <c r="H359" s="3"/>
       <c r="J359" s="5"/>
-      <c r="K359" s="51"/>
+      <c r="K359" s="50"/>
       <c r="L359" s="5"/>
       <c r="M359" s="5"/>
       <c r="N359" s="5"/>
@@ -13374,7 +13371,7 @@
       <c r="Y359" s="5"/>
     </row>
     <row r="360" spans="1:25">
-      <c r="A360" s="50"/>
+      <c r="A360" s="49"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
@@ -13383,7 +13380,7 @@
       <c r="G360" s="3"/>
       <c r="H360" s="3"/>
       <c r="J360" s="5"/>
-      <c r="K360" s="51"/>
+      <c r="K360" s="50"/>
       <c r="L360" s="5"/>
       <c r="M360" s="5"/>
       <c r="N360" s="5"/>
@@ -13396,7 +13393,7 @@
       <c r="Y360" s="5"/>
     </row>
     <row r="361" spans="1:25">
-      <c r="A361" s="50"/>
+      <c r="A361" s="49"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
@@ -13405,7 +13402,7 @@
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
       <c r="J361" s="5"/>
-      <c r="K361" s="51"/>
+      <c r="K361" s="50"/>
       <c r="L361" s="5"/>
       <c r="M361" s="5"/>
       <c r="N361" s="5"/>
@@ -13418,7 +13415,7 @@
       <c r="Y361" s="5"/>
     </row>
     <row r="362" spans="1:25">
-      <c r="A362" s="50"/>
+      <c r="A362" s="49"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
@@ -13427,7 +13424,7 @@
       <c r="G362" s="3"/>
       <c r="H362" s="3"/>
       <c r="J362" s="5"/>
-      <c r="K362" s="51"/>
+      <c r="K362" s="50"/>
       <c r="L362" s="5"/>
       <c r="M362" s="5"/>
       <c r="N362" s="5"/>
@@ -13440,7 +13437,7 @@
       <c r="Y362" s="5"/>
     </row>
     <row r="363" spans="1:25">
-      <c r="A363" s="50"/>
+      <c r="A363" s="49"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
@@ -13449,7 +13446,7 @@
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
       <c r="J363" s="5"/>
-      <c r="K363" s="51"/>
+      <c r="K363" s="50"/>
       <c r="L363" s="5"/>
       <c r="M363" s="5"/>
       <c r="N363" s="5"/>
@@ -13462,7 +13459,7 @@
       <c r="Y363" s="5"/>
     </row>
     <row r="364" spans="1:25">
-      <c r="A364" s="50"/>
+      <c r="A364" s="49"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
@@ -13471,7 +13468,7 @@
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
       <c r="J364" s="5"/>
-      <c r="K364" s="51"/>
+      <c r="K364" s="50"/>
       <c r="L364" s="5"/>
       <c r="M364" s="5"/>
       <c r="N364" s="5"/>
@@ -13484,7 +13481,7 @@
       <c r="Y364" s="5"/>
     </row>
     <row r="365" spans="1:25">
-      <c r="A365" s="50"/>
+      <c r="A365" s="49"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
@@ -13493,7 +13490,7 @@
       <c r="G365" s="3"/>
       <c r="H365" s="3"/>
       <c r="J365" s="5"/>
-      <c r="K365" s="51"/>
+      <c r="K365" s="50"/>
       <c r="L365" s="5"/>
       <c r="M365" s="5"/>
       <c r="N365" s="5"/>
@@ -13506,7 +13503,7 @@
       <c r="Y365" s="5"/>
     </row>
     <row r="366" spans="1:25">
-      <c r="A366" s="50"/>
+      <c r="A366" s="49"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
@@ -13515,7 +13512,7 @@
       <c r="G366" s="3"/>
       <c r="H366" s="3"/>
       <c r="J366" s="5"/>
-      <c r="K366" s="51"/>
+      <c r="K366" s="50"/>
       <c r="L366" s="5"/>
       <c r="M366" s="5"/>
       <c r="N366" s="5"/>
@@ -13528,7 +13525,7 @@
       <c r="Y366" s="5"/>
     </row>
     <row r="367" spans="1:25">
-      <c r="A367" s="50"/>
+      <c r="A367" s="49"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
@@ -13537,7 +13534,7 @@
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
       <c r="J367" s="5"/>
-      <c r="K367" s="51"/>
+      <c r="K367" s="50"/>
       <c r="L367" s="5"/>
       <c r="M367" s="5"/>
       <c r="N367" s="5"/>
@@ -13550,7 +13547,7 @@
       <c r="Y367" s="5"/>
     </row>
     <row r="368" spans="1:25">
-      <c r="A368" s="50"/>
+      <c r="A368" s="49"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
@@ -13559,7 +13556,7 @@
       <c r="G368" s="3"/>
       <c r="H368" s="3"/>
       <c r="J368" s="5"/>
-      <c r="K368" s="51"/>
+      <c r="K368" s="50"/>
       <c r="L368" s="5"/>
       <c r="M368" s="5"/>
       <c r="N368" s="5"/>
@@ -13572,7 +13569,7 @@
       <c r="Y368" s="5"/>
     </row>
     <row r="369" spans="1:25">
-      <c r="A369" s="50"/>
+      <c r="A369" s="49"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
@@ -13581,7 +13578,7 @@
       <c r="G369" s="3"/>
       <c r="H369" s="3"/>
       <c r="J369" s="5"/>
-      <c r="K369" s="51"/>
+      <c r="K369" s="50"/>
       <c r="L369" s="5"/>
       <c r="M369" s="5"/>
       <c r="N369" s="5"/>
@@ -13594,7 +13591,7 @@
       <c r="Y369" s="5"/>
     </row>
     <row r="370" spans="1:25">
-      <c r="A370" s="50"/>
+      <c r="A370" s="49"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
@@ -13603,7 +13600,7 @@
       <c r="G370" s="3"/>
       <c r="H370" s="3"/>
       <c r="J370" s="5"/>
-      <c r="K370" s="51"/>
+      <c r="K370" s="50"/>
       <c r="L370" s="5"/>
       <c r="M370" s="5"/>
       <c r="N370" s="5"/>
@@ -13616,7 +13613,7 @@
       <c r="Y370" s="5"/>
     </row>
     <row r="371" spans="1:25">
-      <c r="A371" s="50"/>
+      <c r="A371" s="49"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
@@ -13625,7 +13622,7 @@
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
       <c r="J371" s="5"/>
-      <c r="K371" s="51"/>
+      <c r="K371" s="50"/>
       <c r="L371" s="5"/>
       <c r="M371" s="5"/>
       <c r="N371" s="5"/>
@@ -13638,7 +13635,7 @@
       <c r="Y371" s="5"/>
     </row>
     <row r="372" spans="1:25">
-      <c r="A372" s="50"/>
+      <c r="A372" s="49"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
@@ -13647,7 +13644,7 @@
       <c r="G372" s="3"/>
       <c r="H372" s="3"/>
       <c r="J372" s="5"/>
-      <c r="K372" s="51"/>
+      <c r="K372" s="50"/>
       <c r="L372" s="5"/>
       <c r="M372" s="5"/>
       <c r="N372" s="5"/>
@@ -13660,7 +13657,7 @@
       <c r="Y372" s="5"/>
     </row>
     <row r="373" spans="1:25">
-      <c r="A373" s="50"/>
+      <c r="A373" s="49"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
@@ -13669,7 +13666,7 @@
       <c r="G373" s="3"/>
       <c r="H373" s="3"/>
       <c r="J373" s="5"/>
-      <c r="K373" s="51"/>
+      <c r="K373" s="50"/>
       <c r="L373" s="5"/>
       <c r="M373" s="5"/>
       <c r="N373" s="5"/>
@@ -13682,7 +13679,7 @@
       <c r="Y373" s="5"/>
     </row>
     <row r="374" spans="1:25">
-      <c r="A374" s="50"/>
+      <c r="A374" s="49"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
@@ -13691,7 +13688,7 @@
       <c r="G374" s="3"/>
       <c r="H374" s="3"/>
       <c r="J374" s="5"/>
-      <c r="K374" s="51"/>
+      <c r="K374" s="50"/>
       <c r="L374" s="5"/>
       <c r="M374" s="5"/>
       <c r="N374" s="5"/>
@@ -13704,7 +13701,7 @@
       <c r="Y374" s="5"/>
     </row>
     <row r="375" spans="1:25">
-      <c r="A375" s="50"/>
+      <c r="A375" s="49"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
@@ -13713,7 +13710,7 @@
       <c r="G375" s="3"/>
       <c r="H375" s="3"/>
       <c r="J375" s="5"/>
-      <c r="K375" s="51"/>
+      <c r="K375" s="50"/>
       <c r="L375" s="5"/>
       <c r="M375" s="5"/>
       <c r="N375" s="5"/>
@@ -13726,7 +13723,7 @@
       <c r="Y375" s="5"/>
     </row>
     <row r="376" spans="1:25">
-      <c r="A376" s="50"/>
+      <c r="A376" s="49"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
@@ -13735,7 +13732,7 @@
       <c r="G376" s="3"/>
       <c r="H376" s="3"/>
       <c r="J376" s="5"/>
-      <c r="K376" s="51"/>
+      <c r="K376" s="50"/>
       <c r="L376" s="5"/>
       <c r="M376" s="5"/>
       <c r="N376" s="5"/>
@@ -13748,7 +13745,7 @@
       <c r="Y376" s="5"/>
     </row>
     <row r="377" spans="1:25">
-      <c r="A377" s="50"/>
+      <c r="A377" s="49"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
@@ -13757,7 +13754,7 @@
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
       <c r="J377" s="5"/>
-      <c r="K377" s="51"/>
+      <c r="K377" s="50"/>
       <c r="L377" s="5"/>
       <c r="M377" s="5"/>
       <c r="N377" s="5"/>
@@ -13770,7 +13767,7 @@
       <c r="Y377" s="5"/>
     </row>
     <row r="378" spans="1:25">
-      <c r="A378" s="50"/>
+      <c r="A378" s="49"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
@@ -13779,7 +13776,7 @@
       <c r="G378" s="3"/>
       <c r="H378" s="3"/>
       <c r="J378" s="5"/>
-      <c r="K378" s="51"/>
+      <c r="K378" s="50"/>
       <c r="L378" s="5"/>
       <c r="M378" s="5"/>
       <c r="N378" s="5"/>
@@ -13792,7 +13789,7 @@
       <c r="Y378" s="5"/>
     </row>
     <row r="379" spans="1:25">
-      <c r="A379" s="50"/>
+      <c r="A379" s="49"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
@@ -13801,7 +13798,7 @@
       <c r="G379" s="3"/>
       <c r="H379" s="3"/>
       <c r="J379" s="5"/>
-      <c r="K379" s="51"/>
+      <c r="K379" s="50"/>
       <c r="L379" s="5"/>
       <c r="M379" s="5"/>
       <c r="N379" s="5"/>
@@ -13814,7 +13811,7 @@
       <c r="Y379" s="5"/>
     </row>
     <row r="380" spans="1:25">
-      <c r="A380" s="50"/>
+      <c r="A380" s="49"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
@@ -13823,7 +13820,7 @@
       <c r="G380" s="3"/>
       <c r="H380" s="3"/>
       <c r="J380" s="5"/>
-      <c r="K380" s="51"/>
+      <c r="K380" s="50"/>
       <c r="L380" s="5"/>
       <c r="M380" s="5"/>
       <c r="N380" s="5"/>
@@ -13836,7 +13833,7 @@
       <c r="Y380" s="5"/>
     </row>
     <row r="381" spans="1:25">
-      <c r="A381" s="50"/>
+      <c r="A381" s="49"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
@@ -13845,7 +13842,7 @@
       <c r="G381" s="3"/>
       <c r="H381" s="3"/>
       <c r="J381" s="5"/>
-      <c r="K381" s="51"/>
+      <c r="K381" s="50"/>
       <c r="L381" s="5"/>
       <c r="M381" s="5"/>
       <c r="N381" s="5"/>
@@ -13858,7 +13855,7 @@
       <c r="Y381" s="5"/>
     </row>
     <row r="382" spans="1:25">
-      <c r="A382" s="50"/>
+      <c r="A382" s="49"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
@@ -13867,7 +13864,7 @@
       <c r="G382" s="3"/>
       <c r="H382" s="3"/>
       <c r="J382" s="5"/>
-      <c r="K382" s="51"/>
+      <c r="K382" s="50"/>
       <c r="L382" s="5"/>
       <c r="M382" s="5"/>
       <c r="N382" s="5"/>
@@ -13880,7 +13877,7 @@
       <c r="Y382" s="5"/>
     </row>
     <row r="383" spans="1:25">
-      <c r="A383" s="50"/>
+      <c r="A383" s="49"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
@@ -13889,7 +13886,7 @@
       <c r="G383" s="3"/>
       <c r="H383" s="3"/>
       <c r="J383" s="5"/>
-      <c r="K383" s="51"/>
+      <c r="K383" s="50"/>
       <c r="L383" s="5"/>
       <c r="M383" s="5"/>
       <c r="N383" s="5"/>
@@ -13902,7 +13899,7 @@
       <c r="Y383" s="5"/>
     </row>
     <row r="384" spans="1:25">
-      <c r="A384" s="50"/>
+      <c r="A384" s="49"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
@@ -13911,7 +13908,7 @@
       <c r="G384" s="3"/>
       <c r="H384" s="3"/>
       <c r="J384" s="5"/>
-      <c r="K384" s="51"/>
+      <c r="K384" s="50"/>
       <c r="L384" s="5"/>
       <c r="M384" s="5"/>
       <c r="N384" s="5"/>
@@ -13924,7 +13921,7 @@
       <c r="Y384" s="5"/>
     </row>
     <row r="385" spans="1:25">
-      <c r="A385" s="50"/>
+      <c r="A385" s="49"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
@@ -13933,7 +13930,7 @@
       <c r="G385" s="3"/>
       <c r="H385" s="3"/>
       <c r="J385" s="5"/>
-      <c r="K385" s="51"/>
+      <c r="K385" s="50"/>
       <c r="L385" s="5"/>
       <c r="M385" s="5"/>
       <c r="N385" s="5"/>
@@ -13946,7 +13943,7 @@
       <c r="Y385" s="5"/>
     </row>
     <row r="386" spans="1:25">
-      <c r="A386" s="50"/>
+      <c r="A386" s="49"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
@@ -13955,7 +13952,7 @@
       <c r="G386" s="3"/>
       <c r="H386" s="3"/>
       <c r="J386" s="5"/>
-      <c r="K386" s="51"/>
+      <c r="K386" s="50"/>
       <c r="L386" s="5"/>
       <c r="M386" s="5"/>
       <c r="N386" s="5"/>
@@ -13968,7 +13965,7 @@
       <c r="Y386" s="5"/>
     </row>
     <row r="387" spans="1:25">
-      <c r="A387" s="50"/>
+      <c r="A387" s="49"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
@@ -13977,7 +13974,7 @@
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
       <c r="J387" s="5"/>
-      <c r="K387" s="51"/>
+      <c r="K387" s="50"/>
       <c r="L387" s="5"/>
       <c r="M387" s="5"/>
       <c r="N387" s="5"/>
@@ -13990,7 +13987,7 @@
       <c r="Y387" s="5"/>
     </row>
     <row r="388" spans="1:25">
-      <c r="A388" s="50"/>
+      <c r="A388" s="49"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
@@ -13999,7 +13996,7 @@
       <c r="G388" s="3"/>
       <c r="H388" s="3"/>
       <c r="J388" s="5"/>
-      <c r="K388" s="51"/>
+      <c r="K388" s="50"/>
       <c r="L388" s="5"/>
       <c r="M388" s="5"/>
       <c r="N388" s="5"/>
@@ -14012,7 +14009,7 @@
       <c r="Y388" s="5"/>
     </row>
     <row r="389" spans="1:25">
-      <c r="A389" s="50"/>
+      <c r="A389" s="49"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
@@ -14021,7 +14018,7 @@
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
       <c r="J389" s="5"/>
-      <c r="K389" s="51"/>
+      <c r="K389" s="50"/>
       <c r="L389" s="5"/>
       <c r="M389" s="5"/>
       <c r="N389" s="5"/>
@@ -14034,7 +14031,7 @@
       <c r="Y389" s="5"/>
     </row>
     <row r="390" spans="1:25">
-      <c r="A390" s="50"/>
+      <c r="A390" s="49"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
@@ -14043,7 +14040,7 @@
       <c r="G390" s="3"/>
       <c r="H390" s="3"/>
       <c r="J390" s="5"/>
-      <c r="K390" s="51"/>
+      <c r="K390" s="50"/>
       <c r="L390" s="5"/>
       <c r="M390" s="5"/>
       <c r="N390" s="5"/>
@@ -14056,7 +14053,7 @@
       <c r="Y390" s="5"/>
     </row>
     <row r="391" spans="1:25">
-      <c r="A391" s="50"/>
+      <c r="A391" s="49"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
@@ -14065,7 +14062,7 @@
       <c r="G391" s="3"/>
       <c r="H391" s="3"/>
       <c r="J391" s="5"/>
-      <c r="K391" s="51"/>
+      <c r="K391" s="50"/>
       <c r="L391" s="5"/>
       <c r="M391" s="5"/>
       <c r="N391" s="5"/>
@@ -14078,7 +14075,7 @@
       <c r="Y391" s="5"/>
     </row>
     <row r="392" spans="1:25">
-      <c r="A392" s="50"/>
+      <c r="A392" s="49"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
@@ -14087,7 +14084,7 @@
       <c r="G392" s="3"/>
       <c r="H392" s="3"/>
       <c r="J392" s="5"/>
-      <c r="K392" s="51"/>
+      <c r="K392" s="50"/>
       <c r="L392" s="5"/>
       <c r="M392" s="5"/>
       <c r="N392" s="5"/>
@@ -14100,7 +14097,7 @@
       <c r="Y392" s="5"/>
     </row>
     <row r="393" spans="1:25">
-      <c r="A393" s="50"/>
+      <c r="A393" s="49"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
@@ -14109,7 +14106,7 @@
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
       <c r="J393" s="5"/>
-      <c r="K393" s="51"/>
+      <c r="K393" s="50"/>
       <c r="L393" s="5"/>
       <c r="M393" s="5"/>
       <c r="N393" s="5"/>
@@ -14122,7 +14119,7 @@
       <c r="Y393" s="5"/>
     </row>
     <row r="394" spans="1:25">
-      <c r="A394" s="50"/>
+      <c r="A394" s="49"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
@@ -14131,7 +14128,7 @@
       <c r="G394" s="3"/>
       <c r="H394" s="3"/>
       <c r="J394" s="5"/>
-      <c r="K394" s="51"/>
+      <c r="K394" s="50"/>
       <c r="L394" s="5"/>
       <c r="M394" s="5"/>
       <c r="N394" s="5"/>
@@ -14144,7 +14141,7 @@
       <c r="Y394" s="5"/>
     </row>
     <row r="395" spans="1:25">
-      <c r="A395" s="50"/>
+      <c r="A395" s="49"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
@@ -14153,7 +14150,7 @@
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
       <c r="J395" s="5"/>
-      <c r="K395" s="51"/>
+      <c r="K395" s="50"/>
       <c r="L395" s="5"/>
       <c r="M395" s="5"/>
       <c r="N395" s="5"/>
@@ -14166,7 +14163,7 @@
       <c r="Y395" s="5"/>
     </row>
     <row r="396" spans="1:25">
-      <c r="A396" s="50"/>
+      <c r="A396" s="49"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
@@ -14175,7 +14172,7 @@
       <c r="G396" s="3"/>
       <c r="H396" s="3"/>
       <c r="J396" s="5"/>
-      <c r="K396" s="51"/>
+      <c r="K396" s="50"/>
       <c r="L396" s="5"/>
       <c r="M396" s="5"/>
       <c r="N396" s="5"/>
@@ -14188,7 +14185,7 @@
       <c r="Y396" s="5"/>
     </row>
     <row r="397" spans="1:25">
-      <c r="A397" s="50"/>
+      <c r="A397" s="49"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
@@ -14197,7 +14194,7 @@
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
       <c r="J397" s="5"/>
-      <c r="K397" s="51"/>
+      <c r="K397" s="50"/>
       <c r="L397" s="5"/>
       <c r="M397" s="5"/>
       <c r="N397" s="5"/>
@@ -14210,7 +14207,7 @@
       <c r="Y397" s="5"/>
     </row>
     <row r="398" spans="1:25">
-      <c r="A398" s="50"/>
+      <c r="A398" s="49"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
@@ -14219,7 +14216,7 @@
       <c r="G398" s="3"/>
       <c r="H398" s="3"/>
       <c r="J398" s="5"/>
-      <c r="K398" s="51"/>
+      <c r="K398" s="50"/>
       <c r="L398" s="5"/>
       <c r="M398" s="5"/>
       <c r="N398" s="5"/>
@@ -14232,7 +14229,7 @@
       <c r="Y398" s="5"/>
     </row>
     <row r="399" spans="1:25">
-      <c r="A399" s="50"/>
+      <c r="A399" s="49"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
@@ -14241,7 +14238,7 @@
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
       <c r="J399" s="5"/>
-      <c r="K399" s="51"/>
+      <c r="K399" s="50"/>
       <c r="L399" s="5"/>
       <c r="M399" s="5"/>
       <c r="N399" s="5"/>
@@ -14254,7 +14251,7 @@
       <c r="Y399" s="5"/>
     </row>
     <row r="400" spans="1:25">
-      <c r="A400" s="50"/>
+      <c r="A400" s="49"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
@@ -14263,7 +14260,7 @@
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
       <c r="J400" s="5"/>
-      <c r="K400" s="51"/>
+      <c r="K400" s="50"/>
       <c r="L400" s="5"/>
       <c r="M400" s="5"/>
       <c r="N400" s="5"/>
@@ -14276,7 +14273,7 @@
       <c r="Y400" s="5"/>
     </row>
     <row r="401" spans="1:25">
-      <c r="A401" s="50"/>
+      <c r="A401" s="49"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
@@ -14285,7 +14282,7 @@
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
       <c r="J401" s="5"/>
-      <c r="K401" s="51"/>
+      <c r="K401" s="50"/>
       <c r="L401" s="5"/>
       <c r="M401" s="5"/>
       <c r="N401" s="5"/>
@@ -14298,7 +14295,7 @@
       <c r="Y401" s="5"/>
     </row>
     <row r="402" spans="1:25">
-      <c r="A402" s="50"/>
+      <c r="A402" s="49"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
@@ -14307,7 +14304,7 @@
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
       <c r="J402" s="5"/>
-      <c r="K402" s="51"/>
+      <c r="K402" s="50"/>
       <c r="L402" s="5"/>
       <c r="M402" s="5"/>
       <c r="N402" s="5"/>
@@ -14320,7 +14317,7 @@
       <c r="Y402" s="5"/>
     </row>
     <row r="403" spans="1:25">
-      <c r="A403" s="50"/>
+      <c r="A403" s="49"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
@@ -14329,7 +14326,7 @@
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
       <c r="J403" s="5"/>
-      <c r="K403" s="51"/>
+      <c r="K403" s="50"/>
       <c r="L403" s="5"/>
       <c r="M403" s="5"/>
       <c r="N403" s="5"/>
@@ -14342,7 +14339,7 @@
       <c r="Y403" s="5"/>
     </row>
     <row r="404" spans="1:25">
-      <c r="A404" s="50"/>
+      <c r="A404" s="49"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
@@ -14351,7 +14348,7 @@
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
       <c r="J404" s="5"/>
-      <c r="K404" s="51"/>
+      <c r="K404" s="50"/>
       <c r="L404" s="5"/>
       <c r="M404" s="5"/>
       <c r="N404" s="5"/>
@@ -14364,7 +14361,7 @@
       <c r="Y404" s="5"/>
     </row>
     <row r="405" spans="1:25">
-      <c r="A405" s="50"/>
+      <c r="A405" s="49"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
@@ -14373,7 +14370,7 @@
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
       <c r="J405" s="5"/>
-      <c r="K405" s="51"/>
+      <c r="K405" s="50"/>
       <c r="L405" s="5"/>
       <c r="M405" s="5"/>
       <c r="N405" s="5"/>
@@ -14386,7 +14383,7 @@
       <c r="Y405" s="5"/>
     </row>
     <row r="406" spans="1:25">
-      <c r="A406" s="50"/>
+      <c r="A406" s="49"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
@@ -14395,7 +14392,7 @@
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
       <c r="J406" s="5"/>
-      <c r="K406" s="51"/>
+      <c r="K406" s="50"/>
       <c r="L406" s="5"/>
       <c r="M406" s="5"/>
       <c r="N406" s="5"/>
@@ -14408,7 +14405,7 @@
       <c r="Y406" s="5"/>
     </row>
     <row r="407" spans="1:25">
-      <c r="A407" s="50"/>
+      <c r="A407" s="49"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
@@ -14417,7 +14414,7 @@
       <c r="G407" s="3"/>
       <c r="H407" s="3"/>
       <c r="J407" s="5"/>
-      <c r="K407" s="51"/>
+      <c r="K407" s="50"/>
       <c r="L407" s="5"/>
       <c r="M407" s="5"/>
       <c r="N407" s="5"/>
@@ -14430,7 +14427,7 @@
       <c r="Y407" s="5"/>
     </row>
     <row r="408" spans="1:25">
-      <c r="A408" s="50"/>
+      <c r="A408" s="49"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
@@ -14439,7 +14436,7 @@
       <c r="G408" s="3"/>
       <c r="H408" s="3"/>
       <c r="J408" s="5"/>
-      <c r="K408" s="51"/>
+      <c r="K408" s="50"/>
       <c r="L408" s="5"/>
       <c r="M408" s="5"/>
       <c r="N408" s="5"/>
@@ -14452,7 +14449,7 @@
       <c r="Y408" s="5"/>
     </row>
     <row r="409" spans="1:25">
-      <c r="A409" s="50"/>
+      <c r="A409" s="49"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
@@ -14461,7 +14458,7 @@
       <c r="G409" s="3"/>
       <c r="H409" s="3"/>
       <c r="J409" s="5"/>
-      <c r="K409" s="51"/>
+      <c r="K409" s="50"/>
       <c r="L409" s="5"/>
       <c r="M409" s="5"/>
       <c r="N409" s="5"/>
@@ -14474,7 +14471,7 @@
       <c r="Y409" s="5"/>
     </row>
     <row r="410" spans="1:25">
-      <c r="A410" s="50"/>
+      <c r="A410" s="49"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
@@ -14483,7 +14480,7 @@
       <c r="G410" s="3"/>
       <c r="H410" s="3"/>
       <c r="J410" s="5"/>
-      <c r="K410" s="51"/>
+      <c r="K410" s="50"/>
       <c r="L410" s="5"/>
       <c r="M410" s="5"/>
       <c r="N410" s="5"/>
@@ -14496,7 +14493,7 @@
       <c r="Y410" s="5"/>
     </row>
     <row r="411" spans="1:25">
-      <c r="A411" s="50"/>
+      <c r="A411" s="49"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
@@ -14505,7 +14502,7 @@
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
       <c r="J411" s="5"/>
-      <c r="K411" s="51"/>
+      <c r="K411" s="50"/>
       <c r="L411" s="5"/>
       <c r="M411" s="5"/>
       <c r="N411" s="5"/>
@@ -14518,7 +14515,7 @@
       <c r="Y411" s="5"/>
     </row>
     <row r="412" spans="1:25">
-      <c r="A412" s="50"/>
+      <c r="A412" s="49"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
@@ -14527,7 +14524,7 @@
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
       <c r="J412" s="5"/>
-      <c r="K412" s="51"/>
+      <c r="K412" s="50"/>
       <c r="L412" s="5"/>
       <c r="M412" s="5"/>
       <c r="N412" s="5"/>
@@ -14540,7 +14537,7 @@
       <c r="Y412" s="5"/>
     </row>
     <row r="413" spans="1:25">
-      <c r="A413" s="50"/>
+      <c r="A413" s="49"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
@@ -14549,7 +14546,7 @@
       <c r="G413" s="3"/>
       <c r="H413" s="3"/>
       <c r="J413" s="5"/>
-      <c r="K413" s="51"/>
+      <c r="K413" s="50"/>
       <c r="L413" s="5"/>
       <c r="M413" s="5"/>
       <c r="N413" s="5"/>
@@ -14562,7 +14559,7 @@
       <c r="Y413" s="5"/>
     </row>
     <row r="414" spans="1:25">
-      <c r="A414" s="50"/>
+      <c r="A414" s="49"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
@@ -14571,7 +14568,7 @@
       <c r="G414" s="3"/>
       <c r="H414" s="3"/>
       <c r="J414" s="5"/>
-      <c r="K414" s="51"/>
+      <c r="K414" s="50"/>
       <c r="L414" s="5"/>
       <c r="M414" s="5"/>
       <c r="N414" s="5"/>
@@ -14584,7 +14581,7 @@
       <c r="Y414" s="5"/>
     </row>
     <row r="415" spans="1:25">
-      <c r="A415" s="50"/>
+      <c r="A415" s="49"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
@@ -14593,7 +14590,7 @@
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
       <c r="J415" s="5"/>
-      <c r="K415" s="51"/>
+      <c r="K415" s="50"/>
       <c r="L415" s="5"/>
       <c r="M415" s="5"/>
       <c r="N415" s="5"/>
@@ -14606,7 +14603,7 @@
       <c r="Y415" s="5"/>
     </row>
     <row r="416" spans="1:25">
-      <c r="A416" s="50"/>
+      <c r="A416" s="49"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
@@ -14615,7 +14612,7 @@
       <c r="G416" s="3"/>
       <c r="H416" s="3"/>
       <c r="J416" s="5"/>
-      <c r="K416" s="51"/>
+      <c r="K416" s="50"/>
       <c r="L416" s="5"/>
       <c r="M416" s="5"/>
       <c r="N416" s="5"/>
@@ -14628,7 +14625,7 @@
       <c r="Y416" s="5"/>
     </row>
     <row r="417" spans="1:25">
-      <c r="A417" s="50"/>
+      <c r="A417" s="49"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
@@ -14637,7 +14634,7 @@
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
       <c r="J417" s="5"/>
-      <c r="K417" s="51"/>
+      <c r="K417" s="50"/>
       <c r="L417" s="5"/>
       <c r="M417" s="5"/>
       <c r="N417" s="5"/>
@@ -14650,7 +14647,7 @@
       <c r="Y417" s="5"/>
     </row>
     <row r="418" spans="1:25">
-      <c r="A418" s="50"/>
+      <c r="A418" s="49"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
@@ -14659,7 +14656,7 @@
       <c r="G418" s="3"/>
       <c r="H418" s="3"/>
       <c r="J418" s="5"/>
-      <c r="K418" s="51"/>
+      <c r="K418" s="50"/>
       <c r="L418" s="5"/>
       <c r="M418" s="5"/>
       <c r="N418" s="5"/>
@@ -14672,7 +14669,7 @@
       <c r="Y418" s="5"/>
     </row>
     <row r="419" spans="1:25">
-      <c r="A419" s="50"/>
+      <c r="A419" s="49"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
@@ -14681,7 +14678,7 @@
       <c r="G419" s="3"/>
       <c r="H419" s="3"/>
       <c r="J419" s="5"/>
-      <c r="K419" s="51"/>
+      <c r="K419" s="50"/>
       <c r="L419" s="5"/>
       <c r="M419" s="5"/>
       <c r="N419" s="5"/>
@@ -14694,7 +14691,7 @@
       <c r="Y419" s="5"/>
     </row>
     <row r="420" spans="1:25">
-      <c r="A420" s="50"/>
+      <c r="A420" s="49"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
@@ -14703,7 +14700,7 @@
       <c r="G420" s="3"/>
       <c r="H420" s="3"/>
       <c r="J420" s="5"/>
-      <c r="K420" s="51"/>
+      <c r="K420" s="50"/>
       <c r="L420" s="5"/>
       <c r="M420" s="5"/>
       <c r="N420" s="5"/>
@@ -14716,7 +14713,7 @@
       <c r="Y420" s="5"/>
     </row>
     <row r="421" spans="1:25">
-      <c r="A421" s="50"/>
+      <c r="A421" s="49"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
@@ -14725,7 +14722,7 @@
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
       <c r="J421" s="5"/>
-      <c r="K421" s="51"/>
+      <c r="K421" s="50"/>
       <c r="L421" s="5"/>
       <c r="M421" s="5"/>
       <c r="N421" s="5"/>
@@ -14738,7 +14735,7 @@
       <c r="Y421" s="5"/>
     </row>
     <row r="422" spans="1:25">
-      <c r="A422" s="50"/>
+      <c r="A422" s="49"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
@@ -14747,7 +14744,7 @@
       <c r="G422" s="3"/>
       <c r="H422" s="3"/>
       <c r="J422" s="5"/>
-      <c r="K422" s="51"/>
+      <c r="K422" s="50"/>
       <c r="L422" s="5"/>
       <c r="M422" s="5"/>
       <c r="N422" s="5"/>
@@ -14760,7 +14757,7 @@
       <c r="Y422" s="5"/>
     </row>
     <row r="423" spans="1:25">
-      <c r="A423" s="50"/>
+      <c r="A423" s="49"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
@@ -14769,7 +14766,7 @@
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
       <c r="J423" s="5"/>
-      <c r="K423" s="51"/>
+      <c r="K423" s="50"/>
       <c r="L423" s="5"/>
       <c r="M423" s="5"/>
       <c r="N423" s="5"/>
@@ -14782,7 +14779,7 @@
       <c r="Y423" s="5"/>
     </row>
     <row r="424" spans="1:25">
-      <c r="A424" s="50"/>
+      <c r="A424" s="49"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
@@ -14791,7 +14788,7 @@
       <c r="G424" s="3"/>
       <c r="H424" s="3"/>
       <c r="J424" s="5"/>
-      <c r="K424" s="51"/>
+      <c r="K424" s="50"/>
       <c r="L424" s="5"/>
       <c r="M424" s="5"/>
       <c r="N424" s="5"/>
@@ -14804,7 +14801,7 @@
       <c r="Y424" s="5"/>
     </row>
     <row r="425" spans="1:25">
-      <c r="A425" s="50"/>
+      <c r="A425" s="49"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
@@ -14813,7 +14810,7 @@
       <c r="G425" s="3"/>
       <c r="H425" s="3"/>
       <c r="J425" s="5"/>
-      <c r="K425" s="51"/>
+      <c r="K425" s="50"/>
       <c r="L425" s="5"/>
       <c r="M425" s="5"/>
       <c r="N425" s="5"/>
@@ -14826,7 +14823,7 @@
       <c r="Y425" s="5"/>
     </row>
     <row r="426" spans="1:25">
-      <c r="A426" s="50"/>
+      <c r="A426" s="49"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
@@ -14835,7 +14832,7 @@
       <c r="G426" s="3"/>
       <c r="H426" s="3"/>
       <c r="J426" s="5"/>
-      <c r="K426" s="51"/>
+      <c r="K426" s="50"/>
       <c r="L426" s="5"/>
       <c r="M426" s="5"/>
       <c r="N426" s="5"/>
@@ -14848,7 +14845,7 @@
       <c r="Y426" s="5"/>
     </row>
     <row r="427" spans="1:25">
-      <c r="A427" s="50"/>
+      <c r="A427" s="49"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
@@ -14857,7 +14854,7 @@
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
       <c r="J427" s="5"/>
-      <c r="K427" s="51"/>
+      <c r="K427" s="50"/>
       <c r="L427" s="5"/>
       <c r="M427" s="5"/>
       <c r="N427" s="5"/>
@@ -14870,7 +14867,7 @@
       <c r="Y427" s="5"/>
     </row>
     <row r="428" spans="1:25">
-      <c r="A428" s="50"/>
+      <c r="A428" s="49"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
@@ -14879,7 +14876,7 @@
       <c r="G428" s="3"/>
       <c r="H428" s="3"/>
       <c r="J428" s="5"/>
-      <c r="K428" s="51"/>
+      <c r="K428" s="50"/>
       <c r="L428" s="5"/>
       <c r="M428" s="5"/>
       <c r="N428" s="5"/>
@@ -14892,7 +14889,7 @@
       <c r="Y428" s="5"/>
     </row>
     <row r="429" spans="1:25">
-      <c r="A429" s="50"/>
+      <c r="A429" s="49"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
@@ -14901,7 +14898,7 @@
       <c r="G429" s="3"/>
       <c r="H429" s="3"/>
       <c r="J429" s="5"/>
-      <c r="K429" s="51"/>
+      <c r="K429" s="50"/>
       <c r="L429" s="5"/>
       <c r="M429" s="5"/>
       <c r="N429" s="5"/>
@@ -14914,7 +14911,7 @@
       <c r="Y429" s="5"/>
     </row>
     <row r="430" spans="1:25">
-      <c r="A430" s="50"/>
+      <c r="A430" s="49"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
@@ -14923,7 +14920,7 @@
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
       <c r="J430" s="5"/>
-      <c r="K430" s="51"/>
+      <c r="K430" s="50"/>
       <c r="L430" s="5"/>
       <c r="M430" s="5"/>
       <c r="N430" s="5"/>
@@ -14936,7 +14933,7 @@
       <c r="Y430" s="5"/>
     </row>
     <row r="431" spans="1:25">
-      <c r="A431" s="50"/>
+      <c r="A431" s="49"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
@@ -14945,7 +14942,7 @@
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
       <c r="J431" s="5"/>
-      <c r="K431" s="51"/>
+      <c r="K431" s="50"/>
       <c r="L431" s="5"/>
       <c r="M431" s="5"/>
       <c r="N431" s="5"/>
@@ -14958,7 +14955,7 @@
       <c r="Y431" s="5"/>
     </row>
     <row r="432" spans="1:25">
-      <c r="A432" s="50"/>
+      <c r="A432" s="49"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
@@ -14967,7 +14964,7 @@
       <c r="G432" s="3"/>
       <c r="H432" s="3"/>
       <c r="J432" s="5"/>
-      <c r="K432" s="51"/>
+      <c r="K432" s="50"/>
       <c r="L432" s="5"/>
       <c r="M432" s="5"/>
       <c r="N432" s="5"/>
@@ -14980,7 +14977,7 @@
       <c r="Y432" s="5"/>
     </row>
     <row r="433" spans="1:25">
-      <c r="A433" s="50"/>
+      <c r="A433" s="49"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
@@ -14989,7 +14986,7 @@
       <c r="G433" s="3"/>
       <c r="H433" s="3"/>
       <c r="J433" s="5"/>
-      <c r="K433" s="51"/>
+      <c r="K433" s="50"/>
       <c r="L433" s="5"/>
       <c r="M433" s="5"/>
       <c r="N433" s="5"/>
@@ -15002,7 +14999,7 @@
       <c r="Y433" s="5"/>
     </row>
     <row r="434" spans="1:25">
-      <c r="A434" s="50"/>
+      <c r="A434" s="49"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
@@ -15011,7 +15008,7 @@
       <c r="G434" s="3"/>
       <c r="H434" s="3"/>
       <c r="J434" s="5"/>
-      <c r="K434" s="51"/>
+      <c r="K434" s="50"/>
       <c r="L434" s="5"/>
       <c r="M434" s="5"/>
       <c r="N434" s="5"/>
@@ -15024,7 +15021,7 @@
       <c r="Y434" s="5"/>
     </row>
     <row r="435" spans="1:25">
-      <c r="A435" s="50"/>
+      <c r="A435" s="49"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
@@ -15033,7 +15030,7 @@
       <c r="G435" s="3"/>
       <c r="H435" s="3"/>
       <c r="J435" s="5"/>
-      <c r="K435" s="51"/>
+      <c r="K435" s="50"/>
       <c r="L435" s="5"/>
       <c r="M435" s="5"/>
       <c r="N435" s="5"/>
@@ -15046,7 +15043,7 @@
       <c r="Y435" s="5"/>
     </row>
     <row r="436" spans="1:25">
-      <c r="A436" s="50"/>
+      <c r="A436" s="49"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
@@ -15055,7 +15052,7 @@
       <c r="G436" s="3"/>
       <c r="H436" s="3"/>
       <c r="J436" s="5"/>
-      <c r="K436" s="51"/>
+      <c r="K436" s="50"/>
       <c r="L436" s="5"/>
       <c r="M436" s="5"/>
       <c r="N436" s="5"/>
@@ -15068,7 +15065,7 @@
       <c r="Y436" s="5"/>
     </row>
     <row r="437" spans="1:25">
-      <c r="A437" s="50"/>
+      <c r="A437" s="49"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
@@ -15077,7 +15074,7 @@
       <c r="G437" s="3"/>
       <c r="H437" s="3"/>
       <c r="J437" s="5"/>
-      <c r="K437" s="51"/>
+      <c r="K437" s="50"/>
       <c r="L437" s="5"/>
       <c r="M437" s="5"/>
       <c r="N437" s="5"/>
@@ -15090,7 +15087,7 @@
       <c r="Y437" s="5"/>
     </row>
     <row r="438" spans="1:25">
-      <c r="A438" s="50"/>
+      <c r="A438" s="49"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
@@ -15099,7 +15096,7 @@
       <c r="G438" s="3"/>
       <c r="H438" s="3"/>
       <c r="J438" s="5"/>
-      <c r="K438" s="51"/>
+      <c r="K438" s="50"/>
       <c r="L438" s="5"/>
       <c r="M438" s="5"/>
       <c r="N438" s="5"/>
@@ -15112,7 +15109,7 @@
       <c r="Y438" s="5"/>
     </row>
     <row r="439" spans="1:25">
-      <c r="A439" s="50"/>
+      <c r="A439" s="49"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
@@ -15121,7 +15118,7 @@
       <c r="G439" s="3"/>
       <c r="H439" s="3"/>
       <c r="J439" s="5"/>
-      <c r="K439" s="51"/>
+      <c r="K439" s="50"/>
       <c r="L439" s="5"/>
       <c r="M439" s="5"/>
       <c r="N439" s="5"/>
@@ -15134,7 +15131,7 @@
       <c r="Y439" s="5"/>
     </row>
     <row r="440" spans="1:25">
-      <c r="A440" s="50"/>
+      <c r="A440" s="49"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
@@ -15143,7 +15140,7 @@
       <c r="G440" s="3"/>
       <c r="H440" s="3"/>
       <c r="J440" s="5"/>
-      <c r="K440" s="51"/>
+      <c r="K440" s="50"/>
       <c r="L440" s="5"/>
       <c r="M440" s="5"/>
       <c r="N440" s="5"/>
@@ -15156,7 +15153,7 @@
       <c r="Y440" s="5"/>
     </row>
     <row r="441" spans="1:25">
-      <c r="A441" s="50"/>
+      <c r="A441" s="49"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
@@ -15165,7 +15162,7 @@
       <c r="G441" s="3"/>
       <c r="H441" s="3"/>
       <c r="J441" s="5"/>
-      <c r="K441" s="51"/>
+      <c r="K441" s="50"/>
       <c r="L441" s="5"/>
       <c r="M441" s="5"/>
       <c r="N441" s="5"/>
@@ -15178,7 +15175,7 @@
       <c r="Y441" s="5"/>
     </row>
     <row r="442" spans="1:25">
-      <c r="A442" s="50"/>
+      <c r="A442" s="49"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
@@ -15187,7 +15184,7 @@
       <c r="G442" s="3"/>
       <c r="H442" s="3"/>
       <c r="J442" s="5"/>
-      <c r="K442" s="51"/>
+      <c r="K442" s="50"/>
       <c r="L442" s="5"/>
       <c r="M442" s="5"/>
       <c r="N442" s="5"/>
@@ -15200,7 +15197,7 @@
       <c r="Y442" s="5"/>
     </row>
     <row r="443" spans="1:25">
-      <c r="A443" s="50"/>
+      <c r="A443" s="49"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
@@ -15209,7 +15206,7 @@
       <c r="G443" s="3"/>
       <c r="H443" s="3"/>
       <c r="J443" s="5"/>
-      <c r="K443" s="51"/>
+      <c r="K443" s="50"/>
       <c r="L443" s="5"/>
       <c r="M443" s="5"/>
       <c r="N443" s="5"/>
@@ -15222,7 +15219,7 @@
       <c r="Y443" s="5"/>
     </row>
     <row r="444" spans="1:25">
-      <c r="A444" s="50"/>
+      <c r="A444" s="49"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
@@ -15231,7 +15228,7 @@
       <c r="G444" s="3"/>
       <c r="H444" s="3"/>
       <c r="J444" s="5"/>
-      <c r="K444" s="51"/>
+      <c r="K444" s="50"/>
       <c r="L444" s="5"/>
       <c r="M444" s="5"/>
       <c r="N444" s="5"/>
@@ -15244,7 +15241,7 @@
       <c r="Y444" s="5"/>
     </row>
     <row r="445" spans="1:25">
-      <c r="A445" s="50"/>
+      <c r="A445" s="49"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
@@ -15253,7 +15250,7 @@
       <c r="G445" s="3"/>
       <c r="H445" s="3"/>
       <c r="J445" s="5"/>
-      <c r="K445" s="51"/>
+      <c r="K445" s="50"/>
       <c r="L445" s="5"/>
       <c r="M445" s="5"/>
       <c r="N445" s="5"/>
@@ -15266,7 +15263,7 @@
       <c r="Y445" s="5"/>
     </row>
     <row r="446" spans="1:25">
-      <c r="A446" s="50"/>
+      <c r="A446" s="49"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
@@ -15275,7 +15272,7 @@
       <c r="G446" s="3"/>
       <c r="H446" s="3"/>
       <c r="J446" s="5"/>
-      <c r="K446" s="51"/>
+      <c r="K446" s="50"/>
       <c r="L446" s="5"/>
       <c r="M446" s="5"/>
       <c r="N446" s="5"/>
@@ -15288,7 +15285,7 @@
       <c r="Y446" s="5"/>
     </row>
     <row r="447" spans="1:25">
-      <c r="A447" s="50"/>
+      <c r="A447" s="49"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
@@ -15297,7 +15294,7 @@
       <c r="G447" s="3"/>
       <c r="H447" s="3"/>
       <c r="J447" s="5"/>
-      <c r="K447" s="51"/>
+      <c r="K447" s="50"/>
       <c r="L447" s="5"/>
       <c r="M447" s="5"/>
       <c r="N447" s="5"/>
@@ -15310,7 +15307,7 @@
       <c r="Y447" s="5"/>
     </row>
     <row r="448" spans="1:25">
-      <c r="A448" s="50"/>
+      <c r="A448" s="49"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
@@ -15319,7 +15316,7 @@
       <c r="G448" s="3"/>
       <c r="H448" s="3"/>
       <c r="J448" s="5"/>
-      <c r="K448" s="51"/>
+      <c r="K448" s="50"/>
       <c r="L448" s="5"/>
       <c r="M448" s="5"/>
       <c r="N448" s="5"/>
@@ -15332,7 +15329,7 @@
       <c r="Y448" s="5"/>
     </row>
     <row r="449" spans="1:25">
-      <c r="A449" s="50"/>
+      <c r="A449" s="49"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
@@ -15341,7 +15338,7 @@
       <c r="G449" s="3"/>
       <c r="H449" s="3"/>
       <c r="J449" s="5"/>
-      <c r="K449" s="51"/>
+      <c r="K449" s="50"/>
       <c r="L449" s="5"/>
       <c r="M449" s="5"/>
       <c r="N449" s="5"/>
@@ -15354,7 +15351,7 @@
       <c r="Y449" s="5"/>
     </row>
     <row r="450" spans="1:25">
-      <c r="A450" s="50"/>
+      <c r="A450" s="49"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
@@ -15363,7 +15360,7 @@
       <c r="G450" s="3"/>
       <c r="H450" s="3"/>
       <c r="J450" s="5"/>
-      <c r="K450" s="51"/>
+      <c r="K450" s="50"/>
       <c r="L450" s="5"/>
       <c r="M450" s="5"/>
       <c r="N450" s="5"/>
@@ -15376,7 +15373,7 @@
       <c r="Y450" s="5"/>
     </row>
     <row r="451" spans="1:25">
-      <c r="A451" s="50"/>
+      <c r="A451" s="49"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
@@ -15385,7 +15382,7 @@
       <c r="G451" s="3"/>
       <c r="H451" s="3"/>
       <c r="J451" s="5"/>
-      <c r="K451" s="51"/>
+      <c r="K451" s="50"/>
       <c r="L451" s="5"/>
       <c r="M451" s="5"/>
       <c r="N451" s="5"/>
@@ -15398,7 +15395,7 @@
       <c r="Y451" s="5"/>
     </row>
     <row r="452" spans="1:25">
-      <c r="A452" s="50"/>
+      <c r="A452" s="49"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
@@ -15407,7 +15404,7 @@
       <c r="G452" s="3"/>
       <c r="H452" s="3"/>
       <c r="J452" s="5"/>
-      <c r="K452" s="51"/>
+      <c r="K452" s="50"/>
       <c r="L452" s="5"/>
       <c r="M452" s="5"/>
       <c r="N452" s="5"/>
@@ -15420,7 +15417,7 @@
       <c r="Y452" s="5"/>
     </row>
     <row r="453" spans="1:25">
-      <c r="A453" s="50"/>
+      <c r="A453" s="49"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
@@ -15429,7 +15426,7 @@
       <c r="G453" s="3"/>
       <c r="H453" s="3"/>
       <c r="J453" s="5"/>
-      <c r="K453" s="51"/>
+      <c r="K453" s="50"/>
       <c r="L453" s="5"/>
       <c r="M453" s="5"/>
       <c r="N453" s="5"/>
@@ -15442,7 +15439,7 @@
       <c r="Y453" s="5"/>
     </row>
     <row r="454" spans="1:25">
-      <c r="A454" s="50"/>
+      <c r="A454" s="49"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
@@ -15451,7 +15448,7 @@
       <c r="G454" s="3"/>
       <c r="H454" s="3"/>
       <c r="J454" s="5"/>
-      <c r="K454" s="51"/>
+      <c r="K454" s="50"/>
       <c r="L454" s="5"/>
       <c r="M454" s="5"/>
       <c r="N454" s="5"/>
@@ -15464,7 +15461,7 @@
       <c r="Y454" s="5"/>
     </row>
     <row r="455" spans="1:25">
-      <c r="A455" s="50"/>
+      <c r="A455" s="49"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
@@ -15473,7 +15470,7 @@
       <c r="G455" s="3"/>
       <c r="H455" s="3"/>
       <c r="J455" s="5"/>
-      <c r="K455" s="51"/>
+      <c r="K455" s="50"/>
       <c r="L455" s="5"/>
       <c r="M455" s="5"/>
       <c r="N455" s="5"/>
@@ -15486,7 +15483,7 @@
       <c r="Y455" s="5"/>
     </row>
     <row r="456" spans="1:25">
-      <c r="A456" s="50"/>
+      <c r="A456" s="49"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
@@ -15495,7 +15492,7 @@
       <c r="G456" s="3"/>
       <c r="H456" s="3"/>
       <c r="J456" s="5"/>
-      <c r="K456" s="51"/>
+      <c r="K456" s="50"/>
       <c r="L456" s="5"/>
       <c r="M456" s="5"/>
       <c r="N456" s="5"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
@@ -3413,11 +3413,11 @@
   <dimension ref="A1:AN454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U9" sqref="U9"/>
+      <selection pane="bottomRight" activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3941,13 +3941,12 @@
         <v>是</v>
       </c>
       <c r="AJ7" s="45">
-        <f>IF(AND(H7-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE)&gt;0,H7&gt;H6),H7,AJ6)</f>
-        <v>73.28</v>
+        <v>77.77</v>
       </c>
       <c r="AK7" s="49"/>
       <c r="AL7" s="9">
         <f>($AJ7-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10006,7,FALSE)</f>
-        <v>-450</v>
+        <v>-1.00000000000051</v>
       </c>
       <c r="AM7" s="9"/>
       <c r="AN7" s="22" t="s">
@@ -4031,18 +4030,19 @@
         <v>是</v>
       </c>
       <c r="AJ8" s="45">
+        <f>IF(AND($H8-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE)&gt;0,$H8&gt;$H7),$H8,AJ7)</f>
         <v>77.77</v>
       </c>
       <c r="AK8" s="45">
         <v>83.92</v>
       </c>
       <c r="AL8" s="9">
-        <f>($AJ8-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*100</f>
-        <v>-1511</v>
+        <f>($AJ8-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10007,7,FALSE)</f>
+        <v>-1.00000000000051</v>
       </c>
       <c r="AM8" s="9">
-        <f>($AK8-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*100</f>
-        <v>-895.999999999999</v>
+        <f>($AK8-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*200</f>
+        <v>-1792</v>
       </c>
       <c r="AN8" s="22" t="s">
         <v>48</v>
@@ -4112,13 +4112,37 @@
       <c r="AD9" s="37"/>
       <c r="AE9" s="37"/>
       <c r="AF9" s="37"/>
-      <c r="AG9" s="46"/>
-      <c r="AH9" s="44"/>
-      <c r="AI9" s="46"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="49"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="37"/>
+      <c r="AG9" s="43">
+        <f>(B9-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)</f>
+        <v>0.197865775263564</v>
+      </c>
+      <c r="AH9" s="44">
+        <f>(B9-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
+        <v>0.00312230835486656</v>
+      </c>
+      <c r="AI9" s="25" t="str">
+        <f>IF(AG9-((VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)-73.28)/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))*2&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="AJ9" s="45">
+        <f>IF(AND($H9-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10006,6,FALSE)&gt;0,$H9&gt;$H8),$H9,AJ8)</f>
+        <v>77.77</v>
+      </c>
+      <c r="AK9" s="45">
+        <f>IF(AND($H9-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10006,6,FALSE)&gt;0,$H9&gt;$H8),$H9,AK8)</f>
+        <v>83.92</v>
+      </c>
+      <c r="AL9" s="9">
+        <f>($AJ9-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10008,7,FALSE)</f>
+        <v>-1.00000000000051</v>
+      </c>
+      <c r="AM9" s="9">
+        <f>($AK9-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))*200</f>
+        <v>-1792</v>
+      </c>
+      <c r="AN9" s="22" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:40">
       <c r="A10" s="13">
@@ -4184,13 +4208,37 @@
       <c r="AD10" s="37"/>
       <c r="AE10" s="37"/>
       <c r="AF10" s="37"/>
-      <c r="AG10" s="46"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="46"/>
-      <c r="AJ10" s="45"/>
-      <c r="AK10" s="49"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="37"/>
+      <c r="AG10" s="43">
+        <f>(B10-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)</f>
+        <v>0.317690923116482</v>
+      </c>
+      <c r="AH10" s="44">
+        <f>(B10-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
+        <v>0.103466838931955</v>
+      </c>
+      <c r="AI10" s="25" t="str">
+        <f>IF(AG10-((VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)-73.28)/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))*2&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="AJ10" s="45">
+        <f>IF(AND($H10-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10007,6,FALSE)&gt;0,$H10&gt;$H9),$H10,AJ9)</f>
+        <v>77.77</v>
+      </c>
+      <c r="AK10" s="45">
+        <f>IF(AND($H10-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10007,6,FALSE)&gt;0,$H10&gt;$H9),$H10,AK9)</f>
+        <v>83.92</v>
+      </c>
+      <c r="AL10" s="9">
+        <f>($AJ10-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10009,7,FALSE)</f>
+        <v>-1.00000000000051</v>
+      </c>
+      <c r="AM10" s="9">
+        <f>($AK10-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))*200</f>
+        <v>-1792</v>
+      </c>
+      <c r="AN10" s="22" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="13">
@@ -4256,13 +4304,37 @@
       <c r="AD11" s="37"/>
       <c r="AE11" s="37"/>
       <c r="AF11" s="37"/>
-      <c r="AG11" s="46"/>
-      <c r="AH11" s="44"/>
-      <c r="AI11" s="46"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="49"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="37"/>
+      <c r="AG11" s="43">
+        <f>(B11-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE)</f>
+        <v>0.449472872203651</v>
+      </c>
+      <c r="AH11" s="44">
+        <f>(B11-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)</f>
+        <v>0.213824289405685</v>
+      </c>
+      <c r="AI11" s="25" t="str">
+        <f>IF(AG11-((VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE)-73.28)/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))*2&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="AJ11" s="45">
+        <f>IF(AND($H11-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10008,6,FALSE)&gt;0,$H11&gt;$H10),$H11,AJ10)</f>
+        <v>77.77</v>
+      </c>
+      <c r="AK11" s="45">
+        <f>IF(AND($H11-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10008,6,FALSE)&gt;0,$H11&gt;$H10),$H11,AK10)</f>
+        <v>83.92</v>
+      </c>
+      <c r="AL11" s="9">
+        <f>($AJ11-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10010,7,FALSE)</f>
+        <v>-1.00000000000051</v>
+      </c>
+      <c r="AM11" s="9">
+        <f>($AK11-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))*200</f>
+        <v>-1792</v>
+      </c>
+      <c r="AN11" s="22" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:40">
       <c r="A12" s="13">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
@@ -250,11 +250,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -306,52 +306,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,6 +321,29 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -373,18 +351,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,7 +376,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -405,15 +392,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,16 +427,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,13 +518,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,13 +560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,7 +578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,31 +590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,19 +614,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,19 +662,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,31 +686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,8 +744,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,22 +769,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,6 +800,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -816,25 +825,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,94 +843,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,28 +939,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -969,22 +969,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,13 +992,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1010,28 +1010,28 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1043,7 +1043,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1121,7 +1121,7 @@
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1130,28 +1130,28 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3427,11 +3427,11 @@
   <dimension ref="A1:AN454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y6" sqref="Y6:Y11"/>
+      <selection pane="bottomRight" activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -4378,16 +4378,38 @@
       <c r="A12" s="13">
         <v>44578</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="23"/>
+      <c r="B12" s="14">
+        <v>112.74</v>
+      </c>
+      <c r="C12" s="14">
+        <v>117.38</v>
+      </c>
+      <c r="D12" s="14">
+        <v>124.01</v>
+      </c>
+      <c r="E12" s="14">
+        <v>111.89</v>
+      </c>
+      <c r="F12" s="14">
+        <v>14.3</v>
+      </c>
+      <c r="G12" s="14">
+        <v>86.75</v>
+      </c>
+      <c r="H12" s="14">
+        <v>78.25</v>
+      </c>
+      <c r="I12" s="14">
+        <v>10.57</v>
+      </c>
+      <c r="J12" s="26">
+        <f>IF(B12&gt;(D12-(D12-E12)/2),1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K12" s="25">
+        <f>(B12-B11)/B11</f>
+        <v>0</v>
+      </c>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
@@ -4397,11 +4419,21 @@
       <c r="R12" s="24"/>
       <c r="S12" s="24"/>
       <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
+      <c r="U12" s="24" t="str">
+        <f>IF(B12&lt;G12,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="V12" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="W12" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
+      <c r="Y12" s="38">
+        <f>$I12/$I$6</f>
+        <v>1.47625698324022</v>
+      </c>
       <c r="Z12" s="39"/>
       <c r="AA12" s="39"/>
       <c r="AB12" s="39"/>
@@ -4409,28 +4441,71 @@
       <c r="AD12" s="39"/>
       <c r="AE12" s="39"/>
       <c r="AF12" s="39"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="46"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="47"/>
-      <c r="AK12" s="51"/>
+      <c r="AG12" s="45">
+        <f>(B12-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE)</f>
+        <v>0.449472872203651</v>
+      </c>
+      <c r="AH12" s="46">
+        <f>(B12-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)</f>
+        <v>0.213824289405685</v>
+      </c>
+      <c r="AI12" s="25" t="str">
+        <f>IF(AG12-((VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE)-73.28)/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE))*2&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="AJ12" s="47">
+        <f>IF(AND($H12-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10009,6,FALSE)&gt;0,$H12&gt;$H11),$H12,AJ11)</f>
+        <v>78.25</v>
+      </c>
+      <c r="AK12" s="47">
+        <f>IF(AND($H12-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10009,6,FALSE)&gt;0,$H12&gt;$H11),$H12,AK11)</f>
+        <v>78.25</v>
+      </c>
+      <c r="AL12" s="9">
+        <f>($AJ12-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10011,7,FALSE)</f>
+        <v>46.9999999999999</v>
+      </c>
       <c r="AM12" s="9"/>
-      <c r="AN12" s="39"/>
+      <c r="AN12" s="22" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="13">
         <v>44579</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="23"/>
+      <c r="B13" s="14">
+        <v>101.47</v>
+      </c>
+      <c r="C13" s="14">
+        <v>107.01</v>
+      </c>
+      <c r="D13" s="14">
+        <v>108</v>
+      </c>
+      <c r="E13" s="14">
+        <v>101.47</v>
+      </c>
+      <c r="F13" s="14">
+        <v>4.2559</v>
+      </c>
+      <c r="G13" s="14">
+        <v>88.15</v>
+      </c>
+      <c r="H13" s="14">
+        <v>79.16</v>
+      </c>
+      <c r="I13" s="14">
+        <v>10.57</v>
+      </c>
+      <c r="J13" s="26">
+        <f>IF(B13&gt;(D13-(D13-E13)/2),1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K13" s="25">
+        <f>(B13-B12)/B12</f>
+        <v>-0.0999645201348235</v>
+      </c>
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
@@ -4440,11 +4515,21 @@
       <c r="R13" s="24"/>
       <c r="S13" s="24"/>
       <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
+      <c r="U13" s="24" t="str">
+        <f>IF(B13&lt;G13,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="V13" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="W13" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
+      <c r="Y13" s="38">
+        <f>$I13/$I$6</f>
+        <v>1.47625698324022</v>
+      </c>
       <c r="Z13" s="39"/>
       <c r="AA13" s="39"/>
       <c r="AB13" s="39"/>
@@ -4452,13 +4537,34 @@
       <c r="AD13" s="39"/>
       <c r="AE13" s="39"/>
       <c r="AF13" s="39"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="46"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="51"/>
+      <c r="AG13" s="45">
+        <f>(B13-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE)</f>
+        <v>0.304577012085369</v>
+      </c>
+      <c r="AH13" s="46">
+        <f>(B13-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE)</f>
+        <v>0.0924849267872524</v>
+      </c>
+      <c r="AI13" s="25" t="str">
+        <f>IF(AG13-((VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE)-73.28)/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE))*2&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="AJ13" s="47">
+        <f>IF(AND($H13-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10010,6,FALSE)&gt;0,$H13&gt;$H12),$H13,AJ12)</f>
+        <v>79.16</v>
+      </c>
+      <c r="AK13" s="47">
+        <f>IF(AND($H13-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10010,6,FALSE)&gt;0,$H13&gt;$H12),$H13,AK12)</f>
+        <v>79.16</v>
+      </c>
+      <c r="AL13" s="9">
+        <f>($AJ13-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10012,7,FALSE)</f>
+        <v>138</v>
+      </c>
       <c r="AM13" s="9"/>
-      <c r="AN13" s="39"/>
+      <c r="AN13" s="22" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="13">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
@@ -3427,11 +3427,11 @@
   <dimension ref="A1:AN454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK9" sqref="AK9"/>
+      <selection pane="bottomRight" activeCell="AM11" sqref="AM11:AM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -4155,7 +4155,7 @@
         <v>77.77</v>
       </c>
       <c r="AK9" s="47">
-        <f>IF(AND($H9-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10006,6,FALSE)&gt;0,$H9&gt;$H8),$H9,AK8)</f>
+        <f>IF(AND($H9-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$AF10006,6,FALSE)&gt;0,$H9&gt;$H8),$H9,AK8)</f>
         <v>83.92</v>
       </c>
       <c r="AL9" s="9">
@@ -4260,7 +4260,7 @@
         <v>77.77</v>
       </c>
       <c r="AK10" s="47">
-        <f>IF(AND($H10-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10007,6,FALSE)&gt;0,$H10&gt;$H9),$H10,AK9)</f>
+        <f>IF(AND($H10-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$AF10007,6,FALSE)&gt;0,$H10&gt;$H9),$H10,AK9)</f>
         <v>83.92</v>
       </c>
       <c r="AL10" s="9">
@@ -4359,7 +4359,7 @@
         <v>77.77</v>
       </c>
       <c r="AK11" s="47">
-        <f>IF(AND($H11-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10008,6,FALSE)&gt;0,$H11&gt;$H10),$H11,AK10)</f>
+        <f>IF(AND($H11-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$AF10008,6,FALSE)&gt;0,$H11&gt;$H10),$H11,AK10)</f>
         <v>83.92</v>
       </c>
       <c r="AL11" s="9">
@@ -4458,14 +4458,17 @@
         <v>78.25</v>
       </c>
       <c r="AK12" s="47">
-        <f>IF(AND($H12-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10009,6,FALSE)&gt;0,$H12&gt;$H11),$H12,AK11)</f>
-        <v>78.25</v>
+        <f>IF(AND($H12-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$AF10009,6,FALSE)&gt;0,$H12&gt;$H11),$H12,AK11)</f>
+        <v>83.92</v>
       </c>
       <c r="AL12" s="9">
         <f>($AJ12-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10011,7,FALSE)</f>
         <v>46.9999999999999</v>
       </c>
-      <c r="AM12" s="9"/>
+      <c r="AM12" s="9">
+        <f>($AK12-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE))*200</f>
+        <v>-1792</v>
+      </c>
       <c r="AN12" s="22" t="s">
         <v>48</v>
       </c>
@@ -4554,14 +4557,17 @@
         <v>79.16</v>
       </c>
       <c r="AK13" s="47">
-        <f>IF(AND($H13-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10010,6,FALSE)&gt;0,$H13&gt;$H12),$H13,AK12)</f>
-        <v>79.16</v>
+        <f>IF(AND($H13-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$AF10010,6,FALSE)&gt;0,$H13&gt;$H12),$H13,AK12)</f>
+        <v>83.92</v>
       </c>
       <c r="AL13" s="9">
         <f>($AJ13-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10012,7,FALSE)</f>
         <v>138</v>
       </c>
-      <c r="AM13" s="9"/>
+      <c r="AM13" s="9">
+        <f>($AK13-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE))*200</f>
+        <v>-1792</v>
+      </c>
       <c r="AN13" s="22" t="s">
         <v>48</v>
       </c>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
@@ -3431,7 +3431,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM11" sqref="AM11:AM13"/>
+      <selection pane="bottomRight" activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
@@ -3431,7 +3431,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH13" sqref="AH13"/>
+      <selection pane="bottomRight" activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
@@ -250,13 +250,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -306,31 +306,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,27 +319,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,38 +336,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,8 +357,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,11 +425,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,7 +518,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,19 +578,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,19 +632,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,49 +662,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,61 +680,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,32 +744,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,20 +767,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,153 +803,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,13 +992,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1010,28 +1010,28 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1043,7 +1043,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1121,7 +1121,7 @@
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1130,28 +1130,28 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2685,7 +2685,7 @@
             <v>52</v>
           </cell>
           <cell r="L29">
-            <v>804.22388</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="29">
@@ -2979,7 +2979,7 @@
             <v>56.49</v>
           </cell>
           <cell r="L34">
-            <v>244.11766</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="35">
@@ -3017,7 +3017,7 @@
             <v>47.35</v>
           </cell>
           <cell r="L35">
-            <v>356.10162</v>
+            <v>0</v>
           </cell>
           <cell r="M35">
             <v>44566</v>
@@ -3079,7 +3079,7 @@
             <v>45.1</v>
           </cell>
           <cell r="L36">
-            <v>766.19552</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="37">
@@ -3117,7 +3117,7 @@
             <v>73.28</v>
           </cell>
           <cell r="L37">
-            <v>460</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="38">
@@ -3431,7 +3431,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL13" sqref="AL13"/>
+      <selection pane="bottomRight" activeCell="AG13" sqref="AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3821,7 +3821,7 @@
         <v>7.16</v>
       </c>
       <c r="J6" s="22">
-        <f t="shared" ref="J6:J11" si="0">IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
+        <f t="shared" ref="J6:J13" si="0">IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
         <v>1</v>
       </c>
       <c r="K6" s="23">
@@ -3841,7 +3841,7 @@
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
       <c r="U6" s="24" t="str">
-        <f t="shared" ref="U6:U11" si="1">IF(B6&lt;G6,"是","否")</f>
+        <f t="shared" ref="U6:U13" si="1">IF(B6&lt;G6,"是","否")</f>
         <v>否</v>
       </c>
       <c r="V6" s="24" t="s">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="X6" s="24"/>
       <c r="Y6" s="38">
-        <f t="shared" ref="Y6:Y11" si="2">$I6/$I$6</f>
+        <f t="shared" ref="Y6:Y13" si="2">$I6/$I$6</f>
         <v>1</v>
       </c>
       <c r="Z6" s="39"/>
@@ -3917,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="25">
-        <f>(B7-B6)/B6</f>
+        <f t="shared" ref="K7:K13" si="3">(B7-B6)/B6</f>
         <v>0.099976167778837</v>
       </c>
       <c r="L7" s="24"/>
@@ -4006,7 +4006,7 @@
         <v>-1</v>
       </c>
       <c r="K8" s="25">
-        <f>(B8-B7)/B7</f>
+        <f t="shared" si="3"/>
         <v>-0.022532770014083</v>
       </c>
       <c r="L8" s="24"/>
@@ -4104,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="25">
-        <f>(B9-B8)/B8</f>
+        <f t="shared" si="3"/>
         <v>0.0325833979829325</v>
       </c>
       <c r="L9" s="24"/>
@@ -4203,7 +4203,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="25">
-        <f>(B10-B9)/B9</f>
+        <f t="shared" si="3"/>
         <v>0.100032199205753</v>
       </c>
       <c r="L10" s="24"/>
@@ -4308,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="25">
-        <f>(B11-B10)/B10</f>
+        <f t="shared" si="3"/>
         <v>0.100009757049468</v>
       </c>
       <c r="L11" s="24"/>
@@ -4403,11 +4403,11 @@
         <v>10.57</v>
       </c>
       <c r="J12" s="26">
-        <f>IF(B12&gt;(D12-(D12-E12)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K12" s="25">
-        <f>(B12-B11)/B11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L12" s="24"/>
@@ -4420,7 +4420,7 @@
       <c r="S12" s="24"/>
       <c r="T12" s="24"/>
       <c r="U12" s="24" t="str">
-        <f>IF(B12&lt;G12,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="V12" s="24" t="s">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="X12" s="24"/>
       <c r="Y12" s="38">
-        <f>$I12/$I$6</f>
+        <f t="shared" si="2"/>
         <v>1.47625698324022</v>
       </c>
       <c r="Z12" s="39"/>
@@ -4502,11 +4502,11 @@
         <v>10.57</v>
       </c>
       <c r="J13" s="26">
-        <f>IF(B13&gt;(D13-(D13-E13)/2),1,-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K13" s="25">
-        <f>(B13-B12)/B12</f>
+        <f t="shared" si="3"/>
         <v>-0.0999645201348235</v>
       </c>
       <c r="L13" s="24"/>
@@ -4519,7 +4519,7 @@
       <c r="S13" s="24"/>
       <c r="T13" s="24"/>
       <c r="U13" s="24" t="str">
-        <f>IF(B13&lt;G13,"是","否")</f>
+        <f t="shared" si="1"/>
         <v>否</v>
       </c>
       <c r="V13" s="24" t="s">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="X13" s="24"/>
       <c r="Y13" s="38">
-        <f>$I13/$I$6</f>
+        <f t="shared" si="2"/>
         <v>1.47625698324022</v>
       </c>
       <c r="Z13" s="39"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>日期</t>
   </si>
@@ -236,6 +236,10 @@
   </si>
   <si>
     <t>买入点2</t>
+  </si>
+  <si>
+    <t>买入点1
+(超出买入点的2倍移动到盈亏平衡点；超出买入点的3倍移动到)</t>
   </si>
   <si>
     <t>是</t>
@@ -988,7 +992,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1123,6 +1127,9 @@
     </xf>
     <xf numFmtId="179" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3431,7 +3438,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG13" sqref="AG13"/>
+      <selection pane="bottomRight" activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3467,7 +3474,7 @@
     <col min="32" max="33" width="18.75" customWidth="1"/>
     <col min="34" max="34" width="15.1785714285714" style="6" customWidth="1"/>
     <col min="35" max="35" width="15.1785714285714" customWidth="1"/>
-    <col min="36" max="36" width="10.5625" style="7" customWidth="1"/>
+    <col min="36" max="36" width="21.875" style="7" customWidth="1"/>
     <col min="37" max="37" width="11" style="8" customWidth="1"/>
     <col min="38" max="38" width="11" style="9" customWidth="1"/>
     <col min="39" max="39" width="10.4196428571429" style="8" customWidth="1"/>
@@ -3528,11 +3535,11 @@
         <v>7</v>
       </c>
       <c r="AK1" s="44"/>
-      <c r="AL1" s="49" t="s">
+      <c r="AL1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="50" t="s">
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3574,8 +3581,8 @@
       <c r="AI2" s="43"/>
       <c r="AJ2" s="44"/>
       <c r="AK2" s="44"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
       <c r="AN2" s="22"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:40">
@@ -3652,8 +3659,8 @@
       <c r="AI3" s="43"/>
       <c r="AJ3" s="44"/>
       <c r="AK3" s="44"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
       <c r="AN3" s="22"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:40">
@@ -3716,8 +3723,8 @@
       <c r="AI4" s="43"/>
       <c r="AJ4" s="44"/>
       <c r="AK4" s="44"/>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="49"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
       <c r="AN4" s="22"/>
     </row>
     <row r="5" ht="71" spans="1:40">
@@ -3778,16 +3785,16 @@
         <v>47</v>
       </c>
       <c r="AI5" s="43"/>
-      <c r="AJ5" s="44" t="s">
-        <v>46</v>
+      <c r="AJ5" s="45" t="s">
+        <v>48</v>
       </c>
       <c r="AK5" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AL5" s="49" t="s">
+      <c r="AL5" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="AM5" s="49" t="s">
+      <c r="AM5" s="50" t="s">
         <v>47</v>
       </c>
       <c r="AN5" s="22"/>
@@ -3828,10 +3835,10 @@
         <v>0.1</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N6" s="24"/>
       <c r="O6" s="24"/>
@@ -3845,10 +3852,10 @@
         <v>否</v>
       </c>
       <c r="V6" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W6" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X6" s="24"/>
       <c r="Y6" s="38">
@@ -3862,26 +3869,26 @@
       <c r="AD6" s="39"/>
       <c r="AE6" s="39"/>
       <c r="AF6" s="39"/>
-      <c r="AG6" s="45">
+      <c r="AG6" s="46">
         <f>(B6-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>0.0789406016970944</v>
       </c>
-      <c r="AH6" s="46"/>
+      <c r="AH6" s="47"/>
       <c r="AI6" s="25" t="str">
         <f>IF(AG6-((VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)-73.28)/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))*2&gt;0,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="AJ6" s="47">
+      <c r="AJ6" s="48">
         <v>73.28</v>
       </c>
-      <c r="AK6" s="51"/>
+      <c r="AK6" s="52"/>
       <c r="AL6" s="9">
         <f>($AJ6-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10005,7,FALSE)</f>
         <v>-450</v>
       </c>
       <c r="AM6" s="9"/>
       <c r="AN6" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -3934,10 +3941,10 @@
         <v>否</v>
       </c>
       <c r="V7" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W7" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X7" s="24"/>
       <c r="Y7" s="38">
@@ -3951,26 +3958,26 @@
       <c r="AD7" s="39"/>
       <c r="AE7" s="39"/>
       <c r="AF7" s="39"/>
-      <c r="AG7" s="45">
+      <c r="AG7" s="46">
         <f>(B7-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
         <v>0.186808948315762</v>
       </c>
-      <c r="AH7" s="46"/>
+      <c r="AH7" s="47"/>
       <c r="AI7" s="25" t="str">
         <f>IF(AG7-((VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)-73.28)/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*2&gt;0,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="AJ7" s="47">
+      <c r="AJ7" s="48">
         <v>77.77</v>
       </c>
-      <c r="AK7" s="51"/>
+      <c r="AK7" s="52"/>
       <c r="AL7" s="9">
         <f>($AJ7-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10006,7,FALSE)</f>
         <v>-1.00000000000051</v>
       </c>
       <c r="AM7" s="9"/>
       <c r="AN7" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -4023,10 +4030,10 @@
         <v>否</v>
       </c>
       <c r="V8" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W8" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X8" s="24"/>
       <c r="Y8" s="38">
@@ -4040,11 +4047,11 @@
       <c r="AD8" s="39"/>
       <c r="AE8" s="39"/>
       <c r="AF8" s="39"/>
-      <c r="AG8" s="45">
+      <c r="AG8" s="46">
         <f>(B8-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
         <v>0.160066855232708</v>
       </c>
-      <c r="AH8" s="46">
+      <c r="AH8" s="47">
         <f>(B8-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>-0.0285314384151593</v>
       </c>
@@ -4052,11 +4059,11 @@
         <f>IF(AG8-((VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)-73.28)/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*2&gt;0,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="AJ8" s="47">
+      <c r="AJ8" s="48">
         <f>IF(AND($H8-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE)&gt;0,$H8&gt;$H7),$H8,AJ7)</f>
         <v>77.77</v>
       </c>
-      <c r="AK8" s="47">
+      <c r="AK8" s="48">
         <v>83.92</v>
       </c>
       <c r="AL8" s="9">
@@ -4068,7 +4075,7 @@
         <v>-1792</v>
       </c>
       <c r="AN8" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -4121,10 +4128,10 @@
         <v>否</v>
       </c>
       <c r="V9" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W9" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X9" s="24"/>
       <c r="Y9" s="38">
@@ -4138,11 +4145,11 @@
       <c r="AD9" s="39"/>
       <c r="AE9" s="39"/>
       <c r="AF9" s="39"/>
-      <c r="AG9" s="45">
+      <c r="AG9" s="46">
         <f>(B9-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)</f>
         <v>0.197865775263564</v>
       </c>
-      <c r="AH9" s="46">
+      <c r="AH9" s="47">
         <f>(B9-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
         <v>0.00312230835486656</v>
       </c>
@@ -4150,11 +4157,11 @@
         <f>IF(AG9-((VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)-73.28)/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))*2&gt;0,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="AJ9" s="47">
+      <c r="AJ9" s="48">
         <f>IF(AND($H9-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10006,6,FALSE)&gt;0,$H9&gt;$H8),$H9,AJ8)</f>
         <v>77.77</v>
       </c>
-      <c r="AK9" s="47">
+      <c r="AK9" s="48">
         <f>IF(AND($H9-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$AF10006,6,FALSE)&gt;0,$H9&gt;$H8),$H9,AK8)</f>
         <v>83.92</v>
       </c>
@@ -4167,7 +4174,7 @@
         <v>-1792</v>
       </c>
       <c r="AN9" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -4226,10 +4233,10 @@
         <v>否</v>
       </c>
       <c r="V10" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W10" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X10" s="24"/>
       <c r="Y10" s="38">
@@ -4243,11 +4250,11 @@
       <c r="AD10" s="39"/>
       <c r="AE10" s="39"/>
       <c r="AF10" s="39"/>
-      <c r="AG10" s="45">
+      <c r="AG10" s="46">
         <f>(B10-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)</f>
         <v>0.317690923116482</v>
       </c>
-      <c r="AH10" s="46">
+      <c r="AH10" s="47">
         <f>(B10-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
         <v>0.103466838931955</v>
       </c>
@@ -4255,11 +4262,11 @@
         <f>IF(AG10-((VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)-73.28)/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))*2&gt;0,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="AJ10" s="47">
+      <c r="AJ10" s="48">
         <f>IF(AND($H10-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10007,6,FALSE)&gt;0,$H10&gt;$H9),$H10,AJ9)</f>
         <v>77.77</v>
       </c>
-      <c r="AK10" s="47">
+      <c r="AK10" s="48">
         <f>IF(AND($H10-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$AF10007,6,FALSE)&gt;0,$H10&gt;$H9),$H10,AK9)</f>
         <v>83.92</v>
       </c>
@@ -4272,7 +4279,7 @@
         <v>-1792</v>
       </c>
       <c r="AN10" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -4325,10 +4332,10 @@
         <v>否</v>
       </c>
       <c r="V11" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W11" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X11" s="24"/>
       <c r="Y11" s="38">
@@ -4342,11 +4349,11 @@
       <c r="AD11" s="39"/>
       <c r="AE11" s="39"/>
       <c r="AF11" s="39"/>
-      <c r="AG11" s="45">
+      <c r="AG11" s="46">
         <f>(B11-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE)</f>
         <v>0.449472872203651</v>
       </c>
-      <c r="AH11" s="46">
+      <c r="AH11" s="47">
         <f>(B11-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)</f>
         <v>0.213824289405685</v>
       </c>
@@ -4354,11 +4361,11 @@
         <f>IF(AG11-((VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE)-73.28)/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))*2&gt;0,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="AJ11" s="47">
+      <c r="AJ11" s="48">
         <f>IF(AND($H11-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10008,6,FALSE)&gt;0,$H11&gt;$H10),$H11,AJ10)</f>
         <v>77.77</v>
       </c>
-      <c r="AK11" s="47">
+      <c r="AK11" s="48">
         <f>IF(AND($H11-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$AF10008,6,FALSE)&gt;0,$H11&gt;$H10),$H11,AK10)</f>
         <v>83.92</v>
       </c>
@@ -4371,7 +4378,7 @@
         <v>-1792</v>
       </c>
       <c r="AN11" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -4424,10 +4431,10 @@
         <v>否</v>
       </c>
       <c r="V12" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W12" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X12" s="24"/>
       <c r="Y12" s="38">
@@ -4441,11 +4448,11 @@
       <c r="AD12" s="39"/>
       <c r="AE12" s="39"/>
       <c r="AF12" s="39"/>
-      <c r="AG12" s="45">
+      <c r="AG12" s="46">
         <f>(B12-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE)</f>
         <v>0.449472872203651</v>
       </c>
-      <c r="AH12" s="46">
+      <c r="AH12" s="47">
         <f>(B12-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)</f>
         <v>0.213824289405685</v>
       </c>
@@ -4453,11 +4460,11 @@
         <f>IF(AG12-((VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE)-73.28)/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE))*2&gt;0,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="AJ12" s="47">
+      <c r="AJ12" s="48">
         <f>IF(AND($H12-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10009,6,FALSE)&gt;0,$H12&gt;$H11),$H12,AJ11)</f>
         <v>78.25</v>
       </c>
-      <c r="AK12" s="47">
+      <c r="AK12" s="48">
         <f>IF(AND($H12-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$AF10009,6,FALSE)&gt;0,$H12&gt;$H11),$H12,AK11)</f>
         <v>83.92</v>
       </c>
@@ -4470,7 +4477,7 @@
         <v>-1792</v>
       </c>
       <c r="AN12" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -4523,10 +4530,10 @@
         <v>否</v>
       </c>
       <c r="V13" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W13" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X13" s="24"/>
       <c r="Y13" s="38">
@@ -4540,11 +4547,11 @@
       <c r="AD13" s="39"/>
       <c r="AE13" s="39"/>
       <c r="AF13" s="39"/>
-      <c r="AG13" s="45">
+      <c r="AG13" s="46">
         <f>(B13-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE)</f>
         <v>0.304577012085369</v>
       </c>
-      <c r="AH13" s="46">
+      <c r="AH13" s="47">
         <f>(B13-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE)</f>
         <v>0.0924849267872524</v>
       </c>
@@ -4552,11 +4559,11 @@
         <f>IF(AG13-((VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE)-73.28)/VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE))*2&gt;0,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="AJ13" s="47">
+      <c r="AJ13" s="48">
         <f>IF(AND($H13-VLOOKUP([1]交易计划及执行表!$A$37,[1]交易计划及执行表!$A$4:$AF10010,6,FALSE)&gt;0,$H13&gt;$H12),$H13,AJ12)</f>
         <v>79.16</v>
       </c>
-      <c r="AK13" s="47">
+      <c r="AK13" s="48">
         <f>IF(AND($H13-VLOOKUP([1]交易计划及执行表!$A$38,[1]交易计划及执行表!$A$4:$AF10010,6,FALSE)&gt;0,$H13&gt;$H12),$H13,AK12)</f>
         <v>83.92</v>
       </c>
@@ -4569,7 +4576,7 @@
         <v>-1792</v>
       </c>
       <c r="AN13" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:40">
@@ -4607,11 +4614,11 @@
       <c r="AD14" s="39"/>
       <c r="AE14" s="39"/>
       <c r="AF14" s="39"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="46"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="51"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="52"/>
       <c r="AM14" s="9"/>
       <c r="AN14" s="39"/>
     </row>
@@ -4650,11 +4657,11 @@
       <c r="AD15" s="39"/>
       <c r="AE15" s="39"/>
       <c r="AF15" s="39"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="46"/>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="47"/>
-      <c r="AK15" s="51"/>
+      <c r="AG15" s="49"/>
+      <c r="AH15" s="47"/>
+      <c r="AI15" s="49"/>
+      <c r="AJ15" s="48"/>
+      <c r="AK15" s="52"/>
       <c r="AM15" s="9"/>
       <c r="AN15" s="39"/>
     </row>
@@ -4693,11 +4700,11 @@
       <c r="AD16" s="39"/>
       <c r="AE16" s="39"/>
       <c r="AF16" s="39"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="46"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="47"/>
-      <c r="AK16" s="51"/>
+      <c r="AG16" s="49"/>
+      <c r="AH16" s="47"/>
+      <c r="AI16" s="49"/>
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="52"/>
       <c r="AM16" s="9"/>
       <c r="AN16" s="39"/>
     </row>
@@ -4736,11 +4743,11 @@
       <c r="AD17" s="39"/>
       <c r="AE17" s="39"/>
       <c r="AF17" s="39"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="46"/>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="47"/>
-      <c r="AK17" s="51"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="48"/>
+      <c r="AK17" s="52"/>
       <c r="AM17" s="9"/>
       <c r="AN17" s="39"/>
     </row>
@@ -4779,11 +4786,11 @@
       <c r="AD18" s="39"/>
       <c r="AE18" s="39"/>
       <c r="AF18" s="39"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="51"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="52"/>
       <c r="AM18" s="9"/>
       <c r="AN18" s="39"/>
     </row>
@@ -4822,11 +4829,11 @@
       <c r="AD19" s="39"/>
       <c r="AE19" s="39"/>
       <c r="AF19" s="39"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="46"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="51"/>
+      <c r="AG19" s="49"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="49"/>
+      <c r="AJ19" s="48"/>
+      <c r="AK19" s="52"/>
       <c r="AM19" s="9"/>
       <c r="AN19" s="39"/>
     </row>
@@ -4865,11 +4872,11 @@
       <c r="AD20" s="39"/>
       <c r="AE20" s="39"/>
       <c r="AF20" s="39"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="46"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="47"/>
-      <c r="AK20" s="51"/>
+      <c r="AG20" s="49"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="49"/>
+      <c r="AJ20" s="48"/>
+      <c r="AK20" s="52"/>
       <c r="AM20" s="9"/>
       <c r="AN20" s="39"/>
     </row>
@@ -4908,11 +4915,11 @@
       <c r="AD21" s="39"/>
       <c r="AE21" s="39"/>
       <c r="AF21" s="39"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="46"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="47"/>
-      <c r="AK21" s="51"/>
+      <c r="AG21" s="49"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="49"/>
+      <c r="AJ21" s="48"/>
+      <c r="AK21" s="52"/>
       <c r="AM21" s="9"/>
       <c r="AN21" s="39"/>
     </row>
@@ -4951,11 +4958,11 @@
       <c r="AD22" s="39"/>
       <c r="AE22" s="39"/>
       <c r="AF22" s="39"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="46"/>
-      <c r="AI22" s="48"/>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="51"/>
+      <c r="AG22" s="49"/>
+      <c r="AH22" s="47"/>
+      <c r="AI22" s="49"/>
+      <c r="AJ22" s="48"/>
+      <c r="AK22" s="52"/>
       <c r="AM22" s="9"/>
       <c r="AN22" s="39"/>
     </row>
@@ -4994,11 +5001,11 @@
       <c r="AD23" s="39"/>
       <c r="AE23" s="39"/>
       <c r="AF23" s="39"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="46"/>
-      <c r="AI23" s="48"/>
-      <c r="AJ23" s="47"/>
-      <c r="AK23" s="51"/>
+      <c r="AG23" s="49"/>
+      <c r="AH23" s="47"/>
+      <c r="AI23" s="49"/>
+      <c r="AJ23" s="48"/>
+      <c r="AK23" s="52"/>
       <c r="AM23" s="9"/>
       <c r="AN23" s="39"/>
     </row>
@@ -5037,11 +5044,11 @@
       <c r="AD24" s="39"/>
       <c r="AE24" s="39"/>
       <c r="AF24" s="39"/>
-      <c r="AG24" s="48"/>
-      <c r="AH24" s="46"/>
-      <c r="AI24" s="48"/>
-      <c r="AJ24" s="47"/>
-      <c r="AK24" s="51"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="47"/>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="48"/>
+      <c r="AK24" s="52"/>
       <c r="AM24" s="9"/>
       <c r="AN24" s="39"/>
     </row>
@@ -5080,11 +5087,11 @@
       <c r="AD25" s="39"/>
       <c r="AE25" s="39"/>
       <c r="AF25" s="39"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="46"/>
-      <c r="AI25" s="48"/>
-      <c r="AJ25" s="47"/>
-      <c r="AK25" s="51"/>
+      <c r="AG25" s="49"/>
+      <c r="AH25" s="47"/>
+      <c r="AI25" s="49"/>
+      <c r="AJ25" s="48"/>
+      <c r="AK25" s="52"/>
       <c r="AM25" s="9"/>
       <c r="AN25" s="39"/>
     </row>
@@ -5123,11 +5130,11 @@
       <c r="AD26" s="39"/>
       <c r="AE26" s="39"/>
       <c r="AF26" s="39"/>
-      <c r="AG26" s="48"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="48"/>
-      <c r="AJ26" s="47"/>
-      <c r="AK26" s="51"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="48"/>
+      <c r="AK26" s="52"/>
       <c r="AM26" s="9"/>
       <c r="AN26" s="39"/>
     </row>
@@ -5166,11 +5173,11 @@
       <c r="AD27" s="39"/>
       <c r="AE27" s="39"/>
       <c r="AF27" s="39"/>
-      <c r="AG27" s="48"/>
-      <c r="AH27" s="46"/>
-      <c r="AI27" s="48"/>
-      <c r="AJ27" s="47"/>
-      <c r="AK27" s="51"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="47"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="48"/>
+      <c r="AK27" s="52"/>
       <c r="AM27" s="9"/>
       <c r="AN27" s="39"/>
     </row>
@@ -5209,11 +5216,11 @@
       <c r="AD28" s="39"/>
       <c r="AE28" s="39"/>
       <c r="AF28" s="39"/>
-      <c r="AG28" s="48"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="48"/>
-      <c r="AJ28" s="47"/>
-      <c r="AK28" s="51"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="47"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="48"/>
+      <c r="AK28" s="52"/>
       <c r="AM28" s="9"/>
       <c r="AN28" s="39"/>
     </row>
@@ -5252,11 +5259,11 @@
       <c r="AD29" s="39"/>
       <c r="AE29" s="39"/>
       <c r="AF29" s="39"/>
-      <c r="AG29" s="48"/>
-      <c r="AH29" s="46"/>
-      <c r="AI29" s="48"/>
-      <c r="AJ29" s="47"/>
-      <c r="AK29" s="51"/>
+      <c r="AG29" s="49"/>
+      <c r="AH29" s="47"/>
+      <c r="AI29" s="49"/>
+      <c r="AJ29" s="48"/>
+      <c r="AK29" s="52"/>
       <c r="AM29" s="9"/>
       <c r="AN29" s="39"/>
     </row>
@@ -5295,11 +5302,11 @@
       <c r="AD30" s="39"/>
       <c r="AE30" s="39"/>
       <c r="AF30" s="39"/>
-      <c r="AG30" s="48"/>
-      <c r="AH30" s="46"/>
-      <c r="AI30" s="48"/>
-      <c r="AJ30" s="47"/>
-      <c r="AK30" s="51"/>
+      <c r="AG30" s="49"/>
+      <c r="AH30" s="47"/>
+      <c r="AI30" s="49"/>
+      <c r="AJ30" s="48"/>
+      <c r="AK30" s="52"/>
       <c r="AM30" s="9"/>
       <c r="AN30" s="39"/>
     </row>
@@ -5338,11 +5345,11 @@
       <c r="AD31" s="39"/>
       <c r="AE31" s="39"/>
       <c r="AF31" s="39"/>
-      <c r="AG31" s="48"/>
-      <c r="AH31" s="46"/>
-      <c r="AI31" s="48"/>
-      <c r="AJ31" s="47"/>
-      <c r="AK31" s="51"/>
+      <c r="AG31" s="49"/>
+      <c r="AH31" s="47"/>
+      <c r="AI31" s="49"/>
+      <c r="AJ31" s="48"/>
+      <c r="AK31" s="52"/>
       <c r="AM31" s="9"/>
       <c r="AN31" s="39"/>
     </row>
@@ -5381,11 +5388,11 @@
       <c r="AD32" s="39"/>
       <c r="AE32" s="39"/>
       <c r="AF32" s="39"/>
-      <c r="AG32" s="48"/>
-      <c r="AH32" s="46"/>
-      <c r="AI32" s="48"/>
-      <c r="AJ32" s="47"/>
-      <c r="AK32" s="51"/>
+      <c r="AG32" s="49"/>
+      <c r="AH32" s="47"/>
+      <c r="AI32" s="49"/>
+      <c r="AJ32" s="48"/>
+      <c r="AK32" s="52"/>
       <c r="AM32" s="9"/>
       <c r="AN32" s="39"/>
     </row>
@@ -5424,11 +5431,11 @@
       <c r="AD33" s="39"/>
       <c r="AE33" s="39"/>
       <c r="AF33" s="39"/>
-      <c r="AG33" s="48"/>
-      <c r="AH33" s="46"/>
-      <c r="AI33" s="48"/>
-      <c r="AJ33" s="47"/>
-      <c r="AK33" s="51"/>
+      <c r="AG33" s="49"/>
+      <c r="AH33" s="47"/>
+      <c r="AI33" s="49"/>
+      <c r="AJ33" s="48"/>
+      <c r="AK33" s="52"/>
       <c r="AM33" s="9"/>
       <c r="AN33" s="39"/>
     </row>
@@ -5467,11 +5474,11 @@
       <c r="AD34" s="39"/>
       <c r="AE34" s="39"/>
       <c r="AF34" s="39"/>
-      <c r="AG34" s="48"/>
-      <c r="AH34" s="46"/>
-      <c r="AI34" s="48"/>
-      <c r="AJ34" s="47"/>
-      <c r="AK34" s="51"/>
+      <c r="AG34" s="49"/>
+      <c r="AH34" s="47"/>
+      <c r="AI34" s="49"/>
+      <c r="AJ34" s="48"/>
+      <c r="AK34" s="52"/>
       <c r="AM34" s="9"/>
       <c r="AN34" s="39"/>
     </row>
@@ -5510,11 +5517,11 @@
       <c r="AD35" s="39"/>
       <c r="AE35" s="39"/>
       <c r="AF35" s="39"/>
-      <c r="AG35" s="48"/>
-      <c r="AH35" s="46"/>
-      <c r="AI35" s="48"/>
-      <c r="AJ35" s="47"/>
-      <c r="AK35" s="51"/>
+      <c r="AG35" s="49"/>
+      <c r="AH35" s="47"/>
+      <c r="AI35" s="49"/>
+      <c r="AJ35" s="48"/>
+      <c r="AK35" s="52"/>
       <c r="AM35" s="9"/>
       <c r="AN35" s="39"/>
     </row>
@@ -5553,11 +5560,11 @@
       <c r="AD36" s="39"/>
       <c r="AE36" s="39"/>
       <c r="AF36" s="39"/>
-      <c r="AG36" s="48"/>
-      <c r="AH36" s="46"/>
-      <c r="AI36" s="48"/>
-      <c r="AJ36" s="47"/>
-      <c r="AK36" s="51"/>
+      <c r="AG36" s="49"/>
+      <c r="AH36" s="47"/>
+      <c r="AI36" s="49"/>
+      <c r="AJ36" s="48"/>
+      <c r="AK36" s="52"/>
       <c r="AM36" s="9"/>
       <c r="AN36" s="39"/>
     </row>
@@ -5596,11 +5603,11 @@
       <c r="AD37" s="39"/>
       <c r="AE37" s="39"/>
       <c r="AF37" s="39"/>
-      <c r="AG37" s="48"/>
-      <c r="AH37" s="46"/>
-      <c r="AI37" s="48"/>
-      <c r="AJ37" s="47"/>
-      <c r="AK37" s="51"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="47"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="48"/>
+      <c r="AK37" s="52"/>
       <c r="AM37" s="9"/>
       <c r="AN37" s="39"/>
     </row>
@@ -5639,11 +5646,11 @@
       <c r="AD38" s="39"/>
       <c r="AE38" s="39"/>
       <c r="AF38" s="39"/>
-      <c r="AG38" s="48"/>
-      <c r="AH38" s="46"/>
-      <c r="AI38" s="48"/>
-      <c r="AJ38" s="47"/>
-      <c r="AK38" s="51"/>
+      <c r="AG38" s="49"/>
+      <c r="AH38" s="47"/>
+      <c r="AI38" s="49"/>
+      <c r="AJ38" s="48"/>
+      <c r="AK38" s="52"/>
       <c r="AM38" s="9"/>
       <c r="AN38" s="39"/>
     </row>
@@ -5682,11 +5689,11 @@
       <c r="AD39" s="39"/>
       <c r="AE39" s="39"/>
       <c r="AF39" s="39"/>
-      <c r="AG39" s="48"/>
-      <c r="AH39" s="46"/>
-      <c r="AI39" s="48"/>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="51"/>
+      <c r="AG39" s="49"/>
+      <c r="AH39" s="47"/>
+      <c r="AI39" s="49"/>
+      <c r="AJ39" s="48"/>
+      <c r="AK39" s="52"/>
       <c r="AM39" s="9"/>
       <c r="AN39" s="39"/>
     </row>
@@ -5725,11 +5732,11 @@
       <c r="AD40" s="39"/>
       <c r="AE40" s="39"/>
       <c r="AF40" s="39"/>
-      <c r="AG40" s="48"/>
-      <c r="AH40" s="46"/>
-      <c r="AI40" s="48"/>
-      <c r="AJ40" s="47"/>
-      <c r="AK40" s="51"/>
+      <c r="AG40" s="49"/>
+      <c r="AH40" s="47"/>
+      <c r="AI40" s="49"/>
+      <c r="AJ40" s="48"/>
+      <c r="AK40" s="52"/>
       <c r="AM40" s="9"/>
       <c r="AN40" s="39"/>
     </row>
@@ -5768,11 +5775,11 @@
       <c r="AD41" s="39"/>
       <c r="AE41" s="39"/>
       <c r="AF41" s="39"/>
-      <c r="AG41" s="48"/>
-      <c r="AH41" s="46"/>
-      <c r="AI41" s="48"/>
-      <c r="AJ41" s="47"/>
-      <c r="AK41" s="51"/>
+      <c r="AG41" s="49"/>
+      <c r="AH41" s="47"/>
+      <c r="AI41" s="49"/>
+      <c r="AJ41" s="48"/>
+      <c r="AK41" s="52"/>
       <c r="AM41" s="9"/>
       <c r="AN41" s="39"/>
     </row>
@@ -5811,11 +5818,11 @@
       <c r="AD42" s="39"/>
       <c r="AE42" s="39"/>
       <c r="AF42" s="39"/>
-      <c r="AG42" s="48"/>
-      <c r="AH42" s="46"/>
-      <c r="AI42" s="48"/>
-      <c r="AJ42" s="47"/>
-      <c r="AK42" s="51"/>
+      <c r="AG42" s="49"/>
+      <c r="AH42" s="47"/>
+      <c r="AI42" s="49"/>
+      <c r="AJ42" s="48"/>
+      <c r="AK42" s="52"/>
       <c r="AM42" s="9"/>
       <c r="AN42" s="39"/>
     </row>
@@ -5854,11 +5861,11 @@
       <c r="AD43" s="39"/>
       <c r="AE43" s="39"/>
       <c r="AF43" s="39"/>
-      <c r="AG43" s="48"/>
-      <c r="AH43" s="46"/>
-      <c r="AI43" s="48"/>
-      <c r="AJ43" s="47"/>
-      <c r="AK43" s="51"/>
+      <c r="AG43" s="49"/>
+      <c r="AH43" s="47"/>
+      <c r="AI43" s="49"/>
+      <c r="AJ43" s="48"/>
+      <c r="AK43" s="52"/>
       <c r="AM43" s="9"/>
       <c r="AN43" s="39"/>
     </row>
@@ -5897,11 +5904,11 @@
       <c r="AD44" s="39"/>
       <c r="AE44" s="39"/>
       <c r="AF44" s="39"/>
-      <c r="AG44" s="48"/>
-      <c r="AH44" s="46"/>
-      <c r="AI44" s="48"/>
-      <c r="AJ44" s="47"/>
-      <c r="AK44" s="51"/>
+      <c r="AG44" s="49"/>
+      <c r="AH44" s="47"/>
+      <c r="AI44" s="49"/>
+      <c r="AJ44" s="48"/>
+      <c r="AK44" s="52"/>
       <c r="AM44" s="9"/>
       <c r="AN44" s="39"/>
     </row>
@@ -5940,11 +5947,11 @@
       <c r="AD45" s="39"/>
       <c r="AE45" s="39"/>
       <c r="AF45" s="39"/>
-      <c r="AG45" s="48"/>
-      <c r="AH45" s="46"/>
-      <c r="AI45" s="48"/>
-      <c r="AJ45" s="47"/>
-      <c r="AK45" s="51"/>
+      <c r="AG45" s="49"/>
+      <c r="AH45" s="47"/>
+      <c r="AI45" s="49"/>
+      <c r="AJ45" s="48"/>
+      <c r="AK45" s="52"/>
       <c r="AM45" s="9"/>
       <c r="AN45" s="39"/>
     </row>
@@ -5983,11 +5990,11 @@
       <c r="AD46" s="39"/>
       <c r="AE46" s="39"/>
       <c r="AF46" s="39"/>
-      <c r="AG46" s="48"/>
-      <c r="AH46" s="46"/>
-      <c r="AI46" s="48"/>
-      <c r="AJ46" s="47"/>
-      <c r="AK46" s="51"/>
+      <c r="AG46" s="49"/>
+      <c r="AH46" s="47"/>
+      <c r="AI46" s="49"/>
+      <c r="AJ46" s="48"/>
+      <c r="AK46" s="52"/>
       <c r="AM46" s="9"/>
       <c r="AN46" s="39"/>
     </row>
@@ -6026,11 +6033,11 @@
       <c r="AD47" s="39"/>
       <c r="AE47" s="39"/>
       <c r="AF47" s="39"/>
-      <c r="AG47" s="48"/>
-      <c r="AH47" s="46"/>
-      <c r="AI47" s="48"/>
-      <c r="AJ47" s="47"/>
-      <c r="AK47" s="51"/>
+      <c r="AG47" s="49"/>
+      <c r="AH47" s="47"/>
+      <c r="AI47" s="49"/>
+      <c r="AJ47" s="48"/>
+      <c r="AK47" s="52"/>
       <c r="AM47" s="9"/>
       <c r="AN47" s="39"/>
     </row>
@@ -6069,11 +6076,11 @@
       <c r="AD48" s="39"/>
       <c r="AE48" s="39"/>
       <c r="AF48" s="39"/>
-      <c r="AG48" s="48"/>
-      <c r="AH48" s="46"/>
-      <c r="AI48" s="48"/>
-      <c r="AJ48" s="47"/>
-      <c r="AK48" s="51"/>
+      <c r="AG48" s="49"/>
+      <c r="AH48" s="47"/>
+      <c r="AI48" s="49"/>
+      <c r="AJ48" s="48"/>
+      <c r="AK48" s="52"/>
       <c r="AM48" s="9"/>
       <c r="AN48" s="39"/>
     </row>
@@ -6112,11 +6119,11 @@
       <c r="AD49" s="39"/>
       <c r="AE49" s="39"/>
       <c r="AF49" s="39"/>
-      <c r="AG49" s="48"/>
-      <c r="AH49" s="46"/>
-      <c r="AI49" s="48"/>
-      <c r="AJ49" s="47"/>
-      <c r="AK49" s="51"/>
+      <c r="AG49" s="49"/>
+      <c r="AH49" s="47"/>
+      <c r="AI49" s="49"/>
+      <c r="AJ49" s="48"/>
+      <c r="AK49" s="52"/>
       <c r="AM49" s="9"/>
       <c r="AN49" s="39"/>
     </row>
@@ -6155,11 +6162,11 @@
       <c r="AD50" s="39"/>
       <c r="AE50" s="39"/>
       <c r="AF50" s="39"/>
-      <c r="AG50" s="48"/>
-      <c r="AH50" s="46"/>
-      <c r="AI50" s="48"/>
-      <c r="AJ50" s="47"/>
-      <c r="AK50" s="51"/>
+      <c r="AG50" s="49"/>
+      <c r="AH50" s="47"/>
+      <c r="AI50" s="49"/>
+      <c r="AJ50" s="48"/>
+      <c r="AK50" s="52"/>
       <c r="AM50" s="9"/>
       <c r="AN50" s="39"/>
     </row>
@@ -6198,11 +6205,11 @@
       <c r="AD51" s="39"/>
       <c r="AE51" s="39"/>
       <c r="AF51" s="39"/>
-      <c r="AG51" s="48"/>
-      <c r="AH51" s="46"/>
-      <c r="AI51" s="48"/>
-      <c r="AJ51" s="47"/>
-      <c r="AK51" s="51"/>
+      <c r="AG51" s="49"/>
+      <c r="AH51" s="47"/>
+      <c r="AI51" s="49"/>
+      <c r="AJ51" s="48"/>
+      <c r="AK51" s="52"/>
       <c r="AM51" s="9"/>
       <c r="AN51" s="39"/>
     </row>
@@ -6241,11 +6248,11 @@
       <c r="AD52" s="39"/>
       <c r="AE52" s="39"/>
       <c r="AF52" s="39"/>
-      <c r="AG52" s="48"/>
-      <c r="AH52" s="46"/>
-      <c r="AI52" s="48"/>
-      <c r="AJ52" s="47"/>
-      <c r="AK52" s="51"/>
+      <c r="AG52" s="49"/>
+      <c r="AH52" s="47"/>
+      <c r="AI52" s="49"/>
+      <c r="AJ52" s="48"/>
+      <c r="AK52" s="52"/>
       <c r="AM52" s="9"/>
       <c r="AN52" s="39"/>
     </row>
@@ -6284,11 +6291,11 @@
       <c r="AD53" s="39"/>
       <c r="AE53" s="39"/>
       <c r="AF53" s="39"/>
-      <c r="AG53" s="48"/>
-      <c r="AH53" s="46"/>
-      <c r="AI53" s="48"/>
-      <c r="AJ53" s="47"/>
-      <c r="AK53" s="51"/>
+      <c r="AG53" s="49"/>
+      <c r="AH53" s="47"/>
+      <c r="AI53" s="49"/>
+      <c r="AJ53" s="48"/>
+      <c r="AK53" s="52"/>
       <c r="AM53" s="9"/>
       <c r="AN53" s="39"/>
     </row>
@@ -6327,11 +6334,11 @@
       <c r="AD54" s="39"/>
       <c r="AE54" s="39"/>
       <c r="AF54" s="39"/>
-      <c r="AG54" s="48"/>
-      <c r="AH54" s="46"/>
-      <c r="AI54" s="48"/>
-      <c r="AJ54" s="47"/>
-      <c r="AK54" s="51"/>
+      <c r="AG54" s="49"/>
+      <c r="AH54" s="47"/>
+      <c r="AI54" s="49"/>
+      <c r="AJ54" s="48"/>
+      <c r="AK54" s="52"/>
       <c r="AM54" s="9"/>
       <c r="AN54" s="39"/>
     </row>
@@ -6370,11 +6377,11 @@
       <c r="AD55" s="39"/>
       <c r="AE55" s="39"/>
       <c r="AF55" s="39"/>
-      <c r="AG55" s="48"/>
-      <c r="AH55" s="46"/>
-      <c r="AI55" s="48"/>
-      <c r="AJ55" s="47"/>
-      <c r="AK55" s="51"/>
+      <c r="AG55" s="49"/>
+      <c r="AH55" s="47"/>
+      <c r="AI55" s="49"/>
+      <c r="AJ55" s="48"/>
+      <c r="AK55" s="52"/>
       <c r="AM55" s="9"/>
       <c r="AN55" s="39"/>
     </row>
@@ -6413,11 +6420,11 @@
       <c r="AD56" s="39"/>
       <c r="AE56" s="39"/>
       <c r="AF56" s="39"/>
-      <c r="AG56" s="48"/>
-      <c r="AH56" s="46"/>
-      <c r="AI56" s="48"/>
-      <c r="AJ56" s="47"/>
-      <c r="AK56" s="51"/>
+      <c r="AG56" s="49"/>
+      <c r="AH56" s="47"/>
+      <c r="AI56" s="49"/>
+      <c r="AJ56" s="48"/>
+      <c r="AK56" s="52"/>
       <c r="AM56" s="9"/>
       <c r="AN56" s="39"/>
     </row>
@@ -6456,11 +6463,11 @@
       <c r="AD57" s="39"/>
       <c r="AE57" s="39"/>
       <c r="AF57" s="39"/>
-      <c r="AG57" s="48"/>
-      <c r="AH57" s="46"/>
-      <c r="AI57" s="48"/>
-      <c r="AJ57" s="47"/>
-      <c r="AK57" s="51"/>
+      <c r="AG57" s="49"/>
+      <c r="AH57" s="47"/>
+      <c r="AI57" s="49"/>
+      <c r="AJ57" s="48"/>
+      <c r="AK57" s="52"/>
       <c r="AM57" s="9"/>
       <c r="AN57" s="39"/>
     </row>
@@ -6499,11 +6506,11 @@
       <c r="AD58" s="39"/>
       <c r="AE58" s="39"/>
       <c r="AF58" s="39"/>
-      <c r="AG58" s="48"/>
-      <c r="AH58" s="46"/>
-      <c r="AI58" s="48"/>
-      <c r="AJ58" s="47"/>
-      <c r="AK58" s="51"/>
+      <c r="AG58" s="49"/>
+      <c r="AH58" s="47"/>
+      <c r="AI58" s="49"/>
+      <c r="AJ58" s="48"/>
+      <c r="AK58" s="52"/>
       <c r="AM58" s="9"/>
       <c r="AN58" s="39"/>
     </row>
@@ -6542,11 +6549,11 @@
       <c r="AD59" s="39"/>
       <c r="AE59" s="39"/>
       <c r="AF59" s="39"/>
-      <c r="AG59" s="48"/>
-      <c r="AH59" s="46"/>
-      <c r="AI59" s="48"/>
-      <c r="AJ59" s="47"/>
-      <c r="AK59" s="51"/>
+      <c r="AG59" s="49"/>
+      <c r="AH59" s="47"/>
+      <c r="AI59" s="49"/>
+      <c r="AJ59" s="48"/>
+      <c r="AK59" s="52"/>
       <c r="AM59" s="9"/>
       <c r="AN59" s="39"/>
     </row>
@@ -6585,11 +6592,11 @@
       <c r="AD60" s="39"/>
       <c r="AE60" s="39"/>
       <c r="AF60" s="39"/>
-      <c r="AG60" s="48"/>
-      <c r="AH60" s="46"/>
-      <c r="AI60" s="48"/>
-      <c r="AJ60" s="47"/>
-      <c r="AK60" s="51"/>
+      <c r="AG60" s="49"/>
+      <c r="AH60" s="47"/>
+      <c r="AI60" s="49"/>
+      <c r="AJ60" s="48"/>
+      <c r="AK60" s="52"/>
       <c r="AM60" s="9"/>
       <c r="AN60" s="39"/>
     </row>
@@ -6628,11 +6635,11 @@
       <c r="AD61" s="39"/>
       <c r="AE61" s="39"/>
       <c r="AF61" s="39"/>
-      <c r="AG61" s="48"/>
-      <c r="AH61" s="46"/>
-      <c r="AI61" s="48"/>
-      <c r="AJ61" s="47"/>
-      <c r="AK61" s="51"/>
+      <c r="AG61" s="49"/>
+      <c r="AH61" s="47"/>
+      <c r="AI61" s="49"/>
+      <c r="AJ61" s="48"/>
+      <c r="AK61" s="52"/>
       <c r="AM61" s="9"/>
       <c r="AN61" s="39"/>
     </row>
@@ -6671,11 +6678,11 @@
       <c r="AD62" s="39"/>
       <c r="AE62" s="39"/>
       <c r="AF62" s="39"/>
-      <c r="AG62" s="48"/>
-      <c r="AH62" s="46"/>
-      <c r="AI62" s="48"/>
-      <c r="AJ62" s="47"/>
-      <c r="AK62" s="51"/>
+      <c r="AG62" s="49"/>
+      <c r="AH62" s="47"/>
+      <c r="AI62" s="49"/>
+      <c r="AJ62" s="48"/>
+      <c r="AK62" s="52"/>
       <c r="AM62" s="9"/>
       <c r="AN62" s="39"/>
     </row>
@@ -6714,11 +6721,11 @@
       <c r="AD63" s="39"/>
       <c r="AE63" s="39"/>
       <c r="AF63" s="39"/>
-      <c r="AG63" s="48"/>
-      <c r="AH63" s="46"/>
-      <c r="AI63" s="48"/>
-      <c r="AJ63" s="47"/>
-      <c r="AK63" s="51"/>
+      <c r="AG63" s="49"/>
+      <c r="AH63" s="47"/>
+      <c r="AI63" s="49"/>
+      <c r="AJ63" s="48"/>
+      <c r="AK63" s="52"/>
       <c r="AM63" s="9"/>
       <c r="AN63" s="39"/>
     </row>
@@ -6757,11 +6764,11 @@
       <c r="AD64" s="39"/>
       <c r="AE64" s="39"/>
       <c r="AF64" s="39"/>
-      <c r="AG64" s="48"/>
-      <c r="AH64" s="46"/>
-      <c r="AI64" s="48"/>
-      <c r="AJ64" s="47"/>
-      <c r="AK64" s="51"/>
+      <c r="AG64" s="49"/>
+      <c r="AH64" s="47"/>
+      <c r="AI64" s="49"/>
+      <c r="AJ64" s="48"/>
+      <c r="AK64" s="52"/>
       <c r="AM64" s="9"/>
       <c r="AN64" s="39"/>
     </row>
@@ -6800,11 +6807,11 @@
       <c r="AD65" s="39"/>
       <c r="AE65" s="39"/>
       <c r="AF65" s="39"/>
-      <c r="AG65" s="48"/>
-      <c r="AH65" s="46"/>
-      <c r="AI65" s="48"/>
-      <c r="AJ65" s="47"/>
-      <c r="AK65" s="51"/>
+      <c r="AG65" s="49"/>
+      <c r="AH65" s="47"/>
+      <c r="AI65" s="49"/>
+      <c r="AJ65" s="48"/>
+      <c r="AK65" s="52"/>
       <c r="AM65" s="9"/>
       <c r="AN65" s="39"/>
     </row>
@@ -6843,11 +6850,11 @@
       <c r="AD66" s="39"/>
       <c r="AE66" s="39"/>
       <c r="AF66" s="39"/>
-      <c r="AG66" s="48"/>
-      <c r="AH66" s="46"/>
-      <c r="AI66" s="48"/>
-      <c r="AJ66" s="47"/>
-      <c r="AK66" s="51"/>
+      <c r="AG66" s="49"/>
+      <c r="AH66" s="47"/>
+      <c r="AI66" s="49"/>
+      <c r="AJ66" s="48"/>
+      <c r="AK66" s="52"/>
       <c r="AM66" s="9"/>
       <c r="AN66" s="39"/>
     </row>
@@ -6886,11 +6893,11 @@
       <c r="AD67" s="39"/>
       <c r="AE67" s="39"/>
       <c r="AF67" s="39"/>
-      <c r="AG67" s="48"/>
-      <c r="AH67" s="46"/>
-      <c r="AI67" s="48"/>
-      <c r="AJ67" s="47"/>
-      <c r="AK67" s="51"/>
+      <c r="AG67" s="49"/>
+      <c r="AH67" s="47"/>
+      <c r="AI67" s="49"/>
+      <c r="AJ67" s="48"/>
+      <c r="AK67" s="52"/>
       <c r="AM67" s="9"/>
       <c r="AN67" s="39"/>
     </row>
@@ -6929,11 +6936,11 @@
       <c r="AD68" s="39"/>
       <c r="AE68" s="39"/>
       <c r="AF68" s="39"/>
-      <c r="AG68" s="48"/>
-      <c r="AH68" s="46"/>
-      <c r="AI68" s="48"/>
-      <c r="AJ68" s="47"/>
-      <c r="AK68" s="51"/>
+      <c r="AG68" s="49"/>
+      <c r="AH68" s="47"/>
+      <c r="AI68" s="49"/>
+      <c r="AJ68" s="48"/>
+      <c r="AK68" s="52"/>
       <c r="AM68" s="9"/>
       <c r="AN68" s="39"/>
     </row>
@@ -6972,11 +6979,11 @@
       <c r="AD69" s="39"/>
       <c r="AE69" s="39"/>
       <c r="AF69" s="39"/>
-      <c r="AG69" s="48"/>
-      <c r="AH69" s="46"/>
-      <c r="AI69" s="48"/>
-      <c r="AJ69" s="47"/>
-      <c r="AK69" s="51"/>
+      <c r="AG69" s="49"/>
+      <c r="AH69" s="47"/>
+      <c r="AI69" s="49"/>
+      <c r="AJ69" s="48"/>
+      <c r="AK69" s="52"/>
       <c r="AM69" s="9"/>
       <c r="AN69" s="39"/>
     </row>
@@ -7015,11 +7022,11 @@
       <c r="AD70" s="39"/>
       <c r="AE70" s="39"/>
       <c r="AF70" s="39"/>
-      <c r="AG70" s="48"/>
-      <c r="AH70" s="46"/>
-      <c r="AI70" s="48"/>
-      <c r="AJ70" s="47"/>
-      <c r="AK70" s="51"/>
+      <c r="AG70" s="49"/>
+      <c r="AH70" s="47"/>
+      <c r="AI70" s="49"/>
+      <c r="AJ70" s="48"/>
+      <c r="AK70" s="52"/>
       <c r="AM70" s="9"/>
       <c r="AN70" s="39"/>
     </row>
@@ -7058,11 +7065,11 @@
       <c r="AD71" s="39"/>
       <c r="AE71" s="39"/>
       <c r="AF71" s="39"/>
-      <c r="AG71" s="48"/>
-      <c r="AH71" s="46"/>
-      <c r="AI71" s="48"/>
-      <c r="AJ71" s="47"/>
-      <c r="AK71" s="51"/>
+      <c r="AG71" s="49"/>
+      <c r="AH71" s="47"/>
+      <c r="AI71" s="49"/>
+      <c r="AJ71" s="48"/>
+      <c r="AK71" s="52"/>
       <c r="AM71" s="9"/>
       <c r="AN71" s="39"/>
     </row>
@@ -7101,11 +7108,11 @@
       <c r="AD72" s="39"/>
       <c r="AE72" s="39"/>
       <c r="AF72" s="39"/>
-      <c r="AG72" s="48"/>
-      <c r="AH72" s="46"/>
-      <c r="AI72" s="48"/>
-      <c r="AJ72" s="47"/>
-      <c r="AK72" s="51"/>
+      <c r="AG72" s="49"/>
+      <c r="AH72" s="47"/>
+      <c r="AI72" s="49"/>
+      <c r="AJ72" s="48"/>
+      <c r="AK72" s="52"/>
       <c r="AM72" s="9"/>
       <c r="AN72" s="39"/>
     </row>
@@ -7144,11 +7151,11 @@
       <c r="AD73" s="39"/>
       <c r="AE73" s="39"/>
       <c r="AF73" s="39"/>
-      <c r="AG73" s="48"/>
-      <c r="AH73" s="46"/>
-      <c r="AI73" s="48"/>
-      <c r="AJ73" s="47"/>
-      <c r="AK73" s="51"/>
+      <c r="AG73" s="49"/>
+      <c r="AH73" s="47"/>
+      <c r="AI73" s="49"/>
+      <c r="AJ73" s="48"/>
+      <c r="AK73" s="52"/>
       <c r="AM73" s="9"/>
       <c r="AN73" s="39"/>
     </row>
@@ -7187,11 +7194,11 @@
       <c r="AD74" s="39"/>
       <c r="AE74" s="39"/>
       <c r="AF74" s="39"/>
-      <c r="AG74" s="48"/>
-      <c r="AH74" s="46"/>
-      <c r="AI74" s="48"/>
-      <c r="AJ74" s="47"/>
-      <c r="AK74" s="51"/>
+      <c r="AG74" s="49"/>
+      <c r="AH74" s="47"/>
+      <c r="AI74" s="49"/>
+      <c r="AJ74" s="48"/>
+      <c r="AK74" s="52"/>
       <c r="AM74" s="9"/>
       <c r="AN74" s="39"/>
     </row>
@@ -7230,11 +7237,11 @@
       <c r="AD75" s="39"/>
       <c r="AE75" s="39"/>
       <c r="AF75" s="39"/>
-      <c r="AG75" s="48"/>
-      <c r="AH75" s="46"/>
-      <c r="AI75" s="48"/>
-      <c r="AJ75" s="47"/>
-      <c r="AK75" s="51"/>
+      <c r="AG75" s="49"/>
+      <c r="AH75" s="47"/>
+      <c r="AI75" s="49"/>
+      <c r="AJ75" s="48"/>
+      <c r="AK75" s="52"/>
       <c r="AM75" s="9"/>
       <c r="AN75" s="39"/>
     </row>
@@ -7273,11 +7280,11 @@
       <c r="AD76" s="39"/>
       <c r="AE76" s="39"/>
       <c r="AF76" s="39"/>
-      <c r="AG76" s="48"/>
-      <c r="AH76" s="46"/>
-      <c r="AI76" s="48"/>
-      <c r="AJ76" s="47"/>
-      <c r="AK76" s="51"/>
+      <c r="AG76" s="49"/>
+      <c r="AH76" s="47"/>
+      <c r="AI76" s="49"/>
+      <c r="AJ76" s="48"/>
+      <c r="AK76" s="52"/>
       <c r="AM76" s="9"/>
       <c r="AN76" s="39"/>
     </row>
@@ -7316,11 +7323,11 @@
       <c r="AD77" s="39"/>
       <c r="AE77" s="39"/>
       <c r="AF77" s="39"/>
-      <c r="AG77" s="48"/>
-      <c r="AH77" s="46"/>
-      <c r="AI77" s="48"/>
-      <c r="AJ77" s="47"/>
-      <c r="AK77" s="51"/>
+      <c r="AG77" s="49"/>
+      <c r="AH77" s="47"/>
+      <c r="AI77" s="49"/>
+      <c r="AJ77" s="48"/>
+      <c r="AK77" s="52"/>
       <c r="AM77" s="9"/>
       <c r="AN77" s="39"/>
     </row>
@@ -7359,11 +7366,11 @@
       <c r="AD78" s="39"/>
       <c r="AE78" s="39"/>
       <c r="AF78" s="39"/>
-      <c r="AG78" s="48"/>
-      <c r="AH78" s="46"/>
-      <c r="AI78" s="48"/>
-      <c r="AJ78" s="47"/>
-      <c r="AK78" s="51"/>
+      <c r="AG78" s="49"/>
+      <c r="AH78" s="47"/>
+      <c r="AI78" s="49"/>
+      <c r="AJ78" s="48"/>
+      <c r="AK78" s="52"/>
       <c r="AM78" s="9"/>
       <c r="AN78" s="39"/>
     </row>
@@ -7402,11 +7409,11 @@
       <c r="AD79" s="39"/>
       <c r="AE79" s="39"/>
       <c r="AF79" s="39"/>
-      <c r="AG79" s="48"/>
-      <c r="AH79" s="46"/>
-      <c r="AI79" s="48"/>
-      <c r="AJ79" s="47"/>
-      <c r="AK79" s="51"/>
+      <c r="AG79" s="49"/>
+      <c r="AH79" s="47"/>
+      <c r="AI79" s="49"/>
+      <c r="AJ79" s="48"/>
+      <c r="AK79" s="52"/>
       <c r="AM79" s="9"/>
       <c r="AN79" s="39"/>
     </row>
@@ -7445,11 +7452,11 @@
       <c r="AD80" s="39"/>
       <c r="AE80" s="39"/>
       <c r="AF80" s="39"/>
-      <c r="AG80" s="48"/>
-      <c r="AH80" s="46"/>
-      <c r="AI80" s="48"/>
-      <c r="AJ80" s="47"/>
-      <c r="AK80" s="51"/>
+      <c r="AG80" s="49"/>
+      <c r="AH80" s="47"/>
+      <c r="AI80" s="49"/>
+      <c r="AJ80" s="48"/>
+      <c r="AK80" s="52"/>
       <c r="AM80" s="9"/>
       <c r="AN80" s="39"/>
     </row>
@@ -7488,11 +7495,11 @@
       <c r="AD81" s="39"/>
       <c r="AE81" s="39"/>
       <c r="AF81" s="39"/>
-      <c r="AG81" s="48"/>
-      <c r="AH81" s="46"/>
-      <c r="AI81" s="48"/>
-      <c r="AJ81" s="47"/>
-      <c r="AK81" s="51"/>
+      <c r="AG81" s="49"/>
+      <c r="AH81" s="47"/>
+      <c r="AI81" s="49"/>
+      <c r="AJ81" s="48"/>
+      <c r="AK81" s="52"/>
       <c r="AM81" s="9"/>
       <c r="AN81" s="39"/>
     </row>
@@ -7531,11 +7538,11 @@
       <c r="AD82" s="39"/>
       <c r="AE82" s="39"/>
       <c r="AF82" s="39"/>
-      <c r="AG82" s="48"/>
-      <c r="AH82" s="46"/>
-      <c r="AI82" s="48"/>
-      <c r="AJ82" s="47"/>
-      <c r="AK82" s="51"/>
+      <c r="AG82" s="49"/>
+      <c r="AH82" s="47"/>
+      <c r="AI82" s="49"/>
+      <c r="AJ82" s="48"/>
+      <c r="AK82" s="52"/>
       <c r="AM82" s="9"/>
       <c r="AN82" s="39"/>
     </row>
@@ -7574,16 +7581,16 @@
       <c r="AD83" s="39"/>
       <c r="AE83" s="39"/>
       <c r="AF83" s="39"/>
-      <c r="AG83" s="48"/>
-      <c r="AH83" s="46"/>
-      <c r="AI83" s="48"/>
-      <c r="AJ83" s="47"/>
-      <c r="AK83" s="51"/>
+      <c r="AG83" s="49"/>
+      <c r="AH83" s="47"/>
+      <c r="AI83" s="49"/>
+      <c r="AJ83" s="48"/>
+      <c r="AK83" s="52"/>
       <c r="AM83" s="9"/>
       <c r="AN83" s="39"/>
     </row>
     <row r="84" spans="1:38">
-      <c r="A84" s="52"/>
+      <c r="A84" s="53"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -7592,7 +7599,7 @@
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="J84" s="5"/>
-      <c r="K84" s="53"/>
+      <c r="K84" s="54"/>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
@@ -7603,10 +7610,10 @@
       <c r="S84" s="5"/>
       <c r="T84" s="5"/>
       <c r="Y84" s="5"/>
-      <c r="AL84" s="54"/>
+      <c r="AL84" s="55"/>
     </row>
     <row r="85" spans="1:25">
-      <c r="A85" s="52"/>
+      <c r="A85" s="53"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -7615,7 +7622,7 @@
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="J85" s="5"/>
-      <c r="K85" s="53"/>
+      <c r="K85" s="54"/>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
@@ -7628,7 +7635,7 @@
       <c r="Y85" s="5"/>
     </row>
     <row r="86" spans="1:25">
-      <c r="A86" s="52"/>
+      <c r="A86" s="53"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -7637,7 +7644,7 @@
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="J86" s="5"/>
-      <c r="K86" s="53"/>
+      <c r="K86" s="54"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
@@ -7650,7 +7657,7 @@
       <c r="Y86" s="5"/>
     </row>
     <row r="87" spans="1:25">
-      <c r="A87" s="52"/>
+      <c r="A87" s="53"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -7659,7 +7666,7 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="J87" s="5"/>
-      <c r="K87" s="53"/>
+      <c r="K87" s="54"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
@@ -7672,7 +7679,7 @@
       <c r="Y87" s="5"/>
     </row>
     <row r="88" spans="1:25">
-      <c r="A88" s="52"/>
+      <c r="A88" s="53"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -7681,7 +7688,7 @@
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="J88" s="5"/>
-      <c r="K88" s="53"/>
+      <c r="K88" s="54"/>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
@@ -7694,7 +7701,7 @@
       <c r="Y88" s="5"/>
     </row>
     <row r="89" spans="1:25">
-      <c r="A89" s="52"/>
+      <c r="A89" s="53"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -7703,7 +7710,7 @@
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="J89" s="5"/>
-      <c r="K89" s="53"/>
+      <c r="K89" s="54"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
@@ -7716,7 +7723,7 @@
       <c r="Y89" s="5"/>
     </row>
     <row r="90" spans="1:25">
-      <c r="A90" s="52"/>
+      <c r="A90" s="53"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -7725,7 +7732,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="J90" s="5"/>
-      <c r="K90" s="53"/>
+      <c r="K90" s="54"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
@@ -7738,7 +7745,7 @@
       <c r="Y90" s="5"/>
     </row>
     <row r="91" spans="1:25">
-      <c r="A91" s="52"/>
+      <c r="A91" s="53"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -7747,7 +7754,7 @@
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="J91" s="5"/>
-      <c r="K91" s="53"/>
+      <c r="K91" s="54"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
@@ -7760,7 +7767,7 @@
       <c r="Y91" s="5"/>
     </row>
     <row r="92" spans="1:25">
-      <c r="A92" s="52"/>
+      <c r="A92" s="53"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -7769,7 +7776,7 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="J92" s="5"/>
-      <c r="K92" s="53"/>
+      <c r="K92" s="54"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
@@ -7782,7 +7789,7 @@
       <c r="Y92" s="5"/>
     </row>
     <row r="93" spans="1:25">
-      <c r="A93" s="52"/>
+      <c r="A93" s="53"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -7791,7 +7798,7 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="J93" s="5"/>
-      <c r="K93" s="53"/>
+      <c r="K93" s="54"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
@@ -7804,7 +7811,7 @@
       <c r="Y93" s="5"/>
     </row>
     <row r="94" spans="1:25">
-      <c r="A94" s="52"/>
+      <c r="A94" s="53"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -7813,7 +7820,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="J94" s="5"/>
-      <c r="K94" s="53"/>
+      <c r="K94" s="54"/>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
@@ -7826,7 +7833,7 @@
       <c r="Y94" s="5"/>
     </row>
     <row r="95" spans="1:25">
-      <c r="A95" s="52"/>
+      <c r="A95" s="53"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -7835,7 +7842,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="J95" s="5"/>
-      <c r="K95" s="53"/>
+      <c r="K95" s="54"/>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
@@ -7848,7 +7855,7 @@
       <c r="Y95" s="5"/>
     </row>
     <row r="96" spans="1:25">
-      <c r="A96" s="52"/>
+      <c r="A96" s="53"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -7857,7 +7864,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="J96" s="5"/>
-      <c r="K96" s="53"/>
+      <c r="K96" s="54"/>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
@@ -7870,7 +7877,7 @@
       <c r="Y96" s="5"/>
     </row>
     <row r="97" spans="1:25">
-      <c r="A97" s="52"/>
+      <c r="A97" s="53"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -7879,7 +7886,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="J97" s="5"/>
-      <c r="K97" s="53"/>
+      <c r="K97" s="54"/>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
@@ -7892,7 +7899,7 @@
       <c r="Y97" s="5"/>
     </row>
     <row r="98" spans="1:25">
-      <c r="A98" s="52"/>
+      <c r="A98" s="53"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -7901,7 +7908,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="J98" s="5"/>
-      <c r="K98" s="53"/>
+      <c r="K98" s="54"/>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
@@ -7914,7 +7921,7 @@
       <c r="Y98" s="5"/>
     </row>
     <row r="99" spans="1:25">
-      <c r="A99" s="52"/>
+      <c r="A99" s="53"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -7923,7 +7930,7 @@
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="J99" s="5"/>
-      <c r="K99" s="53"/>
+      <c r="K99" s="54"/>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
@@ -7936,7 +7943,7 @@
       <c r="Y99" s="5"/>
     </row>
     <row r="100" spans="1:25">
-      <c r="A100" s="52"/>
+      <c r="A100" s="53"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -7945,7 +7952,7 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="J100" s="5"/>
-      <c r="K100" s="53"/>
+      <c r="K100" s="54"/>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
@@ -7958,7 +7965,7 @@
       <c r="Y100" s="5"/>
     </row>
     <row r="101" spans="1:25">
-      <c r="A101" s="52"/>
+      <c r="A101" s="53"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -7967,7 +7974,7 @@
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="J101" s="5"/>
-      <c r="K101" s="53"/>
+      <c r="K101" s="54"/>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
@@ -7980,7 +7987,7 @@
       <c r="Y101" s="5"/>
     </row>
     <row r="102" spans="1:25">
-      <c r="A102" s="52"/>
+      <c r="A102" s="53"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -7989,7 +7996,7 @@
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="J102" s="5"/>
-      <c r="K102" s="53"/>
+      <c r="K102" s="54"/>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
@@ -8002,7 +8009,7 @@
       <c r="Y102" s="5"/>
     </row>
     <row r="103" spans="1:25">
-      <c r="A103" s="52"/>
+      <c r="A103" s="53"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -8011,7 +8018,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="J103" s="5"/>
-      <c r="K103" s="53"/>
+      <c r="K103" s="54"/>
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
@@ -8024,7 +8031,7 @@
       <c r="Y103" s="5"/>
     </row>
     <row r="104" spans="1:25">
-      <c r="A104" s="52"/>
+      <c r="A104" s="53"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -8033,7 +8040,7 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="J104" s="5"/>
-      <c r="K104" s="53"/>
+      <c r="K104" s="54"/>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
@@ -8046,7 +8053,7 @@
       <c r="Y104" s="5"/>
     </row>
     <row r="105" spans="1:25">
-      <c r="A105" s="52"/>
+      <c r="A105" s="53"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -8055,7 +8062,7 @@
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="J105" s="5"/>
-      <c r="K105" s="53"/>
+      <c r="K105" s="54"/>
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
@@ -8068,7 +8075,7 @@
       <c r="Y105" s="5"/>
     </row>
     <row r="106" spans="1:25">
-      <c r="A106" s="52"/>
+      <c r="A106" s="53"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -8077,7 +8084,7 @@
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="J106" s="5"/>
-      <c r="K106" s="53"/>
+      <c r="K106" s="54"/>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
@@ -8090,7 +8097,7 @@
       <c r="Y106" s="5"/>
     </row>
     <row r="107" spans="1:25">
-      <c r="A107" s="52"/>
+      <c r="A107" s="53"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -8099,7 +8106,7 @@
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="J107" s="5"/>
-      <c r="K107" s="53"/>
+      <c r="K107" s="54"/>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
@@ -8112,7 +8119,7 @@
       <c r="Y107" s="5"/>
     </row>
     <row r="108" spans="1:25">
-      <c r="A108" s="52"/>
+      <c r="A108" s="53"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -8121,7 +8128,7 @@
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="J108" s="5"/>
-      <c r="K108" s="53"/>
+      <c r="K108" s="54"/>
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
@@ -8134,7 +8141,7 @@
       <c r="Y108" s="5"/>
     </row>
     <row r="109" spans="1:25">
-      <c r="A109" s="52"/>
+      <c r="A109" s="53"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -8143,7 +8150,7 @@
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="J109" s="5"/>
-      <c r="K109" s="53"/>
+      <c r="K109" s="54"/>
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
@@ -8156,7 +8163,7 @@
       <c r="Y109" s="5"/>
     </row>
     <row r="110" spans="1:25">
-      <c r="A110" s="52"/>
+      <c r="A110" s="53"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -8165,7 +8172,7 @@
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="J110" s="5"/>
-      <c r="K110" s="53"/>
+      <c r="K110" s="54"/>
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -8178,7 +8185,7 @@
       <c r="Y110" s="5"/>
     </row>
     <row r="111" spans="1:25">
-      <c r="A111" s="52"/>
+      <c r="A111" s="53"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -8187,7 +8194,7 @@
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="J111" s="5"/>
-      <c r="K111" s="53"/>
+      <c r="K111" s="54"/>
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -8200,7 +8207,7 @@
       <c r="Y111" s="5"/>
     </row>
     <row r="112" spans="1:25">
-      <c r="A112" s="52"/>
+      <c r="A112" s="53"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -8209,7 +8216,7 @@
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="J112" s="5"/>
-      <c r="K112" s="53"/>
+      <c r="K112" s="54"/>
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
@@ -8222,7 +8229,7 @@
       <c r="Y112" s="5"/>
     </row>
     <row r="113" spans="1:25">
-      <c r="A113" s="52"/>
+      <c r="A113" s="53"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -8231,7 +8238,7 @@
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="J113" s="5"/>
-      <c r="K113" s="53"/>
+      <c r="K113" s="54"/>
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
@@ -8244,7 +8251,7 @@
       <c r="Y113" s="5"/>
     </row>
     <row r="114" spans="1:25">
-      <c r="A114" s="52"/>
+      <c r="A114" s="53"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -8253,7 +8260,7 @@
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="J114" s="5"/>
-      <c r="K114" s="53"/>
+      <c r="K114" s="54"/>
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
@@ -8266,7 +8273,7 @@
       <c r="Y114" s="5"/>
     </row>
     <row r="115" spans="1:25">
-      <c r="A115" s="52"/>
+      <c r="A115" s="53"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -8275,7 +8282,7 @@
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="J115" s="5"/>
-      <c r="K115" s="53"/>
+      <c r="K115" s="54"/>
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
@@ -8288,7 +8295,7 @@
       <c r="Y115" s="5"/>
     </row>
     <row r="116" spans="1:25">
-      <c r="A116" s="52"/>
+      <c r="A116" s="53"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -8297,7 +8304,7 @@
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="J116" s="5"/>
-      <c r="K116" s="53"/>
+      <c r="K116" s="54"/>
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
@@ -8310,7 +8317,7 @@
       <c r="Y116" s="5"/>
     </row>
     <row r="117" spans="1:25">
-      <c r="A117" s="52"/>
+      <c r="A117" s="53"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -8319,7 +8326,7 @@
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="53"/>
+      <c r="K117" s="54"/>
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
@@ -8332,7 +8339,7 @@
       <c r="Y117" s="5"/>
     </row>
     <row r="118" spans="1:25">
-      <c r="A118" s="52"/>
+      <c r="A118" s="53"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -8341,7 +8348,7 @@
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="J118" s="5"/>
-      <c r="K118" s="53"/>
+      <c r="K118" s="54"/>
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
@@ -8354,7 +8361,7 @@
       <c r="Y118" s="5"/>
     </row>
     <row r="119" spans="1:25">
-      <c r="A119" s="52"/>
+      <c r="A119" s="53"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -8363,7 +8370,7 @@
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="J119" s="5"/>
-      <c r="K119" s="53"/>
+      <c r="K119" s="54"/>
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
@@ -8376,7 +8383,7 @@
       <c r="Y119" s="5"/>
     </row>
     <row r="120" spans="1:25">
-      <c r="A120" s="52"/>
+      <c r="A120" s="53"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -8385,7 +8392,7 @@
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="J120" s="5"/>
-      <c r="K120" s="53"/>
+      <c r="K120" s="54"/>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
@@ -8398,7 +8405,7 @@
       <c r="Y120" s="5"/>
     </row>
     <row r="121" spans="1:25">
-      <c r="A121" s="52"/>
+      <c r="A121" s="53"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -8407,7 +8414,7 @@
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="J121" s="5"/>
-      <c r="K121" s="53"/>
+      <c r="K121" s="54"/>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
@@ -8420,7 +8427,7 @@
       <c r="Y121" s="5"/>
     </row>
     <row r="122" spans="1:25">
-      <c r="A122" s="52"/>
+      <c r="A122" s="53"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -8429,7 +8436,7 @@
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="J122" s="5"/>
-      <c r="K122" s="53"/>
+      <c r="K122" s="54"/>
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
@@ -8442,7 +8449,7 @@
       <c r="Y122" s="5"/>
     </row>
     <row r="123" spans="1:25">
-      <c r="A123" s="52"/>
+      <c r="A123" s="53"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -8451,7 +8458,7 @@
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="J123" s="5"/>
-      <c r="K123" s="53"/>
+      <c r="K123" s="54"/>
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
@@ -8464,7 +8471,7 @@
       <c r="Y123" s="5"/>
     </row>
     <row r="124" spans="1:25">
-      <c r="A124" s="52"/>
+      <c r="A124" s="53"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -8473,7 +8480,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="J124" s="5"/>
-      <c r="K124" s="53"/>
+      <c r="K124" s="54"/>
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
@@ -8486,7 +8493,7 @@
       <c r="Y124" s="5"/>
     </row>
     <row r="125" spans="1:25">
-      <c r="A125" s="52"/>
+      <c r="A125" s="53"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -8495,7 +8502,7 @@
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="J125" s="5"/>
-      <c r="K125" s="53"/>
+      <c r="K125" s="54"/>
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
@@ -8508,7 +8515,7 @@
       <c r="Y125" s="5"/>
     </row>
     <row r="126" spans="1:25">
-      <c r="A126" s="52"/>
+      <c r="A126" s="53"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -8517,7 +8524,7 @@
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="J126" s="5"/>
-      <c r="K126" s="53"/>
+      <c r="K126" s="54"/>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
@@ -8530,7 +8537,7 @@
       <c r="Y126" s="5"/>
     </row>
     <row r="127" spans="1:25">
-      <c r="A127" s="52"/>
+      <c r="A127" s="53"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -8539,7 +8546,7 @@
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="J127" s="5"/>
-      <c r="K127" s="53"/>
+      <c r="K127" s="54"/>
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
@@ -8552,7 +8559,7 @@
       <c r="Y127" s="5"/>
     </row>
     <row r="128" spans="1:25">
-      <c r="A128" s="52"/>
+      <c r="A128" s="53"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -8561,7 +8568,7 @@
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="J128" s="5"/>
-      <c r="K128" s="53"/>
+      <c r="K128" s="54"/>
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
@@ -8574,7 +8581,7 @@
       <c r="Y128" s="5"/>
     </row>
     <row r="129" spans="1:25">
-      <c r="A129" s="52"/>
+      <c r="A129" s="53"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -8583,7 +8590,7 @@
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="J129" s="5"/>
-      <c r="K129" s="53"/>
+      <c r="K129" s="54"/>
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
@@ -8596,7 +8603,7 @@
       <c r="Y129" s="5"/>
     </row>
     <row r="130" spans="1:25">
-      <c r="A130" s="52"/>
+      <c r="A130" s="53"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -8605,7 +8612,7 @@
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="J130" s="5"/>
-      <c r="K130" s="53"/>
+      <c r="K130" s="54"/>
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
@@ -8618,7 +8625,7 @@
       <c r="Y130" s="5"/>
     </row>
     <row r="131" spans="1:25">
-      <c r="A131" s="52"/>
+      <c r="A131" s="53"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -8627,7 +8634,7 @@
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="J131" s="5"/>
-      <c r="K131" s="53"/>
+      <c r="K131" s="54"/>
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
@@ -8640,7 +8647,7 @@
       <c r="Y131" s="5"/>
     </row>
     <row r="132" spans="1:25">
-      <c r="A132" s="52"/>
+      <c r="A132" s="53"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -8649,7 +8656,7 @@
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="J132" s="5"/>
-      <c r="K132" s="53"/>
+      <c r="K132" s="54"/>
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
       <c r="N132" s="5"/>
@@ -8662,7 +8669,7 @@
       <c r="Y132" s="5"/>
     </row>
     <row r="133" spans="1:25">
-      <c r="A133" s="52"/>
+      <c r="A133" s="53"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -8671,7 +8678,7 @@
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="J133" s="5"/>
-      <c r="K133" s="53"/>
+      <c r="K133" s="54"/>
       <c r="L133" s="5"/>
       <c r="M133" s="5"/>
       <c r="N133" s="5"/>
@@ -8684,7 +8691,7 @@
       <c r="Y133" s="5"/>
     </row>
     <row r="134" spans="1:25">
-      <c r="A134" s="52"/>
+      <c r="A134" s="53"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -8693,7 +8700,7 @@
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="J134" s="5"/>
-      <c r="K134" s="53"/>
+      <c r="K134" s="54"/>
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
       <c r="N134" s="5"/>
@@ -8706,7 +8713,7 @@
       <c r="Y134" s="5"/>
     </row>
     <row r="135" spans="1:25">
-      <c r="A135" s="52"/>
+      <c r="A135" s="53"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -8715,7 +8722,7 @@
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="J135" s="5"/>
-      <c r="K135" s="53"/>
+      <c r="K135" s="54"/>
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
@@ -8728,7 +8735,7 @@
       <c r="Y135" s="5"/>
     </row>
     <row r="136" spans="1:25">
-      <c r="A136" s="52"/>
+      <c r="A136" s="53"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -8737,7 +8744,7 @@
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="J136" s="5"/>
-      <c r="K136" s="53"/>
+      <c r="K136" s="54"/>
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
@@ -8750,7 +8757,7 @@
       <c r="Y136" s="5"/>
     </row>
     <row r="137" spans="1:25">
-      <c r="A137" s="52"/>
+      <c r="A137" s="53"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -8759,7 +8766,7 @@
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="J137" s="5"/>
-      <c r="K137" s="53"/>
+      <c r="K137" s="54"/>
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
       <c r="N137" s="5"/>
@@ -8772,7 +8779,7 @@
       <c r="Y137" s="5"/>
     </row>
     <row r="138" spans="1:25">
-      <c r="A138" s="52"/>
+      <c r="A138" s="53"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -8781,7 +8788,7 @@
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="J138" s="5"/>
-      <c r="K138" s="53"/>
+      <c r="K138" s="54"/>
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
       <c r="N138" s="5"/>
@@ -8794,7 +8801,7 @@
       <c r="Y138" s="5"/>
     </row>
     <row r="139" spans="1:25">
-      <c r="A139" s="52"/>
+      <c r="A139" s="53"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -8803,7 +8810,7 @@
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="J139" s="5"/>
-      <c r="K139" s="53"/>
+      <c r="K139" s="54"/>
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
@@ -8816,7 +8823,7 @@
       <c r="Y139" s="5"/>
     </row>
     <row r="140" spans="1:25">
-      <c r="A140" s="52"/>
+      <c r="A140" s="53"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -8825,7 +8832,7 @@
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="J140" s="5"/>
-      <c r="K140" s="53"/>
+      <c r="K140" s="54"/>
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
       <c r="N140" s="5"/>
@@ -8838,7 +8845,7 @@
       <c r="Y140" s="5"/>
     </row>
     <row r="141" spans="1:25">
-      <c r="A141" s="52"/>
+      <c r="A141" s="53"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -8847,7 +8854,7 @@
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="J141" s="5"/>
-      <c r="K141" s="53"/>
+      <c r="K141" s="54"/>
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
@@ -8860,7 +8867,7 @@
       <c r="Y141" s="5"/>
     </row>
     <row r="142" spans="1:25">
-      <c r="A142" s="52"/>
+      <c r="A142" s="53"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -8869,7 +8876,7 @@
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="J142" s="5"/>
-      <c r="K142" s="53"/>
+      <c r="K142" s="54"/>
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
@@ -8882,7 +8889,7 @@
       <c r="Y142" s="5"/>
     </row>
     <row r="143" spans="1:25">
-      <c r="A143" s="52"/>
+      <c r="A143" s="53"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -8891,7 +8898,7 @@
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="J143" s="5"/>
-      <c r="K143" s="53"/>
+      <c r="K143" s="54"/>
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
@@ -8904,7 +8911,7 @@
       <c r="Y143" s="5"/>
     </row>
     <row r="144" spans="1:25">
-      <c r="A144" s="52"/>
+      <c r="A144" s="53"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -8913,7 +8920,7 @@
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="J144" s="5"/>
-      <c r="K144" s="53"/>
+      <c r="K144" s="54"/>
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
       <c r="N144" s="5"/>
@@ -8926,7 +8933,7 @@
       <c r="Y144" s="5"/>
     </row>
     <row r="145" spans="1:25">
-      <c r="A145" s="52"/>
+      <c r="A145" s="53"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -8935,7 +8942,7 @@
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="J145" s="5"/>
-      <c r="K145" s="53"/>
+      <c r="K145" s="54"/>
       <c r="L145" s="5"/>
       <c r="M145" s="5"/>
       <c r="N145" s="5"/>
@@ -8948,7 +8955,7 @@
       <c r="Y145" s="5"/>
     </row>
     <row r="146" spans="1:25">
-      <c r="A146" s="52"/>
+      <c r="A146" s="53"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -8957,7 +8964,7 @@
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="J146" s="5"/>
-      <c r="K146" s="53"/>
+      <c r="K146" s="54"/>
       <c r="L146" s="5"/>
       <c r="M146" s="5"/>
       <c r="N146" s="5"/>
@@ -8970,7 +8977,7 @@
       <c r="Y146" s="5"/>
     </row>
     <row r="147" spans="1:25">
-      <c r="A147" s="52"/>
+      <c r="A147" s="53"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -8979,7 +8986,7 @@
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="J147" s="5"/>
-      <c r="K147" s="53"/>
+      <c r="K147" s="54"/>
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
       <c r="N147" s="5"/>
@@ -8992,7 +8999,7 @@
       <c r="Y147" s="5"/>
     </row>
     <row r="148" spans="1:25">
-      <c r="A148" s="52"/>
+      <c r="A148" s="53"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -9001,7 +9008,7 @@
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
       <c r="J148" s="5"/>
-      <c r="K148" s="53"/>
+      <c r="K148" s="54"/>
       <c r="L148" s="5"/>
       <c r="M148" s="5"/>
       <c r="N148" s="5"/>
@@ -9014,7 +9021,7 @@
       <c r="Y148" s="5"/>
     </row>
     <row r="149" spans="1:25">
-      <c r="A149" s="52"/>
+      <c r="A149" s="53"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -9023,7 +9030,7 @@
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="J149" s="5"/>
-      <c r="K149" s="53"/>
+      <c r="K149" s="54"/>
       <c r="L149" s="5"/>
       <c r="M149" s="5"/>
       <c r="N149" s="5"/>
@@ -9036,7 +9043,7 @@
       <c r="Y149" s="5"/>
     </row>
     <row r="150" spans="1:25">
-      <c r="A150" s="52"/>
+      <c r="A150" s="53"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -9045,7 +9052,7 @@
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="J150" s="5"/>
-      <c r="K150" s="53"/>
+      <c r="K150" s="54"/>
       <c r="L150" s="5"/>
       <c r="M150" s="5"/>
       <c r="N150" s="5"/>
@@ -9058,7 +9065,7 @@
       <c r="Y150" s="5"/>
     </row>
     <row r="151" spans="1:25">
-      <c r="A151" s="52"/>
+      <c r="A151" s="53"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -9067,7 +9074,7 @@
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="J151" s="5"/>
-      <c r="K151" s="53"/>
+      <c r="K151" s="54"/>
       <c r="L151" s="5"/>
       <c r="M151" s="5"/>
       <c r="N151" s="5"/>
@@ -9080,7 +9087,7 @@
       <c r="Y151" s="5"/>
     </row>
     <row r="152" spans="1:25">
-      <c r="A152" s="52"/>
+      <c r="A152" s="53"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -9089,7 +9096,7 @@
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
       <c r="J152" s="5"/>
-      <c r="K152" s="53"/>
+      <c r="K152" s="54"/>
       <c r="L152" s="5"/>
       <c r="M152" s="5"/>
       <c r="N152" s="5"/>
@@ -9102,7 +9109,7 @@
       <c r="Y152" s="5"/>
     </row>
     <row r="153" spans="1:25">
-      <c r="A153" s="52"/>
+      <c r="A153" s="53"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -9111,7 +9118,7 @@
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="J153" s="5"/>
-      <c r="K153" s="53"/>
+      <c r="K153" s="54"/>
       <c r="L153" s="5"/>
       <c r="M153" s="5"/>
       <c r="N153" s="5"/>
@@ -9124,7 +9131,7 @@
       <c r="Y153" s="5"/>
     </row>
     <row r="154" spans="1:25">
-      <c r="A154" s="52"/>
+      <c r="A154" s="53"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -9133,7 +9140,7 @@
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
       <c r="J154" s="5"/>
-      <c r="K154" s="53"/>
+      <c r="K154" s="54"/>
       <c r="L154" s="5"/>
       <c r="M154" s="5"/>
       <c r="N154" s="5"/>
@@ -9146,7 +9153,7 @@
       <c r="Y154" s="5"/>
     </row>
     <row r="155" spans="1:25">
-      <c r="A155" s="52"/>
+      <c r="A155" s="53"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -9155,7 +9162,7 @@
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="J155" s="5"/>
-      <c r="K155" s="53"/>
+      <c r="K155" s="54"/>
       <c r="L155" s="5"/>
       <c r="M155" s="5"/>
       <c r="N155" s="5"/>
@@ -9168,7 +9175,7 @@
       <c r="Y155" s="5"/>
     </row>
     <row r="156" spans="1:25">
-      <c r="A156" s="52"/>
+      <c r="A156" s="53"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -9177,7 +9184,7 @@
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="J156" s="5"/>
-      <c r="K156" s="53"/>
+      <c r="K156" s="54"/>
       <c r="L156" s="5"/>
       <c r="M156" s="5"/>
       <c r="N156" s="5"/>
@@ -9190,7 +9197,7 @@
       <c r="Y156" s="5"/>
     </row>
     <row r="157" spans="1:25">
-      <c r="A157" s="52"/>
+      <c r="A157" s="53"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -9199,7 +9206,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="J157" s="5"/>
-      <c r="K157" s="53"/>
+      <c r="K157" s="54"/>
       <c r="L157" s="5"/>
       <c r="M157" s="5"/>
       <c r="N157" s="5"/>
@@ -9212,7 +9219,7 @@
       <c r="Y157" s="5"/>
     </row>
     <row r="158" spans="1:25">
-      <c r="A158" s="52"/>
+      <c r="A158" s="53"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -9221,7 +9228,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="J158" s="5"/>
-      <c r="K158" s="53"/>
+      <c r="K158" s="54"/>
       <c r="L158" s="5"/>
       <c r="M158" s="5"/>
       <c r="N158" s="5"/>
@@ -9234,7 +9241,7 @@
       <c r="Y158" s="5"/>
     </row>
     <row r="159" spans="1:25">
-      <c r="A159" s="52"/>
+      <c r="A159" s="53"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -9243,7 +9250,7 @@
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="J159" s="5"/>
-      <c r="K159" s="53"/>
+      <c r="K159" s="54"/>
       <c r="L159" s="5"/>
       <c r="M159" s="5"/>
       <c r="N159" s="5"/>
@@ -9256,7 +9263,7 @@
       <c r="Y159" s="5"/>
     </row>
     <row r="160" spans="1:25">
-      <c r="A160" s="52"/>
+      <c r="A160" s="53"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -9265,7 +9272,7 @@
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="J160" s="5"/>
-      <c r="K160" s="53"/>
+      <c r="K160" s="54"/>
       <c r="L160" s="5"/>
       <c r="M160" s="5"/>
       <c r="N160" s="5"/>
@@ -9278,7 +9285,7 @@
       <c r="Y160" s="5"/>
     </row>
     <row r="161" spans="1:25">
-      <c r="A161" s="52"/>
+      <c r="A161" s="53"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -9287,7 +9294,7 @@
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="J161" s="5"/>
-      <c r="K161" s="53"/>
+      <c r="K161" s="54"/>
       <c r="L161" s="5"/>
       <c r="M161" s="5"/>
       <c r="N161" s="5"/>
@@ -9300,7 +9307,7 @@
       <c r="Y161" s="5"/>
     </row>
     <row r="162" spans="1:25">
-      <c r="A162" s="52"/>
+      <c r="A162" s="53"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -9309,7 +9316,7 @@
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="J162" s="5"/>
-      <c r="K162" s="53"/>
+      <c r="K162" s="54"/>
       <c r="L162" s="5"/>
       <c r="M162" s="5"/>
       <c r="N162" s="5"/>
@@ -9322,7 +9329,7 @@
       <c r="Y162" s="5"/>
     </row>
     <row r="163" spans="1:25">
-      <c r="A163" s="52"/>
+      <c r="A163" s="53"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -9331,7 +9338,7 @@
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="J163" s="5"/>
-      <c r="K163" s="53"/>
+      <c r="K163" s="54"/>
       <c r="L163" s="5"/>
       <c r="M163" s="5"/>
       <c r="N163" s="5"/>
@@ -9344,7 +9351,7 @@
       <c r="Y163" s="5"/>
     </row>
     <row r="164" spans="1:25">
-      <c r="A164" s="52"/>
+      <c r="A164" s="53"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -9353,7 +9360,7 @@
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="J164" s="5"/>
-      <c r="K164" s="53"/>
+      <c r="K164" s="54"/>
       <c r="L164" s="5"/>
       <c r="M164" s="5"/>
       <c r="N164" s="5"/>
@@ -9366,7 +9373,7 @@
       <c r="Y164" s="5"/>
     </row>
     <row r="165" spans="1:25">
-      <c r="A165" s="52"/>
+      <c r="A165" s="53"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -9375,7 +9382,7 @@
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="J165" s="5"/>
-      <c r="K165" s="53"/>
+      <c r="K165" s="54"/>
       <c r="L165" s="5"/>
       <c r="M165" s="5"/>
       <c r="N165" s="5"/>
@@ -9388,7 +9395,7 @@
       <c r="Y165" s="5"/>
     </row>
     <row r="166" spans="1:25">
-      <c r="A166" s="52"/>
+      <c r="A166" s="53"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -9397,7 +9404,7 @@
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="J166" s="5"/>
-      <c r="K166" s="53"/>
+      <c r="K166" s="54"/>
       <c r="L166" s="5"/>
       <c r="M166" s="5"/>
       <c r="N166" s="5"/>
@@ -9410,7 +9417,7 @@
       <c r="Y166" s="5"/>
     </row>
     <row r="167" spans="1:25">
-      <c r="A167" s="52"/>
+      <c r="A167" s="53"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -9419,7 +9426,7 @@
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="J167" s="5"/>
-      <c r="K167" s="53"/>
+      <c r="K167" s="54"/>
       <c r="L167" s="5"/>
       <c r="M167" s="5"/>
       <c r="N167" s="5"/>
@@ -9432,7 +9439,7 @@
       <c r="Y167" s="5"/>
     </row>
     <row r="168" spans="1:25">
-      <c r="A168" s="52"/>
+      <c r="A168" s="53"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -9441,7 +9448,7 @@
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="J168" s="5"/>
-      <c r="K168" s="53"/>
+      <c r="K168" s="54"/>
       <c r="L168" s="5"/>
       <c r="M168" s="5"/>
       <c r="N168" s="5"/>
@@ -9454,7 +9461,7 @@
       <c r="Y168" s="5"/>
     </row>
     <row r="169" spans="1:25">
-      <c r="A169" s="52"/>
+      <c r="A169" s="53"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -9463,7 +9470,7 @@
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="J169" s="5"/>
-      <c r="K169" s="53"/>
+      <c r="K169" s="54"/>
       <c r="L169" s="5"/>
       <c r="M169" s="5"/>
       <c r="N169" s="5"/>
@@ -9476,7 +9483,7 @@
       <c r="Y169" s="5"/>
     </row>
     <row r="170" spans="1:25">
-      <c r="A170" s="52"/>
+      <c r="A170" s="53"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -9485,7 +9492,7 @@
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="J170" s="5"/>
-      <c r="K170" s="53"/>
+      <c r="K170" s="54"/>
       <c r="L170" s="5"/>
       <c r="M170" s="5"/>
       <c r="N170" s="5"/>
@@ -9498,7 +9505,7 @@
       <c r="Y170" s="5"/>
     </row>
     <row r="171" spans="1:25">
-      <c r="A171" s="52"/>
+      <c r="A171" s="53"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -9507,7 +9514,7 @@
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="J171" s="5"/>
-      <c r="K171" s="53"/>
+      <c r="K171" s="54"/>
       <c r="L171" s="5"/>
       <c r="M171" s="5"/>
       <c r="N171" s="5"/>
@@ -9520,7 +9527,7 @@
       <c r="Y171" s="5"/>
     </row>
     <row r="172" spans="1:25">
-      <c r="A172" s="52"/>
+      <c r="A172" s="53"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -9529,7 +9536,7 @@
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="J172" s="5"/>
-      <c r="K172" s="53"/>
+      <c r="K172" s="54"/>
       <c r="L172" s="5"/>
       <c r="M172" s="5"/>
       <c r="N172" s="5"/>
@@ -9542,7 +9549,7 @@
       <c r="Y172" s="5"/>
     </row>
     <row r="173" spans="1:25">
-      <c r="A173" s="52"/>
+      <c r="A173" s="53"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -9551,7 +9558,7 @@
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="J173" s="5"/>
-      <c r="K173" s="53"/>
+      <c r="K173" s="54"/>
       <c r="L173" s="5"/>
       <c r="M173" s="5"/>
       <c r="N173" s="5"/>
@@ -9564,7 +9571,7 @@
       <c r="Y173" s="5"/>
     </row>
     <row r="174" spans="1:25">
-      <c r="A174" s="52"/>
+      <c r="A174" s="53"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -9573,7 +9580,7 @@
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="J174" s="5"/>
-      <c r="K174" s="53"/>
+      <c r="K174" s="54"/>
       <c r="L174" s="5"/>
       <c r="M174" s="5"/>
       <c r="N174" s="5"/>
@@ -9586,7 +9593,7 @@
       <c r="Y174" s="5"/>
     </row>
     <row r="175" spans="1:25">
-      <c r="A175" s="52"/>
+      <c r="A175" s="53"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -9595,7 +9602,7 @@
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="J175" s="5"/>
-      <c r="K175" s="53"/>
+      <c r="K175" s="54"/>
       <c r="L175" s="5"/>
       <c r="M175" s="5"/>
       <c r="N175" s="5"/>
@@ -9608,7 +9615,7 @@
       <c r="Y175" s="5"/>
     </row>
     <row r="176" spans="1:25">
-      <c r="A176" s="52"/>
+      <c r="A176" s="53"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -9617,7 +9624,7 @@
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="J176" s="5"/>
-      <c r="K176" s="53"/>
+      <c r="K176" s="54"/>
       <c r="L176" s="5"/>
       <c r="M176" s="5"/>
       <c r="N176" s="5"/>
@@ -9630,7 +9637,7 @@
       <c r="Y176" s="5"/>
     </row>
     <row r="177" spans="1:25">
-      <c r="A177" s="52"/>
+      <c r="A177" s="53"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -9639,7 +9646,7 @@
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="J177" s="5"/>
-      <c r="K177" s="53"/>
+      <c r="K177" s="54"/>
       <c r="L177" s="5"/>
       <c r="M177" s="5"/>
       <c r="N177" s="5"/>
@@ -9652,7 +9659,7 @@
       <c r="Y177" s="5"/>
     </row>
     <row r="178" spans="1:25">
-      <c r="A178" s="52"/>
+      <c r="A178" s="53"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -9661,7 +9668,7 @@
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="J178" s="5"/>
-      <c r="K178" s="53"/>
+      <c r="K178" s="54"/>
       <c r="L178" s="5"/>
       <c r="M178" s="5"/>
       <c r="N178" s="5"/>
@@ -9674,7 +9681,7 @@
       <c r="Y178" s="5"/>
     </row>
     <row r="179" spans="1:25">
-      <c r="A179" s="52"/>
+      <c r="A179" s="53"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -9683,7 +9690,7 @@
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="J179" s="5"/>
-      <c r="K179" s="53"/>
+      <c r="K179" s="54"/>
       <c r="L179" s="5"/>
       <c r="M179" s="5"/>
       <c r="N179" s="5"/>
@@ -9696,7 +9703,7 @@
       <c r="Y179" s="5"/>
     </row>
     <row r="180" spans="1:25">
-      <c r="A180" s="52"/>
+      <c r="A180" s="53"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -9705,7 +9712,7 @@
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
       <c r="J180" s="5"/>
-      <c r="K180" s="53"/>
+      <c r="K180" s="54"/>
       <c r="L180" s="5"/>
       <c r="M180" s="5"/>
       <c r="N180" s="5"/>
@@ -9718,7 +9725,7 @@
       <c r="Y180" s="5"/>
     </row>
     <row r="181" spans="1:25">
-      <c r="A181" s="52"/>
+      <c r="A181" s="53"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -9727,7 +9734,7 @@
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
       <c r="J181" s="5"/>
-      <c r="K181" s="53"/>
+      <c r="K181" s="54"/>
       <c r="L181" s="5"/>
       <c r="M181" s="5"/>
       <c r="N181" s="5"/>
@@ -9740,7 +9747,7 @@
       <c r="Y181" s="5"/>
     </row>
     <row r="182" spans="1:25">
-      <c r="A182" s="52"/>
+      <c r="A182" s="53"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -9749,7 +9756,7 @@
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="J182" s="5"/>
-      <c r="K182" s="53"/>
+      <c r="K182" s="54"/>
       <c r="L182" s="5"/>
       <c r="M182" s="5"/>
       <c r="N182" s="5"/>
@@ -9762,7 +9769,7 @@
       <c r="Y182" s="5"/>
     </row>
     <row r="183" spans="1:25">
-      <c r="A183" s="52"/>
+      <c r="A183" s="53"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -9771,7 +9778,7 @@
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="J183" s="5"/>
-      <c r="K183" s="53"/>
+      <c r="K183" s="54"/>
       <c r="L183" s="5"/>
       <c r="M183" s="5"/>
       <c r="N183" s="5"/>
@@ -9784,7 +9791,7 @@
       <c r="Y183" s="5"/>
     </row>
     <row r="184" spans="1:25">
-      <c r="A184" s="52"/>
+      <c r="A184" s="53"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -9793,7 +9800,7 @@
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
       <c r="J184" s="5"/>
-      <c r="K184" s="53"/>
+      <c r="K184" s="54"/>
       <c r="L184" s="5"/>
       <c r="M184" s="5"/>
       <c r="N184" s="5"/>
@@ -9806,7 +9813,7 @@
       <c r="Y184" s="5"/>
     </row>
     <row r="185" spans="1:25">
-      <c r="A185" s="52"/>
+      <c r="A185" s="53"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -9815,7 +9822,7 @@
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="J185" s="5"/>
-      <c r="K185" s="53"/>
+      <c r="K185" s="54"/>
       <c r="L185" s="5"/>
       <c r="M185" s="5"/>
       <c r="N185" s="5"/>
@@ -9828,7 +9835,7 @@
       <c r="Y185" s="5"/>
     </row>
     <row r="186" spans="1:25">
-      <c r="A186" s="52"/>
+      <c r="A186" s="53"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -9837,7 +9844,7 @@
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
       <c r="J186" s="5"/>
-      <c r="K186" s="53"/>
+      <c r="K186" s="54"/>
       <c r="L186" s="5"/>
       <c r="M186" s="5"/>
       <c r="N186" s="5"/>
@@ -9850,7 +9857,7 @@
       <c r="Y186" s="5"/>
     </row>
     <row r="187" spans="1:25">
-      <c r="A187" s="52"/>
+      <c r="A187" s="53"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -9859,7 +9866,7 @@
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="J187" s="5"/>
-      <c r="K187" s="53"/>
+      <c r="K187" s="54"/>
       <c r="L187" s="5"/>
       <c r="M187" s="5"/>
       <c r="N187" s="5"/>
@@ -9872,7 +9879,7 @@
       <c r="Y187" s="5"/>
     </row>
     <row r="188" spans="1:25">
-      <c r="A188" s="52"/>
+      <c r="A188" s="53"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -9881,7 +9888,7 @@
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
       <c r="J188" s="5"/>
-      <c r="K188" s="53"/>
+      <c r="K188" s="54"/>
       <c r="L188" s="5"/>
       <c r="M188" s="5"/>
       <c r="N188" s="5"/>
@@ -9894,7 +9901,7 @@
       <c r="Y188" s="5"/>
     </row>
     <row r="189" spans="1:25">
-      <c r="A189" s="52"/>
+      <c r="A189" s="53"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -9903,7 +9910,7 @@
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
       <c r="J189" s="5"/>
-      <c r="K189" s="53"/>
+      <c r="K189" s="54"/>
       <c r="L189" s="5"/>
       <c r="M189" s="5"/>
       <c r="N189" s="5"/>
@@ -9916,7 +9923,7 @@
       <c r="Y189" s="5"/>
     </row>
     <row r="190" spans="1:25">
-      <c r="A190" s="52"/>
+      <c r="A190" s="53"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -9925,7 +9932,7 @@
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="J190" s="5"/>
-      <c r="K190" s="53"/>
+      <c r="K190" s="54"/>
       <c r="L190" s="5"/>
       <c r="M190" s="5"/>
       <c r="N190" s="5"/>
@@ -9938,7 +9945,7 @@
       <c r="Y190" s="5"/>
     </row>
     <row r="191" spans="1:25">
-      <c r="A191" s="52"/>
+      <c r="A191" s="53"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -9947,7 +9954,7 @@
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="J191" s="5"/>
-      <c r="K191" s="53"/>
+      <c r="K191" s="54"/>
       <c r="L191" s="5"/>
       <c r="M191" s="5"/>
       <c r="N191" s="5"/>
@@ -9960,7 +9967,7 @@
       <c r="Y191" s="5"/>
     </row>
     <row r="192" spans="1:25">
-      <c r="A192" s="52"/>
+      <c r="A192" s="53"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -9969,7 +9976,7 @@
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="J192" s="5"/>
-      <c r="K192" s="53"/>
+      <c r="K192" s="54"/>
       <c r="L192" s="5"/>
       <c r="M192" s="5"/>
       <c r="N192" s="5"/>
@@ -9982,7 +9989,7 @@
       <c r="Y192" s="5"/>
     </row>
     <row r="193" spans="1:25">
-      <c r="A193" s="52"/>
+      <c r="A193" s="53"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -9991,7 +9998,7 @@
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
       <c r="J193" s="5"/>
-      <c r="K193" s="53"/>
+      <c r="K193" s="54"/>
       <c r="L193" s="5"/>
       <c r="M193" s="5"/>
       <c r="N193" s="5"/>
@@ -10004,7 +10011,7 @@
       <c r="Y193" s="5"/>
     </row>
     <row r="194" spans="1:25">
-      <c r="A194" s="52"/>
+      <c r="A194" s="53"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -10013,7 +10020,7 @@
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
       <c r="J194" s="5"/>
-      <c r="K194" s="53"/>
+      <c r="K194" s="54"/>
       <c r="L194" s="5"/>
       <c r="M194" s="5"/>
       <c r="N194" s="5"/>
@@ -10026,7 +10033,7 @@
       <c r="Y194" s="5"/>
     </row>
     <row r="195" spans="1:25">
-      <c r="A195" s="52"/>
+      <c r="A195" s="53"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -10035,7 +10042,7 @@
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
       <c r="J195" s="5"/>
-      <c r="K195" s="53"/>
+      <c r="K195" s="54"/>
       <c r="L195" s="5"/>
       <c r="M195" s="5"/>
       <c r="N195" s="5"/>
@@ -10048,7 +10055,7 @@
       <c r="Y195" s="5"/>
     </row>
     <row r="196" spans="1:25">
-      <c r="A196" s="52"/>
+      <c r="A196" s="53"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -10057,7 +10064,7 @@
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="J196" s="5"/>
-      <c r="K196" s="53"/>
+      <c r="K196" s="54"/>
       <c r="L196" s="5"/>
       <c r="M196" s="5"/>
       <c r="N196" s="5"/>
@@ -10070,7 +10077,7 @@
       <c r="Y196" s="5"/>
     </row>
     <row r="197" spans="1:25">
-      <c r="A197" s="52"/>
+      <c r="A197" s="53"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -10079,7 +10086,7 @@
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
       <c r="J197" s="5"/>
-      <c r="K197" s="53"/>
+      <c r="K197" s="54"/>
       <c r="L197" s="5"/>
       <c r="M197" s="5"/>
       <c r="N197" s="5"/>
@@ -10092,7 +10099,7 @@
       <c r="Y197" s="5"/>
     </row>
     <row r="198" spans="1:25">
-      <c r="A198" s="52"/>
+      <c r="A198" s="53"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -10101,7 +10108,7 @@
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="J198" s="5"/>
-      <c r="K198" s="53"/>
+      <c r="K198" s="54"/>
       <c r="L198" s="5"/>
       <c r="M198" s="5"/>
       <c r="N198" s="5"/>
@@ -10114,7 +10121,7 @@
       <c r="Y198" s="5"/>
     </row>
     <row r="199" spans="1:25">
-      <c r="A199" s="52"/>
+      <c r="A199" s="53"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -10123,7 +10130,7 @@
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="J199" s="5"/>
-      <c r="K199" s="53"/>
+      <c r="K199" s="54"/>
       <c r="L199" s="5"/>
       <c r="M199" s="5"/>
       <c r="N199" s="5"/>
@@ -10136,7 +10143,7 @@
       <c r="Y199" s="5"/>
     </row>
     <row r="200" spans="1:25">
-      <c r="A200" s="52"/>
+      <c r="A200" s="53"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -10145,7 +10152,7 @@
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
       <c r="J200" s="5"/>
-      <c r="K200" s="53"/>
+      <c r="K200" s="54"/>
       <c r="L200" s="5"/>
       <c r="M200" s="5"/>
       <c r="N200" s="5"/>
@@ -10158,7 +10165,7 @@
       <c r="Y200" s="5"/>
     </row>
     <row r="201" spans="1:25">
-      <c r="A201" s="52"/>
+      <c r="A201" s="53"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -10167,7 +10174,7 @@
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
       <c r="J201" s="5"/>
-      <c r="K201" s="53"/>
+      <c r="K201" s="54"/>
       <c r="L201" s="5"/>
       <c r="M201" s="5"/>
       <c r="N201" s="5"/>
@@ -10180,7 +10187,7 @@
       <c r="Y201" s="5"/>
     </row>
     <row r="202" spans="1:25">
-      <c r="A202" s="52"/>
+      <c r="A202" s="53"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -10189,7 +10196,7 @@
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
       <c r="J202" s="5"/>
-      <c r="K202" s="53"/>
+      <c r="K202" s="54"/>
       <c r="L202" s="5"/>
       <c r="M202" s="5"/>
       <c r="N202" s="5"/>
@@ -10202,7 +10209,7 @@
       <c r="Y202" s="5"/>
     </row>
     <row r="203" spans="1:25">
-      <c r="A203" s="52"/>
+      <c r="A203" s="53"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -10211,7 +10218,7 @@
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
       <c r="J203" s="5"/>
-      <c r="K203" s="53"/>
+      <c r="K203" s="54"/>
       <c r="L203" s="5"/>
       <c r="M203" s="5"/>
       <c r="N203" s="5"/>
@@ -10224,7 +10231,7 @@
       <c r="Y203" s="5"/>
     </row>
     <row r="204" spans="1:25">
-      <c r="A204" s="52"/>
+      <c r="A204" s="53"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -10233,7 +10240,7 @@
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
       <c r="J204" s="5"/>
-      <c r="K204" s="53"/>
+      <c r="K204" s="54"/>
       <c r="L204" s="5"/>
       <c r="M204" s="5"/>
       <c r="N204" s="5"/>
@@ -10246,7 +10253,7 @@
       <c r="Y204" s="5"/>
     </row>
     <row r="205" spans="1:25">
-      <c r="A205" s="52"/>
+      <c r="A205" s="53"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -10255,7 +10262,7 @@
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
       <c r="J205" s="5"/>
-      <c r="K205" s="53"/>
+      <c r="K205" s="54"/>
       <c r="L205" s="5"/>
       <c r="M205" s="5"/>
       <c r="N205" s="5"/>
@@ -10268,7 +10275,7 @@
       <c r="Y205" s="5"/>
     </row>
     <row r="206" spans="1:25">
-      <c r="A206" s="52"/>
+      <c r="A206" s="53"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -10277,7 +10284,7 @@
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
       <c r="J206" s="5"/>
-      <c r="K206" s="53"/>
+      <c r="K206" s="54"/>
       <c r="L206" s="5"/>
       <c r="M206" s="5"/>
       <c r="N206" s="5"/>
@@ -10290,7 +10297,7 @@
       <c r="Y206" s="5"/>
     </row>
     <row r="207" spans="1:25">
-      <c r="A207" s="52"/>
+      <c r="A207" s="53"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -10299,7 +10306,7 @@
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
       <c r="J207" s="5"/>
-      <c r="K207" s="53"/>
+      <c r="K207" s="54"/>
       <c r="L207" s="5"/>
       <c r="M207" s="5"/>
       <c r="N207" s="5"/>
@@ -10312,7 +10319,7 @@
       <c r="Y207" s="5"/>
     </row>
     <row r="208" spans="1:25">
-      <c r="A208" s="52"/>
+      <c r="A208" s="53"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -10321,7 +10328,7 @@
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
       <c r="J208" s="5"/>
-      <c r="K208" s="53"/>
+      <c r="K208" s="54"/>
       <c r="L208" s="5"/>
       <c r="M208" s="5"/>
       <c r="N208" s="5"/>
@@ -10334,7 +10341,7 @@
       <c r="Y208" s="5"/>
     </row>
     <row r="209" spans="1:25">
-      <c r="A209" s="52"/>
+      <c r="A209" s="53"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -10343,7 +10350,7 @@
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
       <c r="J209" s="5"/>
-      <c r="K209" s="53"/>
+      <c r="K209" s="54"/>
       <c r="L209" s="5"/>
       <c r="M209" s="5"/>
       <c r="N209" s="5"/>
@@ -10356,7 +10363,7 @@
       <c r="Y209" s="5"/>
     </row>
     <row r="210" spans="1:25">
-      <c r="A210" s="52"/>
+      <c r="A210" s="53"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -10365,7 +10372,7 @@
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
       <c r="J210" s="5"/>
-      <c r="K210" s="53"/>
+      <c r="K210" s="54"/>
       <c r="L210" s="5"/>
       <c r="M210" s="5"/>
       <c r="N210" s="5"/>
@@ -10378,7 +10385,7 @@
       <c r="Y210" s="5"/>
     </row>
     <row r="211" spans="1:25">
-      <c r="A211" s="52"/>
+      <c r="A211" s="53"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -10387,7 +10394,7 @@
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
       <c r="J211" s="5"/>
-      <c r="K211" s="53"/>
+      <c r="K211" s="54"/>
       <c r="L211" s="5"/>
       <c r="M211" s="5"/>
       <c r="N211" s="5"/>
@@ -10400,7 +10407,7 @@
       <c r="Y211" s="5"/>
     </row>
     <row r="212" spans="1:25">
-      <c r="A212" s="52"/>
+      <c r="A212" s="53"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -10409,7 +10416,7 @@
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
       <c r="J212" s="5"/>
-      <c r="K212" s="53"/>
+      <c r="K212" s="54"/>
       <c r="L212" s="5"/>
       <c r="M212" s="5"/>
       <c r="N212" s="5"/>
@@ -10422,7 +10429,7 @@
       <c r="Y212" s="5"/>
     </row>
     <row r="213" spans="1:25">
-      <c r="A213" s="52"/>
+      <c r="A213" s="53"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -10431,7 +10438,7 @@
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
       <c r="J213" s="5"/>
-      <c r="K213" s="53"/>
+      <c r="K213" s="54"/>
       <c r="L213" s="5"/>
       <c r="M213" s="5"/>
       <c r="N213" s="5"/>
@@ -10444,7 +10451,7 @@
       <c r="Y213" s="5"/>
     </row>
     <row r="214" spans="1:25">
-      <c r="A214" s="52"/>
+      <c r="A214" s="53"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -10453,7 +10460,7 @@
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
       <c r="J214" s="5"/>
-      <c r="K214" s="53"/>
+      <c r="K214" s="54"/>
       <c r="L214" s="5"/>
       <c r="M214" s="5"/>
       <c r="N214" s="5"/>
@@ -10466,7 +10473,7 @@
       <c r="Y214" s="5"/>
     </row>
     <row r="215" spans="1:25">
-      <c r="A215" s="52"/>
+      <c r="A215" s="53"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -10475,7 +10482,7 @@
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
       <c r="J215" s="5"/>
-      <c r="K215" s="53"/>
+      <c r="K215" s="54"/>
       <c r="L215" s="5"/>
       <c r="M215" s="5"/>
       <c r="N215" s="5"/>
@@ -10488,7 +10495,7 @@
       <c r="Y215" s="5"/>
     </row>
     <row r="216" spans="1:25">
-      <c r="A216" s="52"/>
+      <c r="A216" s="53"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -10497,7 +10504,7 @@
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
       <c r="J216" s="5"/>
-      <c r="K216" s="53"/>
+      <c r="K216" s="54"/>
       <c r="L216" s="5"/>
       <c r="M216" s="5"/>
       <c r="N216" s="5"/>
@@ -10510,7 +10517,7 @@
       <c r="Y216" s="5"/>
     </row>
     <row r="217" spans="1:25">
-      <c r="A217" s="52"/>
+      <c r="A217" s="53"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -10519,7 +10526,7 @@
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
       <c r="J217" s="5"/>
-      <c r="K217" s="53"/>
+      <c r="K217" s="54"/>
       <c r="L217" s="5"/>
       <c r="M217" s="5"/>
       <c r="N217" s="5"/>
@@ -10532,7 +10539,7 @@
       <c r="Y217" s="5"/>
     </row>
     <row r="218" spans="1:25">
-      <c r="A218" s="52"/>
+      <c r="A218" s="53"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -10541,7 +10548,7 @@
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
       <c r="J218" s="5"/>
-      <c r="K218" s="53"/>
+      <c r="K218" s="54"/>
       <c r="L218" s="5"/>
       <c r="M218" s="5"/>
       <c r="N218" s="5"/>
@@ -10554,7 +10561,7 @@
       <c r="Y218" s="5"/>
     </row>
     <row r="219" spans="1:25">
-      <c r="A219" s="52"/>
+      <c r="A219" s="53"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -10563,7 +10570,7 @@
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
       <c r="J219" s="5"/>
-      <c r="K219" s="53"/>
+      <c r="K219" s="54"/>
       <c r="L219" s="5"/>
       <c r="M219" s="5"/>
       <c r="N219" s="5"/>
@@ -10576,7 +10583,7 @@
       <c r="Y219" s="5"/>
     </row>
     <row r="220" spans="1:25">
-      <c r="A220" s="52"/>
+      <c r="A220" s="53"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -10585,7 +10592,7 @@
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
       <c r="J220" s="5"/>
-      <c r="K220" s="53"/>
+      <c r="K220" s="54"/>
       <c r="L220" s="5"/>
       <c r="M220" s="5"/>
       <c r="N220" s="5"/>
@@ -10598,7 +10605,7 @@
       <c r="Y220" s="5"/>
     </row>
     <row r="221" spans="1:25">
-      <c r="A221" s="52"/>
+      <c r="A221" s="53"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -10607,7 +10614,7 @@
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
       <c r="J221" s="5"/>
-      <c r="K221" s="53"/>
+      <c r="K221" s="54"/>
       <c r="L221" s="5"/>
       <c r="M221" s="5"/>
       <c r="N221" s="5"/>
@@ -10620,7 +10627,7 @@
       <c r="Y221" s="5"/>
     </row>
     <row r="222" spans="1:25">
-      <c r="A222" s="52"/>
+      <c r="A222" s="53"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -10629,7 +10636,7 @@
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
       <c r="J222" s="5"/>
-      <c r="K222" s="53"/>
+      <c r="K222" s="54"/>
       <c r="L222" s="5"/>
       <c r="M222" s="5"/>
       <c r="N222" s="5"/>
@@ -10642,7 +10649,7 @@
       <c r="Y222" s="5"/>
     </row>
     <row r="223" spans="1:25">
-      <c r="A223" s="52"/>
+      <c r="A223" s="53"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -10651,7 +10658,7 @@
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
       <c r="J223" s="5"/>
-      <c r="K223" s="53"/>
+      <c r="K223" s="54"/>
       <c r="L223" s="5"/>
       <c r="M223" s="5"/>
       <c r="N223" s="5"/>
@@ -10664,7 +10671,7 @@
       <c r="Y223" s="5"/>
     </row>
     <row r="224" spans="1:25">
-      <c r="A224" s="52"/>
+      <c r="A224" s="53"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -10673,7 +10680,7 @@
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
       <c r="J224" s="5"/>
-      <c r="K224" s="53"/>
+      <c r="K224" s="54"/>
       <c r="L224" s="5"/>
       <c r="M224" s="5"/>
       <c r="N224" s="5"/>
@@ -10686,7 +10693,7 @@
       <c r="Y224" s="5"/>
     </row>
     <row r="225" spans="1:25">
-      <c r="A225" s="52"/>
+      <c r="A225" s="53"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -10695,7 +10702,7 @@
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
       <c r="J225" s="5"/>
-      <c r="K225" s="53"/>
+      <c r="K225" s="54"/>
       <c r="L225" s="5"/>
       <c r="M225" s="5"/>
       <c r="N225" s="5"/>
@@ -10708,7 +10715,7 @@
       <c r="Y225" s="5"/>
     </row>
     <row r="226" spans="1:25">
-      <c r="A226" s="52"/>
+      <c r="A226" s="53"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -10717,7 +10724,7 @@
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
       <c r="J226" s="5"/>
-      <c r="K226" s="53"/>
+      <c r="K226" s="54"/>
       <c r="L226" s="5"/>
       <c r="M226" s="5"/>
       <c r="N226" s="5"/>
@@ -10730,7 +10737,7 @@
       <c r="Y226" s="5"/>
     </row>
     <row r="227" spans="1:25">
-      <c r="A227" s="52"/>
+      <c r="A227" s="53"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -10739,7 +10746,7 @@
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
       <c r="J227" s="5"/>
-      <c r="K227" s="53"/>
+      <c r="K227" s="54"/>
       <c r="L227" s="5"/>
       <c r="M227" s="5"/>
       <c r="N227" s="5"/>
@@ -10752,7 +10759,7 @@
       <c r="Y227" s="5"/>
     </row>
     <row r="228" spans="1:25">
-      <c r="A228" s="52"/>
+      <c r="A228" s="53"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -10761,7 +10768,7 @@
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
       <c r="J228" s="5"/>
-      <c r="K228" s="53"/>
+      <c r="K228" s="54"/>
       <c r="L228" s="5"/>
       <c r="M228" s="5"/>
       <c r="N228" s="5"/>
@@ -10774,7 +10781,7 @@
       <c r="Y228" s="5"/>
     </row>
     <row r="229" spans="1:25">
-      <c r="A229" s="52"/>
+      <c r="A229" s="53"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -10783,7 +10790,7 @@
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
       <c r="J229" s="5"/>
-      <c r="K229" s="53"/>
+      <c r="K229" s="54"/>
       <c r="L229" s="5"/>
       <c r="M229" s="5"/>
       <c r="N229" s="5"/>
@@ -10796,7 +10803,7 @@
       <c r="Y229" s="5"/>
     </row>
     <row r="230" spans="1:25">
-      <c r="A230" s="52"/>
+      <c r="A230" s="53"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -10805,7 +10812,7 @@
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
       <c r="J230" s="5"/>
-      <c r="K230" s="53"/>
+      <c r="K230" s="54"/>
       <c r="L230" s="5"/>
       <c r="M230" s="5"/>
       <c r="N230" s="5"/>
@@ -10818,7 +10825,7 @@
       <c r="Y230" s="5"/>
     </row>
     <row r="231" spans="1:25">
-      <c r="A231" s="52"/>
+      <c r="A231" s="53"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -10827,7 +10834,7 @@
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
       <c r="J231" s="5"/>
-      <c r="K231" s="53"/>
+      <c r="K231" s="54"/>
       <c r="L231" s="5"/>
       <c r="M231" s="5"/>
       <c r="N231" s="5"/>
@@ -10840,7 +10847,7 @@
       <c r="Y231" s="5"/>
     </row>
     <row r="232" spans="1:25">
-      <c r="A232" s="52"/>
+      <c r="A232" s="53"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -10849,7 +10856,7 @@
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
       <c r="J232" s="5"/>
-      <c r="K232" s="53"/>
+      <c r="K232" s="54"/>
       <c r="L232" s="5"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
@@ -10862,7 +10869,7 @@
       <c r="Y232" s="5"/>
     </row>
     <row r="233" spans="1:25">
-      <c r="A233" s="52"/>
+      <c r="A233" s="53"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -10871,7 +10878,7 @@
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
       <c r="J233" s="5"/>
-      <c r="K233" s="53"/>
+      <c r="K233" s="54"/>
       <c r="L233" s="5"/>
       <c r="M233" s="5"/>
       <c r="N233" s="5"/>
@@ -10884,7 +10891,7 @@
       <c r="Y233" s="5"/>
     </row>
     <row r="234" spans="1:25">
-      <c r="A234" s="52"/>
+      <c r="A234" s="53"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -10893,7 +10900,7 @@
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
       <c r="J234" s="5"/>
-      <c r="K234" s="53"/>
+      <c r="K234" s="54"/>
       <c r="L234" s="5"/>
       <c r="M234" s="5"/>
       <c r="N234" s="5"/>
@@ -10906,7 +10913,7 @@
       <c r="Y234" s="5"/>
     </row>
     <row r="235" spans="1:25">
-      <c r="A235" s="52"/>
+      <c r="A235" s="53"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -10915,7 +10922,7 @@
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
       <c r="J235" s="5"/>
-      <c r="K235" s="53"/>
+      <c r="K235" s="54"/>
       <c r="L235" s="5"/>
       <c r="M235" s="5"/>
       <c r="N235" s="5"/>
@@ -10928,7 +10935,7 @@
       <c r="Y235" s="5"/>
     </row>
     <row r="236" spans="1:25">
-      <c r="A236" s="52"/>
+      <c r="A236" s="53"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -10937,7 +10944,7 @@
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
       <c r="J236" s="5"/>
-      <c r="K236" s="53"/>
+      <c r="K236" s="54"/>
       <c r="L236" s="5"/>
       <c r="M236" s="5"/>
       <c r="N236" s="5"/>
@@ -10950,7 +10957,7 @@
       <c r="Y236" s="5"/>
     </row>
     <row r="237" spans="1:25">
-      <c r="A237" s="52"/>
+      <c r="A237" s="53"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -10959,7 +10966,7 @@
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
       <c r="J237" s="5"/>
-      <c r="K237" s="53"/>
+      <c r="K237" s="54"/>
       <c r="L237" s="5"/>
       <c r="M237" s="5"/>
       <c r="N237" s="5"/>
@@ -10972,7 +10979,7 @@
       <c r="Y237" s="5"/>
     </row>
     <row r="238" spans="1:25">
-      <c r="A238" s="52"/>
+      <c r="A238" s="53"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -10981,7 +10988,7 @@
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
       <c r="J238" s="5"/>
-      <c r="K238" s="53"/>
+      <c r="K238" s="54"/>
       <c r="L238" s="5"/>
       <c r="M238" s="5"/>
       <c r="N238" s="5"/>
@@ -10994,7 +11001,7 @@
       <c r="Y238" s="5"/>
     </row>
     <row r="239" spans="1:25">
-      <c r="A239" s="52"/>
+      <c r="A239" s="53"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -11003,7 +11010,7 @@
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
       <c r="J239" s="5"/>
-      <c r="K239" s="53"/>
+      <c r="K239" s="54"/>
       <c r="L239" s="5"/>
       <c r="M239" s="5"/>
       <c r="N239" s="5"/>
@@ -11016,7 +11023,7 @@
       <c r="Y239" s="5"/>
     </row>
     <row r="240" spans="1:25">
-      <c r="A240" s="52"/>
+      <c r="A240" s="53"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -11025,7 +11032,7 @@
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
       <c r="J240" s="5"/>
-      <c r="K240" s="53"/>
+      <c r="K240" s="54"/>
       <c r="L240" s="5"/>
       <c r="M240" s="5"/>
       <c r="N240" s="5"/>
@@ -11038,7 +11045,7 @@
       <c r="Y240" s="5"/>
     </row>
     <row r="241" spans="1:25">
-      <c r="A241" s="52"/>
+      <c r="A241" s="53"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -11047,7 +11054,7 @@
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
       <c r="J241" s="5"/>
-      <c r="K241" s="53"/>
+      <c r="K241" s="54"/>
       <c r="L241" s="5"/>
       <c r="M241" s="5"/>
       <c r="N241" s="5"/>
@@ -11060,7 +11067,7 @@
       <c r="Y241" s="5"/>
     </row>
     <row r="242" spans="1:25">
-      <c r="A242" s="52"/>
+      <c r="A242" s="53"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -11069,7 +11076,7 @@
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
       <c r="J242" s="5"/>
-      <c r="K242" s="53"/>
+      <c r="K242" s="54"/>
       <c r="L242" s="5"/>
       <c r="M242" s="5"/>
       <c r="N242" s="5"/>
@@ -11082,7 +11089,7 @@
       <c r="Y242" s="5"/>
     </row>
     <row r="243" spans="1:25">
-      <c r="A243" s="52"/>
+      <c r="A243" s="53"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -11091,7 +11098,7 @@
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
       <c r="J243" s="5"/>
-      <c r="K243" s="53"/>
+      <c r="K243" s="54"/>
       <c r="L243" s="5"/>
       <c r="M243" s="5"/>
       <c r="N243" s="5"/>
@@ -11104,7 +11111,7 @@
       <c r="Y243" s="5"/>
     </row>
     <row r="244" spans="1:25">
-      <c r="A244" s="52"/>
+      <c r="A244" s="53"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -11113,7 +11120,7 @@
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
       <c r="J244" s="5"/>
-      <c r="K244" s="53"/>
+      <c r="K244" s="54"/>
       <c r="L244" s="5"/>
       <c r="M244" s="5"/>
       <c r="N244" s="5"/>
@@ -11126,7 +11133,7 @@
       <c r="Y244" s="5"/>
     </row>
     <row r="245" spans="1:25">
-      <c r="A245" s="52"/>
+      <c r="A245" s="53"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -11135,7 +11142,7 @@
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
       <c r="J245" s="5"/>
-      <c r="K245" s="53"/>
+      <c r="K245" s="54"/>
       <c r="L245" s="5"/>
       <c r="M245" s="5"/>
       <c r="N245" s="5"/>
@@ -11148,7 +11155,7 @@
       <c r="Y245" s="5"/>
     </row>
     <row r="246" spans="1:25">
-      <c r="A246" s="52"/>
+      <c r="A246" s="53"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -11157,7 +11164,7 @@
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
       <c r="J246" s="5"/>
-      <c r="K246" s="53"/>
+      <c r="K246" s="54"/>
       <c r="L246" s="5"/>
       <c r="M246" s="5"/>
       <c r="N246" s="5"/>
@@ -11170,7 +11177,7 @@
       <c r="Y246" s="5"/>
     </row>
     <row r="247" spans="1:25">
-      <c r="A247" s="52"/>
+      <c r="A247" s="53"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -11179,7 +11186,7 @@
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
       <c r="J247" s="5"/>
-      <c r="K247" s="53"/>
+      <c r="K247" s="54"/>
       <c r="L247" s="5"/>
       <c r="M247" s="5"/>
       <c r="N247" s="5"/>
@@ -11192,7 +11199,7 @@
       <c r="Y247" s="5"/>
     </row>
     <row r="248" spans="1:25">
-      <c r="A248" s="52"/>
+      <c r="A248" s="53"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -11201,7 +11208,7 @@
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
       <c r="J248" s="5"/>
-      <c r="K248" s="53"/>
+      <c r="K248" s="54"/>
       <c r="L248" s="5"/>
       <c r="M248" s="5"/>
       <c r="N248" s="5"/>
@@ -11214,7 +11221,7 @@
       <c r="Y248" s="5"/>
     </row>
     <row r="249" spans="1:25">
-      <c r="A249" s="52"/>
+      <c r="A249" s="53"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -11223,7 +11230,7 @@
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
       <c r="J249" s="5"/>
-      <c r="K249" s="53"/>
+      <c r="K249" s="54"/>
       <c r="L249" s="5"/>
       <c r="M249" s="5"/>
       <c r="N249" s="5"/>
@@ -11236,7 +11243,7 @@
       <c r="Y249" s="5"/>
     </row>
     <row r="250" spans="1:25">
-      <c r="A250" s="52"/>
+      <c r="A250" s="53"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -11245,7 +11252,7 @@
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
       <c r="J250" s="5"/>
-      <c r="K250" s="53"/>
+      <c r="K250" s="54"/>
       <c r="L250" s="5"/>
       <c r="M250" s="5"/>
       <c r="N250" s="5"/>
@@ -11258,7 +11265,7 @@
       <c r="Y250" s="5"/>
     </row>
     <row r="251" spans="1:25">
-      <c r="A251" s="52"/>
+      <c r="A251" s="53"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -11267,7 +11274,7 @@
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
       <c r="J251" s="5"/>
-      <c r="K251" s="53"/>
+      <c r="K251" s="54"/>
       <c r="L251" s="5"/>
       <c r="M251" s="5"/>
       <c r="N251" s="5"/>
@@ -11280,7 +11287,7 @@
       <c r="Y251" s="5"/>
     </row>
     <row r="252" spans="1:25">
-      <c r="A252" s="52"/>
+      <c r="A252" s="53"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -11289,7 +11296,7 @@
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
       <c r="J252" s="5"/>
-      <c r="K252" s="53"/>
+      <c r="K252" s="54"/>
       <c r="L252" s="5"/>
       <c r="M252" s="5"/>
       <c r="N252" s="5"/>
@@ -11302,7 +11309,7 @@
       <c r="Y252" s="5"/>
     </row>
     <row r="253" spans="1:25">
-      <c r="A253" s="52"/>
+      <c r="A253" s="53"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -11311,7 +11318,7 @@
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
       <c r="J253" s="5"/>
-      <c r="K253" s="53"/>
+      <c r="K253" s="54"/>
       <c r="L253" s="5"/>
       <c r="M253" s="5"/>
       <c r="N253" s="5"/>
@@ -11324,7 +11331,7 @@
       <c r="Y253" s="5"/>
     </row>
     <row r="254" spans="1:25">
-      <c r="A254" s="52"/>
+      <c r="A254" s="53"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -11333,7 +11340,7 @@
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
       <c r="J254" s="5"/>
-      <c r="K254" s="53"/>
+      <c r="K254" s="54"/>
       <c r="L254" s="5"/>
       <c r="M254" s="5"/>
       <c r="N254" s="5"/>
@@ -11346,7 +11353,7 @@
       <c r="Y254" s="5"/>
     </row>
     <row r="255" spans="1:25">
-      <c r="A255" s="52"/>
+      <c r="A255" s="53"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -11355,7 +11362,7 @@
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
       <c r="J255" s="5"/>
-      <c r="K255" s="53"/>
+      <c r="K255" s="54"/>
       <c r="L255" s="5"/>
       <c r="M255" s="5"/>
       <c r="N255" s="5"/>
@@ -11368,7 +11375,7 @@
       <c r="Y255" s="5"/>
     </row>
     <row r="256" spans="1:25">
-      <c r="A256" s="52"/>
+      <c r="A256" s="53"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -11377,7 +11384,7 @@
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
       <c r="J256" s="5"/>
-      <c r="K256" s="53"/>
+      <c r="K256" s="54"/>
       <c r="L256" s="5"/>
       <c r="M256" s="5"/>
       <c r="N256" s="5"/>
@@ -11390,7 +11397,7 @@
       <c r="Y256" s="5"/>
     </row>
     <row r="257" spans="1:25">
-      <c r="A257" s="52"/>
+      <c r="A257" s="53"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -11399,7 +11406,7 @@
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
       <c r="J257" s="5"/>
-      <c r="K257" s="53"/>
+      <c r="K257" s="54"/>
       <c r="L257" s="5"/>
       <c r="M257" s="5"/>
       <c r="N257" s="5"/>
@@ -11412,7 +11419,7 @@
       <c r="Y257" s="5"/>
     </row>
     <row r="258" spans="1:25">
-      <c r="A258" s="52"/>
+      <c r="A258" s="53"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -11421,7 +11428,7 @@
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
       <c r="J258" s="5"/>
-      <c r="K258" s="53"/>
+      <c r="K258" s="54"/>
       <c r="L258" s="5"/>
       <c r="M258" s="5"/>
       <c r="N258" s="5"/>
@@ -11434,7 +11441,7 @@
       <c r="Y258" s="5"/>
     </row>
     <row r="259" spans="1:25">
-      <c r="A259" s="52"/>
+      <c r="A259" s="53"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
@@ -11443,7 +11450,7 @@
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
       <c r="J259" s="5"/>
-      <c r="K259" s="53"/>
+      <c r="K259" s="54"/>
       <c r="L259" s="5"/>
       <c r="M259" s="5"/>
       <c r="N259" s="5"/>
@@ -11456,7 +11463,7 @@
       <c r="Y259" s="5"/>
     </row>
     <row r="260" spans="1:25">
-      <c r="A260" s="52"/>
+      <c r="A260" s="53"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -11465,7 +11472,7 @@
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
       <c r="J260" s="5"/>
-      <c r="K260" s="53"/>
+      <c r="K260" s="54"/>
       <c r="L260" s="5"/>
       <c r="M260" s="5"/>
       <c r="N260" s="5"/>
@@ -11478,7 +11485,7 @@
       <c r="Y260" s="5"/>
     </row>
     <row r="261" spans="1:25">
-      <c r="A261" s="52"/>
+      <c r="A261" s="53"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -11487,7 +11494,7 @@
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
       <c r="J261" s="5"/>
-      <c r="K261" s="53"/>
+      <c r="K261" s="54"/>
       <c r="L261" s="5"/>
       <c r="M261" s="5"/>
       <c r="N261" s="5"/>
@@ -11500,7 +11507,7 @@
       <c r="Y261" s="5"/>
     </row>
     <row r="262" spans="1:25">
-      <c r="A262" s="52"/>
+      <c r="A262" s="53"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -11509,7 +11516,7 @@
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
       <c r="J262" s="5"/>
-      <c r="K262" s="53"/>
+      <c r="K262" s="54"/>
       <c r="L262" s="5"/>
       <c r="M262" s="5"/>
       <c r="N262" s="5"/>
@@ -11522,7 +11529,7 @@
       <c r="Y262" s="5"/>
     </row>
     <row r="263" spans="1:25">
-      <c r="A263" s="52"/>
+      <c r="A263" s="53"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -11531,7 +11538,7 @@
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
       <c r="J263" s="5"/>
-      <c r="K263" s="53"/>
+      <c r="K263" s="54"/>
       <c r="L263" s="5"/>
       <c r="M263" s="5"/>
       <c r="N263" s="5"/>
@@ -11544,7 +11551,7 @@
       <c r="Y263" s="5"/>
     </row>
     <row r="264" spans="1:25">
-      <c r="A264" s="52"/>
+      <c r="A264" s="53"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -11553,7 +11560,7 @@
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
       <c r="J264" s="5"/>
-      <c r="K264" s="53"/>
+      <c r="K264" s="54"/>
       <c r="L264" s="5"/>
       <c r="M264" s="5"/>
       <c r="N264" s="5"/>
@@ -11566,7 +11573,7 @@
       <c r="Y264" s="5"/>
     </row>
     <row r="265" spans="1:25">
-      <c r="A265" s="52"/>
+      <c r="A265" s="53"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -11575,7 +11582,7 @@
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
       <c r="J265" s="5"/>
-      <c r="K265" s="53"/>
+      <c r="K265" s="54"/>
       <c r="L265" s="5"/>
       <c r="M265" s="5"/>
       <c r="N265" s="5"/>
@@ -11588,7 +11595,7 @@
       <c r="Y265" s="5"/>
     </row>
     <row r="266" spans="1:25">
-      <c r="A266" s="52"/>
+      <c r="A266" s="53"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -11597,7 +11604,7 @@
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
       <c r="J266" s="5"/>
-      <c r="K266" s="53"/>
+      <c r="K266" s="54"/>
       <c r="L266" s="5"/>
       <c r="M266" s="5"/>
       <c r="N266" s="5"/>
@@ -11610,7 +11617,7 @@
       <c r="Y266" s="5"/>
     </row>
     <row r="267" spans="1:25">
-      <c r="A267" s="52"/>
+      <c r="A267" s="53"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -11619,7 +11626,7 @@
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
       <c r="J267" s="5"/>
-      <c r="K267" s="53"/>
+      <c r="K267" s="54"/>
       <c r="L267" s="5"/>
       <c r="M267" s="5"/>
       <c r="N267" s="5"/>
@@ -11632,7 +11639,7 @@
       <c r="Y267" s="5"/>
     </row>
     <row r="268" spans="1:25">
-      <c r="A268" s="52"/>
+      <c r="A268" s="53"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -11641,7 +11648,7 @@
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
       <c r="J268" s="5"/>
-      <c r="K268" s="53"/>
+      <c r="K268" s="54"/>
       <c r="L268" s="5"/>
       <c r="M268" s="5"/>
       <c r="N268" s="5"/>
@@ -11654,7 +11661,7 @@
       <c r="Y268" s="5"/>
     </row>
     <row r="269" spans="1:25">
-      <c r="A269" s="52"/>
+      <c r="A269" s="53"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -11663,7 +11670,7 @@
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
       <c r="J269" s="5"/>
-      <c r="K269" s="53"/>
+      <c r="K269" s="54"/>
       <c r="L269" s="5"/>
       <c r="M269" s="5"/>
       <c r="N269" s="5"/>
@@ -11676,7 +11683,7 @@
       <c r="Y269" s="5"/>
     </row>
     <row r="270" spans="1:25">
-      <c r="A270" s="52"/>
+      <c r="A270" s="53"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -11685,7 +11692,7 @@
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
       <c r="J270" s="5"/>
-      <c r="K270" s="53"/>
+      <c r="K270" s="54"/>
       <c r="L270" s="5"/>
       <c r="M270" s="5"/>
       <c r="N270" s="5"/>
@@ -11698,7 +11705,7 @@
       <c r="Y270" s="5"/>
     </row>
     <row r="271" spans="1:25">
-      <c r="A271" s="52"/>
+      <c r="A271" s="53"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -11707,7 +11714,7 @@
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
       <c r="J271" s="5"/>
-      <c r="K271" s="53"/>
+      <c r="K271" s="54"/>
       <c r="L271" s="5"/>
       <c r="M271" s="5"/>
       <c r="N271" s="5"/>
@@ -11720,7 +11727,7 @@
       <c r="Y271" s="5"/>
     </row>
     <row r="272" spans="1:25">
-      <c r="A272" s="52"/>
+      <c r="A272" s="53"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -11729,7 +11736,7 @@
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
       <c r="J272" s="5"/>
-      <c r="K272" s="53"/>
+      <c r="K272" s="54"/>
       <c r="L272" s="5"/>
       <c r="M272" s="5"/>
       <c r="N272" s="5"/>
@@ -11742,7 +11749,7 @@
       <c r="Y272" s="5"/>
     </row>
     <row r="273" spans="1:25">
-      <c r="A273" s="52"/>
+      <c r="A273" s="53"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -11751,7 +11758,7 @@
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
       <c r="J273" s="5"/>
-      <c r="K273" s="53"/>
+      <c r="K273" s="54"/>
       <c r="L273" s="5"/>
       <c r="M273" s="5"/>
       <c r="N273" s="5"/>
@@ -11764,7 +11771,7 @@
       <c r="Y273" s="5"/>
     </row>
     <row r="274" spans="1:25">
-      <c r="A274" s="52"/>
+      <c r="A274" s="53"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -11773,7 +11780,7 @@
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
       <c r="J274" s="5"/>
-      <c r="K274" s="53"/>
+      <c r="K274" s="54"/>
       <c r="L274" s="5"/>
       <c r="M274" s="5"/>
       <c r="N274" s="5"/>
@@ -11786,7 +11793,7 @@
       <c r="Y274" s="5"/>
     </row>
     <row r="275" spans="1:25">
-      <c r="A275" s="52"/>
+      <c r="A275" s="53"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -11795,7 +11802,7 @@
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
       <c r="J275" s="5"/>
-      <c r="K275" s="53"/>
+      <c r="K275" s="54"/>
       <c r="L275" s="5"/>
       <c r="M275" s="5"/>
       <c r="N275" s="5"/>
@@ -11808,7 +11815,7 @@
       <c r="Y275" s="5"/>
     </row>
     <row r="276" spans="1:25">
-      <c r="A276" s="52"/>
+      <c r="A276" s="53"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -11817,7 +11824,7 @@
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
       <c r="J276" s="5"/>
-      <c r="K276" s="53"/>
+      <c r="K276" s="54"/>
       <c r="L276" s="5"/>
       <c r="M276" s="5"/>
       <c r="N276" s="5"/>
@@ -11830,7 +11837,7 @@
       <c r="Y276" s="5"/>
     </row>
     <row r="277" spans="1:25">
-      <c r="A277" s="52"/>
+      <c r="A277" s="53"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -11839,7 +11846,7 @@
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
       <c r="J277" s="5"/>
-      <c r="K277" s="53"/>
+      <c r="K277" s="54"/>
       <c r="L277" s="5"/>
       <c r="M277" s="5"/>
       <c r="N277" s="5"/>
@@ -11852,7 +11859,7 @@
       <c r="Y277" s="5"/>
     </row>
     <row r="278" spans="1:25">
-      <c r="A278" s="52"/>
+      <c r="A278" s="53"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -11861,7 +11868,7 @@
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
       <c r="J278" s="5"/>
-      <c r="K278" s="53"/>
+      <c r="K278" s="54"/>
       <c r="L278" s="5"/>
       <c r="M278" s="5"/>
       <c r="N278" s="5"/>
@@ -11874,7 +11881,7 @@
       <c r="Y278" s="5"/>
     </row>
     <row r="279" spans="1:25">
-      <c r="A279" s="52"/>
+      <c r="A279" s="53"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -11883,7 +11890,7 @@
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
       <c r="J279" s="5"/>
-      <c r="K279" s="53"/>
+      <c r="K279" s="54"/>
       <c r="L279" s="5"/>
       <c r="M279" s="5"/>
       <c r="N279" s="5"/>
@@ -11896,7 +11903,7 @@
       <c r="Y279" s="5"/>
     </row>
     <row r="280" spans="1:25">
-      <c r="A280" s="52"/>
+      <c r="A280" s="53"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -11905,7 +11912,7 @@
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
       <c r="J280" s="5"/>
-      <c r="K280" s="53"/>
+      <c r="K280" s="54"/>
       <c r="L280" s="5"/>
       <c r="M280" s="5"/>
       <c r="N280" s="5"/>
@@ -11918,7 +11925,7 @@
       <c r="Y280" s="5"/>
     </row>
     <row r="281" spans="1:25">
-      <c r="A281" s="52"/>
+      <c r="A281" s="53"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -11927,7 +11934,7 @@
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
       <c r="J281" s="5"/>
-      <c r="K281" s="53"/>
+      <c r="K281" s="54"/>
       <c r="L281" s="5"/>
       <c r="M281" s="5"/>
       <c r="N281" s="5"/>
@@ -11940,7 +11947,7 @@
       <c r="Y281" s="5"/>
     </row>
     <row r="282" spans="1:25">
-      <c r="A282" s="52"/>
+      <c r="A282" s="53"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -11949,7 +11956,7 @@
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
       <c r="J282" s="5"/>
-      <c r="K282" s="53"/>
+      <c r="K282" s="54"/>
       <c r="L282" s="5"/>
       <c r="M282" s="5"/>
       <c r="N282" s="5"/>
@@ -11962,7 +11969,7 @@
       <c r="Y282" s="5"/>
     </row>
     <row r="283" spans="1:25">
-      <c r="A283" s="52"/>
+      <c r="A283" s="53"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -11971,7 +11978,7 @@
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
       <c r="J283" s="5"/>
-      <c r="K283" s="53"/>
+      <c r="K283" s="54"/>
       <c r="L283" s="5"/>
       <c r="M283" s="5"/>
       <c r="N283" s="5"/>
@@ -11984,7 +11991,7 @@
       <c r="Y283" s="5"/>
     </row>
     <row r="284" spans="1:25">
-      <c r="A284" s="52"/>
+      <c r="A284" s="53"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -11993,7 +12000,7 @@
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
       <c r="J284" s="5"/>
-      <c r="K284" s="53"/>
+      <c r="K284" s="54"/>
       <c r="L284" s="5"/>
       <c r="M284" s="5"/>
       <c r="N284" s="5"/>
@@ -12006,7 +12013,7 @@
       <c r="Y284" s="5"/>
     </row>
     <row r="285" spans="1:25">
-      <c r="A285" s="52"/>
+      <c r="A285" s="53"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -12015,7 +12022,7 @@
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
       <c r="J285" s="5"/>
-      <c r="K285" s="53"/>
+      <c r="K285" s="54"/>
       <c r="L285" s="5"/>
       <c r="M285" s="5"/>
       <c r="N285" s="5"/>
@@ -12028,7 +12035,7 @@
       <c r="Y285" s="5"/>
     </row>
     <row r="286" spans="1:25">
-      <c r="A286" s="52"/>
+      <c r="A286" s="53"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -12037,7 +12044,7 @@
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
       <c r="J286" s="5"/>
-      <c r="K286" s="53"/>
+      <c r="K286" s="54"/>
       <c r="L286" s="5"/>
       <c r="M286" s="5"/>
       <c r="N286" s="5"/>
@@ -12050,7 +12057,7 @@
       <c r="Y286" s="5"/>
     </row>
     <row r="287" spans="1:25">
-      <c r="A287" s="52"/>
+      <c r="A287" s="53"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -12059,7 +12066,7 @@
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
       <c r="J287" s="5"/>
-      <c r="K287" s="53"/>
+      <c r="K287" s="54"/>
       <c r="L287" s="5"/>
       <c r="M287" s="5"/>
       <c r="N287" s="5"/>
@@ -12072,7 +12079,7 @@
       <c r="Y287" s="5"/>
     </row>
     <row r="288" spans="1:25">
-      <c r="A288" s="52"/>
+      <c r="A288" s="53"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -12081,7 +12088,7 @@
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
       <c r="J288" s="5"/>
-      <c r="K288" s="53"/>
+      <c r="K288" s="54"/>
       <c r="L288" s="5"/>
       <c r="M288" s="5"/>
       <c r="N288" s="5"/>
@@ -12094,7 +12101,7 @@
       <c r="Y288" s="5"/>
     </row>
     <row r="289" spans="1:25">
-      <c r="A289" s="52"/>
+      <c r="A289" s="53"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -12103,7 +12110,7 @@
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
       <c r="J289" s="5"/>
-      <c r="K289" s="53"/>
+      <c r="K289" s="54"/>
       <c r="L289" s="5"/>
       <c r="M289" s="5"/>
       <c r="N289" s="5"/>
@@ -12116,7 +12123,7 @@
       <c r="Y289" s="5"/>
     </row>
     <row r="290" spans="1:25">
-      <c r="A290" s="52"/>
+      <c r="A290" s="53"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -12125,7 +12132,7 @@
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
       <c r="J290" s="5"/>
-      <c r="K290" s="53"/>
+      <c r="K290" s="54"/>
       <c r="L290" s="5"/>
       <c r="M290" s="5"/>
       <c r="N290" s="5"/>
@@ -12138,7 +12145,7 @@
       <c r="Y290" s="5"/>
     </row>
     <row r="291" spans="1:25">
-      <c r="A291" s="52"/>
+      <c r="A291" s="53"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
@@ -12147,7 +12154,7 @@
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
       <c r="J291" s="5"/>
-      <c r="K291" s="53"/>
+      <c r="K291" s="54"/>
       <c r="L291" s="5"/>
       <c r="M291" s="5"/>
       <c r="N291" s="5"/>
@@ -12160,7 +12167,7 @@
       <c r="Y291" s="5"/>
     </row>
     <row r="292" spans="1:25">
-      <c r="A292" s="52"/>
+      <c r="A292" s="53"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
@@ -12169,7 +12176,7 @@
       <c r="G292" s="3"/>
       <c r="H292" s="3"/>
       <c r="J292" s="5"/>
-      <c r="K292" s="53"/>
+      <c r="K292" s="54"/>
       <c r="L292" s="5"/>
       <c r="M292" s="5"/>
       <c r="N292" s="5"/>
@@ -12182,7 +12189,7 @@
       <c r="Y292" s="5"/>
     </row>
     <row r="293" spans="1:25">
-      <c r="A293" s="52"/>
+      <c r="A293" s="53"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -12191,7 +12198,7 @@
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
       <c r="J293" s="5"/>
-      <c r="K293" s="53"/>
+      <c r="K293" s="54"/>
       <c r="L293" s="5"/>
       <c r="M293" s="5"/>
       <c r="N293" s="5"/>
@@ -12204,7 +12211,7 @@
       <c r="Y293" s="5"/>
     </row>
     <row r="294" spans="1:25">
-      <c r="A294" s="52"/>
+      <c r="A294" s="53"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
@@ -12213,7 +12220,7 @@
       <c r="G294" s="3"/>
       <c r="H294" s="3"/>
       <c r="J294" s="5"/>
-      <c r="K294" s="53"/>
+      <c r="K294" s="54"/>
       <c r="L294" s="5"/>
       <c r="M294" s="5"/>
       <c r="N294" s="5"/>
@@ -12226,7 +12233,7 @@
       <c r="Y294" s="5"/>
     </row>
     <row r="295" spans="1:25">
-      <c r="A295" s="52"/>
+      <c r="A295" s="53"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -12235,7 +12242,7 @@
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
       <c r="J295" s="5"/>
-      <c r="K295" s="53"/>
+      <c r="K295" s="54"/>
       <c r="L295" s="5"/>
       <c r="M295" s="5"/>
       <c r="N295" s="5"/>
@@ -12248,7 +12255,7 @@
       <c r="Y295" s="5"/>
     </row>
     <row r="296" spans="1:25">
-      <c r="A296" s="52"/>
+      <c r="A296" s="53"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -12257,7 +12264,7 @@
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
       <c r="J296" s="5"/>
-      <c r="K296" s="53"/>
+      <c r="K296" s="54"/>
       <c r="L296" s="5"/>
       <c r="M296" s="5"/>
       <c r="N296" s="5"/>
@@ -12270,7 +12277,7 @@
       <c r="Y296" s="5"/>
     </row>
     <row r="297" spans="1:25">
-      <c r="A297" s="52"/>
+      <c r="A297" s="53"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
@@ -12279,7 +12286,7 @@
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
       <c r="J297" s="5"/>
-      <c r="K297" s="53"/>
+      <c r="K297" s="54"/>
       <c r="L297" s="5"/>
       <c r="M297" s="5"/>
       <c r="N297" s="5"/>
@@ -12292,7 +12299,7 @@
       <c r="Y297" s="5"/>
     </row>
     <row r="298" spans="1:25">
-      <c r="A298" s="52"/>
+      <c r="A298" s="53"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -12301,7 +12308,7 @@
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
       <c r="J298" s="5"/>
-      <c r="K298" s="53"/>
+      <c r="K298" s="54"/>
       <c r="L298" s="5"/>
       <c r="M298" s="5"/>
       <c r="N298" s="5"/>
@@ -12314,7 +12321,7 @@
       <c r="Y298" s="5"/>
     </row>
     <row r="299" spans="1:25">
-      <c r="A299" s="52"/>
+      <c r="A299" s="53"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -12323,7 +12330,7 @@
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
       <c r="J299" s="5"/>
-      <c r="K299" s="53"/>
+      <c r="K299" s="54"/>
       <c r="L299" s="5"/>
       <c r="M299" s="5"/>
       <c r="N299" s="5"/>
@@ -12336,7 +12343,7 @@
       <c r="Y299" s="5"/>
     </row>
     <row r="300" spans="1:25">
-      <c r="A300" s="52"/>
+      <c r="A300" s="53"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -12345,7 +12352,7 @@
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
       <c r="J300" s="5"/>
-      <c r="K300" s="53"/>
+      <c r="K300" s="54"/>
       <c r="L300" s="5"/>
       <c r="M300" s="5"/>
       <c r="N300" s="5"/>
@@ -12358,7 +12365,7 @@
       <c r="Y300" s="5"/>
     </row>
     <row r="301" spans="1:25">
-      <c r="A301" s="52"/>
+      <c r="A301" s="53"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -12367,7 +12374,7 @@
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
       <c r="J301" s="5"/>
-      <c r="K301" s="53"/>
+      <c r="K301" s="54"/>
       <c r="L301" s="5"/>
       <c r="M301" s="5"/>
       <c r="N301" s="5"/>
@@ -12380,7 +12387,7 @@
       <c r="Y301" s="5"/>
     </row>
     <row r="302" spans="1:25">
-      <c r="A302" s="52"/>
+      <c r="A302" s="53"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -12389,7 +12396,7 @@
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
       <c r="J302" s="5"/>
-      <c r="K302" s="53"/>
+      <c r="K302" s="54"/>
       <c r="L302" s="5"/>
       <c r="M302" s="5"/>
       <c r="N302" s="5"/>
@@ -12402,7 +12409,7 @@
       <c r="Y302" s="5"/>
     </row>
     <row r="303" spans="1:25">
-      <c r="A303" s="52"/>
+      <c r="A303" s="53"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
@@ -12411,7 +12418,7 @@
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
       <c r="J303" s="5"/>
-      <c r="K303" s="53"/>
+      <c r="K303" s="54"/>
       <c r="L303" s="5"/>
       <c r="M303" s="5"/>
       <c r="N303" s="5"/>
@@ -12424,7 +12431,7 @@
       <c r="Y303" s="5"/>
     </row>
     <row r="304" spans="1:25">
-      <c r="A304" s="52"/>
+      <c r="A304" s="53"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -12433,7 +12440,7 @@
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
       <c r="J304" s="5"/>
-      <c r="K304" s="53"/>
+      <c r="K304" s="54"/>
       <c r="L304" s="5"/>
       <c r="M304" s="5"/>
       <c r="N304" s="5"/>
@@ -12446,7 +12453,7 @@
       <c r="Y304" s="5"/>
     </row>
     <row r="305" spans="1:25">
-      <c r="A305" s="52"/>
+      <c r="A305" s="53"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -12455,7 +12462,7 @@
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
       <c r="J305" s="5"/>
-      <c r="K305" s="53"/>
+      <c r="K305" s="54"/>
       <c r="L305" s="5"/>
       <c r="M305" s="5"/>
       <c r="N305" s="5"/>
@@ -12468,7 +12475,7 @@
       <c r="Y305" s="5"/>
     </row>
     <row r="306" spans="1:25">
-      <c r="A306" s="52"/>
+      <c r="A306" s="53"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -12477,7 +12484,7 @@
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
       <c r="J306" s="5"/>
-      <c r="K306" s="53"/>
+      <c r="K306" s="54"/>
       <c r="L306" s="5"/>
       <c r="M306" s="5"/>
       <c r="N306" s="5"/>
@@ -12490,7 +12497,7 @@
       <c r="Y306" s="5"/>
     </row>
     <row r="307" spans="1:25">
-      <c r="A307" s="52"/>
+      <c r="A307" s="53"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -12499,7 +12506,7 @@
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
       <c r="J307" s="5"/>
-      <c r="K307" s="53"/>
+      <c r="K307" s="54"/>
       <c r="L307" s="5"/>
       <c r="M307" s="5"/>
       <c r="N307" s="5"/>
@@ -12512,7 +12519,7 @@
       <c r="Y307" s="5"/>
     </row>
     <row r="308" spans="1:25">
-      <c r="A308" s="52"/>
+      <c r="A308" s="53"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -12521,7 +12528,7 @@
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
       <c r="J308" s="5"/>
-      <c r="K308" s="53"/>
+      <c r="K308" s="54"/>
       <c r="L308" s="5"/>
       <c r="M308" s="5"/>
       <c r="N308" s="5"/>
@@ -12534,7 +12541,7 @@
       <c r="Y308" s="5"/>
     </row>
     <row r="309" spans="1:25">
-      <c r="A309" s="52"/>
+      <c r="A309" s="53"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -12543,7 +12550,7 @@
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
       <c r="J309" s="5"/>
-      <c r="K309" s="53"/>
+      <c r="K309" s="54"/>
       <c r="L309" s="5"/>
       <c r="M309" s="5"/>
       <c r="N309" s="5"/>
@@ -12556,7 +12563,7 @@
       <c r="Y309" s="5"/>
     </row>
     <row r="310" spans="1:25">
-      <c r="A310" s="52"/>
+      <c r="A310" s="53"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -12565,7 +12572,7 @@
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
       <c r="J310" s="5"/>
-      <c r="K310" s="53"/>
+      <c r="K310" s="54"/>
       <c r="L310" s="5"/>
       <c r="M310" s="5"/>
       <c r="N310" s="5"/>
@@ -12578,7 +12585,7 @@
       <c r="Y310" s="5"/>
     </row>
     <row r="311" spans="1:25">
-      <c r="A311" s="52"/>
+      <c r="A311" s="53"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -12587,7 +12594,7 @@
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
       <c r="J311" s="5"/>
-      <c r="K311" s="53"/>
+      <c r="K311" s="54"/>
       <c r="L311" s="5"/>
       <c r="M311" s="5"/>
       <c r="N311" s="5"/>
@@ -12600,7 +12607,7 @@
       <c r="Y311" s="5"/>
     </row>
     <row r="312" spans="1:25">
-      <c r="A312" s="52"/>
+      <c r="A312" s="53"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
@@ -12609,7 +12616,7 @@
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
       <c r="J312" s="5"/>
-      <c r="K312" s="53"/>
+      <c r="K312" s="54"/>
       <c r="L312" s="5"/>
       <c r="M312" s="5"/>
       <c r="N312" s="5"/>
@@ -12622,7 +12629,7 @@
       <c r="Y312" s="5"/>
     </row>
     <row r="313" spans="1:25">
-      <c r="A313" s="52"/>
+      <c r="A313" s="53"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
@@ -12631,7 +12638,7 @@
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
       <c r="J313" s="5"/>
-      <c r="K313" s="53"/>
+      <c r="K313" s="54"/>
       <c r="L313" s="5"/>
       <c r="M313" s="5"/>
       <c r="N313" s="5"/>
@@ -12644,7 +12651,7 @@
       <c r="Y313" s="5"/>
     </row>
     <row r="314" spans="1:25">
-      <c r="A314" s="52"/>
+      <c r="A314" s="53"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
@@ -12653,7 +12660,7 @@
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
       <c r="J314" s="5"/>
-      <c r="K314" s="53"/>
+      <c r="K314" s="54"/>
       <c r="L314" s="5"/>
       <c r="M314" s="5"/>
       <c r="N314" s="5"/>
@@ -12666,7 +12673,7 @@
       <c r="Y314" s="5"/>
     </row>
     <row r="315" spans="1:25">
-      <c r="A315" s="52"/>
+      <c r="A315" s="53"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
@@ -12675,7 +12682,7 @@
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
       <c r="J315" s="5"/>
-      <c r="K315" s="53"/>
+      <c r="K315" s="54"/>
       <c r="L315" s="5"/>
       <c r="M315" s="5"/>
       <c r="N315" s="5"/>
@@ -12688,7 +12695,7 @@
       <c r="Y315" s="5"/>
     </row>
     <row r="316" spans="1:25">
-      <c r="A316" s="52"/>
+      <c r="A316" s="53"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
@@ -12697,7 +12704,7 @@
       <c r="G316" s="3"/>
       <c r="H316" s="3"/>
       <c r="J316" s="5"/>
-      <c r="K316" s="53"/>
+      <c r="K316" s="54"/>
       <c r="L316" s="5"/>
       <c r="M316" s="5"/>
       <c r="N316" s="5"/>
@@ -12710,7 +12717,7 @@
       <c r="Y316" s="5"/>
     </row>
     <row r="317" spans="1:25">
-      <c r="A317" s="52"/>
+      <c r="A317" s="53"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
@@ -12719,7 +12726,7 @@
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
       <c r="J317" s="5"/>
-      <c r="K317" s="53"/>
+      <c r="K317" s="54"/>
       <c r="L317" s="5"/>
       <c r="M317" s="5"/>
       <c r="N317" s="5"/>
@@ -12732,7 +12739,7 @@
       <c r="Y317" s="5"/>
     </row>
     <row r="318" spans="1:25">
-      <c r="A318" s="52"/>
+      <c r="A318" s="53"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
@@ -12741,7 +12748,7 @@
       <c r="G318" s="3"/>
       <c r="H318" s="3"/>
       <c r="J318" s="5"/>
-      <c r="K318" s="53"/>
+      <c r="K318" s="54"/>
       <c r="L318" s="5"/>
       <c r="M318" s="5"/>
       <c r="N318" s="5"/>
@@ -12754,7 +12761,7 @@
       <c r="Y318" s="5"/>
     </row>
     <row r="319" spans="1:25">
-      <c r="A319" s="52"/>
+      <c r="A319" s="53"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -12763,7 +12770,7 @@
       <c r="G319" s="3"/>
       <c r="H319" s="3"/>
       <c r="J319" s="5"/>
-      <c r="K319" s="53"/>
+      <c r="K319" s="54"/>
       <c r="L319" s="5"/>
       <c r="M319" s="5"/>
       <c r="N319" s="5"/>
@@ -12776,7 +12783,7 @@
       <c r="Y319" s="5"/>
     </row>
     <row r="320" spans="1:25">
-      <c r="A320" s="52"/>
+      <c r="A320" s="53"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
@@ -12785,7 +12792,7 @@
       <c r="G320" s="3"/>
       <c r="H320" s="3"/>
       <c r="J320" s="5"/>
-      <c r="K320" s="53"/>
+      <c r="K320" s="54"/>
       <c r="L320" s="5"/>
       <c r="M320" s="5"/>
       <c r="N320" s="5"/>
@@ -12798,7 +12805,7 @@
       <c r="Y320" s="5"/>
     </row>
     <row r="321" spans="1:25">
-      <c r="A321" s="52"/>
+      <c r="A321" s="53"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -12807,7 +12814,7 @@
       <c r="G321" s="3"/>
       <c r="H321" s="3"/>
       <c r="J321" s="5"/>
-      <c r="K321" s="53"/>
+      <c r="K321" s="54"/>
       <c r="L321" s="5"/>
       <c r="M321" s="5"/>
       <c r="N321" s="5"/>
@@ -12820,7 +12827,7 @@
       <c r="Y321" s="5"/>
     </row>
     <row r="322" spans="1:25">
-      <c r="A322" s="52"/>
+      <c r="A322" s="53"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
@@ -12829,7 +12836,7 @@
       <c r="G322" s="3"/>
       <c r="H322" s="3"/>
       <c r="J322" s="5"/>
-      <c r="K322" s="53"/>
+      <c r="K322" s="54"/>
       <c r="L322" s="5"/>
       <c r="M322" s="5"/>
       <c r="N322" s="5"/>
@@ -12842,7 +12849,7 @@
       <c r="Y322" s="5"/>
     </row>
     <row r="323" spans="1:25">
-      <c r="A323" s="52"/>
+      <c r="A323" s="53"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
@@ -12851,7 +12858,7 @@
       <c r="G323" s="3"/>
       <c r="H323" s="3"/>
       <c r="J323" s="5"/>
-      <c r="K323" s="53"/>
+      <c r="K323" s="54"/>
       <c r="L323" s="5"/>
       <c r="M323" s="5"/>
       <c r="N323" s="5"/>
@@ -12864,7 +12871,7 @@
       <c r="Y323" s="5"/>
     </row>
     <row r="324" spans="1:25">
-      <c r="A324" s="52"/>
+      <c r="A324" s="53"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
@@ -12873,7 +12880,7 @@
       <c r="G324" s="3"/>
       <c r="H324" s="3"/>
       <c r="J324" s="5"/>
-      <c r="K324" s="53"/>
+      <c r="K324" s="54"/>
       <c r="L324" s="5"/>
       <c r="M324" s="5"/>
       <c r="N324" s="5"/>
@@ -12886,7 +12893,7 @@
       <c r="Y324" s="5"/>
     </row>
     <row r="325" spans="1:25">
-      <c r="A325" s="52"/>
+      <c r="A325" s="53"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
@@ -12895,7 +12902,7 @@
       <c r="G325" s="3"/>
       <c r="H325" s="3"/>
       <c r="J325" s="5"/>
-      <c r="K325" s="53"/>
+      <c r="K325" s="54"/>
       <c r="L325" s="5"/>
       <c r="M325" s="5"/>
       <c r="N325" s="5"/>
@@ -12908,7 +12915,7 @@
       <c r="Y325" s="5"/>
     </row>
     <row r="326" spans="1:25">
-      <c r="A326" s="52"/>
+      <c r="A326" s="53"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
@@ -12917,7 +12924,7 @@
       <c r="G326" s="3"/>
       <c r="H326" s="3"/>
       <c r="J326" s="5"/>
-      <c r="K326" s="53"/>
+      <c r="K326" s="54"/>
       <c r="L326" s="5"/>
       <c r="M326" s="5"/>
       <c r="N326" s="5"/>
@@ -12930,7 +12937,7 @@
       <c r="Y326" s="5"/>
     </row>
     <row r="327" spans="1:25">
-      <c r="A327" s="52"/>
+      <c r="A327" s="53"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
@@ -12939,7 +12946,7 @@
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
       <c r="J327" s="5"/>
-      <c r="K327" s="53"/>
+      <c r="K327" s="54"/>
       <c r="L327" s="5"/>
       <c r="M327" s="5"/>
       <c r="N327" s="5"/>
@@ -12952,7 +12959,7 @@
       <c r="Y327" s="5"/>
     </row>
     <row r="328" spans="1:25">
-      <c r="A328" s="52"/>
+      <c r="A328" s="53"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
@@ -12961,7 +12968,7 @@
       <c r="G328" s="3"/>
       <c r="H328" s="3"/>
       <c r="J328" s="5"/>
-      <c r="K328" s="53"/>
+      <c r="K328" s="54"/>
       <c r="L328" s="5"/>
       <c r="M328" s="5"/>
       <c r="N328" s="5"/>
@@ -12974,7 +12981,7 @@
       <c r="Y328" s="5"/>
     </row>
     <row r="329" spans="1:25">
-      <c r="A329" s="52"/>
+      <c r="A329" s="53"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
@@ -12983,7 +12990,7 @@
       <c r="G329" s="3"/>
       <c r="H329" s="3"/>
       <c r="J329" s="5"/>
-      <c r="K329" s="53"/>
+      <c r="K329" s="54"/>
       <c r="L329" s="5"/>
       <c r="M329" s="5"/>
       <c r="N329" s="5"/>
@@ -12996,7 +13003,7 @@
       <c r="Y329" s="5"/>
     </row>
     <row r="330" spans="1:25">
-      <c r="A330" s="52"/>
+      <c r="A330" s="53"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
@@ -13005,7 +13012,7 @@
       <c r="G330" s="3"/>
       <c r="H330" s="3"/>
       <c r="J330" s="5"/>
-      <c r="K330" s="53"/>
+      <c r="K330" s="54"/>
       <c r="L330" s="5"/>
       <c r="M330" s="5"/>
       <c r="N330" s="5"/>
@@ -13018,7 +13025,7 @@
       <c r="Y330" s="5"/>
     </row>
     <row r="331" spans="1:25">
-      <c r="A331" s="52"/>
+      <c r="A331" s="53"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
@@ -13027,7 +13034,7 @@
       <c r="G331" s="3"/>
       <c r="H331" s="3"/>
       <c r="J331" s="5"/>
-      <c r="K331" s="53"/>
+      <c r="K331" s="54"/>
       <c r="L331" s="5"/>
       <c r="M331" s="5"/>
       <c r="N331" s="5"/>
@@ -13040,7 +13047,7 @@
       <c r="Y331" s="5"/>
     </row>
     <row r="332" spans="1:25">
-      <c r="A332" s="52"/>
+      <c r="A332" s="53"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
@@ -13049,7 +13056,7 @@
       <c r="G332" s="3"/>
       <c r="H332" s="3"/>
       <c r="J332" s="5"/>
-      <c r="K332" s="53"/>
+      <c r="K332" s="54"/>
       <c r="L332" s="5"/>
       <c r="M332" s="5"/>
       <c r="N332" s="5"/>
@@ -13062,7 +13069,7 @@
       <c r="Y332" s="5"/>
     </row>
     <row r="333" spans="1:25">
-      <c r="A333" s="52"/>
+      <c r="A333" s="53"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
@@ -13071,7 +13078,7 @@
       <c r="G333" s="3"/>
       <c r="H333" s="3"/>
       <c r="J333" s="5"/>
-      <c r="K333" s="53"/>
+      <c r="K333" s="54"/>
       <c r="L333" s="5"/>
       <c r="M333" s="5"/>
       <c r="N333" s="5"/>
@@ -13084,7 +13091,7 @@
       <c r="Y333" s="5"/>
     </row>
     <row r="334" spans="1:25">
-      <c r="A334" s="52"/>
+      <c r="A334" s="53"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
@@ -13093,7 +13100,7 @@
       <c r="G334" s="3"/>
       <c r="H334" s="3"/>
       <c r="J334" s="5"/>
-      <c r="K334" s="53"/>
+      <c r="K334" s="54"/>
       <c r="L334" s="5"/>
       <c r="M334" s="5"/>
       <c r="N334" s="5"/>
@@ -13106,7 +13113,7 @@
       <c r="Y334" s="5"/>
     </row>
     <row r="335" spans="1:25">
-      <c r="A335" s="52"/>
+      <c r="A335" s="53"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
@@ -13115,7 +13122,7 @@
       <c r="G335" s="3"/>
       <c r="H335" s="3"/>
       <c r="J335" s="5"/>
-      <c r="K335" s="53"/>
+      <c r="K335" s="54"/>
       <c r="L335" s="5"/>
       <c r="M335" s="5"/>
       <c r="N335" s="5"/>
@@ -13128,7 +13135,7 @@
       <c r="Y335" s="5"/>
     </row>
     <row r="336" spans="1:25">
-      <c r="A336" s="52"/>
+      <c r="A336" s="53"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
@@ -13137,7 +13144,7 @@
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
       <c r="J336" s="5"/>
-      <c r="K336" s="53"/>
+      <c r="K336" s="54"/>
       <c r="L336" s="5"/>
       <c r="M336" s="5"/>
       <c r="N336" s="5"/>
@@ -13150,7 +13157,7 @@
       <c r="Y336" s="5"/>
     </row>
     <row r="337" spans="1:25">
-      <c r="A337" s="52"/>
+      <c r="A337" s="53"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
@@ -13159,7 +13166,7 @@
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
       <c r="J337" s="5"/>
-      <c r="K337" s="53"/>
+      <c r="K337" s="54"/>
       <c r="L337" s="5"/>
       <c r="M337" s="5"/>
       <c r="N337" s="5"/>
@@ -13172,7 +13179,7 @@
       <c r="Y337" s="5"/>
     </row>
     <row r="338" spans="1:25">
-      <c r="A338" s="52"/>
+      <c r="A338" s="53"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
@@ -13181,7 +13188,7 @@
       <c r="G338" s="3"/>
       <c r="H338" s="3"/>
       <c r="J338" s="5"/>
-      <c r="K338" s="53"/>
+      <c r="K338" s="54"/>
       <c r="L338" s="5"/>
       <c r="M338" s="5"/>
       <c r="N338" s="5"/>
@@ -13194,7 +13201,7 @@
       <c r="Y338" s="5"/>
     </row>
     <row r="339" spans="1:25">
-      <c r="A339" s="52"/>
+      <c r="A339" s="53"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
@@ -13203,7 +13210,7 @@
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
       <c r="J339" s="5"/>
-      <c r="K339" s="53"/>
+      <c r="K339" s="54"/>
       <c r="L339" s="5"/>
       <c r="M339" s="5"/>
       <c r="N339" s="5"/>
@@ -13216,7 +13223,7 @@
       <c r="Y339" s="5"/>
     </row>
     <row r="340" spans="1:25">
-      <c r="A340" s="52"/>
+      <c r="A340" s="53"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
@@ -13225,7 +13232,7 @@
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
       <c r="J340" s="5"/>
-      <c r="K340" s="53"/>
+      <c r="K340" s="54"/>
       <c r="L340" s="5"/>
       <c r="M340" s="5"/>
       <c r="N340" s="5"/>
@@ -13238,7 +13245,7 @@
       <c r="Y340" s="5"/>
     </row>
     <row r="341" spans="1:25">
-      <c r="A341" s="52"/>
+      <c r="A341" s="53"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
@@ -13247,7 +13254,7 @@
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
       <c r="J341" s="5"/>
-      <c r="K341" s="53"/>
+      <c r="K341" s="54"/>
       <c r="L341" s="5"/>
       <c r="M341" s="5"/>
       <c r="N341" s="5"/>
@@ -13260,7 +13267,7 @@
       <c r="Y341" s="5"/>
     </row>
     <row r="342" spans="1:25">
-      <c r="A342" s="52"/>
+      <c r="A342" s="53"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
@@ -13269,7 +13276,7 @@
       <c r="G342" s="3"/>
       <c r="H342" s="3"/>
       <c r="J342" s="5"/>
-      <c r="K342" s="53"/>
+      <c r="K342" s="54"/>
       <c r="L342" s="5"/>
       <c r="M342" s="5"/>
       <c r="N342" s="5"/>
@@ -13282,7 +13289,7 @@
       <c r="Y342" s="5"/>
     </row>
     <row r="343" spans="1:25">
-      <c r="A343" s="52"/>
+      <c r="A343" s="53"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
@@ -13291,7 +13298,7 @@
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
       <c r="J343" s="5"/>
-      <c r="K343" s="53"/>
+      <c r="K343" s="54"/>
       <c r="L343" s="5"/>
       <c r="M343" s="5"/>
       <c r="N343" s="5"/>
@@ -13304,7 +13311,7 @@
       <c r="Y343" s="5"/>
     </row>
     <row r="344" spans="1:25">
-      <c r="A344" s="52"/>
+      <c r="A344" s="53"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
@@ -13313,7 +13320,7 @@
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
       <c r="J344" s="5"/>
-      <c r="K344" s="53"/>
+      <c r="K344" s="54"/>
       <c r="L344" s="5"/>
       <c r="M344" s="5"/>
       <c r="N344" s="5"/>
@@ -13326,7 +13333,7 @@
       <c r="Y344" s="5"/>
     </row>
     <row r="345" spans="1:25">
-      <c r="A345" s="52"/>
+      <c r="A345" s="53"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
@@ -13335,7 +13342,7 @@
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
       <c r="J345" s="5"/>
-      <c r="K345" s="53"/>
+      <c r="K345" s="54"/>
       <c r="L345" s="5"/>
       <c r="M345" s="5"/>
       <c r="N345" s="5"/>
@@ -13348,7 +13355,7 @@
       <c r="Y345" s="5"/>
     </row>
     <row r="346" spans="1:25">
-      <c r="A346" s="52"/>
+      <c r="A346" s="53"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
@@ -13357,7 +13364,7 @@
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
       <c r="J346" s="5"/>
-      <c r="K346" s="53"/>
+      <c r="K346" s="54"/>
       <c r="L346" s="5"/>
       <c r="M346" s="5"/>
       <c r="N346" s="5"/>
@@ -13370,7 +13377,7 @@
       <c r="Y346" s="5"/>
     </row>
     <row r="347" spans="1:25">
-      <c r="A347" s="52"/>
+      <c r="A347" s="53"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
@@ -13379,7 +13386,7 @@
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
       <c r="J347" s="5"/>
-      <c r="K347" s="53"/>
+      <c r="K347" s="54"/>
       <c r="L347" s="5"/>
       <c r="M347" s="5"/>
       <c r="N347" s="5"/>
@@ -13392,7 +13399,7 @@
       <c r="Y347" s="5"/>
     </row>
     <row r="348" spans="1:25">
-      <c r="A348" s="52"/>
+      <c r="A348" s="53"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
@@ -13401,7 +13408,7 @@
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
       <c r="J348" s="5"/>
-      <c r="K348" s="53"/>
+      <c r="K348" s="54"/>
       <c r="L348" s="5"/>
       <c r="M348" s="5"/>
       <c r="N348" s="5"/>
@@ -13414,7 +13421,7 @@
       <c r="Y348" s="5"/>
     </row>
     <row r="349" spans="1:25">
-      <c r="A349" s="52"/>
+      <c r="A349" s="53"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
@@ -13423,7 +13430,7 @@
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
       <c r="J349" s="5"/>
-      <c r="K349" s="53"/>
+      <c r="K349" s="54"/>
       <c r="L349" s="5"/>
       <c r="M349" s="5"/>
       <c r="N349" s="5"/>
@@ -13436,7 +13443,7 @@
       <c r="Y349" s="5"/>
     </row>
     <row r="350" spans="1:25">
-      <c r="A350" s="52"/>
+      <c r="A350" s="53"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
@@ -13445,7 +13452,7 @@
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
       <c r="J350" s="5"/>
-      <c r="K350" s="53"/>
+      <c r="K350" s="54"/>
       <c r="L350" s="5"/>
       <c r="M350" s="5"/>
       <c r="N350" s="5"/>
@@ -13458,7 +13465,7 @@
       <c r="Y350" s="5"/>
     </row>
     <row r="351" spans="1:25">
-      <c r="A351" s="52"/>
+      <c r="A351" s="53"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
@@ -13467,7 +13474,7 @@
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
       <c r="J351" s="5"/>
-      <c r="K351" s="53"/>
+      <c r="K351" s="54"/>
       <c r="L351" s="5"/>
       <c r="M351" s="5"/>
       <c r="N351" s="5"/>
@@ -13480,7 +13487,7 @@
       <c r="Y351" s="5"/>
     </row>
     <row r="352" spans="1:25">
-      <c r="A352" s="52"/>
+      <c r="A352" s="53"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
@@ -13489,7 +13496,7 @@
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
       <c r="J352" s="5"/>
-      <c r="K352" s="53"/>
+      <c r="K352" s="54"/>
       <c r="L352" s="5"/>
       <c r="M352" s="5"/>
       <c r="N352" s="5"/>
@@ -13502,7 +13509,7 @@
       <c r="Y352" s="5"/>
     </row>
     <row r="353" spans="1:25">
-      <c r="A353" s="52"/>
+      <c r="A353" s="53"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
@@ -13511,7 +13518,7 @@
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
       <c r="J353" s="5"/>
-      <c r="K353" s="53"/>
+      <c r="K353" s="54"/>
       <c r="L353" s="5"/>
       <c r="M353" s="5"/>
       <c r="N353" s="5"/>
@@ -13524,7 +13531,7 @@
       <c r="Y353" s="5"/>
     </row>
     <row r="354" spans="1:25">
-      <c r="A354" s="52"/>
+      <c r="A354" s="53"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
@@ -13533,7 +13540,7 @@
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
       <c r="J354" s="5"/>
-      <c r="K354" s="53"/>
+      <c r="K354" s="54"/>
       <c r="L354" s="5"/>
       <c r="M354" s="5"/>
       <c r="N354" s="5"/>
@@ -13546,7 +13553,7 @@
       <c r="Y354" s="5"/>
     </row>
     <row r="355" spans="1:25">
-      <c r="A355" s="52"/>
+      <c r="A355" s="53"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -13555,7 +13562,7 @@
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
       <c r="J355" s="5"/>
-      <c r="K355" s="53"/>
+      <c r="K355" s="54"/>
       <c r="L355" s="5"/>
       <c r="M355" s="5"/>
       <c r="N355" s="5"/>
@@ -13568,7 +13575,7 @@
       <c r="Y355" s="5"/>
     </row>
     <row r="356" spans="1:25">
-      <c r="A356" s="52"/>
+      <c r="A356" s="53"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
@@ -13577,7 +13584,7 @@
       <c r="G356" s="3"/>
       <c r="H356" s="3"/>
       <c r="J356" s="5"/>
-      <c r="K356" s="53"/>
+      <c r="K356" s="54"/>
       <c r="L356" s="5"/>
       <c r="M356" s="5"/>
       <c r="N356" s="5"/>
@@ -13590,7 +13597,7 @@
       <c r="Y356" s="5"/>
     </row>
     <row r="357" spans="1:25">
-      <c r="A357" s="52"/>
+      <c r="A357" s="53"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
@@ -13599,7 +13606,7 @@
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
       <c r="J357" s="5"/>
-      <c r="K357" s="53"/>
+      <c r="K357" s="54"/>
       <c r="L357" s="5"/>
       <c r="M357" s="5"/>
       <c r="N357" s="5"/>
@@ -13612,7 +13619,7 @@
       <c r="Y357" s="5"/>
     </row>
     <row r="358" spans="1:25">
-      <c r="A358" s="52"/>
+      <c r="A358" s="53"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
@@ -13621,7 +13628,7 @@
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
       <c r="J358" s="5"/>
-      <c r="K358" s="53"/>
+      <c r="K358" s="54"/>
       <c r="L358" s="5"/>
       <c r="M358" s="5"/>
       <c r="N358" s="5"/>
@@ -13634,7 +13641,7 @@
       <c r="Y358" s="5"/>
     </row>
     <row r="359" spans="1:25">
-      <c r="A359" s="52"/>
+      <c r="A359" s="53"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
@@ -13643,7 +13650,7 @@
       <c r="G359" s="3"/>
       <c r="H359" s="3"/>
       <c r="J359" s="5"/>
-      <c r="K359" s="53"/>
+      <c r="K359" s="54"/>
       <c r="L359" s="5"/>
       <c r="M359" s="5"/>
       <c r="N359" s="5"/>
@@ -13656,7 +13663,7 @@
       <c r="Y359" s="5"/>
     </row>
     <row r="360" spans="1:25">
-      <c r="A360" s="52"/>
+      <c r="A360" s="53"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
@@ -13665,7 +13672,7 @@
       <c r="G360" s="3"/>
       <c r="H360" s="3"/>
       <c r="J360" s="5"/>
-      <c r="K360" s="53"/>
+      <c r="K360" s="54"/>
       <c r="L360" s="5"/>
       <c r="M360" s="5"/>
       <c r="N360" s="5"/>
@@ -13678,7 +13685,7 @@
       <c r="Y360" s="5"/>
     </row>
     <row r="361" spans="1:25">
-      <c r="A361" s="52"/>
+      <c r="A361" s="53"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
@@ -13687,7 +13694,7 @@
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
       <c r="J361" s="5"/>
-      <c r="K361" s="53"/>
+      <c r="K361" s="54"/>
       <c r="L361" s="5"/>
       <c r="M361" s="5"/>
       <c r="N361" s="5"/>
@@ -13700,7 +13707,7 @@
       <c r="Y361" s="5"/>
     </row>
     <row r="362" spans="1:25">
-      <c r="A362" s="52"/>
+      <c r="A362" s="53"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
@@ -13709,7 +13716,7 @@
       <c r="G362" s="3"/>
       <c r="H362" s="3"/>
       <c r="J362" s="5"/>
-      <c r="K362" s="53"/>
+      <c r="K362" s="54"/>
       <c r="L362" s="5"/>
       <c r="M362" s="5"/>
       <c r="N362" s="5"/>
@@ -13722,7 +13729,7 @@
       <c r="Y362" s="5"/>
     </row>
     <row r="363" spans="1:25">
-      <c r="A363" s="52"/>
+      <c r="A363" s="53"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
@@ -13731,7 +13738,7 @@
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
       <c r="J363" s="5"/>
-      <c r="K363" s="53"/>
+      <c r="K363" s="54"/>
       <c r="L363" s="5"/>
       <c r="M363" s="5"/>
       <c r="N363" s="5"/>
@@ -13744,7 +13751,7 @@
       <c r="Y363" s="5"/>
     </row>
     <row r="364" spans="1:25">
-      <c r="A364" s="52"/>
+      <c r="A364" s="53"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
@@ -13753,7 +13760,7 @@
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
       <c r="J364" s="5"/>
-      <c r="K364" s="53"/>
+      <c r="K364" s="54"/>
       <c r="L364" s="5"/>
       <c r="M364" s="5"/>
       <c r="N364" s="5"/>
@@ -13766,7 +13773,7 @@
       <c r="Y364" s="5"/>
     </row>
     <row r="365" spans="1:25">
-      <c r="A365" s="52"/>
+      <c r="A365" s="53"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
@@ -13775,7 +13782,7 @@
       <c r="G365" s="3"/>
       <c r="H365" s="3"/>
       <c r="J365" s="5"/>
-      <c r="K365" s="53"/>
+      <c r="K365" s="54"/>
       <c r="L365" s="5"/>
       <c r="M365" s="5"/>
       <c r="N365" s="5"/>
@@ -13788,7 +13795,7 @@
       <c r="Y365" s="5"/>
     </row>
     <row r="366" spans="1:25">
-      <c r="A366" s="52"/>
+      <c r="A366" s="53"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
@@ -13797,7 +13804,7 @@
       <c r="G366" s="3"/>
       <c r="H366" s="3"/>
       <c r="J366" s="5"/>
-      <c r="K366" s="53"/>
+      <c r="K366" s="54"/>
       <c r="L366" s="5"/>
       <c r="M366" s="5"/>
       <c r="N366" s="5"/>
@@ -13810,7 +13817,7 @@
       <c r="Y366" s="5"/>
     </row>
     <row r="367" spans="1:25">
-      <c r="A367" s="52"/>
+      <c r="A367" s="53"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
@@ -13819,7 +13826,7 @@
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
       <c r="J367" s="5"/>
-      <c r="K367" s="53"/>
+      <c r="K367" s="54"/>
       <c r="L367" s="5"/>
       <c r="M367" s="5"/>
       <c r="N367" s="5"/>
@@ -13832,7 +13839,7 @@
       <c r="Y367" s="5"/>
     </row>
     <row r="368" spans="1:25">
-      <c r="A368" s="52"/>
+      <c r="A368" s="53"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
@@ -13841,7 +13848,7 @@
       <c r="G368" s="3"/>
       <c r="H368" s="3"/>
       <c r="J368" s="5"/>
-      <c r="K368" s="53"/>
+      <c r="K368" s="54"/>
       <c r="L368" s="5"/>
       <c r="M368" s="5"/>
       <c r="N368" s="5"/>
@@ -13854,7 +13861,7 @@
       <c r="Y368" s="5"/>
     </row>
     <row r="369" spans="1:25">
-      <c r="A369" s="52"/>
+      <c r="A369" s="53"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
@@ -13863,7 +13870,7 @@
       <c r="G369" s="3"/>
       <c r="H369" s="3"/>
       <c r="J369" s="5"/>
-      <c r="K369" s="53"/>
+      <c r="K369" s="54"/>
       <c r="L369" s="5"/>
       <c r="M369" s="5"/>
       <c r="N369" s="5"/>
@@ -13876,7 +13883,7 @@
       <c r="Y369" s="5"/>
     </row>
     <row r="370" spans="1:25">
-      <c r="A370" s="52"/>
+      <c r="A370" s="53"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
@@ -13885,7 +13892,7 @@
       <c r="G370" s="3"/>
       <c r="H370" s="3"/>
       <c r="J370" s="5"/>
-      <c r="K370" s="53"/>
+      <c r="K370" s="54"/>
       <c r="L370" s="5"/>
       <c r="M370" s="5"/>
       <c r="N370" s="5"/>
@@ -13898,7 +13905,7 @@
       <c r="Y370" s="5"/>
     </row>
     <row r="371" spans="1:25">
-      <c r="A371" s="52"/>
+      <c r="A371" s="53"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
@@ -13907,7 +13914,7 @@
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
       <c r="J371" s="5"/>
-      <c r="K371" s="53"/>
+      <c r="K371" s="54"/>
       <c r="L371" s="5"/>
       <c r="M371" s="5"/>
       <c r="N371" s="5"/>
@@ -13920,7 +13927,7 @@
       <c r="Y371" s="5"/>
     </row>
     <row r="372" spans="1:25">
-      <c r="A372" s="52"/>
+      <c r="A372" s="53"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
@@ -13929,7 +13936,7 @@
       <c r="G372" s="3"/>
       <c r="H372" s="3"/>
       <c r="J372" s="5"/>
-      <c r="K372" s="53"/>
+      <c r="K372" s="54"/>
       <c r="L372" s="5"/>
       <c r="M372" s="5"/>
       <c r="N372" s="5"/>
@@ -13942,7 +13949,7 @@
       <c r="Y372" s="5"/>
     </row>
     <row r="373" spans="1:25">
-      <c r="A373" s="52"/>
+      <c r="A373" s="53"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
@@ -13951,7 +13958,7 @@
       <c r="G373" s="3"/>
       <c r="H373" s="3"/>
       <c r="J373" s="5"/>
-      <c r="K373" s="53"/>
+      <c r="K373" s="54"/>
       <c r="L373" s="5"/>
       <c r="M373" s="5"/>
       <c r="N373" s="5"/>
@@ -13964,7 +13971,7 @@
       <c r="Y373" s="5"/>
     </row>
     <row r="374" spans="1:25">
-      <c r="A374" s="52"/>
+      <c r="A374" s="53"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
@@ -13973,7 +13980,7 @@
       <c r="G374" s="3"/>
       <c r="H374" s="3"/>
       <c r="J374" s="5"/>
-      <c r="K374" s="53"/>
+      <c r="K374" s="54"/>
       <c r="L374" s="5"/>
       <c r="M374" s="5"/>
       <c r="N374" s="5"/>
@@ -13986,7 +13993,7 @@
       <c r="Y374" s="5"/>
     </row>
     <row r="375" spans="1:25">
-      <c r="A375" s="52"/>
+      <c r="A375" s="53"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
@@ -13995,7 +14002,7 @@
       <c r="G375" s="3"/>
       <c r="H375" s="3"/>
       <c r="J375" s="5"/>
-      <c r="K375" s="53"/>
+      <c r="K375" s="54"/>
       <c r="L375" s="5"/>
       <c r="M375" s="5"/>
       <c r="N375" s="5"/>
@@ -14008,7 +14015,7 @@
       <c r="Y375" s="5"/>
     </row>
     <row r="376" spans="1:25">
-      <c r="A376" s="52"/>
+      <c r="A376" s="53"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
@@ -14017,7 +14024,7 @@
       <c r="G376" s="3"/>
       <c r="H376" s="3"/>
       <c r="J376" s="5"/>
-      <c r="K376" s="53"/>
+      <c r="K376" s="54"/>
       <c r="L376" s="5"/>
       <c r="M376" s="5"/>
       <c r="N376" s="5"/>
@@ -14030,7 +14037,7 @@
       <c r="Y376" s="5"/>
     </row>
     <row r="377" spans="1:25">
-      <c r="A377" s="52"/>
+      <c r="A377" s="53"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
@@ -14039,7 +14046,7 @@
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
       <c r="J377" s="5"/>
-      <c r="K377" s="53"/>
+      <c r="K377" s="54"/>
       <c r="L377" s="5"/>
       <c r="M377" s="5"/>
       <c r="N377" s="5"/>
@@ -14052,7 +14059,7 @@
       <c r="Y377" s="5"/>
     </row>
     <row r="378" spans="1:25">
-      <c r="A378" s="52"/>
+      <c r="A378" s="53"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
@@ -14061,7 +14068,7 @@
       <c r="G378" s="3"/>
       <c r="H378" s="3"/>
       <c r="J378" s="5"/>
-      <c r="K378" s="53"/>
+      <c r="K378" s="54"/>
       <c r="L378" s="5"/>
       <c r="M378" s="5"/>
       <c r="N378" s="5"/>
@@ -14074,7 +14081,7 @@
       <c r="Y378" s="5"/>
     </row>
     <row r="379" spans="1:25">
-      <c r="A379" s="52"/>
+      <c r="A379" s="53"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
@@ -14083,7 +14090,7 @@
       <c r="G379" s="3"/>
       <c r="H379" s="3"/>
       <c r="J379" s="5"/>
-      <c r="K379" s="53"/>
+      <c r="K379" s="54"/>
       <c r="L379" s="5"/>
       <c r="M379" s="5"/>
       <c r="N379" s="5"/>
@@ -14096,7 +14103,7 @@
       <c r="Y379" s="5"/>
     </row>
     <row r="380" spans="1:25">
-      <c r="A380" s="52"/>
+      <c r="A380" s="53"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
@@ -14105,7 +14112,7 @@
       <c r="G380" s="3"/>
       <c r="H380" s="3"/>
       <c r="J380" s="5"/>
-      <c r="K380" s="53"/>
+      <c r="K380" s="54"/>
       <c r="L380" s="5"/>
       <c r="M380" s="5"/>
       <c r="N380" s="5"/>
@@ -14118,7 +14125,7 @@
       <c r="Y380" s="5"/>
     </row>
     <row r="381" spans="1:25">
-      <c r="A381" s="52"/>
+      <c r="A381" s="53"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
@@ -14127,7 +14134,7 @@
       <c r="G381" s="3"/>
       <c r="H381" s="3"/>
       <c r="J381" s="5"/>
-      <c r="K381" s="53"/>
+      <c r="K381" s="54"/>
       <c r="L381" s="5"/>
       <c r="M381" s="5"/>
       <c r="N381" s="5"/>
@@ -14140,7 +14147,7 @@
       <c r="Y381" s="5"/>
     </row>
     <row r="382" spans="1:25">
-      <c r="A382" s="52"/>
+      <c r="A382" s="53"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
@@ -14149,7 +14156,7 @@
       <c r="G382" s="3"/>
       <c r="H382" s="3"/>
       <c r="J382" s="5"/>
-      <c r="K382" s="53"/>
+      <c r="K382" s="54"/>
       <c r="L382" s="5"/>
       <c r="M382" s="5"/>
       <c r="N382" s="5"/>
@@ -14162,7 +14169,7 @@
       <c r="Y382" s="5"/>
     </row>
     <row r="383" spans="1:25">
-      <c r="A383" s="52"/>
+      <c r="A383" s="53"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
@@ -14171,7 +14178,7 @@
       <c r="G383" s="3"/>
       <c r="H383" s="3"/>
       <c r="J383" s="5"/>
-      <c r="K383" s="53"/>
+      <c r="K383" s="54"/>
       <c r="L383" s="5"/>
       <c r="M383" s="5"/>
       <c r="N383" s="5"/>
@@ -14184,7 +14191,7 @@
       <c r="Y383" s="5"/>
     </row>
     <row r="384" spans="1:25">
-      <c r="A384" s="52"/>
+      <c r="A384" s="53"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
@@ -14193,7 +14200,7 @@
       <c r="G384" s="3"/>
       <c r="H384" s="3"/>
       <c r="J384" s="5"/>
-      <c r="K384" s="53"/>
+      <c r="K384" s="54"/>
       <c r="L384" s="5"/>
       <c r="M384" s="5"/>
       <c r="N384" s="5"/>
@@ -14206,7 +14213,7 @@
       <c r="Y384" s="5"/>
     </row>
     <row r="385" spans="1:25">
-      <c r="A385" s="52"/>
+      <c r="A385" s="53"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
@@ -14215,7 +14222,7 @@
       <c r="G385" s="3"/>
       <c r="H385" s="3"/>
       <c r="J385" s="5"/>
-      <c r="K385" s="53"/>
+      <c r="K385" s="54"/>
       <c r="L385" s="5"/>
       <c r="M385" s="5"/>
       <c r="N385" s="5"/>
@@ -14228,7 +14235,7 @@
       <c r="Y385" s="5"/>
     </row>
     <row r="386" spans="1:25">
-      <c r="A386" s="52"/>
+      <c r="A386" s="53"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
@@ -14237,7 +14244,7 @@
       <c r="G386" s="3"/>
       <c r="H386" s="3"/>
       <c r="J386" s="5"/>
-      <c r="K386" s="53"/>
+      <c r="K386" s="54"/>
       <c r="L386" s="5"/>
       <c r="M386" s="5"/>
       <c r="N386" s="5"/>
@@ -14250,7 +14257,7 @@
       <c r="Y386" s="5"/>
     </row>
     <row r="387" spans="1:25">
-      <c r="A387" s="52"/>
+      <c r="A387" s="53"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
@@ -14259,7 +14266,7 @@
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
       <c r="J387" s="5"/>
-      <c r="K387" s="53"/>
+      <c r="K387" s="54"/>
       <c r="L387" s="5"/>
       <c r="M387" s="5"/>
       <c r="N387" s="5"/>
@@ -14272,7 +14279,7 @@
       <c r="Y387" s="5"/>
     </row>
     <row r="388" spans="1:25">
-      <c r="A388" s="52"/>
+      <c r="A388" s="53"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
@@ -14281,7 +14288,7 @@
       <c r="G388" s="3"/>
       <c r="H388" s="3"/>
       <c r="J388" s="5"/>
-      <c r="K388" s="53"/>
+      <c r="K388" s="54"/>
       <c r="L388" s="5"/>
       <c r="M388" s="5"/>
       <c r="N388" s="5"/>
@@ -14294,7 +14301,7 @@
       <c r="Y388" s="5"/>
     </row>
     <row r="389" spans="1:25">
-      <c r="A389" s="52"/>
+      <c r="A389" s="53"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
@@ -14303,7 +14310,7 @@
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
       <c r="J389" s="5"/>
-      <c r="K389" s="53"/>
+      <c r="K389" s="54"/>
       <c r="L389" s="5"/>
       <c r="M389" s="5"/>
       <c r="N389" s="5"/>
@@ -14316,7 +14323,7 @@
       <c r="Y389" s="5"/>
     </row>
     <row r="390" spans="1:25">
-      <c r="A390" s="52"/>
+      <c r="A390" s="53"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
@@ -14325,7 +14332,7 @@
       <c r="G390" s="3"/>
       <c r="H390" s="3"/>
       <c r="J390" s="5"/>
-      <c r="K390" s="53"/>
+      <c r="K390" s="54"/>
       <c r="L390" s="5"/>
       <c r="M390" s="5"/>
       <c r="N390" s="5"/>
@@ -14338,7 +14345,7 @@
       <c r="Y390" s="5"/>
     </row>
     <row r="391" spans="1:25">
-      <c r="A391" s="52"/>
+      <c r="A391" s="53"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
@@ -14347,7 +14354,7 @@
       <c r="G391" s="3"/>
       <c r="H391" s="3"/>
       <c r="J391" s="5"/>
-      <c r="K391" s="53"/>
+      <c r="K391" s="54"/>
       <c r="L391" s="5"/>
       <c r="M391" s="5"/>
       <c r="N391" s="5"/>
@@ -14360,7 +14367,7 @@
       <c r="Y391" s="5"/>
     </row>
     <row r="392" spans="1:25">
-      <c r="A392" s="52"/>
+      <c r="A392" s="53"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
@@ -14369,7 +14376,7 @@
       <c r="G392" s="3"/>
       <c r="H392" s="3"/>
       <c r="J392" s="5"/>
-      <c r="K392" s="53"/>
+      <c r="K392" s="54"/>
       <c r="L392" s="5"/>
       <c r="M392" s="5"/>
       <c r="N392" s="5"/>
@@ -14382,7 +14389,7 @@
       <c r="Y392" s="5"/>
     </row>
     <row r="393" spans="1:25">
-      <c r="A393" s="52"/>
+      <c r="A393" s="53"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
@@ -14391,7 +14398,7 @@
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
       <c r="J393" s="5"/>
-      <c r="K393" s="53"/>
+      <c r="K393" s="54"/>
       <c r="L393" s="5"/>
       <c r="M393" s="5"/>
       <c r="N393" s="5"/>
@@ -14404,7 +14411,7 @@
       <c r="Y393" s="5"/>
     </row>
     <row r="394" spans="1:25">
-      <c r="A394" s="52"/>
+      <c r="A394" s="53"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
@@ -14413,7 +14420,7 @@
       <c r="G394" s="3"/>
       <c r="H394" s="3"/>
       <c r="J394" s="5"/>
-      <c r="K394" s="53"/>
+      <c r="K394" s="54"/>
       <c r="L394" s="5"/>
       <c r="M394" s="5"/>
       <c r="N394" s="5"/>
@@ -14426,7 +14433,7 @@
       <c r="Y394" s="5"/>
     </row>
     <row r="395" spans="1:25">
-      <c r="A395" s="52"/>
+      <c r="A395" s="53"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
@@ -14435,7 +14442,7 @@
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
       <c r="J395" s="5"/>
-      <c r="K395" s="53"/>
+      <c r="K395" s="54"/>
       <c r="L395" s="5"/>
       <c r="M395" s="5"/>
       <c r="N395" s="5"/>
@@ -14448,7 +14455,7 @@
       <c r="Y395" s="5"/>
     </row>
     <row r="396" spans="1:25">
-      <c r="A396" s="52"/>
+      <c r="A396" s="53"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
@@ -14457,7 +14464,7 @@
       <c r="G396" s="3"/>
       <c r="H396" s="3"/>
       <c r="J396" s="5"/>
-      <c r="K396" s="53"/>
+      <c r="K396" s="54"/>
       <c r="L396" s="5"/>
       <c r="M396" s="5"/>
       <c r="N396" s="5"/>
@@ -14470,7 +14477,7 @@
       <c r="Y396" s="5"/>
     </row>
     <row r="397" spans="1:25">
-      <c r="A397" s="52"/>
+      <c r="A397" s="53"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
@@ -14479,7 +14486,7 @@
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
       <c r="J397" s="5"/>
-      <c r="K397" s="53"/>
+      <c r="K397" s="54"/>
       <c r="L397" s="5"/>
       <c r="M397" s="5"/>
       <c r="N397" s="5"/>
@@ -14492,7 +14499,7 @@
       <c r="Y397" s="5"/>
     </row>
     <row r="398" spans="1:25">
-      <c r="A398" s="52"/>
+      <c r="A398" s="53"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
@@ -14501,7 +14508,7 @@
       <c r="G398" s="3"/>
       <c r="H398" s="3"/>
       <c r="J398" s="5"/>
-      <c r="K398" s="53"/>
+      <c r="K398" s="54"/>
       <c r="L398" s="5"/>
       <c r="M398" s="5"/>
       <c r="N398" s="5"/>
@@ -14514,7 +14521,7 @@
       <c r="Y398" s="5"/>
     </row>
     <row r="399" spans="1:25">
-      <c r="A399" s="52"/>
+      <c r="A399" s="53"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
@@ -14523,7 +14530,7 @@
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
       <c r="J399" s="5"/>
-      <c r="K399" s="53"/>
+      <c r="K399" s="54"/>
       <c r="L399" s="5"/>
       <c r="M399" s="5"/>
       <c r="N399" s="5"/>
@@ -14536,7 +14543,7 @@
       <c r="Y399" s="5"/>
     </row>
     <row r="400" spans="1:25">
-      <c r="A400" s="52"/>
+      <c r="A400" s="53"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
@@ -14545,7 +14552,7 @@
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
       <c r="J400" s="5"/>
-      <c r="K400" s="53"/>
+      <c r="K400" s="54"/>
       <c r="L400" s="5"/>
       <c r="M400" s="5"/>
       <c r="N400" s="5"/>
@@ -14558,7 +14565,7 @@
       <c r="Y400" s="5"/>
     </row>
     <row r="401" spans="1:25">
-      <c r="A401" s="52"/>
+      <c r="A401" s="53"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
@@ -14567,7 +14574,7 @@
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
       <c r="J401" s="5"/>
-      <c r="K401" s="53"/>
+      <c r="K401" s="54"/>
       <c r="L401" s="5"/>
       <c r="M401" s="5"/>
       <c r="N401" s="5"/>
@@ -14580,7 +14587,7 @@
       <c r="Y401" s="5"/>
     </row>
     <row r="402" spans="1:25">
-      <c r="A402" s="52"/>
+      <c r="A402" s="53"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
@@ -14589,7 +14596,7 @@
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
       <c r="J402" s="5"/>
-      <c r="K402" s="53"/>
+      <c r="K402" s="54"/>
       <c r="L402" s="5"/>
       <c r="M402" s="5"/>
       <c r="N402" s="5"/>
@@ -14602,7 +14609,7 @@
       <c r="Y402" s="5"/>
     </row>
     <row r="403" spans="1:25">
-      <c r="A403" s="52"/>
+      <c r="A403" s="53"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
@@ -14611,7 +14618,7 @@
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
       <c r="J403" s="5"/>
-      <c r="K403" s="53"/>
+      <c r="K403" s="54"/>
       <c r="L403" s="5"/>
       <c r="M403" s="5"/>
       <c r="N403" s="5"/>
@@ -14624,7 +14631,7 @@
       <c r="Y403" s="5"/>
     </row>
     <row r="404" spans="1:25">
-      <c r="A404" s="52"/>
+      <c r="A404" s="53"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
@@ -14633,7 +14640,7 @@
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
       <c r="J404" s="5"/>
-      <c r="K404" s="53"/>
+      <c r="K404" s="54"/>
       <c r="L404" s="5"/>
       <c r="M404" s="5"/>
       <c r="N404" s="5"/>
@@ -14646,7 +14653,7 @@
       <c r="Y404" s="5"/>
     </row>
     <row r="405" spans="1:25">
-      <c r="A405" s="52"/>
+      <c r="A405" s="53"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
@@ -14655,7 +14662,7 @@
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
       <c r="J405" s="5"/>
-      <c r="K405" s="53"/>
+      <c r="K405" s="54"/>
       <c r="L405" s="5"/>
       <c r="M405" s="5"/>
       <c r="N405" s="5"/>
@@ -14668,7 +14675,7 @@
       <c r="Y405" s="5"/>
     </row>
     <row r="406" spans="1:25">
-      <c r="A406" s="52"/>
+      <c r="A406" s="53"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
@@ -14677,7 +14684,7 @@
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
       <c r="J406" s="5"/>
-      <c r="K406" s="53"/>
+      <c r="K406" s="54"/>
       <c r="L406" s="5"/>
       <c r="M406" s="5"/>
       <c r="N406" s="5"/>
@@ -14690,7 +14697,7 @@
       <c r="Y406" s="5"/>
     </row>
     <row r="407" spans="1:25">
-      <c r="A407" s="52"/>
+      <c r="A407" s="53"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
@@ -14699,7 +14706,7 @@
       <c r="G407" s="3"/>
       <c r="H407" s="3"/>
       <c r="J407" s="5"/>
-      <c r="K407" s="53"/>
+      <c r="K407" s="54"/>
       <c r="L407" s="5"/>
       <c r="M407" s="5"/>
       <c r="N407" s="5"/>
@@ -14712,7 +14719,7 @@
       <c r="Y407" s="5"/>
     </row>
     <row r="408" spans="1:25">
-      <c r="A408" s="52"/>
+      <c r="A408" s="53"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
@@ -14721,7 +14728,7 @@
       <c r="G408" s="3"/>
       <c r="H408" s="3"/>
       <c r="J408" s="5"/>
-      <c r="K408" s="53"/>
+      <c r="K408" s="54"/>
       <c r="L408" s="5"/>
       <c r="M408" s="5"/>
       <c r="N408" s="5"/>
@@ -14734,7 +14741,7 @@
       <c r="Y408" s="5"/>
     </row>
     <row r="409" spans="1:25">
-      <c r="A409" s="52"/>
+      <c r="A409" s="53"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
@@ -14743,7 +14750,7 @@
       <c r="G409" s="3"/>
       <c r="H409" s="3"/>
       <c r="J409" s="5"/>
-      <c r="K409" s="53"/>
+      <c r="K409" s="54"/>
       <c r="L409" s="5"/>
       <c r="M409" s="5"/>
       <c r="N409" s="5"/>
@@ -14756,7 +14763,7 @@
       <c r="Y409" s="5"/>
     </row>
     <row r="410" spans="1:25">
-      <c r="A410" s="52"/>
+      <c r="A410" s="53"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
@@ -14765,7 +14772,7 @@
       <c r="G410" s="3"/>
       <c r="H410" s="3"/>
       <c r="J410" s="5"/>
-      <c r="K410" s="53"/>
+      <c r="K410" s="54"/>
       <c r="L410" s="5"/>
       <c r="M410" s="5"/>
       <c r="N410" s="5"/>
@@ -14778,7 +14785,7 @@
       <c r="Y410" s="5"/>
     </row>
     <row r="411" spans="1:25">
-      <c r="A411" s="52"/>
+      <c r="A411" s="53"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
@@ -14787,7 +14794,7 @@
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
       <c r="J411" s="5"/>
-      <c r="K411" s="53"/>
+      <c r="K411" s="54"/>
       <c r="L411" s="5"/>
       <c r="M411" s="5"/>
       <c r="N411" s="5"/>
@@ -14800,7 +14807,7 @@
       <c r="Y411" s="5"/>
     </row>
     <row r="412" spans="1:25">
-      <c r="A412" s="52"/>
+      <c r="A412" s="53"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
@@ -14809,7 +14816,7 @@
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
       <c r="J412" s="5"/>
-      <c r="K412" s="53"/>
+      <c r="K412" s="54"/>
       <c r="L412" s="5"/>
       <c r="M412" s="5"/>
       <c r="N412" s="5"/>
@@ -14822,7 +14829,7 @@
       <c r="Y412" s="5"/>
     </row>
     <row r="413" spans="1:25">
-      <c r="A413" s="52"/>
+      <c r="A413" s="53"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
@@ -14831,7 +14838,7 @@
       <c r="G413" s="3"/>
       <c r="H413" s="3"/>
       <c r="J413" s="5"/>
-      <c r="K413" s="53"/>
+      <c r="K413" s="54"/>
       <c r="L413" s="5"/>
       <c r="M413" s="5"/>
       <c r="N413" s="5"/>
@@ -14844,7 +14851,7 @@
       <c r="Y413" s="5"/>
     </row>
     <row r="414" spans="1:25">
-      <c r="A414" s="52"/>
+      <c r="A414" s="53"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
@@ -14853,7 +14860,7 @@
       <c r="G414" s="3"/>
       <c r="H414" s="3"/>
       <c r="J414" s="5"/>
-      <c r="K414" s="53"/>
+      <c r="K414" s="54"/>
       <c r="L414" s="5"/>
       <c r="M414" s="5"/>
       <c r="N414" s="5"/>
@@ -14866,7 +14873,7 @@
       <c r="Y414" s="5"/>
     </row>
     <row r="415" spans="1:25">
-      <c r="A415" s="52"/>
+      <c r="A415" s="53"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
@@ -14875,7 +14882,7 @@
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
       <c r="J415" s="5"/>
-      <c r="K415" s="53"/>
+      <c r="K415" s="54"/>
       <c r="L415" s="5"/>
       <c r="M415" s="5"/>
       <c r="N415" s="5"/>
@@ -14888,7 +14895,7 @@
       <c r="Y415" s="5"/>
     </row>
     <row r="416" spans="1:25">
-      <c r="A416" s="52"/>
+      <c r="A416" s="53"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
@@ -14897,7 +14904,7 @@
       <c r="G416" s="3"/>
       <c r="H416" s="3"/>
       <c r="J416" s="5"/>
-      <c r="K416" s="53"/>
+      <c r="K416" s="54"/>
       <c r="L416" s="5"/>
       <c r="M416" s="5"/>
       <c r="N416" s="5"/>
@@ -14910,7 +14917,7 @@
       <c r="Y416" s="5"/>
     </row>
     <row r="417" spans="1:25">
-      <c r="A417" s="52"/>
+      <c r="A417" s="53"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
@@ -14919,7 +14926,7 @@
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
       <c r="J417" s="5"/>
-      <c r="K417" s="53"/>
+      <c r="K417" s="54"/>
       <c r="L417" s="5"/>
       <c r="M417" s="5"/>
       <c r="N417" s="5"/>
@@ -14932,7 +14939,7 @@
       <c r="Y417" s="5"/>
     </row>
     <row r="418" spans="1:25">
-      <c r="A418" s="52"/>
+      <c r="A418" s="53"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
@@ -14941,7 +14948,7 @@
       <c r="G418" s="3"/>
       <c r="H418" s="3"/>
       <c r="J418" s="5"/>
-      <c r="K418" s="53"/>
+      <c r="K418" s="54"/>
       <c r="L418" s="5"/>
       <c r="M418" s="5"/>
       <c r="N418" s="5"/>
@@ -14954,7 +14961,7 @@
       <c r="Y418" s="5"/>
     </row>
     <row r="419" spans="1:25">
-      <c r="A419" s="52"/>
+      <c r="A419" s="53"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
@@ -14963,7 +14970,7 @@
       <c r="G419" s="3"/>
       <c r="H419" s="3"/>
       <c r="J419" s="5"/>
-      <c r="K419" s="53"/>
+      <c r="K419" s="54"/>
       <c r="L419" s="5"/>
       <c r="M419" s="5"/>
       <c r="N419" s="5"/>
@@ -14976,7 +14983,7 @@
       <c r="Y419" s="5"/>
     </row>
     <row r="420" spans="1:25">
-      <c r="A420" s="52"/>
+      <c r="A420" s="53"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
@@ -14985,7 +14992,7 @@
       <c r="G420" s="3"/>
       <c r="H420" s="3"/>
       <c r="J420" s="5"/>
-      <c r="K420" s="53"/>
+      <c r="K420" s="54"/>
       <c r="L420" s="5"/>
       <c r="M420" s="5"/>
       <c r="N420" s="5"/>
@@ -14998,7 +15005,7 @@
       <c r="Y420" s="5"/>
     </row>
     <row r="421" spans="1:25">
-      <c r="A421" s="52"/>
+      <c r="A421" s="53"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
@@ -15007,7 +15014,7 @@
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
       <c r="J421" s="5"/>
-      <c r="K421" s="53"/>
+      <c r="K421" s="54"/>
       <c r="L421" s="5"/>
       <c r="M421" s="5"/>
       <c r="N421" s="5"/>
@@ -15020,7 +15027,7 @@
       <c r="Y421" s="5"/>
     </row>
     <row r="422" spans="1:25">
-      <c r="A422" s="52"/>
+      <c r="A422" s="53"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
@@ -15029,7 +15036,7 @@
       <c r="G422" s="3"/>
       <c r="H422" s="3"/>
       <c r="J422" s="5"/>
-      <c r="K422" s="53"/>
+      <c r="K422" s="54"/>
       <c r="L422" s="5"/>
       <c r="M422" s="5"/>
       <c r="N422" s="5"/>
@@ -15042,7 +15049,7 @@
       <c r="Y422" s="5"/>
     </row>
     <row r="423" spans="1:25">
-      <c r="A423" s="52"/>
+      <c r="A423" s="53"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
@@ -15051,7 +15058,7 @@
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
       <c r="J423" s="5"/>
-      <c r="K423" s="53"/>
+      <c r="K423" s="54"/>
       <c r="L423" s="5"/>
       <c r="M423" s="5"/>
       <c r="N423" s="5"/>
@@ -15064,7 +15071,7 @@
       <c r="Y423" s="5"/>
     </row>
     <row r="424" spans="1:25">
-      <c r="A424" s="52"/>
+      <c r="A424" s="53"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
@@ -15073,7 +15080,7 @@
       <c r="G424" s="3"/>
       <c r="H424" s="3"/>
       <c r="J424" s="5"/>
-      <c r="K424" s="53"/>
+      <c r="K424" s="54"/>
       <c r="L424" s="5"/>
       <c r="M424" s="5"/>
       <c r="N424" s="5"/>
@@ -15086,7 +15093,7 @@
       <c r="Y424" s="5"/>
     </row>
     <row r="425" spans="1:25">
-      <c r="A425" s="52"/>
+      <c r="A425" s="53"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
@@ -15095,7 +15102,7 @@
       <c r="G425" s="3"/>
       <c r="H425" s="3"/>
       <c r="J425" s="5"/>
-      <c r="K425" s="53"/>
+      <c r="K425" s="54"/>
       <c r="L425" s="5"/>
       <c r="M425" s="5"/>
       <c r="N425" s="5"/>
@@ -15108,7 +15115,7 @@
       <c r="Y425" s="5"/>
     </row>
     <row r="426" spans="1:25">
-      <c r="A426" s="52"/>
+      <c r="A426" s="53"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
@@ -15117,7 +15124,7 @@
       <c r="G426" s="3"/>
       <c r="H426" s="3"/>
       <c r="J426" s="5"/>
-      <c r="K426" s="53"/>
+      <c r="K426" s="54"/>
       <c r="L426" s="5"/>
       <c r="M426" s="5"/>
       <c r="N426" s="5"/>
@@ -15130,7 +15137,7 @@
       <c r="Y426" s="5"/>
     </row>
     <row r="427" spans="1:25">
-      <c r="A427" s="52"/>
+      <c r="A427" s="53"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
@@ -15139,7 +15146,7 @@
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
       <c r="J427" s="5"/>
-      <c r="K427" s="53"/>
+      <c r="K427" s="54"/>
       <c r="L427" s="5"/>
       <c r="M427" s="5"/>
       <c r="N427" s="5"/>
@@ -15152,7 +15159,7 @@
       <c r="Y427" s="5"/>
     </row>
     <row r="428" spans="1:25">
-      <c r="A428" s="52"/>
+      <c r="A428" s="53"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
@@ -15161,7 +15168,7 @@
       <c r="G428" s="3"/>
       <c r="H428" s="3"/>
       <c r="J428" s="5"/>
-      <c r="K428" s="53"/>
+      <c r="K428" s="54"/>
       <c r="L428" s="5"/>
       <c r="M428" s="5"/>
       <c r="N428" s="5"/>
@@ -15174,7 +15181,7 @@
       <c r="Y428" s="5"/>
     </row>
     <row r="429" spans="1:25">
-      <c r="A429" s="52"/>
+      <c r="A429" s="53"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
@@ -15183,7 +15190,7 @@
       <c r="G429" s="3"/>
       <c r="H429" s="3"/>
       <c r="J429" s="5"/>
-      <c r="K429" s="53"/>
+      <c r="K429" s="54"/>
       <c r="L429" s="5"/>
       <c r="M429" s="5"/>
       <c r="N429" s="5"/>
@@ -15196,7 +15203,7 @@
       <c r="Y429" s="5"/>
     </row>
     <row r="430" spans="1:25">
-      <c r="A430" s="52"/>
+      <c r="A430" s="53"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
@@ -15205,7 +15212,7 @@
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
       <c r="J430" s="5"/>
-      <c r="K430" s="53"/>
+      <c r="K430" s="54"/>
       <c r="L430" s="5"/>
       <c r="M430" s="5"/>
       <c r="N430" s="5"/>
@@ -15218,7 +15225,7 @@
       <c r="Y430" s="5"/>
     </row>
     <row r="431" spans="1:25">
-      <c r="A431" s="52"/>
+      <c r="A431" s="53"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
@@ -15227,7 +15234,7 @@
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
       <c r="J431" s="5"/>
-      <c r="K431" s="53"/>
+      <c r="K431" s="54"/>
       <c r="L431" s="5"/>
       <c r="M431" s="5"/>
       <c r="N431" s="5"/>
@@ -15240,7 +15247,7 @@
       <c r="Y431" s="5"/>
     </row>
     <row r="432" spans="1:25">
-      <c r="A432" s="52"/>
+      <c r="A432" s="53"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
@@ -15249,7 +15256,7 @@
       <c r="G432" s="3"/>
       <c r="H432" s="3"/>
       <c r="J432" s="5"/>
-      <c r="K432" s="53"/>
+      <c r="K432" s="54"/>
       <c r="L432" s="5"/>
       <c r="M432" s="5"/>
       <c r="N432" s="5"/>
@@ -15262,7 +15269,7 @@
       <c r="Y432" s="5"/>
     </row>
     <row r="433" spans="1:25">
-      <c r="A433" s="52"/>
+      <c r="A433" s="53"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
@@ -15271,7 +15278,7 @@
       <c r="G433" s="3"/>
       <c r="H433" s="3"/>
       <c r="J433" s="5"/>
-      <c r="K433" s="53"/>
+      <c r="K433" s="54"/>
       <c r="L433" s="5"/>
       <c r="M433" s="5"/>
       <c r="N433" s="5"/>
@@ -15284,7 +15291,7 @@
       <c r="Y433" s="5"/>
     </row>
     <row r="434" spans="1:25">
-      <c r="A434" s="52"/>
+      <c r="A434" s="53"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
@@ -15293,7 +15300,7 @@
       <c r="G434" s="3"/>
       <c r="H434" s="3"/>
       <c r="J434" s="5"/>
-      <c r="K434" s="53"/>
+      <c r="K434" s="54"/>
       <c r="L434" s="5"/>
       <c r="M434" s="5"/>
       <c r="N434" s="5"/>
@@ -15306,7 +15313,7 @@
       <c r="Y434" s="5"/>
     </row>
     <row r="435" spans="1:25">
-      <c r="A435" s="52"/>
+      <c r="A435" s="53"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
@@ -15315,7 +15322,7 @@
       <c r="G435" s="3"/>
       <c r="H435" s="3"/>
       <c r="J435" s="5"/>
-      <c r="K435" s="53"/>
+      <c r="K435" s="54"/>
       <c r="L435" s="5"/>
       <c r="M435" s="5"/>
       <c r="N435" s="5"/>
@@ -15328,7 +15335,7 @@
       <c r="Y435" s="5"/>
     </row>
     <row r="436" spans="1:25">
-      <c r="A436" s="52"/>
+      <c r="A436" s="53"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
@@ -15337,7 +15344,7 @@
       <c r="G436" s="3"/>
       <c r="H436" s="3"/>
       <c r="J436" s="5"/>
-      <c r="K436" s="53"/>
+      <c r="K436" s="54"/>
       <c r="L436" s="5"/>
       <c r="M436" s="5"/>
       <c r="N436" s="5"/>
@@ -15350,7 +15357,7 @@
       <c r="Y436" s="5"/>
     </row>
     <row r="437" spans="1:25">
-      <c r="A437" s="52"/>
+      <c r="A437" s="53"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
@@ -15359,7 +15366,7 @@
       <c r="G437" s="3"/>
       <c r="H437" s="3"/>
       <c r="J437" s="5"/>
-      <c r="K437" s="53"/>
+      <c r="K437" s="54"/>
       <c r="L437" s="5"/>
       <c r="M437" s="5"/>
       <c r="N437" s="5"/>
@@ -15372,7 +15379,7 @@
       <c r="Y437" s="5"/>
     </row>
     <row r="438" spans="1:25">
-      <c r="A438" s="52"/>
+      <c r="A438" s="53"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
@@ -15381,7 +15388,7 @@
       <c r="G438" s="3"/>
       <c r="H438" s="3"/>
       <c r="J438" s="5"/>
-      <c r="K438" s="53"/>
+      <c r="K438" s="54"/>
       <c r="L438" s="5"/>
       <c r="M438" s="5"/>
       <c r="N438" s="5"/>
@@ -15394,7 +15401,7 @@
       <c r="Y438" s="5"/>
     </row>
     <row r="439" spans="1:25">
-      <c r="A439" s="52"/>
+      <c r="A439" s="53"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
@@ -15403,7 +15410,7 @@
       <c r="G439" s="3"/>
       <c r="H439" s="3"/>
       <c r="J439" s="5"/>
-      <c r="K439" s="53"/>
+      <c r="K439" s="54"/>
       <c r="L439" s="5"/>
       <c r="M439" s="5"/>
       <c r="N439" s="5"/>
@@ -15416,7 +15423,7 @@
       <c r="Y439" s="5"/>
     </row>
     <row r="440" spans="1:25">
-      <c r="A440" s="52"/>
+      <c r="A440" s="53"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
@@ -15425,7 +15432,7 @@
       <c r="G440" s="3"/>
       <c r="H440" s="3"/>
       <c r="J440" s="5"/>
-      <c r="K440" s="53"/>
+      <c r="K440" s="54"/>
       <c r="L440" s="5"/>
       <c r="M440" s="5"/>
       <c r="N440" s="5"/>
@@ -15438,7 +15445,7 @@
       <c r="Y440" s="5"/>
     </row>
     <row r="441" spans="1:25">
-      <c r="A441" s="52"/>
+      <c r="A441" s="53"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
@@ -15447,7 +15454,7 @@
       <c r="G441" s="3"/>
       <c r="H441" s="3"/>
       <c r="J441" s="5"/>
-      <c r="K441" s="53"/>
+      <c r="K441" s="54"/>
       <c r="L441" s="5"/>
       <c r="M441" s="5"/>
       <c r="N441" s="5"/>
@@ -15460,7 +15467,7 @@
       <c r="Y441" s="5"/>
     </row>
     <row r="442" spans="1:25">
-      <c r="A442" s="52"/>
+      <c r="A442" s="53"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
@@ -15469,7 +15476,7 @@
       <c r="G442" s="3"/>
       <c r="H442" s="3"/>
       <c r="J442" s="5"/>
-      <c r="K442" s="53"/>
+      <c r="K442" s="54"/>
       <c r="L442" s="5"/>
       <c r="M442" s="5"/>
       <c r="N442" s="5"/>
@@ -15482,7 +15489,7 @@
       <c r="Y442" s="5"/>
     </row>
     <row r="443" spans="1:25">
-      <c r="A443" s="52"/>
+      <c r="A443" s="53"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
@@ -15491,7 +15498,7 @@
       <c r="G443" s="3"/>
       <c r="H443" s="3"/>
       <c r="J443" s="5"/>
-      <c r="K443" s="53"/>
+      <c r="K443" s="54"/>
       <c r="L443" s="5"/>
       <c r="M443" s="5"/>
       <c r="N443" s="5"/>
@@ -15504,7 +15511,7 @@
       <c r="Y443" s="5"/>
     </row>
     <row r="444" spans="1:25">
-      <c r="A444" s="52"/>
+      <c r="A444" s="53"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
@@ -15513,7 +15520,7 @@
       <c r="G444" s="3"/>
       <c r="H444" s="3"/>
       <c r="J444" s="5"/>
-      <c r="K444" s="53"/>
+      <c r="K444" s="54"/>
       <c r="L444" s="5"/>
       <c r="M444" s="5"/>
       <c r="N444" s="5"/>
@@ -15526,7 +15533,7 @@
       <c r="Y444" s="5"/>
     </row>
     <row r="445" spans="1:25">
-      <c r="A445" s="52"/>
+      <c r="A445" s="53"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
@@ -15535,7 +15542,7 @@
       <c r="G445" s="3"/>
       <c r="H445" s="3"/>
       <c r="J445" s="5"/>
-      <c r="K445" s="53"/>
+      <c r="K445" s="54"/>
       <c r="L445" s="5"/>
       <c r="M445" s="5"/>
       <c r="N445" s="5"/>
@@ -15548,7 +15555,7 @@
       <c r="Y445" s="5"/>
     </row>
     <row r="446" spans="1:25">
-      <c r="A446" s="52"/>
+      <c r="A446" s="53"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
@@ -15557,7 +15564,7 @@
       <c r="G446" s="3"/>
       <c r="H446" s="3"/>
       <c r="J446" s="5"/>
-      <c r="K446" s="53"/>
+      <c r="K446" s="54"/>
       <c r="L446" s="5"/>
       <c r="M446" s="5"/>
       <c r="N446" s="5"/>
@@ -15570,7 +15577,7 @@
       <c r="Y446" s="5"/>
     </row>
     <row r="447" spans="1:25">
-      <c r="A447" s="52"/>
+      <c r="A447" s="53"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
@@ -15579,7 +15586,7 @@
       <c r="G447" s="3"/>
       <c r="H447" s="3"/>
       <c r="J447" s="5"/>
-      <c r="K447" s="53"/>
+      <c r="K447" s="54"/>
       <c r="L447" s="5"/>
       <c r="M447" s="5"/>
       <c r="N447" s="5"/>
@@ -15592,7 +15599,7 @@
       <c r="Y447" s="5"/>
     </row>
     <row r="448" spans="1:25">
-      <c r="A448" s="52"/>
+      <c r="A448" s="53"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
@@ -15601,7 +15608,7 @@
       <c r="G448" s="3"/>
       <c r="H448" s="3"/>
       <c r="J448" s="5"/>
-      <c r="K448" s="53"/>
+      <c r="K448" s="54"/>
       <c r="L448" s="5"/>
       <c r="M448" s="5"/>
       <c r="N448" s="5"/>
@@ -15614,7 +15621,7 @@
       <c r="Y448" s="5"/>
     </row>
     <row r="449" spans="1:25">
-      <c r="A449" s="52"/>
+      <c r="A449" s="53"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
@@ -15623,7 +15630,7 @@
       <c r="G449" s="3"/>
       <c r="H449" s="3"/>
       <c r="J449" s="5"/>
-      <c r="K449" s="53"/>
+      <c r="K449" s="54"/>
       <c r="L449" s="5"/>
       <c r="M449" s="5"/>
       <c r="N449" s="5"/>
@@ -15636,7 +15643,7 @@
       <c r="Y449" s="5"/>
     </row>
     <row r="450" spans="1:25">
-      <c r="A450" s="52"/>
+      <c r="A450" s="53"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
@@ -15645,7 +15652,7 @@
       <c r="G450" s="3"/>
       <c r="H450" s="3"/>
       <c r="J450" s="5"/>
-      <c r="K450" s="53"/>
+      <c r="K450" s="54"/>
       <c r="L450" s="5"/>
       <c r="M450" s="5"/>
       <c r="N450" s="5"/>
@@ -15658,7 +15665,7 @@
       <c r="Y450" s="5"/>
     </row>
     <row r="451" spans="1:25">
-      <c r="A451" s="52"/>
+      <c r="A451" s="53"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
@@ -15667,7 +15674,7 @@
       <c r="G451" s="3"/>
       <c r="H451" s="3"/>
       <c r="J451" s="5"/>
-      <c r="K451" s="53"/>
+      <c r="K451" s="54"/>
       <c r="L451" s="5"/>
       <c r="M451" s="5"/>
       <c r="N451" s="5"/>
@@ -15680,7 +15687,7 @@
       <c r="Y451" s="5"/>
     </row>
     <row r="452" spans="1:25">
-      <c r="A452" s="52"/>
+      <c r="A452" s="53"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
@@ -15689,7 +15696,7 @@
       <c r="G452" s="3"/>
       <c r="H452" s="3"/>
       <c r="J452" s="5"/>
-      <c r="K452" s="53"/>
+      <c r="K452" s="54"/>
       <c r="L452" s="5"/>
       <c r="M452" s="5"/>
       <c r="N452" s="5"/>
@@ -15702,7 +15709,7 @@
       <c r="Y452" s="5"/>
     </row>
     <row r="453" spans="1:25">
-      <c r="A453" s="52"/>
+      <c r="A453" s="53"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
@@ -15711,7 +15718,7 @@
       <c r="G453" s="3"/>
       <c r="H453" s="3"/>
       <c r="J453" s="5"/>
-      <c r="K453" s="53"/>
+      <c r="K453" s="54"/>
       <c r="L453" s="5"/>
       <c r="M453" s="5"/>
       <c r="N453" s="5"/>
@@ -15724,7 +15731,7 @@
       <c r="Y453" s="5"/>
     </row>
     <row r="454" spans="1:25">
-      <c r="A454" s="52"/>
+      <c r="A454" s="53"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
@@ -15733,7 +15740,7 @@
       <c r="G454" s="3"/>
       <c r="H454" s="3"/>
       <c r="J454" s="5"/>
-      <c r="K454" s="53"/>
+      <c r="K454" s="54"/>
       <c r="L454" s="5"/>
       <c r="M454" s="5"/>
       <c r="N454" s="5"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
@@ -3434,11 +3434,11 @@
   <dimension ref="A1:AN454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL13" sqref="AL13"/>
+      <selection pane="bottomRight" activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
@@ -3434,11 +3434,11 @@
   <dimension ref="A1:AN454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH12" sqref="AH12"/>
+      <selection pane="bottomRight" activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>日期</t>
   </si>
@@ -239,7 +239,11 @@
   </si>
   <si>
     <t>买入点1
-(超出买入点的2倍移动到盈亏平衡点；超出买入点的3倍移动到)</t>
+(超出买入点的2倍移动到盈亏平衡点；超出买入点的3倍保住利润的一半)</t>
+  </si>
+  <si>
+    <t>买入点2
+(超出买入点的2倍移动到盈亏平衡点；超出买入点的3倍保住利润的一半)</t>
   </si>
   <si>
     <t>是</t>
@@ -3434,11 +3438,11 @@
   <dimension ref="A1:AN454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH13" sqref="AH13"/>
+      <selection pane="bottomRight" activeCell="AK13" sqref="AK13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3475,7 +3479,7 @@
     <col min="34" max="34" width="15.1785714285714" style="6" customWidth="1"/>
     <col min="35" max="35" width="15.1785714285714" customWidth="1"/>
     <col min="36" max="36" width="21.875" style="7" customWidth="1"/>
-    <col min="37" max="37" width="11" style="8" customWidth="1"/>
+    <col min="37" max="37" width="16.8125" style="8" customWidth="1"/>
     <col min="38" max="38" width="11" style="9" customWidth="1"/>
     <col min="39" max="39" width="10.4196428571429" style="8" customWidth="1"/>
     <col min="40" max="40" width="15.4732142857143" customWidth="1"/>
@@ -3727,7 +3731,7 @@
       <c r="AM4" s="50"/>
       <c r="AN4" s="22"/>
     </row>
-    <row r="5" ht="71" spans="1:40">
+    <row r="5" ht="159" spans="1:40">
       <c r="A5" s="10"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -3788,8 +3792,8 @@
       <c r="AJ5" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="AK5" s="44" t="s">
-        <v>47</v>
+      <c r="AK5" s="45" t="s">
+        <v>49</v>
       </c>
       <c r="AL5" s="50" t="s">
         <v>46</v>
@@ -3835,10 +3839,10 @@
         <v>0.1</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N6" s="24"/>
       <c r="O6" s="24"/>
@@ -3852,10 +3856,10 @@
         <v>否</v>
       </c>
       <c r="V6" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W6" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X6" s="24"/>
       <c r="Y6" s="38">
@@ -3888,7 +3892,7 @@
       </c>
       <c r="AM6" s="9"/>
       <c r="AN6" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -3941,10 +3945,10 @@
         <v>否</v>
       </c>
       <c r="V7" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W7" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X7" s="24"/>
       <c r="Y7" s="38">
@@ -3977,7 +3981,7 @@
       </c>
       <c r="AM7" s="9"/>
       <c r="AN7" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -4030,10 +4034,10 @@
         <v>否</v>
       </c>
       <c r="V8" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W8" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X8" s="24"/>
       <c r="Y8" s="38">
@@ -4075,7 +4079,7 @@
         <v>-1792</v>
       </c>
       <c r="AN8" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -4128,10 +4132,10 @@
         <v>否</v>
       </c>
       <c r="V9" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W9" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X9" s="24"/>
       <c r="Y9" s="38">
@@ -4174,7 +4178,7 @@
         <v>-1792</v>
       </c>
       <c r="AN9" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -4233,10 +4237,10 @@
         <v>否</v>
       </c>
       <c r="V10" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W10" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X10" s="24"/>
       <c r="Y10" s="38">
@@ -4279,7 +4283,7 @@
         <v>-1792</v>
       </c>
       <c r="AN10" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -4332,10 +4336,10 @@
         <v>否</v>
       </c>
       <c r="V11" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W11" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X11" s="24"/>
       <c r="Y11" s="38">
@@ -4378,7 +4382,7 @@
         <v>-1792</v>
       </c>
       <c r="AN11" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -4431,10 +4435,10 @@
         <v>否</v>
       </c>
       <c r="V12" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W12" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X12" s="24"/>
       <c r="Y12" s="38">
@@ -4477,7 +4481,7 @@
         <v>-1792</v>
       </c>
       <c r="AN12" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -4530,10 +4534,10 @@
         <v>否</v>
       </c>
       <c r="V13" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W13" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X13" s="24"/>
       <c r="Y13" s="38">
@@ -4576,7 +4580,7 @@
         <v>-1792</v>
       </c>
       <c r="AN13" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:40">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
@@ -239,11 +239,11 @@
   </si>
   <si>
     <t>买入点1
-(超出买入点的2倍移动到盈亏平衡点；超出买入点的3倍保住利润的一半)</t>
+(超出买入点的2倍移动到盈亏平衡点；超出买入点的3倍保住利润的一半并且卖出一半留一半)</t>
   </si>
   <si>
     <t>买入点2
-(超出买入点的2倍移动到盈亏平衡点；超出买入点的3倍保住利润的一半)</t>
+(超出买入点的2倍移动到盈亏平衡点并且卖出一半留一半；超出买入点的3倍保住利润的一半)</t>
   </si>
   <si>
     <t>是</t>
@@ -3442,7 +3442,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK13" sqref="AK13"/>
+      <selection pane="bottomRight" activeCell="AK5" sqref="AK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3731,7 +3731,7 @@
       <c r="AM4" s="50"/>
       <c r="AN4" s="22"/>
     </row>
-    <row r="5" ht="159" spans="1:40">
+    <row r="5" ht="124" spans="1:40">
       <c r="A5" s="10"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明德生物-JH_00045.xlsx
@@ -3468,11 +3468,11 @@
   <dimension ref="A1:AN454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="AN13" sqref="AN13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
